--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,11 @@
           <t>2026-02-15 21:14:33</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2026-02-15 21:21:30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +509,9 @@
       <c r="I2" t="n">
         <v>169.95</v>
       </c>
+      <c r="J2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +549,9 @@
       <c r="I3" t="n">
         <v>169.95</v>
       </c>
+      <c r="J3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -578,6 +589,9 @@
       <c r="I4" t="n">
         <v>169.95</v>
       </c>
+      <c r="J4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -619,6 +633,9 @@
       <c r="I5" t="n">
         <v>199.95</v>
       </c>
+      <c r="J5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -660,6 +677,9 @@
       <c r="I6" t="n">
         <v>199.95</v>
       </c>
+      <c r="J6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -701,6 +721,9 @@
       <c r="I7" t="n">
         <v>199.95</v>
       </c>
+      <c r="J7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -742,6 +765,9 @@
       <c r="I8" t="n">
         <v>229.95</v>
       </c>
+      <c r="J8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -783,6 +809,9 @@
       <c r="I9" t="n">
         <v>229.95</v>
       </c>
+      <c r="J9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -822,6 +851,9 @@
         </is>
       </c>
       <c r="I10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="J10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -861,6 +893,9 @@
       <c r="I11" t="n">
         <v>294.95</v>
       </c>
+      <c r="J11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -898,6 +933,9 @@
       <c r="I12" t="n">
         <v>318.95</v>
       </c>
+      <c r="J12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -935,6 +973,9 @@
       <c r="I13" t="n">
         <v>318.95</v>
       </c>
+      <c r="J13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -974,6 +1015,9 @@
         </is>
       </c>
       <c r="I14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="J14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1013,6 +1057,9 @@
       <c r="I15" t="n">
         <v>399.95</v>
       </c>
+      <c r="J15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1050,6 +1097,9 @@
       <c r="I16" t="n">
         <v>399.95</v>
       </c>
+      <c r="J16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1087,6 +1137,9 @@
       <c r="I17" t="n">
         <v>429.95</v>
       </c>
+      <c r="J17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1124,6 +1177,9 @@
       <c r="I18" t="n">
         <v>499.95</v>
       </c>
+      <c r="J18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1161,6 +1217,9 @@
       <c r="I19" t="n">
         <v>499.95</v>
       </c>
+      <c r="J19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1198,6 +1257,9 @@
       <c r="I20" t="n">
         <v>499.95</v>
       </c>
+      <c r="J20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1235,6 +1297,9 @@
       <c r="I21" t="n">
         <v>499.95</v>
       </c>
+      <c r="J21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1272,6 +1337,9 @@
       <c r="I22" t="n">
         <v>519.95</v>
       </c>
+      <c r="J22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1311,6 +1379,9 @@
         </is>
       </c>
       <c r="I23" t="n">
+        <v>686</v>
+      </c>
+      <c r="J23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1350,6 +1421,9 @@
       <c r="I24" t="n">
         <v>749.95</v>
       </c>
+      <c r="J24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1387,6 +1461,9 @@
       <c r="I25" t="n">
         <v>749.95</v>
       </c>
+      <c r="J25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1424,6 +1501,9 @@
       <c r="I26" t="n">
         <v>749.95</v>
       </c>
+      <c r="J26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1461,6 +1541,9 @@
       <c r="I27" t="n">
         <v>749.95</v>
       </c>
+      <c r="J27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1498,6 +1581,9 @@
       <c r="I28" t="n">
         <v>809.95</v>
       </c>
+      <c r="J28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1535,6 +1621,9 @@
       <c r="I29" t="n">
         <v>809.95</v>
       </c>
+      <c r="J29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1572,6 +1661,9 @@
       <c r="I30" t="n">
         <v>809.95</v>
       </c>
+      <c r="J30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1613,6 +1705,9 @@
       <c r="I31" t="n">
         <v>899.95</v>
       </c>
+      <c r="J31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1654,6 +1749,9 @@
       <c r="I32" t="n">
         <v>899.95</v>
       </c>
+      <c r="J32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1695,6 +1793,9 @@
       <c r="I33" t="n">
         <v>899.95</v>
       </c>
+      <c r="J33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1734,6 +1835,9 @@
         </is>
       </c>
       <c r="I34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="J34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -1773,6 +1877,9 @@
       <c r="I35" t="n">
         <v>929.95</v>
       </c>
+      <c r="J35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1810,6 +1917,9 @@
       <c r="I36" t="n">
         <v>929.95</v>
       </c>
+      <c r="J36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1847,6 +1957,9 @@
       <c r="I37" t="n">
         <v>929.95</v>
       </c>
+      <c r="J37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1884,6 +1997,9 @@
       <c r="I38" t="n">
         <v>929.95</v>
       </c>
+      <c r="J38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1923,6 +2039,9 @@
         </is>
       </c>
       <c r="I39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="J39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -1962,6 +2081,9 @@
       <c r="I40" t="n">
         <v>999.95</v>
       </c>
+      <c r="J40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1999,6 +2121,9 @@
       <c r="I41" t="n">
         <v>999.95</v>
       </c>
+      <c r="J41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2036,6 +2161,9 @@
       <c r="I42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="J42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2073,6 +2201,9 @@
       <c r="I43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="J43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2114,6 +2245,9 @@
       <c r="I44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="J44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2153,6 +2287,9 @@
         </is>
       </c>
       <c r="I45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="J45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -2192,6 +2329,9 @@
       <c r="I46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="J46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2233,6 +2373,9 @@
       <c r="I47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="J47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2274,6 +2417,9 @@
       <c r="I48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="J48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2315,6 +2461,9 @@
       <c r="I49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="J49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2356,6 +2505,9 @@
       <c r="I50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="J50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2397,6 +2549,9 @@
       <c r="I51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="J51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2438,6 +2593,9 @@
       <c r="I52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="J52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2479,6 +2637,9 @@
       <c r="I53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="J53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2520,6 +2681,9 @@
       <c r="I54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="J54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2561,6 +2725,9 @@
       <c r="I55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="J55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2602,6 +2769,9 @@
       <c r="I56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="J56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2643,6 +2813,9 @@
       <c r="I57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="J57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2684,6 +2857,9 @@
       <c r="I58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="J58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2725,6 +2901,9 @@
       <c r="I59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="J59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2766,6 +2945,9 @@
       <c r="I60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="J60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2805,6 +2987,9 @@
         </is>
       </c>
       <c r="I61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="J61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -2844,6 +3029,9 @@
       <c r="I62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="J62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2881,6 +3069,9 @@
       <c r="I63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="J63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2918,6 +3109,9 @@
       <c r="I64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="J64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2955,6 +3149,9 @@
       <c r="I65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="J65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2992,6 +3189,9 @@
       <c r="I66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="J66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3029,6 +3229,9 @@
       <c r="I67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="J67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3066,6 +3269,9 @@
       <c r="I68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="J68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3103,6 +3309,9 @@
       <c r="I69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="J69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3140,6 +3349,9 @@
       <c r="I70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="J70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3177,6 +3389,9 @@
       <c r="I71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="J71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3214,6 +3429,9 @@
       <c r="I72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="J72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3251,6 +3469,9 @@
       <c r="I73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="J73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3288,6 +3509,9 @@
       <c r="I74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="J74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3325,6 +3549,9 @@
       <c r="I75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="J75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3360,6 +3587,9 @@
         </is>
       </c>
       <c r="I76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="J76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>2026-02-15 21:21:30</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2026-02-15 22:19:24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,6 +517,9 @@
       <c r="J2" t="n">
         <v>169.95</v>
       </c>
+      <c r="K2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -552,6 +560,9 @@
       <c r="J3" t="n">
         <v>169.95</v>
       </c>
+      <c r="K3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,6 +603,9 @@
       <c r="J4" t="n">
         <v>169.95</v>
       </c>
+      <c r="K4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +650,9 @@
       <c r="J5" t="n">
         <v>199.95</v>
       </c>
+      <c r="K5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -680,6 +697,9 @@
       <c r="J6" t="n">
         <v>199.95</v>
       </c>
+      <c r="K6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -724,6 +744,9 @@
       <c r="J7" t="n">
         <v>199.95</v>
       </c>
+      <c r="K7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -768,6 +791,9 @@
       <c r="J8" t="n">
         <v>229.95</v>
       </c>
+      <c r="K8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -812,6 +838,9 @@
       <c r="J9" t="n">
         <v>229.95</v>
       </c>
+      <c r="K9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -854,6 +883,9 @@
         <v>229.95</v>
       </c>
       <c r="J10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="K10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -896,6 +928,9 @@
       <c r="J11" t="n">
         <v>294.95</v>
       </c>
+      <c r="K11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -936,6 +971,9 @@
       <c r="J12" t="n">
         <v>318.95</v>
       </c>
+      <c r="K12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -976,6 +1014,9 @@
       <c r="J13" t="n">
         <v>318.95</v>
       </c>
+      <c r="K13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1018,6 +1059,9 @@
         <v>339.95</v>
       </c>
       <c r="J14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="K14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1060,6 +1104,9 @@
       <c r="J15" t="n">
         <v>399.95</v>
       </c>
+      <c r="K15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1100,6 +1147,9 @@
       <c r="J16" t="n">
         <v>399.95</v>
       </c>
+      <c r="K16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1140,6 +1190,9 @@
       <c r="J17" t="n">
         <v>429.95</v>
       </c>
+      <c r="K17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1180,6 +1233,9 @@
       <c r="J18" t="n">
         <v>499.95</v>
       </c>
+      <c r="K18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1220,6 +1276,9 @@
       <c r="J19" t="n">
         <v>499.95</v>
       </c>
+      <c r="K19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1260,6 +1319,9 @@
       <c r="J20" t="n">
         <v>499.95</v>
       </c>
+      <c r="K20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1300,6 +1362,9 @@
       <c r="J21" t="n">
         <v>499.95</v>
       </c>
+      <c r="K21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1340,6 +1405,9 @@
       <c r="J22" t="n">
         <v>519.95</v>
       </c>
+      <c r="K22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1382,6 +1450,9 @@
         <v>686</v>
       </c>
       <c r="J23" t="n">
+        <v>686</v>
+      </c>
+      <c r="K23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1424,6 +1495,9 @@
       <c r="J24" t="n">
         <v>749.95</v>
       </c>
+      <c r="K24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1464,6 +1538,9 @@
       <c r="J25" t="n">
         <v>749.95</v>
       </c>
+      <c r="K25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1504,6 +1581,9 @@
       <c r="J26" t="n">
         <v>749.95</v>
       </c>
+      <c r="K26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1544,6 +1624,9 @@
       <c r="J27" t="n">
         <v>749.95</v>
       </c>
+      <c r="K27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1584,6 +1667,9 @@
       <c r="J28" t="n">
         <v>809.95</v>
       </c>
+      <c r="K28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1624,6 +1710,9 @@
       <c r="J29" t="n">
         <v>809.95</v>
       </c>
+      <c r="K29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1664,6 +1753,9 @@
       <c r="J30" t="n">
         <v>809.95</v>
       </c>
+      <c r="K30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1708,6 +1800,9 @@
       <c r="J31" t="n">
         <v>899.95</v>
       </c>
+      <c r="K31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1752,6 +1847,9 @@
       <c r="J32" t="n">
         <v>899.95</v>
       </c>
+      <c r="K32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1796,6 +1894,9 @@
       <c r="J33" t="n">
         <v>899.95</v>
       </c>
+      <c r="K33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1838,6 +1939,9 @@
         <v>899.95</v>
       </c>
       <c r="J34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="K34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -1880,6 +1984,9 @@
       <c r="J35" t="n">
         <v>929.95</v>
       </c>
+      <c r="K35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1920,6 +2027,9 @@
       <c r="J36" t="n">
         <v>929.95</v>
       </c>
+      <c r="K36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1960,6 +2070,9 @@
       <c r="J37" t="n">
         <v>929.95</v>
       </c>
+      <c r="K37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2000,6 +2113,9 @@
       <c r="J38" t="n">
         <v>929.95</v>
       </c>
+      <c r="K38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2042,6 +2158,9 @@
         <v>959.95</v>
       </c>
       <c r="J39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="K39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2084,6 +2203,9 @@
       <c r="J40" t="n">
         <v>999.95</v>
       </c>
+      <c r="K40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2124,6 +2246,9 @@
       <c r="J41" t="n">
         <v>999.95</v>
       </c>
+      <c r="K41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2164,6 +2289,9 @@
       <c r="J42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="K42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2204,6 +2332,9 @@
       <c r="J43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="K43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2248,6 +2379,9 @@
       <c r="J44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="K44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2290,6 +2424,9 @@
         <v>1199.95</v>
       </c>
       <c r="J45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="K45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -2332,6 +2469,9 @@
       <c r="J46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="K46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2376,6 +2516,9 @@
       <c r="J47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="K47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2420,6 +2563,9 @@
       <c r="J48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="K48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2464,6 +2610,9 @@
       <c r="J49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="K49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2508,6 +2657,9 @@
       <c r="J50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="K50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2552,6 +2704,9 @@
       <c r="J51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="K51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2596,6 +2751,9 @@
       <c r="J52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="K52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2640,6 +2798,9 @@
       <c r="J53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="K53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2684,6 +2845,9 @@
       <c r="J54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="K54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2728,6 +2892,9 @@
       <c r="J55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="K55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2772,6 +2939,9 @@
       <c r="J56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="K56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2816,6 +2986,9 @@
       <c r="J57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="K57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2860,6 +3033,9 @@
       <c r="J58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="K58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2904,6 +3080,9 @@
       <c r="J59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="K59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2948,6 +3127,9 @@
       <c r="J60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="K60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2990,6 +3172,9 @@
         <v>1829.95</v>
       </c>
       <c r="J61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="K61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -3032,6 +3217,9 @@
       <c r="J62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="K62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3072,6 +3260,9 @@
       <c r="J63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="K63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3112,6 +3303,9 @@
       <c r="J64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="K64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3152,6 +3346,9 @@
       <c r="J65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="K65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3192,6 +3389,9 @@
       <c r="J66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="K66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3232,6 +3432,9 @@
       <c r="J67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="K67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3272,6 +3475,9 @@
       <c r="J68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="K68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3312,6 +3518,9 @@
       <c r="J69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="K69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3352,6 +3561,9 @@
       <c r="J70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="K70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3392,6 +3604,9 @@
       <c r="J71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="K71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3432,6 +3647,9 @@
       <c r="J72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="K72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3472,6 +3690,9 @@
       <c r="J73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="K73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3512,6 +3733,9 @@
       <c r="J74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="K74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3552,6 +3776,9 @@
       <c r="J75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="K75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3590,6 +3817,9 @@
         <v>2519.95</v>
       </c>
       <c r="J76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="K76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,11 @@
           <t>2026-02-15 22:19:24</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2026-02-15 23:21:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +525,9 @@
       <c r="K2" t="n">
         <v>169.95</v>
       </c>
+      <c r="L2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -563,6 +571,9 @@
       <c r="K3" t="n">
         <v>169.95</v>
       </c>
+      <c r="L3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -606,6 +617,9 @@
       <c r="K4" t="n">
         <v>169.95</v>
       </c>
+      <c r="L4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -653,6 +667,9 @@
       <c r="K5" t="n">
         <v>199.95</v>
       </c>
+      <c r="L5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -700,6 +717,9 @@
       <c r="K6" t="n">
         <v>199.95</v>
       </c>
+      <c r="L6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -747,6 +767,9 @@
       <c r="K7" t="n">
         <v>199.95</v>
       </c>
+      <c r="L7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -794,6 +817,9 @@
       <c r="K8" t="n">
         <v>229.95</v>
       </c>
+      <c r="L8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -841,6 +867,9 @@
       <c r="K9" t="n">
         <v>229.95</v>
       </c>
+      <c r="L9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -886,6 +915,9 @@
         <v>229.95</v>
       </c>
       <c r="K10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="L10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -931,6 +963,9 @@
       <c r="K11" t="n">
         <v>294.95</v>
       </c>
+      <c r="L11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -974,6 +1009,9 @@
       <c r="K12" t="n">
         <v>318.95</v>
       </c>
+      <c r="L12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1017,6 +1055,9 @@
       <c r="K13" t="n">
         <v>318.95</v>
       </c>
+      <c r="L13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1062,6 +1103,9 @@
         <v>339.95</v>
       </c>
       <c r="K14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="L14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1107,6 +1151,9 @@
       <c r="K15" t="n">
         <v>399.95</v>
       </c>
+      <c r="L15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1150,6 +1197,9 @@
       <c r="K16" t="n">
         <v>399.95</v>
       </c>
+      <c r="L16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1193,6 +1243,9 @@
       <c r="K17" t="n">
         <v>429.95</v>
       </c>
+      <c r="L17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1236,6 +1289,9 @@
       <c r="K18" t="n">
         <v>499.95</v>
       </c>
+      <c r="L18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1279,6 +1335,9 @@
       <c r="K19" t="n">
         <v>499.95</v>
       </c>
+      <c r="L19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1322,6 +1381,9 @@
       <c r="K20" t="n">
         <v>499.95</v>
       </c>
+      <c r="L20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1365,6 +1427,9 @@
       <c r="K21" t="n">
         <v>499.95</v>
       </c>
+      <c r="L21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1408,6 +1473,9 @@
       <c r="K22" t="n">
         <v>519.95</v>
       </c>
+      <c r="L22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1453,6 +1521,9 @@
         <v>686</v>
       </c>
       <c r="K23" t="n">
+        <v>686</v>
+      </c>
+      <c r="L23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1498,6 +1569,9 @@
       <c r="K24" t="n">
         <v>749.95</v>
       </c>
+      <c r="L24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1541,6 +1615,9 @@
       <c r="K25" t="n">
         <v>749.95</v>
       </c>
+      <c r="L25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1584,6 +1661,9 @@
       <c r="K26" t="n">
         <v>749.95</v>
       </c>
+      <c r="L26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1627,6 +1707,9 @@
       <c r="K27" t="n">
         <v>749.95</v>
       </c>
+      <c r="L27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1670,6 +1753,9 @@
       <c r="K28" t="n">
         <v>809.95</v>
       </c>
+      <c r="L28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1713,6 +1799,9 @@
       <c r="K29" t="n">
         <v>809.95</v>
       </c>
+      <c r="L29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1756,6 +1845,9 @@
       <c r="K30" t="n">
         <v>809.95</v>
       </c>
+      <c r="L30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1803,6 +1895,9 @@
       <c r="K31" t="n">
         <v>899.95</v>
       </c>
+      <c r="L31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1850,6 +1945,9 @@
       <c r="K32" t="n">
         <v>899.95</v>
       </c>
+      <c r="L32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1897,6 +1995,9 @@
       <c r="K33" t="n">
         <v>899.95</v>
       </c>
+      <c r="L33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1942,6 +2043,9 @@
         <v>899.95</v>
       </c>
       <c r="K34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="L34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -1987,6 +2091,9 @@
       <c r="K35" t="n">
         <v>929.95</v>
       </c>
+      <c r="L35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2030,6 +2137,9 @@
       <c r="K36" t="n">
         <v>929.95</v>
       </c>
+      <c r="L36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2073,6 +2183,9 @@
       <c r="K37" t="n">
         <v>929.95</v>
       </c>
+      <c r="L37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2116,6 +2229,9 @@
       <c r="K38" t="n">
         <v>929.95</v>
       </c>
+      <c r="L38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2161,6 +2277,9 @@
         <v>959.95</v>
       </c>
       <c r="K39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="L39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2206,6 +2325,9 @@
       <c r="K40" t="n">
         <v>999.95</v>
       </c>
+      <c r="L40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2249,6 +2371,9 @@
       <c r="K41" t="n">
         <v>999.95</v>
       </c>
+      <c r="L41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2292,6 +2417,9 @@
       <c r="K42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="L42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2335,6 +2463,9 @@
       <c r="K43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="L43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2382,6 +2513,9 @@
       <c r="K44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="L44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2427,6 +2561,9 @@
         <v>1199.95</v>
       </c>
       <c r="K45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="L45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -2472,6 +2609,9 @@
       <c r="K46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="L46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2519,6 +2659,9 @@
       <c r="K47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="L47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2566,6 +2709,9 @@
       <c r="K48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="L48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2613,6 +2759,9 @@
       <c r="K49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="L49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2660,6 +2809,9 @@
       <c r="K50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="L50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2707,6 +2859,9 @@
       <c r="K51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="L51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2754,6 +2909,9 @@
       <c r="K52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="L52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2801,6 +2959,9 @@
       <c r="K53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="L53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2848,6 +3009,9 @@
       <c r="K54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="L54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2895,6 +3059,9 @@
       <c r="K55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="L55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2942,6 +3109,9 @@
       <c r="K56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="L56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2989,6 +3159,9 @@
       <c r="K57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="L57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3036,6 +3209,9 @@
       <c r="K58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="L58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3083,6 +3259,9 @@
       <c r="K59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="L59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3130,6 +3309,9 @@
       <c r="K60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="L60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3175,6 +3357,9 @@
         <v>1829.95</v>
       </c>
       <c r="K61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="L61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -3220,6 +3405,9 @@
       <c r="K62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="L62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3263,6 +3451,9 @@
       <c r="K63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="L63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3306,6 +3497,9 @@
       <c r="K64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="L64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3349,6 +3543,9 @@
       <c r="K65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="L65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3392,6 +3589,9 @@
       <c r="K66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="L66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3435,6 +3635,9 @@
       <c r="K67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="L67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3478,6 +3681,9 @@
       <c r="K68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="L68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3521,6 +3727,9 @@
       <c r="K69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="L69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3564,6 +3773,9 @@
       <c r="K70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="L70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3607,6 +3819,9 @@
       <c r="K71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="L71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3650,6 +3865,9 @@
       <c r="K72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="L72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3693,6 +3911,9 @@
       <c r="K73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="L73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3736,6 +3957,9 @@
       <c r="K74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="L74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3779,6 +4003,9 @@
       <c r="K75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="L75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3820,6 +4047,9 @@
         <v>2519.95</v>
       </c>
       <c r="K76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="L76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>2026-02-15 23:21:17</t>
         </is>
       </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2026-02-16 01:44:57</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -528,6 +533,9 @@
       <c r="L2" t="n">
         <v>169.95</v>
       </c>
+      <c r="M2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -574,6 +582,9 @@
       <c r="L3" t="n">
         <v>169.95</v>
       </c>
+      <c r="M3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -620,6 +631,9 @@
       <c r="L4" t="n">
         <v>169.95</v>
       </c>
+      <c r="M4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -670,6 +684,9 @@
       <c r="L5" t="n">
         <v>199.95</v>
       </c>
+      <c r="M5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -720,6 +737,9 @@
       <c r="L6" t="n">
         <v>199.95</v>
       </c>
+      <c r="M6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -770,6 +790,9 @@
       <c r="L7" t="n">
         <v>199.95</v>
       </c>
+      <c r="M7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,6 +843,9 @@
       <c r="L8" t="n">
         <v>229.95</v>
       </c>
+      <c r="M8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -870,6 +896,9 @@
       <c r="L9" t="n">
         <v>229.95</v>
       </c>
+      <c r="M9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -918,6 +947,9 @@
         <v>229.95</v>
       </c>
       <c r="L10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="M10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -966,6 +998,9 @@
       <c r="L11" t="n">
         <v>294.95</v>
       </c>
+      <c r="M11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1012,6 +1047,9 @@
       <c r="L12" t="n">
         <v>318.95</v>
       </c>
+      <c r="M12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1058,6 +1096,9 @@
       <c r="L13" t="n">
         <v>318.95</v>
       </c>
+      <c r="M13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1106,6 +1147,9 @@
         <v>339.95</v>
       </c>
       <c r="L14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="M14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1154,6 +1198,9 @@
       <c r="L15" t="n">
         <v>399.95</v>
       </c>
+      <c r="M15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1200,6 +1247,9 @@
       <c r="L16" t="n">
         <v>399.95</v>
       </c>
+      <c r="M16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1246,6 +1296,9 @@
       <c r="L17" t="n">
         <v>429.95</v>
       </c>
+      <c r="M17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1292,6 +1345,9 @@
       <c r="L18" t="n">
         <v>499.95</v>
       </c>
+      <c r="M18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1338,6 +1394,9 @@
       <c r="L19" t="n">
         <v>499.95</v>
       </c>
+      <c r="M19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1384,6 +1443,9 @@
       <c r="L20" t="n">
         <v>499.95</v>
       </c>
+      <c r="M20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1430,6 +1492,9 @@
       <c r="L21" t="n">
         <v>499.95</v>
       </c>
+      <c r="M21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1476,6 +1541,9 @@
       <c r="L22" t="n">
         <v>519.95</v>
       </c>
+      <c r="M22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1524,6 +1592,9 @@
         <v>686</v>
       </c>
       <c r="L23" t="n">
+        <v>686</v>
+      </c>
+      <c r="M23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1572,6 +1643,9 @@
       <c r="L24" t="n">
         <v>749.95</v>
       </c>
+      <c r="M24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1618,6 +1692,9 @@
       <c r="L25" t="n">
         <v>749.95</v>
       </c>
+      <c r="M25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1664,6 +1741,9 @@
       <c r="L26" t="n">
         <v>749.95</v>
       </c>
+      <c r="M26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1710,6 +1790,9 @@
       <c r="L27" t="n">
         <v>749.95</v>
       </c>
+      <c r="M27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1756,6 +1839,9 @@
       <c r="L28" t="n">
         <v>809.95</v>
       </c>
+      <c r="M28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1802,6 +1888,9 @@
       <c r="L29" t="n">
         <v>809.95</v>
       </c>
+      <c r="M29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1848,6 +1937,9 @@
       <c r="L30" t="n">
         <v>809.95</v>
       </c>
+      <c r="M30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1898,6 +1990,9 @@
       <c r="L31" t="n">
         <v>899.95</v>
       </c>
+      <c r="M31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1948,6 +2043,9 @@
       <c r="L32" t="n">
         <v>899.95</v>
       </c>
+      <c r="M32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1998,6 +2096,9 @@
       <c r="L33" t="n">
         <v>899.95</v>
       </c>
+      <c r="M33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2046,6 +2147,9 @@
         <v>899.95</v>
       </c>
       <c r="L34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="M34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2094,6 +2198,9 @@
       <c r="L35" t="n">
         <v>929.95</v>
       </c>
+      <c r="M35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2140,6 +2247,9 @@
       <c r="L36" t="n">
         <v>929.95</v>
       </c>
+      <c r="M36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2186,6 +2296,9 @@
       <c r="L37" t="n">
         <v>929.95</v>
       </c>
+      <c r="M37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2232,6 +2345,9 @@
       <c r="L38" t="n">
         <v>929.95</v>
       </c>
+      <c r="M38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2280,6 +2396,9 @@
         <v>959.95</v>
       </c>
       <c r="L39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="M39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2328,6 +2447,9 @@
       <c r="L40" t="n">
         <v>999.95</v>
       </c>
+      <c r="M40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2374,6 +2496,9 @@
       <c r="L41" t="n">
         <v>999.95</v>
       </c>
+      <c r="M41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2420,6 +2545,9 @@
       <c r="L42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="M42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2466,6 +2594,9 @@
       <c r="L43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="M43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2516,6 +2647,9 @@
       <c r="L44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="M44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2564,6 +2698,9 @@
         <v>1199.95</v>
       </c>
       <c r="L45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="M45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -2612,6 +2749,9 @@
       <c r="L46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="M46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2662,6 +2802,9 @@
       <c r="L47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="M47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2712,6 +2855,9 @@
       <c r="L48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="M48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2762,6 +2908,9 @@
       <c r="L49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="M49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2812,6 +2961,9 @@
       <c r="L50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="M50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2862,6 +3014,9 @@
       <c r="L51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="M51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2912,6 +3067,9 @@
       <c r="L52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="M52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2962,6 +3120,9 @@
       <c r="L53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="M53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3012,6 +3173,9 @@
       <c r="L54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="M54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3062,6 +3226,9 @@
       <c r="L55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="M55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3112,6 +3279,9 @@
       <c r="L56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="M56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3162,6 +3332,9 @@
       <c r="L57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="M57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3212,6 +3385,9 @@
       <c r="L58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="M58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3262,6 +3438,9 @@
       <c r="L59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="M59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3312,6 +3491,9 @@
       <c r="L60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="M60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3360,6 +3542,9 @@
         <v>1829.95</v>
       </c>
       <c r="L61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="M61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -3408,6 +3593,9 @@
       <c r="L62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="M62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3454,6 +3642,9 @@
       <c r="L63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="M63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3500,6 +3691,9 @@
       <c r="L64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="M64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3546,6 +3740,9 @@
       <c r="L65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="M65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3592,6 +3789,9 @@
       <c r="L66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="M66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3638,6 +3838,9 @@
       <c r="L67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="M67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3684,6 +3887,9 @@
       <c r="L68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="M68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3730,6 +3936,9 @@
       <c r="L69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="M69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3776,6 +3985,9 @@
       <c r="L70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="M70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3822,6 +4034,9 @@
       <c r="L71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="M71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3868,6 +4083,9 @@
       <c r="L72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="M72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3914,6 +4132,9 @@
       <c r="L73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="M73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3960,6 +4181,9 @@
       <c r="L74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="M74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4006,6 +4230,9 @@
       <c r="L75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="M75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4050,6 +4277,9 @@
         <v>2519.95</v>
       </c>
       <c r="L76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="M76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,11 @@
           <t>2026-02-16 01:44:57</t>
         </is>
       </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2026-02-16 04:21:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -536,6 +541,9 @@
       <c r="M2" t="n">
         <v>169.95</v>
       </c>
+      <c r="N2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -585,6 +593,9 @@
       <c r="M3" t="n">
         <v>169.95</v>
       </c>
+      <c r="N3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -634,6 +645,9 @@
       <c r="M4" t="n">
         <v>169.95</v>
       </c>
+      <c r="N4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -687,6 +701,9 @@
       <c r="M5" t="n">
         <v>199.95</v>
       </c>
+      <c r="N5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -740,6 +757,9 @@
       <c r="M6" t="n">
         <v>199.95</v>
       </c>
+      <c r="N6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -793,6 +813,9 @@
       <c r="M7" t="n">
         <v>199.95</v>
       </c>
+      <c r="N7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -846,6 +869,9 @@
       <c r="M8" t="n">
         <v>229.95</v>
       </c>
+      <c r="N8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -899,6 +925,9 @@
       <c r="M9" t="n">
         <v>229.95</v>
       </c>
+      <c r="N9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -950,6 +979,9 @@
         <v>229.95</v>
       </c>
       <c r="M10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="N10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1001,6 +1033,9 @@
       <c r="M11" t="n">
         <v>294.95</v>
       </c>
+      <c r="N11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1050,6 +1085,9 @@
       <c r="M12" t="n">
         <v>318.95</v>
       </c>
+      <c r="N12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1099,6 +1137,9 @@
       <c r="M13" t="n">
         <v>318.95</v>
       </c>
+      <c r="N13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1150,6 +1191,9 @@
         <v>339.95</v>
       </c>
       <c r="M14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="N14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1201,6 +1245,9 @@
       <c r="M15" t="n">
         <v>399.95</v>
       </c>
+      <c r="N15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1250,6 +1297,9 @@
       <c r="M16" t="n">
         <v>399.95</v>
       </c>
+      <c r="N16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1299,6 +1349,9 @@
       <c r="M17" t="n">
         <v>429.95</v>
       </c>
+      <c r="N17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1348,6 +1401,9 @@
       <c r="M18" t="n">
         <v>499.95</v>
       </c>
+      <c r="N18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1397,6 +1453,9 @@
       <c r="M19" t="n">
         <v>499.95</v>
       </c>
+      <c r="N19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1446,6 +1505,9 @@
       <c r="M20" t="n">
         <v>499.95</v>
       </c>
+      <c r="N20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1495,6 +1557,9 @@
       <c r="M21" t="n">
         <v>499.95</v>
       </c>
+      <c r="N21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1544,6 +1609,9 @@
       <c r="M22" t="n">
         <v>519.95</v>
       </c>
+      <c r="N22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1595,6 +1663,9 @@
         <v>686</v>
       </c>
       <c r="M23" t="n">
+        <v>686</v>
+      </c>
+      <c r="N23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1646,6 +1717,9 @@
       <c r="M24" t="n">
         <v>749.95</v>
       </c>
+      <c r="N24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1695,6 +1769,9 @@
       <c r="M25" t="n">
         <v>749.95</v>
       </c>
+      <c r="N25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1744,6 +1821,9 @@
       <c r="M26" t="n">
         <v>749.95</v>
       </c>
+      <c r="N26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1793,6 +1873,9 @@
       <c r="M27" t="n">
         <v>749.95</v>
       </c>
+      <c r="N27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1842,6 +1925,9 @@
       <c r="M28" t="n">
         <v>809.95</v>
       </c>
+      <c r="N28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1891,6 +1977,9 @@
       <c r="M29" t="n">
         <v>809.95</v>
       </c>
+      <c r="N29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1940,6 +2029,9 @@
       <c r="M30" t="n">
         <v>809.95</v>
       </c>
+      <c r="N30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1993,6 +2085,9 @@
       <c r="M31" t="n">
         <v>899.95</v>
       </c>
+      <c r="N31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2046,6 +2141,9 @@
       <c r="M32" t="n">
         <v>899.95</v>
       </c>
+      <c r="N32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2099,6 +2197,9 @@
       <c r="M33" t="n">
         <v>899.95</v>
       </c>
+      <c r="N33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2150,6 +2251,9 @@
         <v>899.95</v>
       </c>
       <c r="M34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="N34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2201,6 +2305,9 @@
       <c r="M35" t="n">
         <v>929.95</v>
       </c>
+      <c r="N35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2250,6 +2357,9 @@
       <c r="M36" t="n">
         <v>929.95</v>
       </c>
+      <c r="N36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2299,6 +2409,9 @@
       <c r="M37" t="n">
         <v>929.95</v>
       </c>
+      <c r="N37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2348,6 +2461,9 @@
       <c r="M38" t="n">
         <v>929.95</v>
       </c>
+      <c r="N38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2399,6 +2515,9 @@
         <v>959.95</v>
       </c>
       <c r="M39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="N39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2450,6 +2569,9 @@
       <c r="M40" t="n">
         <v>999.95</v>
       </c>
+      <c r="N40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2499,6 +2621,9 @@
       <c r="M41" t="n">
         <v>999.95</v>
       </c>
+      <c r="N41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2548,6 +2673,9 @@
       <c r="M42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="N42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2597,6 +2725,9 @@
       <c r="M43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="N43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2650,6 +2781,9 @@
       <c r="M44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="N44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2701,6 +2835,9 @@
         <v>1199.95</v>
       </c>
       <c r="M45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="N45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -2752,6 +2889,9 @@
       <c r="M46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="N46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2805,6 +2945,9 @@
       <c r="M47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="N47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2858,6 +3001,9 @@
       <c r="M48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="N48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2911,6 +3057,9 @@
       <c r="M49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="N49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2964,6 +3113,9 @@
       <c r="M50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="N50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3017,6 +3169,9 @@
       <c r="M51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="N51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3070,6 +3225,9 @@
       <c r="M52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="N52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3123,6 +3281,9 @@
       <c r="M53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="N53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3176,6 +3337,9 @@
       <c r="M54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="N54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3229,6 +3393,9 @@
       <c r="M55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="N55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3282,6 +3449,9 @@
       <c r="M56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="N56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3335,6 +3505,9 @@
       <c r="M57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="N57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3388,6 +3561,9 @@
       <c r="M58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="N58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3441,6 +3617,9 @@
       <c r="M59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="N59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3494,6 +3673,9 @@
       <c r="M60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="N60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3545,6 +3727,9 @@
         <v>1829.95</v>
       </c>
       <c r="M61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="N61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -3596,6 +3781,9 @@
       <c r="M62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="N62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3645,6 +3833,9 @@
       <c r="M63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="N63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3694,6 +3885,9 @@
       <c r="M64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="N64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3743,6 +3937,9 @@
       <c r="M65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="N65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3792,6 +3989,9 @@
       <c r="M66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="N66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3841,6 +4041,9 @@
       <c r="M67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="N67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3890,6 +4093,9 @@
       <c r="M68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="N68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3939,6 +4145,9 @@
       <c r="M69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="N69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3988,6 +4197,9 @@
       <c r="M70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="N70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4037,6 +4249,9 @@
       <c r="M71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="N71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4086,6 +4301,9 @@
       <c r="M72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="N72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4135,6 +4353,9 @@
       <c r="M73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="N73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4184,6 +4405,9 @@
       <c r="M74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="N74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4233,6 +4457,9 @@
       <c r="M75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="N75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4280,6 +4507,9 @@
         <v>2519.95</v>
       </c>
       <c r="M76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="N76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
           <t>2026-02-16 04:21:18</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>2026-02-16 06:03:46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -544,6 +549,9 @@
       <c r="N2" t="n">
         <v>169.95</v>
       </c>
+      <c r="O2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +604,9 @@
       <c r="N3" t="n">
         <v>169.95</v>
       </c>
+      <c r="O3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -648,6 +659,9 @@
       <c r="N4" t="n">
         <v>169.95</v>
       </c>
+      <c r="O4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,6 +718,9 @@
       <c r="N5" t="n">
         <v>199.95</v>
       </c>
+      <c r="O5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -760,6 +777,9 @@
       <c r="N6" t="n">
         <v>199.95</v>
       </c>
+      <c r="O6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -816,6 +836,9 @@
       <c r="N7" t="n">
         <v>199.95</v>
       </c>
+      <c r="O7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
       <c r="N8" t="n">
         <v>229.95</v>
       </c>
+      <c r="O8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -928,6 +954,9 @@
       <c r="N9" t="n">
         <v>229.95</v>
       </c>
+      <c r="O9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -982,6 +1011,9 @@
         <v>229.95</v>
       </c>
       <c r="N10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="O10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1036,6 +1068,9 @@
       <c r="N11" t="n">
         <v>294.95</v>
       </c>
+      <c r="O11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
       <c r="N12" t="n">
         <v>318.95</v>
       </c>
+      <c r="O12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1140,6 +1178,9 @@
       <c r="N13" t="n">
         <v>318.95</v>
       </c>
+      <c r="O13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1194,6 +1235,9 @@
         <v>339.95</v>
       </c>
       <c r="N14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="O14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1248,6 +1292,9 @@
       <c r="N15" t="n">
         <v>399.95</v>
       </c>
+      <c r="O15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1300,6 +1347,9 @@
       <c r="N16" t="n">
         <v>399.95</v>
       </c>
+      <c r="O16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1352,6 +1402,9 @@
       <c r="N17" t="n">
         <v>429.95</v>
       </c>
+      <c r="O17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1404,6 +1457,9 @@
       <c r="N18" t="n">
         <v>499.95</v>
       </c>
+      <c r="O18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1456,6 +1512,9 @@
       <c r="N19" t="n">
         <v>499.95</v>
       </c>
+      <c r="O19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1508,6 +1567,9 @@
       <c r="N20" t="n">
         <v>499.95</v>
       </c>
+      <c r="O20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1560,6 +1622,9 @@
       <c r="N21" t="n">
         <v>499.95</v>
       </c>
+      <c r="O21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1612,6 +1677,9 @@
       <c r="N22" t="n">
         <v>519.95</v>
       </c>
+      <c r="O22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1666,6 +1734,9 @@
         <v>686</v>
       </c>
       <c r="N23" t="n">
+        <v>686</v>
+      </c>
+      <c r="O23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1720,6 +1791,9 @@
       <c r="N24" t="n">
         <v>749.95</v>
       </c>
+      <c r="O24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1772,6 +1846,9 @@
       <c r="N25" t="n">
         <v>749.95</v>
       </c>
+      <c r="O25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1824,6 +1901,9 @@
       <c r="N26" t="n">
         <v>749.95</v>
       </c>
+      <c r="O26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1876,6 +1956,9 @@
       <c r="N27" t="n">
         <v>749.95</v>
       </c>
+      <c r="O27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1928,6 +2011,9 @@
       <c r="N28" t="n">
         <v>809.95</v>
       </c>
+      <c r="O28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1980,6 +2066,9 @@
       <c r="N29" t="n">
         <v>809.95</v>
       </c>
+      <c r="O29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2032,6 +2121,9 @@
       <c r="N30" t="n">
         <v>809.95</v>
       </c>
+      <c r="O30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2088,6 +2180,9 @@
       <c r="N31" t="n">
         <v>899.95</v>
       </c>
+      <c r="O31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2144,6 +2239,9 @@
       <c r="N32" t="n">
         <v>899.95</v>
       </c>
+      <c r="O32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2200,6 +2298,9 @@
       <c r="N33" t="n">
         <v>899.95</v>
       </c>
+      <c r="O33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2254,6 +2355,9 @@
         <v>899.95</v>
       </c>
       <c r="N34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="O34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2308,6 +2412,9 @@
       <c r="N35" t="n">
         <v>929.95</v>
       </c>
+      <c r="O35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2360,6 +2467,9 @@
       <c r="N36" t="n">
         <v>929.95</v>
       </c>
+      <c r="O36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2412,6 +2522,9 @@
       <c r="N37" t="n">
         <v>929.95</v>
       </c>
+      <c r="O37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2464,6 +2577,9 @@
       <c r="N38" t="n">
         <v>929.95</v>
       </c>
+      <c r="O38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2518,6 +2634,9 @@
         <v>959.95</v>
       </c>
       <c r="N39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="O39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2572,6 +2691,9 @@
       <c r="N40" t="n">
         <v>999.95</v>
       </c>
+      <c r="O40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2624,6 +2746,9 @@
       <c r="N41" t="n">
         <v>999.95</v>
       </c>
+      <c r="O41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2676,6 +2801,9 @@
       <c r="N42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="O42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2728,6 +2856,9 @@
       <c r="N43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="O43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2784,6 +2915,9 @@
       <c r="N44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="O44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2838,6 +2972,9 @@
         <v>1199.95</v>
       </c>
       <c r="N45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="O45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -2892,6 +3029,9 @@
       <c r="N46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="O46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2948,6 +3088,9 @@
       <c r="N47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="O47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3004,6 +3147,9 @@
       <c r="N48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="O48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3060,6 +3206,9 @@
       <c r="N49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="O49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3116,6 +3265,9 @@
       <c r="N50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="O50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3172,6 +3324,9 @@
       <c r="N51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="O51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3228,6 +3383,9 @@
       <c r="N52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="O52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3284,6 +3442,9 @@
       <c r="N53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="O53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3340,6 +3501,9 @@
       <c r="N54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="O54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3359,7 +3523,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -3396,6 +3560,9 @@
       <c r="N55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="O55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3452,6 +3619,9 @@
       <c r="N56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="O56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3471,7 +3641,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -3508,6 +3678,9 @@
       <c r="N57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="O57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3564,6 +3737,9 @@
       <c r="N58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="O58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3620,6 +3796,9 @@
       <c r="N59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="O59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3676,6 +3855,9 @@
       <c r="N60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="O60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3730,6 +3912,9 @@
         <v>1829.95</v>
       </c>
       <c r="N61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="O61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -3784,6 +3969,9 @@
       <c r="N62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="O62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3836,6 +4024,9 @@
       <c r="N63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="O63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3888,6 +4079,9 @@
       <c r="N64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="O64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3940,6 +4134,9 @@
       <c r="N65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="O65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3992,6 +4189,9 @@
       <c r="N66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="O66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4044,6 +4244,9 @@
       <c r="N67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="O67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4096,6 +4299,9 @@
       <c r="N68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="O68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4148,6 +4354,9 @@
       <c r="N69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="O69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4200,6 +4409,9 @@
       <c r="N70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="O70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4252,6 +4464,9 @@
       <c r="N71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="O71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4304,6 +4519,9 @@
       <c r="N72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="O72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4356,6 +4574,9 @@
       <c r="N73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="O73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4408,6 +4629,9 @@
       <c r="N74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="O74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4460,6 +4684,9 @@
       <c r="N75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="O75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4510,6 +4737,9 @@
         <v>2519.95</v>
       </c>
       <c r="N76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="O76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,11 @@
           <t>2026-02-16 06:03:46</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>2026-02-16 07:50:44</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -552,6 +557,9 @@
       <c r="O2" t="n">
         <v>169.95</v>
       </c>
+      <c r="P2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -607,6 +615,9 @@
       <c r="O3" t="n">
         <v>169.95</v>
       </c>
+      <c r="P3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -662,6 +673,9 @@
       <c r="O4" t="n">
         <v>169.95</v>
       </c>
+      <c r="P4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -721,6 +735,9 @@
       <c r="O5" t="n">
         <v>199.95</v>
       </c>
+      <c r="P5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -780,6 +797,9 @@
       <c r="O6" t="n">
         <v>199.95</v>
       </c>
+      <c r="P6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -839,6 +859,9 @@
       <c r="O7" t="n">
         <v>199.95</v>
       </c>
+      <c r="P7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -898,6 +921,9 @@
       <c r="O8" t="n">
         <v>229.95</v>
       </c>
+      <c r="P8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -957,6 +983,9 @@
       <c r="O9" t="n">
         <v>229.95</v>
       </c>
+      <c r="P9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1014,6 +1043,9 @@
         <v>229.95</v>
       </c>
       <c r="O10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="P10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1071,6 +1103,9 @@
       <c r="O11" t="n">
         <v>294.95</v>
       </c>
+      <c r="P11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1126,6 +1161,9 @@
       <c r="O12" t="n">
         <v>318.95</v>
       </c>
+      <c r="P12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1181,6 +1219,9 @@
       <c r="O13" t="n">
         <v>318.95</v>
       </c>
+      <c r="P13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1238,6 +1279,9 @@
         <v>339.95</v>
       </c>
       <c r="O14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="P14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1295,6 +1339,9 @@
       <c r="O15" t="n">
         <v>399.95</v>
       </c>
+      <c r="P15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1350,6 +1397,9 @@
       <c r="O16" t="n">
         <v>399.95</v>
       </c>
+      <c r="P16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1405,6 +1455,9 @@
       <c r="O17" t="n">
         <v>429.95</v>
       </c>
+      <c r="P17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1460,6 +1513,9 @@
       <c r="O18" t="n">
         <v>499.95</v>
       </c>
+      <c r="P18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1515,6 +1571,9 @@
       <c r="O19" t="n">
         <v>499.95</v>
       </c>
+      <c r="P19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1570,6 +1629,9 @@
       <c r="O20" t="n">
         <v>499.95</v>
       </c>
+      <c r="P20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1625,6 +1687,9 @@
       <c r="O21" t="n">
         <v>499.95</v>
       </c>
+      <c r="P21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1680,6 +1745,9 @@
       <c r="O22" t="n">
         <v>519.95</v>
       </c>
+      <c r="P22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1737,6 +1805,9 @@
         <v>686</v>
       </c>
       <c r="O23" t="n">
+        <v>686</v>
+      </c>
+      <c r="P23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1794,6 +1865,9 @@
       <c r="O24" t="n">
         <v>749.95</v>
       </c>
+      <c r="P24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1849,6 +1923,9 @@
       <c r="O25" t="n">
         <v>749.95</v>
       </c>
+      <c r="P25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1904,6 +1981,9 @@
       <c r="O26" t="n">
         <v>749.95</v>
       </c>
+      <c r="P26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1959,6 +2039,9 @@
       <c r="O27" t="n">
         <v>749.95</v>
       </c>
+      <c r="P27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2014,6 +2097,9 @@
       <c r="O28" t="n">
         <v>809.95</v>
       </c>
+      <c r="P28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2069,6 +2155,9 @@
       <c r="O29" t="n">
         <v>809.95</v>
       </c>
+      <c r="P29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2124,6 +2213,9 @@
       <c r="O30" t="n">
         <v>809.95</v>
       </c>
+      <c r="P30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2183,6 +2275,9 @@
       <c r="O31" t="n">
         <v>899.95</v>
       </c>
+      <c r="P31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2242,6 +2337,9 @@
       <c r="O32" t="n">
         <v>899.95</v>
       </c>
+      <c r="P32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2301,6 +2399,9 @@
       <c r="O33" t="n">
         <v>899.95</v>
       </c>
+      <c r="P33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2358,6 +2459,9 @@
         <v>899.95</v>
       </c>
       <c r="O34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="P34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2415,6 +2519,9 @@
       <c r="O35" t="n">
         <v>929.95</v>
       </c>
+      <c r="P35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2470,6 +2577,9 @@
       <c r="O36" t="n">
         <v>929.95</v>
       </c>
+      <c r="P36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2525,6 +2635,9 @@
       <c r="O37" t="n">
         <v>929.95</v>
       </c>
+      <c r="P37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2580,6 +2693,9 @@
       <c r="O38" t="n">
         <v>929.95</v>
       </c>
+      <c r="P38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2637,6 +2753,9 @@
         <v>959.95</v>
       </c>
       <c r="O39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="P39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2694,6 +2813,9 @@
       <c r="O40" t="n">
         <v>999.95</v>
       </c>
+      <c r="P40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2749,6 +2871,9 @@
       <c r="O41" t="n">
         <v>999.95</v>
       </c>
+      <c r="P41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2804,6 +2929,9 @@
       <c r="O42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="P42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2859,6 +2987,9 @@
       <c r="O43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="P43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2918,6 +3049,9 @@
       <c r="O44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="P44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2975,6 +3109,9 @@
         <v>1199.95</v>
       </c>
       <c r="O45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="P45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -3032,6 +3169,9 @@
       <c r="O46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="P46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3091,6 +3231,9 @@
       <c r="O47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="P47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3150,6 +3293,9 @@
       <c r="O48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="P48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3209,6 +3355,9 @@
       <c r="O49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="P49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3268,6 +3417,9 @@
       <c r="O50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="P50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3327,6 +3479,9 @@
       <c r="O51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="P51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3386,6 +3541,9 @@
       <c r="O52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="P52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3445,6 +3603,9 @@
       <c r="O53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="P53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3504,6 +3665,9 @@
       <c r="O54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="P54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3563,6 +3727,9 @@
       <c r="O55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="P55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3622,6 +3789,9 @@
       <c r="O56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="P56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3681,6 +3851,9 @@
       <c r="O57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="P57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3740,6 +3913,9 @@
       <c r="O58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="P58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3799,6 +3975,9 @@
       <c r="O59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="P59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3858,6 +4037,9 @@
       <c r="O60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="P60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3915,6 +4097,9 @@
         <v>1829.95</v>
       </c>
       <c r="O61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="P61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -3972,6 +4157,9 @@
       <c r="O62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="P62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4027,6 +4215,9 @@
       <c r="O63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="P63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4082,6 +4273,9 @@
       <c r="O64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="P64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4137,6 +4331,9 @@
       <c r="O65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="P65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4192,6 +4389,9 @@
       <c r="O66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="P66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4247,6 +4447,9 @@
       <c r="O67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="P67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4302,6 +4505,9 @@
       <c r="O68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="P68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4357,6 +4563,9 @@
       <c r="O69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="P69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4412,6 +4621,9 @@
       <c r="O70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="P70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4467,6 +4679,9 @@
       <c r="O71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="P71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4522,6 +4737,9 @@
       <c r="O72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="P72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4577,6 +4795,9 @@
       <c r="O73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="P73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4632,6 +4853,9 @@
       <c r="O74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="P74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4687,6 +4911,9 @@
       <c r="O75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="P75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4740,6 +4967,9 @@
         <v>2519.95</v>
       </c>
       <c r="O76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="P76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P76"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,11 @@
           <t>2026-02-16 07:50:44</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2026-02-16 08:40:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -560,6 +565,9 @@
       <c r="P2" t="n">
         <v>169.95</v>
       </c>
+      <c r="Q2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>169.95</v>
       </c>
+      <c r="Q3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -676,6 +687,9 @@
       <c r="P4" t="n">
         <v>169.95</v>
       </c>
+      <c r="Q4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -738,6 +752,9 @@
       <c r="P5" t="n">
         <v>199.95</v>
       </c>
+      <c r="Q5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -800,6 +817,9 @@
       <c r="P6" t="n">
         <v>199.95</v>
       </c>
+      <c r="Q6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -862,6 +882,9 @@
       <c r="P7" t="n">
         <v>199.95</v>
       </c>
+      <c r="Q7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -924,6 +947,9 @@
       <c r="P8" t="n">
         <v>229.95</v>
       </c>
+      <c r="Q8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -986,6 +1012,9 @@
       <c r="P9" t="n">
         <v>229.95</v>
       </c>
+      <c r="Q9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1046,6 +1075,9 @@
         <v>229.95</v>
       </c>
       <c r="P10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="Q10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1106,6 +1138,9 @@
       <c r="P11" t="n">
         <v>294.95</v>
       </c>
+      <c r="Q11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1164,6 +1199,9 @@
       <c r="P12" t="n">
         <v>318.95</v>
       </c>
+      <c r="Q12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1222,6 +1260,9 @@
       <c r="P13" t="n">
         <v>318.95</v>
       </c>
+      <c r="Q13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1282,6 +1323,9 @@
         <v>339.95</v>
       </c>
       <c r="P14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="Q14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1342,6 +1386,9 @@
       <c r="P15" t="n">
         <v>399.95</v>
       </c>
+      <c r="Q15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1400,6 +1447,9 @@
       <c r="P16" t="n">
         <v>399.95</v>
       </c>
+      <c r="Q16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1458,6 +1508,9 @@
       <c r="P17" t="n">
         <v>429.95</v>
       </c>
+      <c r="Q17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1516,6 +1569,9 @@
       <c r="P18" t="n">
         <v>499.95</v>
       </c>
+      <c r="Q18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1574,6 +1630,9 @@
       <c r="P19" t="n">
         <v>499.95</v>
       </c>
+      <c r="Q19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1632,6 +1691,9 @@
       <c r="P20" t="n">
         <v>499.95</v>
       </c>
+      <c r="Q20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1690,6 +1752,9 @@
       <c r="P21" t="n">
         <v>499.95</v>
       </c>
+      <c r="Q21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1748,6 +1813,9 @@
       <c r="P22" t="n">
         <v>519.95</v>
       </c>
+      <c r="Q22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1808,6 +1876,9 @@
         <v>686</v>
       </c>
       <c r="P23" t="n">
+        <v>686</v>
+      </c>
+      <c r="Q23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1868,6 +1939,9 @@
       <c r="P24" t="n">
         <v>749.95</v>
       </c>
+      <c r="Q24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1926,6 +2000,9 @@
       <c r="P25" t="n">
         <v>749.95</v>
       </c>
+      <c r="Q25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1984,6 +2061,9 @@
       <c r="P26" t="n">
         <v>749.95</v>
       </c>
+      <c r="Q26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2042,6 +2122,9 @@
       <c r="P27" t="n">
         <v>749.95</v>
       </c>
+      <c r="Q27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2100,6 +2183,9 @@
       <c r="P28" t="n">
         <v>809.95</v>
       </c>
+      <c r="Q28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2158,6 +2244,9 @@
       <c r="P29" t="n">
         <v>809.95</v>
       </c>
+      <c r="Q29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2216,6 +2305,9 @@
       <c r="P30" t="n">
         <v>809.95</v>
       </c>
+      <c r="Q30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2278,6 +2370,9 @@
       <c r="P31" t="n">
         <v>899.95</v>
       </c>
+      <c r="Q31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2340,6 +2435,9 @@
       <c r="P32" t="n">
         <v>899.95</v>
       </c>
+      <c r="Q32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2402,6 +2500,9 @@
       <c r="P33" t="n">
         <v>899.95</v>
       </c>
+      <c r="Q33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2462,6 +2563,9 @@
         <v>899.95</v>
       </c>
       <c r="P34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="Q34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2522,6 +2626,9 @@
       <c r="P35" t="n">
         <v>929.95</v>
       </c>
+      <c r="Q35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2580,6 +2687,9 @@
       <c r="P36" t="n">
         <v>929.95</v>
       </c>
+      <c r="Q36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2638,6 +2748,9 @@
       <c r="P37" t="n">
         <v>929.95</v>
       </c>
+      <c r="Q37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2696,6 +2809,9 @@
       <c r="P38" t="n">
         <v>929.95</v>
       </c>
+      <c r="Q38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2756,6 +2872,9 @@
         <v>959.95</v>
       </c>
       <c r="P39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="Q39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2816,6 +2935,9 @@
       <c r="P40" t="n">
         <v>999.95</v>
       </c>
+      <c r="Q40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2874,6 +2996,9 @@
       <c r="P41" t="n">
         <v>999.95</v>
       </c>
+      <c r="Q41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2932,6 +3057,9 @@
       <c r="P42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="Q42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2990,6 +3118,9 @@
       <c r="P43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="Q43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3052,6 +3183,9 @@
       <c r="P44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="Q44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3112,6 +3246,9 @@
         <v>1199.95</v>
       </c>
       <c r="P45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="Q45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -3172,6 +3309,9 @@
       <c r="P46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Q46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3234,6 +3374,9 @@
       <c r="P47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Q47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3296,6 +3439,9 @@
       <c r="P48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Q48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3358,6 +3504,9 @@
       <c r="P49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Q49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3420,6 +3569,9 @@
       <c r="P50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Q50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3482,6 +3634,9 @@
       <c r="P51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="Q51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3544,6 +3699,9 @@
       <c r="P52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="Q52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3606,6 +3764,9 @@
       <c r="P53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Q53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3668,6 +3829,9 @@
       <c r="P54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Q54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3730,6 +3894,9 @@
       <c r="P55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Q55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3792,6 +3959,9 @@
       <c r="P56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Q56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3854,6 +4024,9 @@
       <c r="P57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Q57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3916,6 +4089,9 @@
       <c r="P58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Q58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3978,6 +4154,9 @@
       <c r="P59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="Q59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4040,6 +4219,9 @@
       <c r="P60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="Q60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4100,6 +4282,9 @@
         <v>1829.95</v>
       </c>
       <c r="P61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="Q61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -4160,6 +4345,9 @@
       <c r="P62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Q62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4218,6 +4406,9 @@
       <c r="P63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Q63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4276,6 +4467,9 @@
       <c r="P64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Q64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4334,6 +4528,9 @@
       <c r="P65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Q65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4392,6 +4589,9 @@
       <c r="P66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Q66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4450,6 +4650,9 @@
       <c r="P67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Q67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4508,6 +4711,9 @@
       <c r="P68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Q68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4566,6 +4772,9 @@
       <c r="P69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="Q69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4624,6 +4833,9 @@
       <c r="P70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Q70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4682,6 +4894,9 @@
       <c r="P71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Q71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4740,6 +4955,9 @@
       <c r="P72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Q72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4798,6 +5016,9 @@
       <c r="P73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="Q73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4856,6 +5077,9 @@
       <c r="P74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="Q74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4914,6 +5138,9 @@
       <c r="P75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="Q75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4970,6 +5197,9 @@
         <v>2519.95</v>
       </c>
       <c r="P76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="Q76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,11 @@
           <t>2026-02-16 08:40:38</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2026-02-16 09:47:41</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -568,6 +573,9 @@
       <c r="Q2" t="n">
         <v>169.95</v>
       </c>
+      <c r="R2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>169.95</v>
       </c>
+      <c r="R3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -690,6 +701,9 @@
       <c r="Q4" t="n">
         <v>169.95</v>
       </c>
+      <c r="R4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -755,6 +769,9 @@
       <c r="Q5" t="n">
         <v>199.95</v>
       </c>
+      <c r="R5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -820,6 +837,9 @@
       <c r="Q6" t="n">
         <v>199.95</v>
       </c>
+      <c r="R6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -885,6 +905,9 @@
       <c r="Q7" t="n">
         <v>199.95</v>
       </c>
+      <c r="R7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -950,6 +973,9 @@
       <c r="Q8" t="n">
         <v>229.95</v>
       </c>
+      <c r="R8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1015,6 +1041,9 @@
       <c r="Q9" t="n">
         <v>229.95</v>
       </c>
+      <c r="R9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1078,6 +1107,9 @@
         <v>229.95</v>
       </c>
       <c r="Q10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="R10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1141,6 +1173,9 @@
       <c r="Q11" t="n">
         <v>294.95</v>
       </c>
+      <c r="R11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1202,6 +1237,9 @@
       <c r="Q12" t="n">
         <v>318.95</v>
       </c>
+      <c r="R12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1263,6 +1301,9 @@
       <c r="Q13" t="n">
         <v>318.95</v>
       </c>
+      <c r="R13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1326,6 +1367,9 @@
         <v>339.95</v>
       </c>
       <c r="Q14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="R14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1389,6 +1433,9 @@
       <c r="Q15" t="n">
         <v>399.95</v>
       </c>
+      <c r="R15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1450,6 +1497,9 @@
       <c r="Q16" t="n">
         <v>399.95</v>
       </c>
+      <c r="R16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1511,6 +1561,9 @@
       <c r="Q17" t="n">
         <v>429.95</v>
       </c>
+      <c r="R17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1572,6 +1625,9 @@
       <c r="Q18" t="n">
         <v>499.95</v>
       </c>
+      <c r="R18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1633,6 +1689,9 @@
       <c r="Q19" t="n">
         <v>499.95</v>
       </c>
+      <c r="R19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1694,6 +1753,9 @@
       <c r="Q20" t="n">
         <v>499.95</v>
       </c>
+      <c r="R20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1755,6 +1817,9 @@
       <c r="Q21" t="n">
         <v>499.95</v>
       </c>
+      <c r="R21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1816,6 +1881,9 @@
       <c r="Q22" t="n">
         <v>519.95</v>
       </c>
+      <c r="R22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1879,6 +1947,9 @@
         <v>686</v>
       </c>
       <c r="Q23" t="n">
+        <v>686</v>
+      </c>
+      <c r="R23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -1942,6 +2013,9 @@
       <c r="Q24" t="n">
         <v>749.95</v>
       </c>
+      <c r="R24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2003,6 +2077,9 @@
       <c r="Q25" t="n">
         <v>749.95</v>
       </c>
+      <c r="R25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2064,6 +2141,9 @@
       <c r="Q26" t="n">
         <v>749.95</v>
       </c>
+      <c r="R26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2125,6 +2205,9 @@
       <c r="Q27" t="n">
         <v>749.95</v>
       </c>
+      <c r="R27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2186,6 +2269,9 @@
       <c r="Q28" t="n">
         <v>809.95</v>
       </c>
+      <c r="R28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2247,6 +2333,9 @@
       <c r="Q29" t="n">
         <v>809.95</v>
       </c>
+      <c r="R29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2308,6 +2397,9 @@
       <c r="Q30" t="n">
         <v>809.95</v>
       </c>
+      <c r="R30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2373,6 +2465,9 @@
       <c r="Q31" t="n">
         <v>899.95</v>
       </c>
+      <c r="R31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2438,6 +2533,9 @@
       <c r="Q32" t="n">
         <v>899.95</v>
       </c>
+      <c r="R32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2503,6 +2601,9 @@
       <c r="Q33" t="n">
         <v>899.95</v>
       </c>
+      <c r="R33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2566,6 +2667,9 @@
         <v>899.95</v>
       </c>
       <c r="Q34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="R34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2629,6 +2733,9 @@
       <c r="Q35" t="n">
         <v>929.95</v>
       </c>
+      <c r="R35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2690,6 +2797,9 @@
       <c r="Q36" t="n">
         <v>929.95</v>
       </c>
+      <c r="R36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2751,6 +2861,9 @@
       <c r="Q37" t="n">
         <v>929.95</v>
       </c>
+      <c r="R37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2812,6 +2925,9 @@
       <c r="Q38" t="n">
         <v>929.95</v>
       </c>
+      <c r="R38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2875,6 +2991,9 @@
         <v>959.95</v>
       </c>
       <c r="Q39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="R39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -2938,6 +3057,9 @@
       <c r="Q40" t="n">
         <v>999.95</v>
       </c>
+      <c r="R40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2999,6 +3121,9 @@
       <c r="Q41" t="n">
         <v>999.95</v>
       </c>
+      <c r="R41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3060,6 +3185,9 @@
       <c r="Q42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="R42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3121,6 +3249,9 @@
       <c r="Q43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="R43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3186,6 +3317,9 @@
       <c r="Q44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="R44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3249,6 +3383,9 @@
         <v>1199.95</v>
       </c>
       <c r="Q45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="R45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -3312,6 +3449,9 @@
       <c r="Q46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="R46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3377,6 +3517,9 @@
       <c r="Q47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="R47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3442,6 +3585,9 @@
       <c r="Q48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="R48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3507,6 +3653,9 @@
       <c r="Q49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="R49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3572,6 +3721,9 @@
       <c r="Q50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="R50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3637,6 +3789,9 @@
       <c r="Q51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="R51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3702,6 +3857,9 @@
       <c r="Q52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="R52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3767,6 +3925,9 @@
       <c r="Q53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="R53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3832,6 +3993,9 @@
       <c r="Q54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="R54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3897,6 +4061,9 @@
       <c r="Q55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="R55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3962,6 +4129,9 @@
       <c r="Q56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="R56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4027,6 +4197,9 @@
       <c r="Q57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="R57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4092,6 +4265,9 @@
       <c r="Q58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="R58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4157,6 +4333,9 @@
       <c r="Q59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="R59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4222,6 +4401,9 @@
       <c r="Q60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="R60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4285,6 +4467,9 @@
         <v>1829.95</v>
       </c>
       <c r="Q61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="R61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -4348,6 +4533,9 @@
       <c r="Q62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="R62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4409,6 +4597,9 @@
       <c r="Q63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="R63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4470,6 +4661,9 @@
       <c r="Q64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="R64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4531,6 +4725,9 @@
       <c r="Q65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="R65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4592,6 +4789,9 @@
       <c r="Q66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="R66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4653,6 +4853,9 @@
       <c r="Q67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="R67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4714,6 +4917,9 @@
       <c r="Q68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="R68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4775,6 +4981,9 @@
       <c r="Q69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="R69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4836,6 +5045,9 @@
       <c r="Q70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="R70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4897,6 +5109,9 @@
       <c r="Q71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="R71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4958,6 +5173,9 @@
       <c r="Q72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="R72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5019,6 +5237,9 @@
       <c r="Q73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="R73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5080,6 +5301,9 @@
       <c r="Q74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="R74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5141,6 +5365,9 @@
       <c r="Q75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="R75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5200,6 +5427,9 @@
         <v>2519.95</v>
       </c>
       <c r="Q76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="R76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,11 @@
           <t>2026-02-16 09:47:41</t>
         </is>
       </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2026-02-16 10:44:12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -576,6 +581,9 @@
       <c r="R2" t="n">
         <v>169.95</v>
       </c>
+      <c r="S2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +648,9 @@
       <c r="R3" t="n">
         <v>169.95</v>
       </c>
+      <c r="S3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -704,6 +715,9 @@
       <c r="R4" t="n">
         <v>169.95</v>
       </c>
+      <c r="S4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -772,6 +786,9 @@
       <c r="R5" t="n">
         <v>199.95</v>
       </c>
+      <c r="S5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -840,6 +857,9 @@
       <c r="R6" t="n">
         <v>199.95</v>
       </c>
+      <c r="S6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -908,6 +928,9 @@
       <c r="R7" t="n">
         <v>199.95</v>
       </c>
+      <c r="S7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -976,6 +999,9 @@
       <c r="R8" t="n">
         <v>229.95</v>
       </c>
+      <c r="S8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1044,6 +1070,9 @@
       <c r="R9" t="n">
         <v>229.95</v>
       </c>
+      <c r="S9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1110,6 +1139,9 @@
         <v>229.95</v>
       </c>
       <c r="R10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="S10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1176,6 +1208,9 @@
       <c r="R11" t="n">
         <v>294.95</v>
       </c>
+      <c r="S11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1240,6 +1275,9 @@
       <c r="R12" t="n">
         <v>318.95</v>
       </c>
+      <c r="S12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1304,6 +1342,9 @@
       <c r="R13" t="n">
         <v>318.95</v>
       </c>
+      <c r="S13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1370,6 +1411,9 @@
         <v>339.95</v>
       </c>
       <c r="R14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="S14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1436,6 +1480,9 @@
       <c r="R15" t="n">
         <v>399.95</v>
       </c>
+      <c r="S15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1500,6 +1547,9 @@
       <c r="R16" t="n">
         <v>399.95</v>
       </c>
+      <c r="S16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1564,6 +1614,9 @@
       <c r="R17" t="n">
         <v>429.95</v>
       </c>
+      <c r="S17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1628,6 +1681,9 @@
       <c r="R18" t="n">
         <v>499.95</v>
       </c>
+      <c r="S18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1692,6 +1748,9 @@
       <c r="R19" t="n">
         <v>499.95</v>
       </c>
+      <c r="S19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1756,6 +1815,9 @@
       <c r="R20" t="n">
         <v>499.95</v>
       </c>
+      <c r="S20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1820,6 +1882,9 @@
       <c r="R21" t="n">
         <v>499.95</v>
       </c>
+      <c r="S21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1884,6 +1949,9 @@
       <c r="R22" t="n">
         <v>519.95</v>
       </c>
+      <c r="S22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1950,6 +2018,9 @@
         <v>686</v>
       </c>
       <c r="R23" t="n">
+        <v>686</v>
+      </c>
+      <c r="S23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2016,6 +2087,9 @@
       <c r="R24" t="n">
         <v>749.95</v>
       </c>
+      <c r="S24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2080,6 +2154,9 @@
       <c r="R25" t="n">
         <v>749.95</v>
       </c>
+      <c r="S25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2144,6 +2221,9 @@
       <c r="R26" t="n">
         <v>749.95</v>
       </c>
+      <c r="S26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2208,6 +2288,9 @@
       <c r="R27" t="n">
         <v>749.95</v>
       </c>
+      <c r="S27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2272,6 +2355,9 @@
       <c r="R28" t="n">
         <v>809.95</v>
       </c>
+      <c r="S28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2336,6 +2422,9 @@
       <c r="R29" t="n">
         <v>809.95</v>
       </c>
+      <c r="S29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2400,6 +2489,9 @@
       <c r="R30" t="n">
         <v>809.95</v>
       </c>
+      <c r="S30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2468,6 +2560,9 @@
       <c r="R31" t="n">
         <v>899.95</v>
       </c>
+      <c r="S31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2536,6 +2631,9 @@
       <c r="R32" t="n">
         <v>899.95</v>
       </c>
+      <c r="S32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2604,6 +2702,9 @@
       <c r="R33" t="n">
         <v>899.95</v>
       </c>
+      <c r="S33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2670,6 +2771,9 @@
         <v>899.95</v>
       </c>
       <c r="R34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="S34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2736,6 +2840,9 @@
       <c r="R35" t="n">
         <v>929.95</v>
       </c>
+      <c r="S35" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2800,6 +2907,9 @@
       <c r="R36" t="n">
         <v>929.95</v>
       </c>
+      <c r="S36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2864,6 +2974,9 @@
       <c r="R37" t="n">
         <v>929.95</v>
       </c>
+      <c r="S37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2928,6 +3041,9 @@
       <c r="R38" t="n">
         <v>929.95</v>
       </c>
+      <c r="S38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2994,6 +3110,9 @@
         <v>959.95</v>
       </c>
       <c r="R39" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="S39" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -3060,6 +3179,9 @@
       <c r="R40" t="n">
         <v>999.95</v>
       </c>
+      <c r="S40" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3124,6 +3246,9 @@
       <c r="R41" t="n">
         <v>999.95</v>
       </c>
+      <c r="S41" t="n">
+        <v>999.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3188,6 +3313,9 @@
       <c r="R42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="S42" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3252,6 +3380,9 @@
       <c r="R43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="S43" t="n">
+        <v>1059.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3320,6 +3451,9 @@
       <c r="R44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="S44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3386,6 +3520,9 @@
         <v>1199.95</v>
       </c>
       <c r="R45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="S45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -3452,6 +3589,9 @@
       <c r="R46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="S46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3520,6 +3660,9 @@
       <c r="R47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="S47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3588,6 +3731,9 @@
       <c r="R48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="S48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3656,6 +3802,9 @@
       <c r="R49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="S49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3724,6 +3873,9 @@
       <c r="R50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="S50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3792,6 +3944,9 @@
       <c r="R51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="S51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3860,6 +4015,9 @@
       <c r="R52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="S52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3928,6 +4086,9 @@
       <c r="R53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="S53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3996,6 +4157,9 @@
       <c r="R54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="S54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4064,6 +4228,9 @@
       <c r="R55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="S55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4132,6 +4299,9 @@
       <c r="R56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="S56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4200,6 +4370,9 @@
       <c r="R57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="S57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4268,6 +4441,9 @@
       <c r="R58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="S58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4336,6 +4512,9 @@
       <c r="R59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="S59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4404,6 +4583,9 @@
       <c r="R60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="S60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4470,6 +4652,9 @@
         <v>1829.95</v>
       </c>
       <c r="R61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="S61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -4536,6 +4721,9 @@
       <c r="R62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="S62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4600,6 +4788,9 @@
       <c r="R63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="S63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4664,6 +4855,9 @@
       <c r="R64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="S64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4728,6 +4922,9 @@
       <c r="R65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="S65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4792,6 +4989,9 @@
       <c r="R66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="S66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4856,6 +5056,9 @@
       <c r="R67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="S67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4920,6 +5123,9 @@
       <c r="R68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="S68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4984,6 +5190,9 @@
       <c r="R69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="S69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5048,6 +5257,9 @@
       <c r="R70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="S70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5112,6 +5324,9 @@
       <c r="R71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="S71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5176,6 +5391,9 @@
       <c r="R72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="S72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5240,6 +5458,9 @@
       <c r="R73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="S73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5304,6 +5525,9 @@
       <c r="R74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="S74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5368,6 +5592,9 @@
       <c r="R75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="S75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5430,6 +5657,9 @@
         <v>2519.95</v>
       </c>
       <c r="R76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="S76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,11 @@
           <t>2026-02-16 10:44:12</t>
         </is>
       </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2026-02-16 11:37:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,9 @@
       <c r="S2" t="n">
         <v>169.95</v>
       </c>
+      <c r="T2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -651,6 +659,9 @@
       <c r="S3" t="n">
         <v>169.95</v>
       </c>
+      <c r="T3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -718,6 +729,9 @@
       <c r="S4" t="n">
         <v>169.95</v>
       </c>
+      <c r="T4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -789,6 +803,9 @@
       <c r="S5" t="n">
         <v>199.95</v>
       </c>
+      <c r="T5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -860,6 +877,9 @@
       <c r="S6" t="n">
         <v>199.95</v>
       </c>
+      <c r="T6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -931,6 +951,9 @@
       <c r="S7" t="n">
         <v>199.95</v>
       </c>
+      <c r="T7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1002,6 +1025,9 @@
       <c r="S8" t="n">
         <v>229.95</v>
       </c>
+      <c r="T8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1073,6 +1099,9 @@
       <c r="S9" t="n">
         <v>229.95</v>
       </c>
+      <c r="T9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1142,6 +1171,9 @@
         <v>229.95</v>
       </c>
       <c r="S10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="T10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1211,6 +1243,9 @@
       <c r="S11" t="n">
         <v>294.95</v>
       </c>
+      <c r="T11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1278,6 +1313,9 @@
       <c r="S12" t="n">
         <v>318.95</v>
       </c>
+      <c r="T12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1345,6 +1383,9 @@
       <c r="S13" t="n">
         <v>318.95</v>
       </c>
+      <c r="T13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1414,6 +1455,9 @@
         <v>339.95</v>
       </c>
       <c r="S14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="T14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1483,6 +1527,9 @@
       <c r="S15" t="n">
         <v>399.95</v>
       </c>
+      <c r="T15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1550,6 +1597,9 @@
       <c r="S16" t="n">
         <v>399.95</v>
       </c>
+      <c r="T16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1617,6 +1667,9 @@
       <c r="S17" t="n">
         <v>429.95</v>
       </c>
+      <c r="T17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1684,6 +1737,9 @@
       <c r="S18" t="n">
         <v>499.95</v>
       </c>
+      <c r="T18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1751,6 +1807,9 @@
       <c r="S19" t="n">
         <v>499.95</v>
       </c>
+      <c r="T19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1818,6 +1877,9 @@
       <c r="S20" t="n">
         <v>499.95</v>
       </c>
+      <c r="T20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1885,6 +1947,9 @@
       <c r="S21" t="n">
         <v>499.95</v>
       </c>
+      <c r="T21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1952,6 +2017,9 @@
       <c r="S22" t="n">
         <v>519.95</v>
       </c>
+      <c r="T22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2021,6 +2089,9 @@
         <v>686</v>
       </c>
       <c r="S23" t="n">
+        <v>686</v>
+      </c>
+      <c r="T23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2090,6 +2161,9 @@
       <c r="S24" t="n">
         <v>749.95</v>
       </c>
+      <c r="T24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2157,6 +2231,9 @@
       <c r="S25" t="n">
         <v>749.95</v>
       </c>
+      <c r="T25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2224,6 +2301,9 @@
       <c r="S26" t="n">
         <v>749.95</v>
       </c>
+      <c r="T26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2291,6 +2371,9 @@
       <c r="S27" t="n">
         <v>749.95</v>
       </c>
+      <c r="T27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2358,6 +2441,9 @@
       <c r="S28" t="n">
         <v>809.95</v>
       </c>
+      <c r="T28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2425,6 +2511,9 @@
       <c r="S29" t="n">
         <v>809.95</v>
       </c>
+      <c r="T29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2492,6 +2581,9 @@
       <c r="S30" t="n">
         <v>809.95</v>
       </c>
+      <c r="T30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2563,6 +2655,9 @@
       <c r="S31" t="n">
         <v>899.95</v>
       </c>
+      <c r="T31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2634,6 +2729,9 @@
       <c r="S32" t="n">
         <v>899.95</v>
       </c>
+      <c r="T32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2705,6 +2803,9 @@
       <c r="S33" t="n">
         <v>899.95</v>
       </c>
+      <c r="T33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2776,16 +2877,19 @@
       <c r="S34" t="n">
         <v>899.95</v>
       </c>
+      <c r="T34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00701938</t>
+          <t>PB00692513</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2795,7 +2899,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2807,52 +2911,55 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701938.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692513.html</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="J35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="K35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="L35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="M35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="N35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="O35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="P35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="R35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="S35" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
+      </c>
+      <c r="T35" t="n">
+        <v>899.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00701941</t>
+          <t>PB00692508</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2862,7 +2969,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2874,52 +2981,55 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701941.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692508.html</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="J36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="K36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="L36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="M36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="N36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="O36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="P36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="R36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="S36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
+      </c>
+      <c r="T36" t="n">
+        <v>899.95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00701943</t>
+          <t>PB00701938</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2941,7 +3051,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701943.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701938.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2977,16 +3087,19 @@
       <c r="S37" t="n">
         <v>929.95</v>
       </c>
+      <c r="T37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00701940</t>
+          <t>PB00701941</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3008,7 +3121,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701940.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701941.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -3044,16 +3157,19 @@
       <c r="S38" t="n">
         <v>929.95</v>
       </c>
+      <c r="T38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00662818</t>
+          <t>PB00701943</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3066,12 +3182,8 @@
           <t>Rupture</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>10</v>
-      </c>
-      <c r="F39" t="n">
-        <v>14</v>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -3079,52 +3191,55 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701943.html</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="J39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="K39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="L39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="M39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="N39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="O39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="P39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="Q39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="R39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="S39" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
+      </c>
+      <c r="T39" t="n">
+        <v>929.95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00692513</t>
+          <t>PB00701940</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3134,7 +3249,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -3146,52 +3261,55 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692513.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701940.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="J40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="K40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="L40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="M40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="N40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="O40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="P40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="Q40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="R40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="S40" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
+      </c>
+      <c r="T40" t="n">
+        <v>929.95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00692508</t>
+          <t>PB00662818</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3201,11 +3319,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+          <t>Rupture</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14</v>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -3213,41 +3335,44 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692508.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662818.html</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="J41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="K41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="L41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="M41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="N41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="O41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="P41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="Q41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="R41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
       </c>
       <c r="S41" t="n">
-        <v>999.95</v>
+        <v>959.95</v>
+      </c>
+      <c r="T41" t="n">
+        <v>959.95</v>
       </c>
     </row>
     <row r="42">
@@ -3316,6 +3441,9 @@
       <c r="S42" t="n">
         <v>1059.95</v>
       </c>
+      <c r="T42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3383,6 +3511,9 @@
       <c r="S43" t="n">
         <v>1059.95</v>
       </c>
+      <c r="T43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3454,6 +3585,9 @@
       <c r="S44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="T44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3523,6 +3657,9 @@
         <v>1199.95</v>
       </c>
       <c r="S45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="T45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -3592,6 +3729,9 @@
       <c r="S46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="T46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3663,6 +3803,9 @@
       <c r="S47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="T47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3734,6 +3877,9 @@
       <c r="S48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="T48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3805,6 +3951,9 @@
       <c r="S49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="T49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3876,6 +4025,9 @@
       <c r="S50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="T50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3947,6 +4099,9 @@
       <c r="S51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="T51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4018,6 +4173,9 @@
       <c r="S52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="T52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4089,6 +4247,9 @@
       <c r="S53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="T53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4160,6 +4321,9 @@
       <c r="S54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="T54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4231,6 +4395,9 @@
       <c r="S55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="T55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4302,6 +4469,9 @@
       <c r="S56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="T56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4373,6 +4543,9 @@
       <c r="S57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="T57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4444,6 +4617,9 @@
       <c r="S58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="T58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4515,6 +4691,9 @@
       <c r="S59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="T59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4586,6 +4765,9 @@
       <c r="S60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="T60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4655,6 +4837,9 @@
         <v>1829.95</v>
       </c>
       <c r="S61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="T61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -4724,6 +4909,9 @@
       <c r="S62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="T62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4791,6 +4979,9 @@
       <c r="S63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="T63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4858,6 +5049,9 @@
       <c r="S64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="T64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4925,6 +5119,9 @@
       <c r="S65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="T65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4992,6 +5189,9 @@
       <c r="S66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="T66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5059,6 +5259,9 @@
       <c r="S67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="T67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5126,6 +5329,9 @@
       <c r="S68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="T68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5193,6 +5399,9 @@
       <c r="S69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="T69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5260,6 +5469,9 @@
       <c r="S70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="T70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5327,6 +5539,9 @@
       <c r="S71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="T71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5394,6 +5609,9 @@
       <c r="S72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="T72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5461,6 +5679,9 @@
       <c r="S73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="T73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5528,6 +5749,9 @@
       <c r="S74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="T74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5595,6 +5819,9 @@
       <c r="S75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="T75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5660,6 +5887,9 @@
         <v>2519.95</v>
       </c>
       <c r="S76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="T76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,11 @@
           <t>2026-02-16 11:37:20</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2026-02-16 12:51:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -592,6 +597,9 @@
       <c r="T2" t="n">
         <v>169.95</v>
       </c>
+      <c r="U2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -662,6 +670,9 @@
       <c r="T3" t="n">
         <v>169.95</v>
       </c>
+      <c r="U3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -732,6 +743,9 @@
       <c r="T4" t="n">
         <v>169.95</v>
       </c>
+      <c r="U4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -806,6 +820,9 @@
       <c r="T5" t="n">
         <v>199.95</v>
       </c>
+      <c r="U5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -880,6 +897,9 @@
       <c r="T6" t="n">
         <v>199.95</v>
       </c>
+      <c r="U6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -954,6 +974,9 @@
       <c r="T7" t="n">
         <v>199.95</v>
       </c>
+      <c r="U7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1028,6 +1051,9 @@
       <c r="T8" t="n">
         <v>229.95</v>
       </c>
+      <c r="U8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1102,6 +1128,9 @@
       <c r="T9" t="n">
         <v>229.95</v>
       </c>
+      <c r="U9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1174,6 +1203,9 @@
         <v>229.95</v>
       </c>
       <c r="T10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="U10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1246,6 +1278,9 @@
       <c r="T11" t="n">
         <v>294.95</v>
       </c>
+      <c r="U11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1316,6 +1351,9 @@
       <c r="T12" t="n">
         <v>318.95</v>
       </c>
+      <c r="U12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1386,6 +1424,9 @@
       <c r="T13" t="n">
         <v>318.95</v>
       </c>
+      <c r="U13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1458,6 +1499,9 @@
         <v>339.95</v>
       </c>
       <c r="T14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="U14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1530,6 +1574,9 @@
       <c r="T15" t="n">
         <v>399.95</v>
       </c>
+      <c r="U15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1600,6 +1647,9 @@
       <c r="T16" t="n">
         <v>399.95</v>
       </c>
+      <c r="U16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1670,6 +1720,9 @@
       <c r="T17" t="n">
         <v>429.95</v>
       </c>
+      <c r="U17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1740,6 +1793,9 @@
       <c r="T18" t="n">
         <v>499.95</v>
       </c>
+      <c r="U18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1810,6 +1866,9 @@
       <c r="T19" t="n">
         <v>499.95</v>
       </c>
+      <c r="U19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1880,6 +1939,9 @@
       <c r="T20" t="n">
         <v>499.95</v>
       </c>
+      <c r="U20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1950,6 +2012,9 @@
       <c r="T21" t="n">
         <v>499.95</v>
       </c>
+      <c r="U21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2020,6 +2085,9 @@
       <c r="T22" t="n">
         <v>519.95</v>
       </c>
+      <c r="U22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2092,6 +2160,9 @@
         <v>686</v>
       </c>
       <c r="T23" t="n">
+        <v>686</v>
+      </c>
+      <c r="U23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2164,6 +2235,9 @@
       <c r="T24" t="n">
         <v>749.95</v>
       </c>
+      <c r="U24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2234,6 +2308,9 @@
       <c r="T25" t="n">
         <v>749.95</v>
       </c>
+      <c r="U25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2304,6 +2381,9 @@
       <c r="T26" t="n">
         <v>749.95</v>
       </c>
+      <c r="U26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2374,6 +2454,9 @@
       <c r="T27" t="n">
         <v>749.95</v>
       </c>
+      <c r="U27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2444,6 +2527,9 @@
       <c r="T28" t="n">
         <v>809.95</v>
       </c>
+      <c r="U28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2514,6 +2600,9 @@
       <c r="T29" t="n">
         <v>809.95</v>
       </c>
+      <c r="U29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2584,6 +2673,9 @@
       <c r="T30" t="n">
         <v>809.95</v>
       </c>
+      <c r="U30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2658,6 +2750,9 @@
       <c r="T31" t="n">
         <v>899.95</v>
       </c>
+      <c r="U31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2732,6 +2827,9 @@
       <c r="T32" t="n">
         <v>899.95</v>
       </c>
+      <c r="U32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2806,6 +2904,9 @@
       <c r="T33" t="n">
         <v>899.95</v>
       </c>
+      <c r="U33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2878,6 +2979,9 @@
         <v>899.95</v>
       </c>
       <c r="T34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="U34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -2950,6 +3054,9 @@
       <c r="T35" t="n">
         <v>899.95</v>
       </c>
+      <c r="U35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3020,6 +3127,9 @@
       <c r="T36" t="n">
         <v>899.95</v>
       </c>
+      <c r="U36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3090,6 +3200,9 @@
       <c r="T37" t="n">
         <v>929.95</v>
       </c>
+      <c r="U37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3160,6 +3273,9 @@
       <c r="T38" t="n">
         <v>929.95</v>
       </c>
+      <c r="U38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3230,6 +3346,9 @@
       <c r="T39" t="n">
         <v>929.95</v>
       </c>
+      <c r="U39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3300,6 +3419,9 @@
       <c r="T40" t="n">
         <v>929.95</v>
       </c>
+      <c r="U40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3372,6 +3494,9 @@
         <v>959.95</v>
       </c>
       <c r="T41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="U41" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -3444,6 +3569,9 @@
       <c r="T42" t="n">
         <v>959.95</v>
       </c>
+      <c r="U42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3514,6 +3642,9 @@
       <c r="T43" t="n">
         <v>959.95</v>
       </c>
+      <c r="U43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3588,6 +3719,9 @@
       <c r="T44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="U44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3660,6 +3794,9 @@
         <v>1199.95</v>
       </c>
       <c r="T45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="U45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -3732,6 +3869,9 @@
       <c r="T46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="U46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3806,6 +3946,9 @@
       <c r="T47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="U47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3880,6 +4023,9 @@
       <c r="T48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="U48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3954,6 +4100,9 @@
       <c r="T49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="U49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4028,6 +4177,9 @@
       <c r="T50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="U50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4102,6 +4254,9 @@
       <c r="T51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="U51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4176,6 +4331,9 @@
       <c r="T52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="U52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4250,6 +4408,9 @@
       <c r="T53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="U53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4324,6 +4485,9 @@
       <c r="T54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="U54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4398,6 +4562,9 @@
       <c r="T55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="U55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4472,6 +4639,9 @@
       <c r="T56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="U56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4546,6 +4716,9 @@
       <c r="T57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="U57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4620,6 +4793,9 @@
       <c r="T58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="U58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4694,6 +4870,9 @@
       <c r="T59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="U59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4768,6 +4947,9 @@
       <c r="T60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="U60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4840,6 +5022,9 @@
         <v>1829.95</v>
       </c>
       <c r="T61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="U61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -4912,6 +5097,9 @@
       <c r="T62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="U62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4982,6 +5170,9 @@
       <c r="T63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="U63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5052,6 +5243,9 @@
       <c r="T64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="U64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5122,6 +5316,9 @@
       <c r="T65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="U65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5192,6 +5389,9 @@
       <c r="T66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="U66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5262,6 +5462,9 @@
       <c r="T67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="U67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5332,6 +5535,9 @@
       <c r="T68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="U68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5402,6 +5608,9 @@
       <c r="T69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="U69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5472,6 +5681,9 @@
       <c r="T70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="U70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5542,6 +5754,9 @@
       <c r="T71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="U71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5612,6 +5827,9 @@
       <c r="T72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="U72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5682,6 +5900,9 @@
       <c r="T73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="U73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5752,6 +5973,9 @@
       <c r="T74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="U74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5822,6 +6046,9 @@
       <c r="T75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="U75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5890,6 +6117,9 @@
         <v>2519.95</v>
       </c>
       <c r="T76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="U76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,11 @@
           <t>2026-02-16 12:51:18</t>
         </is>
       </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>2026-02-16 14:03:30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -600,6 +605,9 @@
       <c r="U2" t="n">
         <v>169.95</v>
       </c>
+      <c r="V2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -673,6 +681,9 @@
       <c r="U3" t="n">
         <v>169.95</v>
       </c>
+      <c r="V3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +757,9 @@
       <c r="U4" t="n">
         <v>169.95</v>
       </c>
+      <c r="V4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -823,6 +837,9 @@
       <c r="U5" t="n">
         <v>199.95</v>
       </c>
+      <c r="V5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -900,6 +917,9 @@
       <c r="U6" t="n">
         <v>199.95</v>
       </c>
+      <c r="V6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -977,6 +997,9 @@
       <c r="U7" t="n">
         <v>199.95</v>
       </c>
+      <c r="V7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1054,6 +1077,9 @@
       <c r="U8" t="n">
         <v>229.95</v>
       </c>
+      <c r="V8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1131,6 +1157,9 @@
       <c r="U9" t="n">
         <v>229.95</v>
       </c>
+      <c r="V9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1206,6 +1235,9 @@
         <v>229.95</v>
       </c>
       <c r="U10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="V10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1281,6 +1313,9 @@
       <c r="U11" t="n">
         <v>294.95</v>
       </c>
+      <c r="V11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1354,6 +1389,9 @@
       <c r="U12" t="n">
         <v>318.95</v>
       </c>
+      <c r="V12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1427,6 +1465,9 @@
       <c r="U13" t="n">
         <v>318.95</v>
       </c>
+      <c r="V13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1502,6 +1543,9 @@
         <v>339.95</v>
       </c>
       <c r="U14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="V14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1577,6 +1621,9 @@
       <c r="U15" t="n">
         <v>399.95</v>
       </c>
+      <c r="V15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1650,6 +1697,9 @@
       <c r="U16" t="n">
         <v>399.95</v>
       </c>
+      <c r="V16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1723,6 +1773,9 @@
       <c r="U17" t="n">
         <v>429.95</v>
       </c>
+      <c r="V17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1796,6 +1849,9 @@
       <c r="U18" t="n">
         <v>499.95</v>
       </c>
+      <c r="V18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1869,6 +1925,9 @@
       <c r="U19" t="n">
         <v>499.95</v>
       </c>
+      <c r="V19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1942,6 +2001,9 @@
       <c r="U20" t="n">
         <v>499.95</v>
       </c>
+      <c r="V20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2015,6 +2077,9 @@
       <c r="U21" t="n">
         <v>499.95</v>
       </c>
+      <c r="V21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2088,6 +2153,9 @@
       <c r="U22" t="n">
         <v>519.95</v>
       </c>
+      <c r="V22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2163,6 +2231,9 @@
         <v>686</v>
       </c>
       <c r="U23" t="n">
+        <v>686</v>
+      </c>
+      <c r="V23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2238,6 +2309,9 @@
       <c r="U24" t="n">
         <v>749.95</v>
       </c>
+      <c r="V24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2311,6 +2385,9 @@
       <c r="U25" t="n">
         <v>749.95</v>
       </c>
+      <c r="V25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2384,6 +2461,9 @@
       <c r="U26" t="n">
         <v>749.95</v>
       </c>
+      <c r="V26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2457,6 +2537,9 @@
       <c r="U27" t="n">
         <v>749.95</v>
       </c>
+      <c r="V27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2530,6 +2613,9 @@
       <c r="U28" t="n">
         <v>809.95</v>
       </c>
+      <c r="V28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2603,6 +2689,9 @@
       <c r="U29" t="n">
         <v>809.95</v>
       </c>
+      <c r="V29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2676,6 +2765,9 @@
       <c r="U30" t="n">
         <v>809.95</v>
       </c>
+      <c r="V30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2753,6 +2845,9 @@
       <c r="U31" t="n">
         <v>899.95</v>
       </c>
+      <c r="V31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2830,6 +2925,9 @@
       <c r="U32" t="n">
         <v>899.95</v>
       </c>
+      <c r="V32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2907,6 +3005,9 @@
       <c r="U33" t="n">
         <v>899.95</v>
       </c>
+      <c r="V33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2982,6 +3083,9 @@
         <v>899.95</v>
       </c>
       <c r="U34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="V34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -3057,6 +3161,9 @@
       <c r="U35" t="n">
         <v>899.95</v>
       </c>
+      <c r="V35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3130,6 +3237,9 @@
       <c r="U36" t="n">
         <v>899.95</v>
       </c>
+      <c r="V36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3203,6 +3313,9 @@
       <c r="U37" t="n">
         <v>929.95</v>
       </c>
+      <c r="V37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3276,6 +3389,9 @@
       <c r="U38" t="n">
         <v>929.95</v>
       </c>
+      <c r="V38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3349,6 +3465,9 @@
       <c r="U39" t="n">
         <v>929.95</v>
       </c>
+      <c r="V39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3422,6 +3541,9 @@
       <c r="U40" t="n">
         <v>929.95</v>
       </c>
+      <c r="V40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3497,6 +3619,9 @@
         <v>959.95</v>
       </c>
       <c r="U41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="V41" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -3572,6 +3697,9 @@
       <c r="U42" t="n">
         <v>959.95</v>
       </c>
+      <c r="V42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3645,6 +3773,9 @@
       <c r="U43" t="n">
         <v>959.95</v>
       </c>
+      <c r="V43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3722,6 +3853,9 @@
       <c r="U44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="V44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3797,6 +3931,9 @@
         <v>1199.95</v>
       </c>
       <c r="U45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="V45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -3872,6 +4009,9 @@
       <c r="U46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="V46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3949,6 +4089,9 @@
       <c r="U47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="V47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4026,6 +4169,9 @@
       <c r="U48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="V48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4103,6 +4249,9 @@
       <c r="U49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="V49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4180,6 +4329,9 @@
       <c r="U50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="V50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4257,6 +4409,9 @@
       <c r="U51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="V51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4334,6 +4489,9 @@
       <c r="U52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="V52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4411,6 +4569,9 @@
       <c r="U53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="V53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4488,6 +4649,9 @@
       <c r="U54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="V54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4565,6 +4729,9 @@
       <c r="U55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="V55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4642,6 +4809,9 @@
       <c r="U56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="V56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4719,6 +4889,9 @@
       <c r="U57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="V57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4796,6 +4969,9 @@
       <c r="U58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="V58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4873,6 +5049,9 @@
       <c r="U59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="V59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4950,6 +5129,9 @@
       <c r="U60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="V60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5025,6 +5207,9 @@
         <v>1829.95</v>
       </c>
       <c r="U61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="V61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -5100,6 +5285,9 @@
       <c r="U62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="V62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5173,6 +5361,9 @@
       <c r="U63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="V63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5246,6 +5437,9 @@
       <c r="U64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="V64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5319,6 +5513,9 @@
       <c r="U65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="V65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5392,6 +5589,9 @@
       <c r="U66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="V66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5465,6 +5665,9 @@
       <c r="U67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="V67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5538,6 +5741,9 @@
       <c r="U68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="V68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5611,6 +5817,9 @@
       <c r="U69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="V69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5684,6 +5893,9 @@
       <c r="U70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="V70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5757,6 +5969,9 @@
       <c r="U71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="V71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5830,6 +6045,9 @@
       <c r="U72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="V72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5903,6 +6121,9 @@
       <c r="U73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="V73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5976,6 +6197,9 @@
       <c r="U74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="V74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6049,6 +6273,9 @@
       <c r="U75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="V75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6120,6 +6347,9 @@
         <v>2519.95</v>
       </c>
       <c r="U76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="V76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>2026-02-16 14:03:30</t>
         </is>
       </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>2026-02-16 15:37:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +613,9 @@
       <c r="V2" t="n">
         <v>169.95</v>
       </c>
+      <c r="W2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +692,9 @@
       <c r="V3" t="n">
         <v>169.95</v>
       </c>
+      <c r="W3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -760,6 +771,9 @@
       <c r="V4" t="n">
         <v>169.95</v>
       </c>
+      <c r="W4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -840,6 +854,9 @@
       <c r="V5" t="n">
         <v>199.95</v>
       </c>
+      <c r="W5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -920,6 +937,9 @@
       <c r="V6" t="n">
         <v>199.95</v>
       </c>
+      <c r="W6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1000,6 +1020,9 @@
       <c r="V7" t="n">
         <v>199.95</v>
       </c>
+      <c r="W7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1026,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1080,6 +1103,9 @@
       <c r="V8" t="n">
         <v>229.95</v>
       </c>
+      <c r="W8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1160,6 +1186,9 @@
       <c r="V9" t="n">
         <v>229.95</v>
       </c>
+      <c r="W9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1238,6 +1267,9 @@
         <v>229.95</v>
       </c>
       <c r="V10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="W10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1316,6 +1348,9 @@
       <c r="V11" t="n">
         <v>294.95</v>
       </c>
+      <c r="W11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1392,6 +1427,9 @@
       <c r="V12" t="n">
         <v>318.95</v>
       </c>
+      <c r="W12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1468,6 +1506,9 @@
       <c r="V13" t="n">
         <v>318.95</v>
       </c>
+      <c r="W13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1546,6 +1587,9 @@
         <v>339.95</v>
       </c>
       <c r="V14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="W14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1624,6 +1668,9 @@
       <c r="V15" t="n">
         <v>399.95</v>
       </c>
+      <c r="W15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1700,6 +1747,9 @@
       <c r="V16" t="n">
         <v>399.95</v>
       </c>
+      <c r="W16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1776,6 +1826,9 @@
       <c r="V17" t="n">
         <v>429.95</v>
       </c>
+      <c r="W17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1852,6 +1905,9 @@
       <c r="V18" t="n">
         <v>499.95</v>
       </c>
+      <c r="W18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1928,6 +1984,9 @@
       <c r="V19" t="n">
         <v>499.95</v>
       </c>
+      <c r="W19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2004,6 +2063,9 @@
       <c r="V20" t="n">
         <v>499.95</v>
       </c>
+      <c r="W20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2080,6 +2142,9 @@
       <c r="V21" t="n">
         <v>499.95</v>
       </c>
+      <c r="W21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2156,6 +2221,9 @@
       <c r="V22" t="n">
         <v>519.95</v>
       </c>
+      <c r="W22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2234,6 +2302,9 @@
         <v>686</v>
       </c>
       <c r="V23" t="n">
+        <v>686</v>
+      </c>
+      <c r="W23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2312,6 +2383,9 @@
       <c r="V24" t="n">
         <v>749.95</v>
       </c>
+      <c r="W24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2388,6 +2462,9 @@
       <c r="V25" t="n">
         <v>749.95</v>
       </c>
+      <c r="W25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2464,6 +2541,9 @@
       <c r="V26" t="n">
         <v>749.95</v>
       </c>
+      <c r="W26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2540,6 +2620,9 @@
       <c r="V27" t="n">
         <v>749.95</v>
       </c>
+      <c r="W27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2616,6 +2699,9 @@
       <c r="V28" t="n">
         <v>809.95</v>
       </c>
+      <c r="W28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2692,6 +2778,9 @@
       <c r="V29" t="n">
         <v>809.95</v>
       </c>
+      <c r="W29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2768,6 +2857,9 @@
       <c r="V30" t="n">
         <v>809.95</v>
       </c>
+      <c r="W30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2848,6 +2940,9 @@
       <c r="V31" t="n">
         <v>899.95</v>
       </c>
+      <c r="W31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2928,6 +3023,9 @@
       <c r="V32" t="n">
         <v>899.95</v>
       </c>
+      <c r="W32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3008,6 +3106,9 @@
       <c r="V33" t="n">
         <v>899.95</v>
       </c>
+      <c r="W33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3086,6 +3187,9 @@
         <v>899.95</v>
       </c>
       <c r="V34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="W34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -3164,6 +3268,9 @@
       <c r="V35" t="n">
         <v>899.95</v>
       </c>
+      <c r="W35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3240,6 +3347,9 @@
       <c r="V36" t="n">
         <v>899.95</v>
       </c>
+      <c r="W36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3316,6 +3426,9 @@
       <c r="V37" t="n">
         <v>929.95</v>
       </c>
+      <c r="W37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3392,6 +3505,9 @@
       <c r="V38" t="n">
         <v>929.95</v>
       </c>
+      <c r="W38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3468,6 +3584,9 @@
       <c r="V39" t="n">
         <v>929.95</v>
       </c>
+      <c r="W39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3544,6 +3663,9 @@
       <c r="V40" t="n">
         <v>929.95</v>
       </c>
+      <c r="W40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3622,6 +3744,9 @@
         <v>959.95</v>
       </c>
       <c r="V41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="W41" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -3700,6 +3825,9 @@
       <c r="V42" t="n">
         <v>959.95</v>
       </c>
+      <c r="W42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3776,6 +3904,9 @@
       <c r="V43" t="n">
         <v>959.95</v>
       </c>
+      <c r="W43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3856,6 +3987,9 @@
       <c r="V44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="W44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3934,6 +4068,9 @@
         <v>1199.95</v>
       </c>
       <c r="V45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="W45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -4012,6 +4149,9 @@
       <c r="V46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="W46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4092,6 +4232,9 @@
       <c r="V47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="W47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4172,6 +4315,9 @@
       <c r="V48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="W48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4252,6 +4398,9 @@
       <c r="V49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="W49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4332,6 +4481,9 @@
       <c r="V50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="W50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4412,6 +4564,9 @@
       <c r="V51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="W51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4492,6 +4647,9 @@
       <c r="V52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="W52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4572,6 +4730,9 @@
       <c r="V53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="W53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4652,6 +4813,9 @@
       <c r="V54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="W54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4732,6 +4896,9 @@
       <c r="V55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="W55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4812,6 +4979,9 @@
       <c r="V56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="W56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4892,6 +5062,9 @@
       <c r="V57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="W57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4972,6 +5145,9 @@
       <c r="V58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="W58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5052,6 +5228,9 @@
       <c r="V59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="W59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5132,6 +5311,9 @@
       <c r="V60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="W60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5210,6 +5392,9 @@
         <v>1829.95</v>
       </c>
       <c r="V61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="W61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -5288,6 +5473,9 @@
       <c r="V62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="W62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5364,6 +5552,9 @@
       <c r="V63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="W63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5440,6 +5631,9 @@
       <c r="V64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="W64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5516,6 +5710,9 @@
       <c r="V65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="W65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5592,6 +5789,9 @@
       <c r="V66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="W66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5668,6 +5868,9 @@
       <c r="V67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="W67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5744,6 +5947,9 @@
       <c r="V68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="W68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5820,6 +6026,9 @@
       <c r="V69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="W69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5896,6 +6105,9 @@
       <c r="V70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="W70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5972,6 +6184,9 @@
       <c r="V71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="W71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6048,6 +6263,9 @@
       <c r="V72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="W72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6124,6 +6342,9 @@
       <c r="V73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="W73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6200,6 +6421,9 @@
       <c r="V74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="W74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6276,6 +6500,9 @@
       <c r="V75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="W75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6350,6 +6577,9 @@
         <v>2519.95</v>
       </c>
       <c r="V76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="W76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:X76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,11 @@
           <t>2026-02-16 15:37:05</t>
         </is>
       </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>2026-02-16 16:37:34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -616,6 +621,9 @@
       <c r="W2" t="n">
         <v>169.95</v>
       </c>
+      <c r="X2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -695,6 +703,9 @@
       <c r="W3" t="n">
         <v>169.95</v>
       </c>
+      <c r="X3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -774,6 +785,9 @@
       <c r="W4" t="n">
         <v>169.95</v>
       </c>
+      <c r="X4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -857,6 +871,9 @@
       <c r="W5" t="n">
         <v>199.95</v>
       </c>
+      <c r="X5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -940,6 +957,9 @@
       <c r="W6" t="n">
         <v>199.95</v>
       </c>
+      <c r="X6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1023,6 +1043,9 @@
       <c r="W7" t="n">
         <v>199.95</v>
       </c>
+      <c r="X7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1106,6 +1129,9 @@
       <c r="W8" t="n">
         <v>229.95</v>
       </c>
+      <c r="X8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1189,6 +1215,9 @@
       <c r="W9" t="n">
         <v>229.95</v>
       </c>
+      <c r="X9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1270,6 +1299,9 @@
         <v>229.95</v>
       </c>
       <c r="W10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="X10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1351,6 +1383,9 @@
       <c r="W11" t="n">
         <v>294.95</v>
       </c>
+      <c r="X11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1430,6 +1465,9 @@
       <c r="W12" t="n">
         <v>318.95</v>
       </c>
+      <c r="X12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1509,6 +1547,9 @@
       <c r="W13" t="n">
         <v>318.95</v>
       </c>
+      <c r="X13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1590,6 +1631,9 @@
         <v>339.95</v>
       </c>
       <c r="W14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="X14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1671,6 +1715,9 @@
       <c r="W15" t="n">
         <v>399.95</v>
       </c>
+      <c r="X15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1750,6 +1797,9 @@
       <c r="W16" t="n">
         <v>399.95</v>
       </c>
+      <c r="X16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1829,6 +1879,9 @@
       <c r="W17" t="n">
         <v>429.95</v>
       </c>
+      <c r="X17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1908,6 +1961,9 @@
       <c r="W18" t="n">
         <v>499.95</v>
       </c>
+      <c r="X18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1987,6 +2043,9 @@
       <c r="W19" t="n">
         <v>499.95</v>
       </c>
+      <c r="X19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2066,6 +2125,9 @@
       <c r="W20" t="n">
         <v>499.95</v>
       </c>
+      <c r="X20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2145,6 +2207,9 @@
       <c r="W21" t="n">
         <v>499.95</v>
       </c>
+      <c r="X21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2224,6 +2289,9 @@
       <c r="W22" t="n">
         <v>519.95</v>
       </c>
+      <c r="X22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2305,6 +2373,9 @@
         <v>686</v>
       </c>
       <c r="W23" t="n">
+        <v>686</v>
+      </c>
+      <c r="X23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2386,6 +2457,9 @@
       <c r="W24" t="n">
         <v>749.95</v>
       </c>
+      <c r="X24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2465,6 +2539,9 @@
       <c r="W25" t="n">
         <v>749.95</v>
       </c>
+      <c r="X25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2544,6 +2621,9 @@
       <c r="W26" t="n">
         <v>749.95</v>
       </c>
+      <c r="X26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2623,6 +2703,9 @@
       <c r="W27" t="n">
         <v>749.95</v>
       </c>
+      <c r="X27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2702,6 +2785,9 @@
       <c r="W28" t="n">
         <v>809.95</v>
       </c>
+      <c r="X28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2781,6 +2867,9 @@
       <c r="W29" t="n">
         <v>809.95</v>
       </c>
+      <c r="X29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2860,6 +2949,9 @@
       <c r="W30" t="n">
         <v>809.95</v>
       </c>
+      <c r="X30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2943,6 +3035,9 @@
       <c r="W31" t="n">
         <v>899.95</v>
       </c>
+      <c r="X31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3026,6 +3121,9 @@
       <c r="W32" t="n">
         <v>899.95</v>
       </c>
+      <c r="X32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3109,6 +3207,9 @@
       <c r="W33" t="n">
         <v>899.95</v>
       </c>
+      <c r="X33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3190,6 +3291,9 @@
         <v>899.95</v>
       </c>
       <c r="W34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="X34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -3271,6 +3375,9 @@
       <c r="W35" t="n">
         <v>899.95</v>
       </c>
+      <c r="X35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3350,6 +3457,9 @@
       <c r="W36" t="n">
         <v>899.95</v>
       </c>
+      <c r="X36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3429,6 +3539,9 @@
       <c r="W37" t="n">
         <v>929.95</v>
       </c>
+      <c r="X37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3508,6 +3621,9 @@
       <c r="W38" t="n">
         <v>929.95</v>
       </c>
+      <c r="X38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3587,6 +3703,9 @@
       <c r="W39" t="n">
         <v>929.95</v>
       </c>
+      <c r="X39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3666,6 +3785,9 @@
       <c r="W40" t="n">
         <v>929.95</v>
       </c>
+      <c r="X40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3747,6 +3869,9 @@
         <v>959.95</v>
       </c>
       <c r="W41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="X41" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -3828,6 +3953,9 @@
       <c r="W42" t="n">
         <v>959.95</v>
       </c>
+      <c r="X42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3907,6 +4035,9 @@
       <c r="W43" t="n">
         <v>959.95</v>
       </c>
+      <c r="X43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3990,6 +4121,9 @@
       <c r="W44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="X44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4071,6 +4205,9 @@
         <v>1199.95</v>
       </c>
       <c r="W45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="X45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -4152,6 +4289,9 @@
       <c r="W46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="X46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4235,6 +4375,9 @@
       <c r="W47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="X47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4318,6 +4461,9 @@
       <c r="W48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="X48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4401,6 +4547,9 @@
       <c r="W49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="X49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4484,6 +4633,9 @@
       <c r="W50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="X50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4567,6 +4719,9 @@
       <c r="W51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="X51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4650,6 +4805,9 @@
       <c r="W52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="X52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4733,6 +4891,9 @@
       <c r="W53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="X53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4816,6 +4977,9 @@
       <c r="W54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="X54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4899,6 +5063,9 @@
       <c r="W55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="X55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4982,6 +5149,9 @@
       <c r="W56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="X56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5065,6 +5235,9 @@
       <c r="W57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="X57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5148,6 +5321,9 @@
       <c r="W58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="X58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5231,6 +5407,9 @@
       <c r="W59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="X59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5314,6 +5493,9 @@
       <c r="W60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="X60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5395,6 +5577,9 @@
         <v>1829.95</v>
       </c>
       <c r="W61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="X61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -5476,6 +5661,9 @@
       <c r="W62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="X62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5555,6 +5743,9 @@
       <c r="W63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="X63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5634,6 +5825,9 @@
       <c r="W64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="X64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5713,6 +5907,9 @@
       <c r="W65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="X65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5792,6 +5989,9 @@
       <c r="W66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="X66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5871,6 +6071,9 @@
       <c r="W67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="X67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5950,6 +6153,9 @@
       <c r="W68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="X68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6029,6 +6235,9 @@
       <c r="W69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="X69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6108,6 +6317,9 @@
       <c r="W70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="X70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6187,6 +6399,9 @@
       <c r="W71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="X71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6266,6 +6481,9 @@
       <c r="W72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="X72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6345,6 +6563,9 @@
       <c r="W73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="X73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6424,6 +6645,9 @@
       <c r="W74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="X74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6503,6 +6727,9 @@
       <c r="W75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="X75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6580,6 +6807,9 @@
         <v>2519.95</v>
       </c>
       <c r="W76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="X76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X76"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,11 @@
           <t>2026-02-16 16:37:34</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2026-02-16 17:35:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -624,6 +629,9 @@
       <c r="X2" t="n">
         <v>169.95</v>
       </c>
+      <c r="Y2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -706,6 +714,9 @@
       <c r="X3" t="n">
         <v>169.95</v>
       </c>
+      <c r="Y3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -788,6 +799,9 @@
       <c r="X4" t="n">
         <v>169.95</v>
       </c>
+      <c r="Y4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -874,6 +888,9 @@
       <c r="X5" t="n">
         <v>199.95</v>
       </c>
+      <c r="Y5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -960,6 +977,9 @@
       <c r="X6" t="n">
         <v>199.95</v>
       </c>
+      <c r="Y6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1046,6 +1066,9 @@
       <c r="X7" t="n">
         <v>199.95</v>
       </c>
+      <c r="Y7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1132,6 +1155,9 @@
       <c r="X8" t="n">
         <v>229.95</v>
       </c>
+      <c r="Y8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1218,6 +1244,9 @@
       <c r="X9" t="n">
         <v>229.95</v>
       </c>
+      <c r="Y9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1302,6 +1331,9 @@
         <v>229.95</v>
       </c>
       <c r="X10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="Y10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1386,6 +1418,9 @@
       <c r="X11" t="n">
         <v>294.95</v>
       </c>
+      <c r="Y11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1468,6 +1503,9 @@
       <c r="X12" t="n">
         <v>318.95</v>
       </c>
+      <c r="Y12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1550,6 +1588,9 @@
       <c r="X13" t="n">
         <v>318.95</v>
       </c>
+      <c r="Y13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1634,6 +1675,9 @@
         <v>339.95</v>
       </c>
       <c r="X14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="Y14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1718,6 +1762,9 @@
       <c r="X15" t="n">
         <v>399.95</v>
       </c>
+      <c r="Y15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1800,6 +1847,9 @@
       <c r="X16" t="n">
         <v>399.95</v>
       </c>
+      <c r="Y16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1882,6 +1932,9 @@
       <c r="X17" t="n">
         <v>429.95</v>
       </c>
+      <c r="Y17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1964,6 +2017,9 @@
       <c r="X18" t="n">
         <v>499.95</v>
       </c>
+      <c r="Y18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2046,6 +2102,9 @@
       <c r="X19" t="n">
         <v>499.95</v>
       </c>
+      <c r="Y19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2128,6 +2187,9 @@
       <c r="X20" t="n">
         <v>499.95</v>
       </c>
+      <c r="Y20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2210,6 +2272,9 @@
       <c r="X21" t="n">
         <v>499.95</v>
       </c>
+      <c r="Y21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2292,6 +2357,9 @@
       <c r="X22" t="n">
         <v>519.95</v>
       </c>
+      <c r="Y22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2376,6 +2444,9 @@
         <v>686</v>
       </c>
       <c r="X23" t="n">
+        <v>686</v>
+      </c>
+      <c r="Y23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2460,6 +2531,9 @@
       <c r="X24" t="n">
         <v>749.95</v>
       </c>
+      <c r="Y24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2542,6 +2616,9 @@
       <c r="X25" t="n">
         <v>749.95</v>
       </c>
+      <c r="Y25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2624,6 +2701,9 @@
       <c r="X26" t="n">
         <v>749.95</v>
       </c>
+      <c r="Y26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2706,6 +2786,9 @@
       <c r="X27" t="n">
         <v>749.95</v>
       </c>
+      <c r="Y27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2788,6 +2871,9 @@
       <c r="X28" t="n">
         <v>809.95</v>
       </c>
+      <c r="Y28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2870,6 +2956,9 @@
       <c r="X29" t="n">
         <v>809.95</v>
       </c>
+      <c r="Y29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2952,6 +3041,9 @@
       <c r="X30" t="n">
         <v>809.95</v>
       </c>
+      <c r="Y30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3038,6 +3130,9 @@
       <c r="X31" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3124,6 +3219,9 @@
       <c r="X32" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3210,6 +3308,9 @@
       <c r="X33" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3294,6 +3395,9 @@
         <v>899.95</v>
       </c>
       <c r="X34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="Y34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -3378,6 +3482,9 @@
       <c r="X35" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3460,6 +3567,9 @@
       <c r="X36" t="n">
         <v>899.95</v>
       </c>
+      <c r="Y36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3542,6 +3652,9 @@
       <c r="X37" t="n">
         <v>929.95</v>
       </c>
+      <c r="Y37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3624,6 +3737,9 @@
       <c r="X38" t="n">
         <v>929.95</v>
       </c>
+      <c r="Y38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3706,6 +3822,9 @@
       <c r="X39" t="n">
         <v>929.95</v>
       </c>
+      <c r="Y39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3788,6 +3907,9 @@
       <c r="X40" t="n">
         <v>929.95</v>
       </c>
+      <c r="Y40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3872,6 +3994,9 @@
         <v>959.95</v>
       </c>
       <c r="X41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="Y41" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -3956,6 +4081,9 @@
       <c r="X42" t="n">
         <v>959.95</v>
       </c>
+      <c r="Y42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4038,6 +4166,9 @@
       <c r="X43" t="n">
         <v>959.95</v>
       </c>
+      <c r="Y43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4124,6 +4255,9 @@
       <c r="X44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="Y44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4208,6 +4342,9 @@
         <v>1199.95</v>
       </c>
       <c r="X45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="Y45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -4292,6 +4429,9 @@
       <c r="X46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Y46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4378,6 +4518,9 @@
       <c r="X47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Y47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4464,6 +4607,9 @@
       <c r="X48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Y48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4550,6 +4696,9 @@
       <c r="X49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Y49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4636,6 +4785,9 @@
       <c r="X50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Y50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4722,6 +4874,9 @@
       <c r="X51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="Y51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4808,6 +4963,9 @@
       <c r="X52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="Y52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4894,6 +5052,9 @@
       <c r="X53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Y53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4980,6 +5141,9 @@
       <c r="X54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Y54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4999,7 +5163,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -5066,6 +5230,9 @@
       <c r="X55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Y55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5152,6 +5319,9 @@
       <c r="X56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Y56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5238,6 +5408,9 @@
       <c r="X57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Y57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5324,6 +5497,9 @@
       <c r="X58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Y58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5410,6 +5586,9 @@
       <c r="X59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="Y59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5496,6 +5675,9 @@
       <c r="X60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="Y60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5580,6 +5762,9 @@
         <v>1829.95</v>
       </c>
       <c r="X61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="Y61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -5664,6 +5849,9 @@
       <c r="X62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Y62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5746,6 +5934,9 @@
       <c r="X63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Y63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5828,6 +6019,9 @@
       <c r="X64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Y64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5910,6 +6104,9 @@
       <c r="X65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Y65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5992,6 +6189,9 @@
       <c r="X66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Y66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6074,6 +6274,9 @@
       <c r="X67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Y67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6156,6 +6359,9 @@
       <c r="X68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Y68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6238,6 +6444,9 @@
       <c r="X69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="Y69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6320,6 +6529,9 @@
       <c r="X70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Y70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6402,6 +6614,9 @@
       <c r="X71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Y71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6484,6 +6699,9 @@
       <c r="X72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Y72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6566,6 +6784,9 @@
       <c r="X73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="Y73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6648,6 +6869,9 @@
       <c r="X74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="Y74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6730,6 +6954,9 @@
       <c r="X75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="Y75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6810,6 +7037,9 @@
         <v>2519.95</v>
       </c>
       <c r="X76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="Y76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,11 @@
           <t>2026-02-16 17:35:01</t>
         </is>
       </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>2026-02-16 18:36:07</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -632,6 +637,9 @@
       <c r="Y2" t="n">
         <v>169.95</v>
       </c>
+      <c r="Z2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -717,6 +725,9 @@
       <c r="Y3" t="n">
         <v>169.95</v>
       </c>
+      <c r="Z3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -802,6 +813,9 @@
       <c r="Y4" t="n">
         <v>169.95</v>
       </c>
+      <c r="Z4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -891,6 +905,9 @@
       <c r="Y5" t="n">
         <v>199.95</v>
       </c>
+      <c r="Z5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -980,6 +997,9 @@
       <c r="Y6" t="n">
         <v>199.95</v>
       </c>
+      <c r="Z6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1069,6 +1089,9 @@
       <c r="Y7" t="n">
         <v>199.95</v>
       </c>
+      <c r="Z7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1158,6 +1181,9 @@
       <c r="Y8" t="n">
         <v>229.95</v>
       </c>
+      <c r="Z8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1247,6 +1273,9 @@
       <c r="Y9" t="n">
         <v>229.95</v>
       </c>
+      <c r="Z9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1334,6 +1363,9 @@
         <v>229.95</v>
       </c>
       <c r="Y10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="Z10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1421,6 +1453,9 @@
       <c r="Y11" t="n">
         <v>294.95</v>
       </c>
+      <c r="Z11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1506,6 +1541,9 @@
       <c r="Y12" t="n">
         <v>318.95</v>
       </c>
+      <c r="Z12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1591,6 +1629,9 @@
       <c r="Y13" t="n">
         <v>318.95</v>
       </c>
+      <c r="Z13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1678,6 +1719,9 @@
         <v>339.95</v>
       </c>
       <c r="Y14" t="n">
+        <v>339.95</v>
+      </c>
+      <c r="Z14" t="n">
         <v>339.95</v>
       </c>
     </row>
@@ -1765,6 +1809,9 @@
       <c r="Y15" t="n">
         <v>399.95</v>
       </c>
+      <c r="Z15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1850,6 +1897,9 @@
       <c r="Y16" t="n">
         <v>399.95</v>
       </c>
+      <c r="Z16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1935,6 +1985,9 @@
       <c r="Y17" t="n">
         <v>429.95</v>
       </c>
+      <c r="Z17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2020,6 +2073,9 @@
       <c r="Y18" t="n">
         <v>499.95</v>
       </c>
+      <c r="Z18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2105,6 +2161,9 @@
       <c r="Y19" t="n">
         <v>499.95</v>
       </c>
+      <c r="Z19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2190,6 +2249,9 @@
       <c r="Y20" t="n">
         <v>499.95</v>
       </c>
+      <c r="Z20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2275,6 +2337,9 @@
       <c r="Y21" t="n">
         <v>499.95</v>
       </c>
+      <c r="Z21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2360,6 +2425,9 @@
       <c r="Y22" t="n">
         <v>519.95</v>
       </c>
+      <c r="Z22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2447,6 +2515,9 @@
         <v>686</v>
       </c>
       <c r="Y23" t="n">
+        <v>686</v>
+      </c>
+      <c r="Z23" t="n">
         <v>686</v>
       </c>
     </row>
@@ -2534,6 +2605,9 @@
       <c r="Y24" t="n">
         <v>749.95</v>
       </c>
+      <c r="Z24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2619,6 +2693,9 @@
       <c r="Y25" t="n">
         <v>749.95</v>
       </c>
+      <c r="Z25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2704,6 +2781,9 @@
       <c r="Y26" t="n">
         <v>749.95</v>
       </c>
+      <c r="Z26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2789,6 +2869,9 @@
       <c r="Y27" t="n">
         <v>749.95</v>
       </c>
+      <c r="Z27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2874,6 +2957,9 @@
       <c r="Y28" t="n">
         <v>809.95</v>
       </c>
+      <c r="Z28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2959,6 +3045,9 @@
       <c r="Y29" t="n">
         <v>809.95</v>
       </c>
+      <c r="Z29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3044,6 +3133,9 @@
       <c r="Y30" t="n">
         <v>809.95</v>
       </c>
+      <c r="Z30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3133,6 +3225,9 @@
       <c r="Y31" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3222,6 +3317,9 @@
       <c r="Y32" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3311,6 +3409,9 @@
       <c r="Y33" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3398,6 +3499,9 @@
         <v>899.95</v>
       </c>
       <c r="Y34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="Z34" t="n">
         <v>899.95</v>
       </c>
     </row>
@@ -3485,6 +3589,9 @@
       <c r="Y35" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3570,6 +3677,9 @@
       <c r="Y36" t="n">
         <v>899.95</v>
       </c>
+      <c r="Z36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3655,6 +3765,9 @@
       <c r="Y37" t="n">
         <v>929.95</v>
       </c>
+      <c r="Z37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3740,6 +3853,9 @@
       <c r="Y38" t="n">
         <v>929.95</v>
       </c>
+      <c r="Z38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3825,6 +3941,9 @@
       <c r="Y39" t="n">
         <v>929.95</v>
       </c>
+      <c r="Z39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3910,6 +4029,9 @@
       <c r="Y40" t="n">
         <v>929.95</v>
       </c>
+      <c r="Z40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3997,6 +4119,9 @@
         <v>959.95</v>
       </c>
       <c r="Y41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="Z41" t="n">
         <v>959.95</v>
       </c>
     </row>
@@ -4084,6 +4209,9 @@
       <c r="Y42" t="n">
         <v>959.95</v>
       </c>
+      <c r="Z42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4169,6 +4297,9 @@
       <c r="Y43" t="n">
         <v>959.95</v>
       </c>
+      <c r="Z43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4258,6 +4389,9 @@
       <c r="Y44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="Z44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4345,6 +4479,9 @@
         <v>1199.95</v>
       </c>
       <c r="Y45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="Z45" t="n">
         <v>1199.95</v>
       </c>
     </row>
@@ -4432,6 +4569,9 @@
       <c r="Y46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Z46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4521,6 +4661,9 @@
       <c r="Y47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Z47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4610,6 +4753,9 @@
       <c r="Y48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Z48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4699,6 +4845,9 @@
       <c r="Y49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Z49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4788,6 +4937,9 @@
       <c r="Y50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="Z50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4877,6 +5029,9 @@
       <c r="Y51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="Z51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4966,6 +5121,9 @@
       <c r="Y52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="Z52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5055,6 +5213,9 @@
       <c r="Y53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Z53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5144,6 +5305,9 @@
       <c r="Y54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Z54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5233,6 +5397,9 @@
       <c r="Y55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="Z55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5322,6 +5489,9 @@
       <c r="Y56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Z56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5411,6 +5581,9 @@
       <c r="Y57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Z57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5500,6 +5673,9 @@
       <c r="Y58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="Z58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5589,6 +5765,9 @@
       <c r="Y59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="Z59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5678,6 +5857,9 @@
       <c r="Y60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="Z60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5765,6 +5947,9 @@
         <v>1829.95</v>
       </c>
       <c r="Y61" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="Z61" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -5852,6 +6037,9 @@
       <c r="Y62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Z62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5937,6 +6125,9 @@
       <c r="Y63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Z63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6022,6 +6213,9 @@
       <c r="Y64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Z64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6107,6 +6301,9 @@
       <c r="Y65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="Z65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6192,6 +6389,9 @@
       <c r="Y66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Z66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6277,6 +6477,9 @@
       <c r="Y67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Z67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6362,6 +6565,9 @@
       <c r="Y68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="Z68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6447,6 +6653,9 @@
       <c r="Y69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="Z69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6532,6 +6741,9 @@
       <c r="Y70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Z70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6617,6 +6829,9 @@
       <c r="Y71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Z71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6702,6 +6917,9 @@
       <c r="Y72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="Z72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6787,6 +7005,9 @@
       <c r="Y73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="Z73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6872,6 +7093,9 @@
       <c r="Y74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="Z74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6957,6 +7181,9 @@
       <c r="Y75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="Z75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7040,6 +7267,9 @@
         <v>2519.95</v>
       </c>
       <c r="Y76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="Z76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,11 @@
           <t>2026-02-16 18:36:07</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>2026-02-16 19:30:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -640,6 +645,9 @@
       <c r="Z2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AA2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -728,6 +736,9 @@
       <c r="Z3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AA3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -816,6 +827,9 @@
       <c r="Z4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AA4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -908,6 +922,9 @@
       <c r="Z5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AA5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1000,6 +1017,9 @@
       <c r="Z6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AA6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1092,6 +1112,9 @@
       <c r="Z7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AA7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1184,6 +1207,9 @@
       <c r="Z8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AA8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1276,6 +1302,9 @@
       <c r="Z9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AA9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1368,6 +1397,9 @@
       <c r="Z10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AA10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1456,6 +1488,9 @@
       <c r="Z11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AA11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1544,6 +1579,9 @@
       <c r="Z12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AA12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1632,6 +1670,9 @@
       <c r="Z13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AA13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1724,6 +1765,9 @@
       <c r="Z14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AA14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1812,6 +1856,9 @@
       <c r="Z15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AA15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1900,6 +1947,9 @@
       <c r="Z16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AA16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1988,6 +2038,9 @@
       <c r="Z17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AA17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2076,6 +2129,9 @@
       <c r="Z18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AA18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2164,6 +2220,9 @@
       <c r="Z19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AA19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2252,6 +2311,9 @@
       <c r="Z20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AA20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2340,6 +2402,9 @@
       <c r="Z21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AA21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2428,6 +2493,9 @@
       <c r="Z22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AA22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2520,6 +2588,9 @@
       <c r="Z23" t="n">
         <v>686</v>
       </c>
+      <c r="AA23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2608,6 +2679,9 @@
       <c r="Z24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AA24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2696,6 +2770,9 @@
       <c r="Z25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AA25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2784,6 +2861,9 @@
       <c r="Z26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AA26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2872,6 +2952,9 @@
       <c r="Z27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AA27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2960,6 +3043,9 @@
       <c r="Z28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AA28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3048,6 +3134,9 @@
       <c r="Z29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AA29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3136,6 +3225,9 @@
       <c r="Z30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AA30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3228,6 +3320,9 @@
       <c r="Z31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3320,6 +3415,9 @@
       <c r="Z32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3412,6 +3510,9 @@
       <c r="Z33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3504,6 +3605,9 @@
       <c r="Z34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3592,6 +3696,9 @@
       <c r="Z35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3680,6 +3787,9 @@
       <c r="Z36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AA36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3768,6 +3878,9 @@
       <c r="Z37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AA37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3856,6 +3969,9 @@
       <c r="Z38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AA38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3944,6 +4060,9 @@
       <c r="Z39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AA39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4032,6 +4151,9 @@
       <c r="Z40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AA40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4124,6 +4246,9 @@
       <c r="Z41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AA41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4212,6 +4337,9 @@
       <c r="Z42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AA42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4300,6 +4428,9 @@
       <c r="Z43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AA43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4392,6 +4523,9 @@
       <c r="Z44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AA44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4484,6 +4618,9 @@
       <c r="Z45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AA45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4572,6 +4709,9 @@
       <c r="Z46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AA46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4664,6 +4804,9 @@
       <c r="Z47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AA47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4756,6 +4899,9 @@
       <c r="Z48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AA48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4848,6 +4994,9 @@
       <c r="Z49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AA49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4940,6 +5089,9 @@
       <c r="Z50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AA50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5032,6 +5184,9 @@
       <c r="Z51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AA51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5124,6 +5279,9 @@
       <c r="Z52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AA52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5216,6 +5374,9 @@
       <c r="Z53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AA53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5308,6 +5469,9 @@
       <c r="Z54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AA54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5400,6 +5564,9 @@
       <c r="Z55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AA55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5492,6 +5659,9 @@
       <c r="Z56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AA56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5584,6 +5754,9 @@
       <c r="Z57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AA57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5676,6 +5849,9 @@
       <c r="Z58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AA58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5768,6 +5944,9 @@
       <c r="Z59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AA59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5860,6 +6039,9 @@
       <c r="Z60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AA60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5952,6 +6134,9 @@
       <c r="Z61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AA61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6040,6 +6225,9 @@
       <c r="Z62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AA62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6128,6 +6316,9 @@
       <c r="Z63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AA63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6216,6 +6407,9 @@
       <c r="Z64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AA64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6304,6 +6498,9 @@
       <c r="Z65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AA65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6392,6 +6589,9 @@
       <c r="Z66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AA66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6480,6 +6680,9 @@
       <c r="Z67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AA67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6568,6 +6771,9 @@
       <c r="Z68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AA68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6656,6 +6862,9 @@
       <c r="Z69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AA69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6744,6 +6953,9 @@
       <c r="Z70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AA70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6832,6 +7044,9 @@
       <c r="Z71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AA71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6920,6 +7135,9 @@
       <c r="Z72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AA72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7008,6 +7226,9 @@
       <c r="Z73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AA73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7096,6 +7317,9 @@
       <c r="Z74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AA74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7184,6 +7408,9 @@
       <c r="Z75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AA75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7270,6 +7497,9 @@
         <v>2519.95</v>
       </c>
       <c r="Z76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AA76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,11 @@
           <t>2026-02-16 19:30:20</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>2026-02-16 20:24:30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -648,6 +653,9 @@
       <c r="AA2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AB2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -739,6 +747,9 @@
       <c r="AA3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AB3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -830,6 +841,9 @@
       <c r="AA4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AB4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -925,6 +939,9 @@
       <c r="AA5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AB5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1020,6 +1037,9 @@
       <c r="AA6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AB6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1115,6 +1135,9 @@
       <c r="AA7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AB7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1210,6 +1233,9 @@
       <c r="AA8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AB8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1305,6 +1331,9 @@
       <c r="AA9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AB9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1400,6 +1429,9 @@
       <c r="AA10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AB10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1491,6 +1523,9 @@
       <c r="AA11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AB11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1582,6 +1617,9 @@
       <c r="AA12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AB12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1673,6 +1711,9 @@
       <c r="AA13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AB13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1768,6 +1809,9 @@
       <c r="AA14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AB14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1859,6 +1903,9 @@
       <c r="AA15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AB15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1950,6 +1997,9 @@
       <c r="AA16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AB16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2041,6 +2091,9 @@
       <c r="AA17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AB17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2132,6 +2185,9 @@
       <c r="AA18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AB18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2223,6 +2279,9 @@
       <c r="AA19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AB19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2314,6 +2373,9 @@
       <c r="AA20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AB20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2405,6 +2467,9 @@
       <c r="AA21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AB21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2496,6 +2561,9 @@
       <c r="AA22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AB22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2591,6 +2659,9 @@
       <c r="AA23" t="n">
         <v>686</v>
       </c>
+      <c r="AB23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2682,6 +2753,9 @@
       <c r="AA24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AB24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2773,6 +2847,9 @@
       <c r="AA25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AB25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2864,6 +2941,9 @@
       <c r="AA26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AB26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2955,6 +3035,9 @@
       <c r="AA27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AB27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3046,6 +3129,9 @@
       <c r="AA28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AB28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3137,6 +3223,9 @@
       <c r="AA29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AB29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3228,6 +3317,9 @@
       <c r="AA30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AB30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3323,6 +3415,9 @@
       <c r="AA31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3418,6 +3513,9 @@
       <c r="AA32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3513,6 +3611,9 @@
       <c r="AA33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3608,6 +3709,9 @@
       <c r="AA34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3699,6 +3803,9 @@
       <c r="AA35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3790,6 +3897,9 @@
       <c r="AA36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AB36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3881,6 +3991,9 @@
       <c r="AA37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AB37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3972,6 +4085,9 @@
       <c r="AA38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AB38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4063,6 +4179,9 @@
       <c r="AA39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AB39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4154,6 +4273,9 @@
       <c r="AA40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AB40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4249,6 +4371,9 @@
       <c r="AA41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AB41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4340,6 +4465,9 @@
       <c r="AA42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AB42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4431,6 +4559,9 @@
       <c r="AA43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AB43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4526,6 +4657,9 @@
       <c r="AA44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AB44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4621,6 +4755,9 @@
       <c r="AA45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AB45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4712,6 +4849,9 @@
       <c r="AA46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AB46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4807,6 +4947,9 @@
       <c r="AA47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AB47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4902,6 +5045,9 @@
       <c r="AA48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AB48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4997,6 +5143,9 @@
       <c r="AA49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AB49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5092,6 +5241,9 @@
       <c r="AA50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AB50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5187,6 +5339,9 @@
       <c r="AA51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AB51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5282,6 +5437,9 @@
       <c r="AA52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AB52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5377,6 +5535,9 @@
       <c r="AA53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AB53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5472,6 +5633,9 @@
       <c r="AA54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AB54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5567,6 +5731,9 @@
       <c r="AA55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AB55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5662,6 +5829,9 @@
       <c r="AA56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AB56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5757,6 +5927,9 @@
       <c r="AA57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AB57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5852,6 +6025,9 @@
       <c r="AA58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AB58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5947,6 +6123,9 @@
       <c r="AA59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AB59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6042,6 +6221,9 @@
       <c r="AA60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AB60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6137,6 +6319,9 @@
       <c r="AA61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AB61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6228,6 +6413,9 @@
       <c r="AA62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AB62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6319,6 +6507,9 @@
       <c r="AA63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AB63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6410,6 +6601,9 @@
       <c r="AA64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AB64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6501,6 +6695,9 @@
       <c r="AA65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AB65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6592,6 +6789,9 @@
       <c r="AA66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AB66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6683,6 +6883,9 @@
       <c r="AA67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AB67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6774,6 +6977,9 @@
       <c r="AA68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AB68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6865,6 +7071,9 @@
       <c r="AA69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AB69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6956,6 +7165,9 @@
       <c r="AA70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AB70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7047,6 +7259,9 @@
       <c r="AA71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AB71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7138,6 +7353,9 @@
       <c r="AA72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AB72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7229,6 +7447,9 @@
       <c r="AA73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AB73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7320,6 +7541,9 @@
       <c r="AA74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AB74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7411,6 +7635,9 @@
       <c r="AA75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AB75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7500,6 +7727,9 @@
         <v>2519.95</v>
       </c>
       <c r="AA76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AB76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,11 @@
           <t>2026-02-16 20:24:30</t>
         </is>
       </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>2026-02-16 21:25:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -656,6 +661,9 @@
       <c r="AB2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AC2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -750,6 +758,9 @@
       <c r="AB3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AC3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -844,6 +855,9 @@
       <c r="AB4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AC4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -942,6 +956,9 @@
       <c r="AB5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AC5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1040,6 +1057,9 @@
       <c r="AB6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AC6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1138,6 +1158,9 @@
       <c r="AB7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AC7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1236,6 +1259,9 @@
       <c r="AB8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AC8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1334,6 +1360,9 @@
       <c r="AB9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AC9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1432,6 +1461,9 @@
       <c r="AB10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AC10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1526,6 +1558,9 @@
       <c r="AB11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AC11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1620,6 +1655,9 @@
       <c r="AB12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AC12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1714,6 +1752,9 @@
       <c r="AB13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AC13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1812,6 +1853,9 @@
       <c r="AB14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AC14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1906,6 +1950,9 @@
       <c r="AB15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AC15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2000,6 +2047,9 @@
       <c r="AB16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AC16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2094,6 +2144,9 @@
       <c r="AB17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AC17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2188,6 +2241,9 @@
       <c r="AB18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AC18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2282,6 +2338,9 @@
       <c r="AB19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AC19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2376,6 +2435,9 @@
       <c r="AB20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AC20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2470,6 +2532,9 @@
       <c r="AB21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AC21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2564,6 +2629,9 @@
       <c r="AB22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AC22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2662,6 +2730,9 @@
       <c r="AB23" t="n">
         <v>686</v>
       </c>
+      <c r="AC23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2756,6 +2827,9 @@
       <c r="AB24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AC24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2850,6 +2924,9 @@
       <c r="AB25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AC25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2944,6 +3021,9 @@
       <c r="AB26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AC26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3038,6 +3118,9 @@
       <c r="AB27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AC27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3132,6 +3215,9 @@
       <c r="AB28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AC28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3226,6 +3312,9 @@
       <c r="AB29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AC29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3320,6 +3409,9 @@
       <c r="AB30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AC30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3418,6 +3510,9 @@
       <c r="AB31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3516,6 +3611,9 @@
       <c r="AB32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3614,6 +3712,9 @@
       <c r="AB33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3712,6 +3813,9 @@
       <c r="AB34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3806,6 +3910,9 @@
       <c r="AB35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3900,6 +4007,9 @@
       <c r="AB36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AC36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3994,6 +4104,9 @@
       <c r="AB37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AC37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4088,6 +4201,9 @@
       <c r="AB38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AC38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4182,6 +4298,9 @@
       <c r="AB39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AC39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4276,6 +4395,9 @@
       <c r="AB40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AC40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4374,6 +4496,9 @@
       <c r="AB41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AC41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4468,6 +4593,9 @@
       <c r="AB42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AC42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4562,6 +4690,9 @@
       <c r="AB43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AC43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4660,6 +4791,9 @@
       <c r="AB44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AC44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4758,6 +4892,9 @@
       <c r="AB45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AC45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4852,6 +4989,9 @@
       <c r="AB46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AC46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4950,6 +5090,9 @@
       <c r="AB47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AC47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5048,6 +5191,9 @@
       <c r="AB48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AC48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5146,6 +5292,9 @@
       <c r="AB49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AC49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5244,6 +5393,9 @@
       <c r="AB50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AC50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5342,6 +5494,9 @@
       <c r="AB51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AC51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5440,6 +5595,9 @@
       <c r="AB52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AC52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5538,6 +5696,9 @@
       <c r="AB53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AC53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5636,6 +5797,9 @@
       <c r="AB54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AC54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5734,6 +5898,9 @@
       <c r="AB55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AC55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5832,6 +5999,9 @@
       <c r="AB56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AC56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5930,6 +6100,9 @@
       <c r="AB57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AC57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6028,6 +6201,9 @@
       <c r="AB58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AC58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6126,6 +6302,9 @@
       <c r="AB59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AC59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6224,6 +6403,9 @@
       <c r="AB60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AC60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6322,6 +6504,9 @@
       <c r="AB61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AC61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6416,6 +6601,9 @@
       <c r="AB62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AC62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6510,6 +6698,9 @@
       <c r="AB63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AC63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6604,6 +6795,9 @@
       <c r="AB64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AC64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6698,6 +6892,9 @@
       <c r="AB65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AC65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6792,6 +6989,9 @@
       <c r="AB66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AC66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6886,6 +7086,9 @@
       <c r="AB67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AC67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6980,6 +7183,9 @@
       <c r="AB68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AC68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7074,6 +7280,9 @@
       <c r="AB69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AC69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7168,6 +7377,9 @@
       <c r="AB70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AC70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7262,6 +7474,9 @@
       <c r="AB71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AC71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7356,6 +7571,9 @@
       <c r="AB72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AC72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7450,6 +7668,9 @@
       <c r="AB73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AC73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7544,6 +7765,9 @@
       <c r="AB74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AC74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7638,6 +7862,9 @@
       <c r="AB75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AC75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7730,6 +7957,9 @@
         <v>2519.95</v>
       </c>
       <c r="AB76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AC76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC76"/>
+  <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,11 @@
           <t>2026-02-16 21:25:05</t>
         </is>
       </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>2026-02-16 22:22:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -664,6 +669,9 @@
       <c r="AC2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AD2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -761,6 +769,9 @@
       <c r="AC3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AD3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -858,6 +869,9 @@
       <c r="AC4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AD4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -959,6 +973,9 @@
       <c r="AC5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AD5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1060,6 +1077,9 @@
       <c r="AC6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AD6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1161,6 +1181,9 @@
       <c r="AC7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AD7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1262,6 +1285,9 @@
       <c r="AC8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AD8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1363,6 +1389,9 @@
       <c r="AC9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AD9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1464,6 +1493,9 @@
       <c r="AC10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AD10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1561,6 +1593,9 @@
       <c r="AC11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AD11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1658,6 +1693,9 @@
       <c r="AC12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AD12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1755,6 +1793,9 @@
       <c r="AC13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AD13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1856,6 +1897,9 @@
       <c r="AC14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AD14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1953,6 +1997,9 @@
       <c r="AC15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AD15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2050,6 +2097,9 @@
       <c r="AC16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AD16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2147,6 +2197,9 @@
       <c r="AC17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AD17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2244,6 +2297,9 @@
       <c r="AC18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AD18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2341,6 +2397,9 @@
       <c r="AC19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AD19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2438,6 +2497,9 @@
       <c r="AC20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AD20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2535,6 +2597,9 @@
       <c r="AC21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AD21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2632,6 +2697,9 @@
       <c r="AC22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AD22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2733,6 +2801,9 @@
       <c r="AC23" t="n">
         <v>686</v>
       </c>
+      <c r="AD23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2830,6 +2901,9 @@
       <c r="AC24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AD24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2927,6 +3001,9 @@
       <c r="AC25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AD25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3024,6 +3101,9 @@
       <c r="AC26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AD26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3121,6 +3201,9 @@
       <c r="AC27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AD27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3218,6 +3301,9 @@
       <c r="AC28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AD28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3315,6 +3401,9 @@
       <c r="AC29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AD29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3412,6 +3501,9 @@
       <c r="AC30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AD30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3513,6 +3605,9 @@
       <c r="AC31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3614,6 +3709,9 @@
       <c r="AC32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3715,6 +3813,9 @@
       <c r="AC33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3816,6 +3917,9 @@
       <c r="AC34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3913,6 +4017,9 @@
       <c r="AC35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4010,6 +4117,9 @@
       <c r="AC36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AD36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4107,6 +4217,9 @@
       <c r="AC37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AD37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4204,6 +4317,9 @@
       <c r="AC38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AD38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4301,6 +4417,9 @@
       <c r="AC39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AD39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4398,6 +4517,9 @@
       <c r="AC40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AD40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4499,6 +4621,9 @@
       <c r="AC41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AD41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4596,6 +4721,9 @@
       <c r="AC42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AD42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4693,6 +4821,9 @@
       <c r="AC43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AD43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4794,6 +4925,9 @@
       <c r="AC44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AD44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4895,6 +5029,9 @@
       <c r="AC45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AD45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4992,6 +5129,9 @@
       <c r="AC46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AD46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5093,6 +5233,9 @@
       <c r="AC47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AD47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5194,6 +5337,9 @@
       <c r="AC48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AD48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5295,6 +5441,9 @@
       <c r="AC49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AD49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5396,6 +5545,9 @@
       <c r="AC50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AD50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5497,6 +5649,9 @@
       <c r="AC51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AD51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5598,6 +5753,9 @@
       <c r="AC52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AD52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5699,6 +5857,9 @@
       <c r="AC53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AD53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5800,6 +5961,9 @@
       <c r="AC54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AD54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5901,6 +6065,9 @@
       <c r="AC55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AD55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6002,6 +6169,9 @@
       <c r="AC56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AD56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6103,6 +6273,9 @@
       <c r="AC57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AD57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6204,6 +6377,9 @@
       <c r="AC58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AD58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6305,6 +6481,9 @@
       <c r="AC59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AD59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6406,6 +6585,9 @@
       <c r="AC60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AD60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6507,6 +6689,9 @@
       <c r="AC61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AD61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6604,6 +6789,9 @@
       <c r="AC62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AD62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6701,6 +6889,9 @@
       <c r="AC63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AD63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6798,6 +6989,9 @@
       <c r="AC64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AD64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6895,6 +7089,9 @@
       <c r="AC65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AD65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6992,6 +7189,9 @@
       <c r="AC66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AD66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7089,6 +7289,9 @@
       <c r="AC67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AD67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7186,6 +7389,9 @@
       <c r="AC68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AD68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7283,6 +7489,9 @@
       <c r="AC69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AD69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7380,6 +7589,9 @@
       <c r="AC70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AD70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7477,6 +7689,9 @@
       <c r="AC71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AD71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7574,6 +7789,9 @@
       <c r="AC72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AD72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7671,6 +7889,9 @@
       <c r="AC73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AD73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7768,6 +7989,9 @@
       <c r="AC74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AD74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7865,6 +8089,9 @@
       <c r="AC75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AD75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7960,6 +8187,9 @@
         <v>2519.95</v>
       </c>
       <c r="AC76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AD76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD76"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,11 @@
           <t>2026-02-16 22:22:20</t>
         </is>
       </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>2026-02-16 23:25:16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -672,6 +677,9 @@
       <c r="AD2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AE2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -772,6 +780,9 @@
       <c r="AD3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AE3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -872,6 +883,9 @@
       <c r="AD4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AE4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -976,6 +990,9 @@
       <c r="AD5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AE5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1080,6 +1097,9 @@
       <c r="AD6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AE6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1184,6 +1204,9 @@
       <c r="AD7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AE7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1288,6 +1311,9 @@
       <c r="AD8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AE8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1392,6 +1418,9 @@
       <c r="AD9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AE9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1496,6 +1525,9 @@
       <c r="AD10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AE10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1596,6 +1628,9 @@
       <c r="AD11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AE11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1696,6 +1731,9 @@
       <c r="AD12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AE12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1796,6 +1834,9 @@
       <c r="AD13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AE13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1900,6 +1941,9 @@
       <c r="AD14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AE14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2000,6 +2044,9 @@
       <c r="AD15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AE15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2100,6 +2147,9 @@
       <c r="AD16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AE16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2200,6 +2250,9 @@
       <c r="AD17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AE17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2300,6 +2353,9 @@
       <c r="AD18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AE18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2400,6 +2456,9 @@
       <c r="AD19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AE19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2500,6 +2559,9 @@
       <c r="AD20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AE20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2600,6 +2662,9 @@
       <c r="AD21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AE21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2700,6 +2765,9 @@
       <c r="AD22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AE22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2804,6 +2872,9 @@
       <c r="AD23" t="n">
         <v>686</v>
       </c>
+      <c r="AE23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2904,6 +2975,9 @@
       <c r="AD24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AE24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3004,6 +3078,9 @@
       <c r="AD25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AE25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3104,6 +3181,9 @@
       <c r="AD26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AE26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3204,6 +3284,9 @@
       <c r="AD27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AE27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3304,6 +3387,9 @@
       <c r="AD28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AE28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3404,6 +3490,9 @@
       <c r="AD29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AE29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3504,6 +3593,9 @@
       <c r="AD30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AE30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3608,6 +3700,9 @@
       <c r="AD31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3712,6 +3807,9 @@
       <c r="AD32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3816,6 +3914,9 @@
       <c r="AD33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3920,6 +4021,9 @@
       <c r="AD34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4020,6 +4124,9 @@
       <c r="AD35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4120,6 +4227,9 @@
       <c r="AD36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AE36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4220,6 +4330,9 @@
       <c r="AD37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AE37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4320,6 +4433,9 @@
       <c r="AD38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AE38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4420,6 +4536,9 @@
       <c r="AD39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AE39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4520,6 +4639,9 @@
       <c r="AD40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AE40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4624,6 +4746,9 @@
       <c r="AD41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AE41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4724,6 +4849,9 @@
       <c r="AD42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AE42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4824,6 +4952,9 @@
       <c r="AD43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AE43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4928,6 +5059,9 @@
       <c r="AD44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AE44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5032,6 +5166,9 @@
       <c r="AD45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AE45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5132,6 +5269,9 @@
       <c r="AD46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AE46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5236,6 +5376,9 @@
       <c r="AD47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AE47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5340,6 +5483,9 @@
       <c r="AD48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AE48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5444,6 +5590,9 @@
       <c r="AD49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AE49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5548,6 +5697,9 @@
       <c r="AD50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AE50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5652,6 +5804,9 @@
       <c r="AD51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AE51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5756,6 +5911,9 @@
       <c r="AD52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AE52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5860,6 +6018,9 @@
       <c r="AD53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AE53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5964,6 +6125,9 @@
       <c r="AD54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AE54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6068,6 +6232,9 @@
       <c r="AD55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AE55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6172,6 +6339,9 @@
       <c r="AD56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AE56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6191,7 +6361,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -6274,6 +6444,9 @@
         <v>1589.95</v>
       </c>
       <c r="AD57" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="AE57" t="n">
         <v>1589.95</v>
       </c>
     </row>
@@ -6380,6 +6553,9 @@
       <c r="AD58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AE58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6484,6 +6660,9 @@
       <c r="AD59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AE59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6588,6 +6767,9 @@
       <c r="AD60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AE60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6692,6 +6874,9 @@
       <c r="AD61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AE61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6792,6 +6977,9 @@
       <c r="AD62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AE62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6892,6 +7080,9 @@
       <c r="AD63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AE63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6992,6 +7183,9 @@
       <c r="AD64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AE64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7092,6 +7286,9 @@
       <c r="AD65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AE65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7192,6 +7389,9 @@
       <c r="AD66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AE66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7292,6 +7492,9 @@
       <c r="AD67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AE67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7392,6 +7595,9 @@
       <c r="AD68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AE68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7492,6 +7698,9 @@
       <c r="AD69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AE69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7592,6 +7801,9 @@
       <c r="AD70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AE70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7692,6 +7904,9 @@
       <c r="AD71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AE71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7792,6 +8007,9 @@
       <c r="AD72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AE72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7892,6 +8110,9 @@
       <c r="AD73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AE73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7992,6 +8213,9 @@
       <c r="AD74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AE74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8092,6 +8316,9 @@
       <c r="AD75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AE75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8190,6 +8417,9 @@
         <v>2519.95</v>
       </c>
       <c r="AD76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AE76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,11 @@
           <t>2026-02-16 23:25:16</t>
         </is>
       </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>2026-02-17 01:31:02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -680,6 +685,9 @@
       <c r="AE2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AF2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -783,6 +791,9 @@
       <c r="AE3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AF3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -886,6 +897,9 @@
       <c r="AE4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AF4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -993,6 +1007,9 @@
       <c r="AE5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AF5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1100,6 +1117,9 @@
       <c r="AE6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AF6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1207,6 +1227,9 @@
       <c r="AE7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AF7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1314,6 +1337,9 @@
       <c r="AE8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AF8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1421,6 +1447,9 @@
       <c r="AE9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AF9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1528,6 +1557,9 @@
       <c r="AE10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AF10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1631,6 +1663,9 @@
       <c r="AE11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AF11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1734,6 +1769,9 @@
       <c r="AE12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AF12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1837,6 +1875,9 @@
       <c r="AE13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AF13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1944,6 +1985,9 @@
       <c r="AE14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AF14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2047,6 +2091,9 @@
       <c r="AE15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AF15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2150,6 +2197,9 @@
       <c r="AE16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AF16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2253,6 +2303,9 @@
       <c r="AE17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AF17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2356,6 +2409,9 @@
       <c r="AE18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AF18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2459,6 +2515,9 @@
       <c r="AE19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AF19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2562,6 +2621,9 @@
       <c r="AE20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AF20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2665,6 +2727,9 @@
       <c r="AE21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AF21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2768,6 +2833,9 @@
       <c r="AE22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AF22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2875,6 +2943,9 @@
       <c r="AE23" t="n">
         <v>686</v>
       </c>
+      <c r="AF23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2978,6 +3049,9 @@
       <c r="AE24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AF24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3081,6 +3155,9 @@
       <c r="AE25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AF25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3184,6 +3261,9 @@
       <c r="AE26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AF26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3287,6 +3367,9 @@
       <c r="AE27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AF27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3390,6 +3473,9 @@
       <c r="AE28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AF28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3493,6 +3579,9 @@
       <c r="AE29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AF29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3596,6 +3685,9 @@
       <c r="AE30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AF30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3703,6 +3795,9 @@
       <c r="AE31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3810,6 +3905,9 @@
       <c r="AE32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3917,6 +4015,9 @@
       <c r="AE33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4024,6 +4125,9 @@
       <c r="AE34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4127,6 +4231,9 @@
       <c r="AE35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4230,6 +4337,9 @@
       <c r="AE36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AF36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4333,6 +4443,9 @@
       <c r="AE37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AF37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4436,6 +4549,9 @@
       <c r="AE38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AF38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4539,6 +4655,9 @@
       <c r="AE39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AF39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4642,6 +4761,9 @@
       <c r="AE40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AF40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4749,6 +4871,9 @@
       <c r="AE41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AF41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4852,6 +4977,9 @@
       <c r="AE42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AF42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4955,6 +5083,9 @@
       <c r="AE43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AF43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5062,6 +5193,9 @@
       <c r="AE44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AF44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5169,6 +5303,9 @@
       <c r="AE45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AF45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5272,6 +5409,9 @@
       <c r="AE46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AF46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5379,6 +5519,9 @@
       <c r="AE47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AF47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5486,6 +5629,9 @@
       <c r="AE48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AF48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5593,6 +5739,9 @@
       <c r="AE49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AF49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5700,6 +5849,9 @@
       <c r="AE50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AF50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5807,6 +5959,9 @@
       <c r="AE51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AF51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5914,6 +6069,9 @@
       <c r="AE52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AF52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6021,6 +6179,9 @@
       <c r="AE53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AF53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6128,6 +6289,9 @@
       <c r="AE54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AF54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6235,6 +6399,9 @@
       <c r="AE55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AF55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6342,6 +6509,9 @@
       <c r="AE56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AF56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6449,6 +6619,9 @@
       <c r="AE57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AF57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6556,6 +6729,9 @@
       <c r="AE58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AF58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6663,6 +6839,9 @@
       <c r="AE59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AF59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6770,6 +6949,9 @@
       <c r="AE60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AF60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6877,6 +7059,9 @@
       <c r="AE61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AF61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6980,6 +7165,9 @@
       <c r="AE62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AF62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7083,6 +7271,9 @@
       <c r="AE63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AF63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7186,6 +7377,9 @@
       <c r="AE64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AF64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7289,6 +7483,9 @@
       <c r="AE65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AF65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7392,6 +7589,9 @@
       <c r="AE66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AF66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7495,6 +7695,9 @@
       <c r="AE67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AF67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7598,6 +7801,9 @@
       <c r="AE68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AF68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7701,6 +7907,9 @@
       <c r="AE69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AF69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7804,6 +8013,9 @@
       <c r="AE70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AF70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7907,6 +8119,9 @@
       <c r="AE71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AF71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8010,6 +8225,9 @@
       <c r="AE72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AF72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8113,6 +8331,9 @@
       <c r="AE73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AF73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8216,6 +8437,9 @@
       <c r="AE74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AF74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8319,6 +8543,9 @@
       <c r="AE75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AF75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8420,6 +8647,9 @@
         <v>2519.95</v>
       </c>
       <c r="AE76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AF76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +582,11 @@
           <t>2026-02-17 01:31:02</t>
         </is>
       </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>2026-02-17 04:14:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -688,6 +693,9 @@
       <c r="AF2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AG2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -794,6 +802,9 @@
       <c r="AF3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AG3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -900,6 +911,9 @@
       <c r="AF4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AG4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1010,6 +1024,9 @@
       <c r="AF5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AG5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1120,6 +1137,9 @@
       <c r="AF6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AG6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1230,6 +1250,9 @@
       <c r="AF7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AG7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1340,6 +1363,9 @@
       <c r="AF8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AG8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1450,6 +1476,9 @@
       <c r="AF9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AG9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1560,6 +1589,9 @@
       <c r="AF10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AG10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1666,6 +1698,9 @@
       <c r="AF11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AG11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1772,6 +1807,9 @@
       <c r="AF12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AG12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1878,6 +1916,9 @@
       <c r="AF13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AG13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1988,6 +2029,9 @@
       <c r="AF14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AG14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2094,6 +2138,9 @@
       <c r="AF15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AG15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2200,6 +2247,9 @@
       <c r="AF16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AG16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2306,6 +2356,9 @@
       <c r="AF17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AG17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2412,6 +2465,9 @@
       <c r="AF18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AG18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2518,6 +2574,9 @@
       <c r="AF19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AG19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2624,6 +2683,9 @@
       <c r="AF20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AG20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2730,6 +2792,9 @@
       <c r="AF21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AG21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2836,6 +2901,9 @@
       <c r="AF22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AG22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2946,6 +3014,9 @@
       <c r="AF23" t="n">
         <v>686</v>
       </c>
+      <c r="AG23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3052,6 +3123,9 @@
       <c r="AF24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AG24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3158,6 +3232,9 @@
       <c r="AF25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AG25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3264,6 +3341,9 @@
       <c r="AF26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AG26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3370,6 +3450,9 @@
       <c r="AF27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AG27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3476,6 +3559,9 @@
       <c r="AF28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AG28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3582,6 +3668,9 @@
       <c r="AF29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AG29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3688,6 +3777,9 @@
       <c r="AF30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AG30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3798,6 +3890,9 @@
       <c r="AF31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3908,6 +4003,9 @@
       <c r="AF32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4018,6 +4116,9 @@
       <c r="AF33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4128,6 +4229,9 @@
       <c r="AF34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4234,6 +4338,9 @@
       <c r="AF35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4340,6 +4447,9 @@
       <c r="AF36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AG36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4446,6 +4556,9 @@
       <c r="AF37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AG37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4552,6 +4665,9 @@
       <c r="AF38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AG38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4658,6 +4774,9 @@
       <c r="AF39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AG39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4764,6 +4883,9 @@
       <c r="AF40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AG40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4874,6 +4996,9 @@
       <c r="AF41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AG41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4980,6 +5105,9 @@
       <c r="AF42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AG42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5086,6 +5214,9 @@
       <c r="AF43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AG43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5196,6 +5327,9 @@
       <c r="AF44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AG44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5306,6 +5440,9 @@
       <c r="AF45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AG45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5412,6 +5549,9 @@
       <c r="AF46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AG46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5522,6 +5662,9 @@
       <c r="AF47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AG47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5632,6 +5775,9 @@
       <c r="AF48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AG48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5742,6 +5888,9 @@
       <c r="AF49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AG49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5852,6 +6001,9 @@
       <c r="AF50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AG50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5962,6 +6114,9 @@
       <c r="AF51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AG51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6072,6 +6227,9 @@
       <c r="AF52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AG52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6182,6 +6340,9 @@
       <c r="AF53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AG53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6292,6 +6453,9 @@
       <c r="AF54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AG54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6402,6 +6566,9 @@
       <c r="AF55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AG55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6512,6 +6679,9 @@
       <c r="AF56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AG56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6622,6 +6792,9 @@
       <c r="AF57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AG57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6732,6 +6905,9 @@
       <c r="AF58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AG58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6842,6 +7018,9 @@
       <c r="AF59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AG59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6952,6 +7131,9 @@
       <c r="AF60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AG60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7062,6 +7244,9 @@
       <c r="AF61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AG61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7168,6 +7353,9 @@
       <c r="AF62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AG62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7274,6 +7462,9 @@
       <c r="AF63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AG63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7380,6 +7571,9 @@
       <c r="AF64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AG64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7486,6 +7680,9 @@
       <c r="AF65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AG65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7592,6 +7789,9 @@
       <c r="AF66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AG66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7698,6 +7898,9 @@
       <c r="AF67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AG67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7804,6 +8007,9 @@
       <c r="AF68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AG68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7910,6 +8116,9 @@
       <c r="AF69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AG69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8016,6 +8225,9 @@
       <c r="AF70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AG70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8122,6 +8334,9 @@
       <c r="AF71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AG71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8228,6 +8443,9 @@
       <c r="AF72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AG72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8334,6 +8552,9 @@
       <c r="AF73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AG73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8440,6 +8661,9 @@
       <c r="AF74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AG74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8546,6 +8770,9 @@
       <c r="AF75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AG75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8650,6 +8877,9 @@
         <v>2519.95</v>
       </c>
       <c r="AF76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AG76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG76"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,11 @@
           <t>2026-02-17 04:14:53</t>
         </is>
       </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>2026-02-17 05:55:04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -696,6 +701,9 @@
       <c r="AG2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AH2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -805,6 +813,9 @@
       <c r="AG3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AH3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -914,6 +925,9 @@
       <c r="AG4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AH4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1027,6 +1041,9 @@
       <c r="AG5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AH5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1140,6 +1157,9 @@
       <c r="AG6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AH6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1253,6 +1273,9 @@
       <c r="AG7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AH7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1366,6 +1389,9 @@
       <c r="AG8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AH8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1479,6 +1505,9 @@
       <c r="AG9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AH9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1592,6 +1621,9 @@
       <c r="AG10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AH10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1701,6 +1733,9 @@
       <c r="AG11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AH11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1810,6 +1845,9 @@
       <c r="AG12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AH12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1919,6 +1957,9 @@
       <c r="AG13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AH13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2032,6 +2073,9 @@
       <c r="AG14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AH14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2141,6 +2185,9 @@
       <c r="AG15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AH15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2250,6 +2297,9 @@
       <c r="AG16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AH16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2359,6 +2409,9 @@
       <c r="AG17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AH17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2468,6 +2521,9 @@
       <c r="AG18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AH18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2577,6 +2633,9 @@
       <c r="AG19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AH19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2686,6 +2745,9 @@
       <c r="AG20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AH20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2795,6 +2857,9 @@
       <c r="AG21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AH21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2904,6 +2969,9 @@
       <c r="AG22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AH22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3017,6 +3085,9 @@
       <c r="AG23" t="n">
         <v>686</v>
       </c>
+      <c r="AH23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3126,6 +3197,9 @@
       <c r="AG24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AH24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3235,6 +3309,9 @@
       <c r="AG25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AH25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3344,6 +3421,9 @@
       <c r="AG26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AH26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3453,6 +3533,9 @@
       <c r="AG27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AH27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3562,6 +3645,9 @@
       <c r="AG28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AH28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3671,6 +3757,9 @@
       <c r="AG29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AH29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3780,6 +3869,9 @@
       <c r="AG30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AH30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3893,6 +3985,9 @@
       <c r="AG31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4006,6 +4101,9 @@
       <c r="AG32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4119,6 +4217,9 @@
       <c r="AG33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4232,6 +4333,9 @@
       <c r="AG34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4341,6 +4445,9 @@
       <c r="AG35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4450,6 +4557,9 @@
       <c r="AG36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AH36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4559,6 +4669,9 @@
       <c r="AG37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AH37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4668,6 +4781,9 @@
       <c r="AG38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AH38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4777,6 +4893,9 @@
       <c r="AG39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AH39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4886,6 +5005,9 @@
       <c r="AG40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AH40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4999,6 +5121,9 @@
       <c r="AG41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AH41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5108,6 +5233,9 @@
       <c r="AG42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AH42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5217,6 +5345,9 @@
       <c r="AG43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AH43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5330,6 +5461,9 @@
       <c r="AG44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AH44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5443,6 +5577,9 @@
       <c r="AG45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AH45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5552,6 +5689,9 @@
       <c r="AG46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AH46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5665,6 +5805,9 @@
       <c r="AG47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AH47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5778,6 +5921,9 @@
       <c r="AG48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AH48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5891,6 +6037,9 @@
       <c r="AG49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AH49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6004,6 +6153,9 @@
       <c r="AG50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AH50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6117,6 +6269,9 @@
       <c r="AG51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AH51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6230,6 +6385,9 @@
       <c r="AG52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AH52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6343,6 +6501,9 @@
       <c r="AG53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AH53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6456,6 +6617,9 @@
       <c r="AG54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AH54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6569,6 +6733,9 @@
       <c r="AG55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AH55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6682,6 +6849,9 @@
       <c r="AG56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AH56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6701,7 +6871,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -6793,6 +6963,9 @@
         <v>1589.95</v>
       </c>
       <c r="AG57" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="AH57" t="n">
         <v>1589.95</v>
       </c>
     </row>
@@ -6908,6 +7081,9 @@
       <c r="AG58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AH58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7021,6 +7197,9 @@
       <c r="AG59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AH59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7134,6 +7313,9 @@
       <c r="AG60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AH60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7247,6 +7429,9 @@
       <c r="AG61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AH61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7356,6 +7541,9 @@
       <c r="AG62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AH62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7465,6 +7653,9 @@
       <c r="AG63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AH63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7574,6 +7765,9 @@
       <c r="AG64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AH64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7683,6 +7877,9 @@
       <c r="AG65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AH65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7792,6 +7989,9 @@
       <c r="AG66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AH66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7901,6 +8101,9 @@
       <c r="AG67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AH67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8010,6 +8213,9 @@
       <c r="AG68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AH68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8119,6 +8325,9 @@
       <c r="AG69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AH69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8228,6 +8437,9 @@
       <c r="AG70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AH70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8337,6 +8549,9 @@
       <c r="AG71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AH71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8446,6 +8661,9 @@
       <c r="AG72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AH72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8555,6 +8773,9 @@
       <c r="AG73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AH73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8664,6 +8885,9 @@
       <c r="AG74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AH74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8773,6 +8997,9 @@
       <c r="AG75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AH75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8880,6 +9107,9 @@
         <v>2519.95</v>
       </c>
       <c r="AG76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AH76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AI76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,6 +592,11 @@
           <t>2026-02-17 05:55:04</t>
         </is>
       </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>2026-02-17 06:52:56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -704,6 +709,9 @@
       <c r="AH2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AI2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -816,6 +824,9 @@
       <c r="AH3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AI3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -928,6 +939,9 @@
       <c r="AH4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AI4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1044,6 +1058,9 @@
       <c r="AH5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AI5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AH6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AI6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1276,6 +1296,9 @@
       <c r="AH7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AI7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1392,6 +1415,9 @@
       <c r="AH8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AI8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1508,6 +1534,9 @@
       <c r="AH9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AI9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1624,6 +1653,9 @@
       <c r="AH10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AI10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1736,6 +1768,9 @@
       <c r="AH11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AI11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1848,6 +1883,9 @@
       <c r="AH12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AI12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1960,6 +1998,9 @@
       <c r="AH13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AI13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2076,6 +2117,9 @@
       <c r="AH14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AI14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2188,6 +2232,9 @@
       <c r="AH15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AI15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2300,6 +2347,9 @@
       <c r="AH16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AI16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2412,6 +2462,9 @@
       <c r="AH17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AI17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2524,6 +2577,9 @@
       <c r="AH18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AI18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2636,6 +2692,9 @@
       <c r="AH19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AI19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2748,6 +2807,9 @@
       <c r="AH20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AI20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2860,6 +2922,9 @@
       <c r="AH21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AI21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2972,6 +3037,9 @@
       <c r="AH22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AI22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3088,6 +3156,9 @@
       <c r="AH23" t="n">
         <v>686</v>
       </c>
+      <c r="AI23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3200,6 +3271,9 @@
       <c r="AH24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AI24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3312,6 +3386,9 @@
       <c r="AH25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AI25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3424,6 +3501,9 @@
       <c r="AH26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AI26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3536,6 +3616,9 @@
       <c r="AH27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AI27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3648,6 +3731,9 @@
       <c r="AH28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AI28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3760,6 +3846,9 @@
       <c r="AH29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AI29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3872,6 +3961,9 @@
       <c r="AH30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AI30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3988,6 +4080,9 @@
       <c r="AH31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4104,6 +4199,9 @@
       <c r="AH32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4220,6 +4318,9 @@
       <c r="AH33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4336,6 +4437,9 @@
       <c r="AH34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4448,6 +4552,9 @@
       <c r="AH35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4560,6 +4667,9 @@
       <c r="AH36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AI36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4672,6 +4782,9 @@
       <c r="AH37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AI37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4784,6 +4897,9 @@
       <c r="AH38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AI38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4896,6 +5012,9 @@
       <c r="AH39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AI39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5008,6 +5127,9 @@
       <c r="AH40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AI40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5124,6 +5246,9 @@
       <c r="AH41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AI41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5236,6 +5361,9 @@
       <c r="AH42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AI42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5348,6 +5476,9 @@
       <c r="AH43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AI43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5464,6 +5595,9 @@
       <c r="AH44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AI44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5580,6 +5714,9 @@
       <c r="AH45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AI45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5692,6 +5829,9 @@
       <c r="AH46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AI46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5808,6 +5948,9 @@
       <c r="AH47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AI47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5924,6 +6067,9 @@
       <c r="AH48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AI48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6040,6 +6186,9 @@
       <c r="AH49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AI49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6156,6 +6305,9 @@
       <c r="AH50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AI50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6272,6 +6424,9 @@
       <c r="AH51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AI51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6388,6 +6543,9 @@
       <c r="AH52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AI52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6504,6 +6662,9 @@
       <c r="AH53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AI53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6620,6 +6781,9 @@
       <c r="AH54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AI54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6736,6 +6900,9 @@
       <c r="AH55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AI55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6852,6 +7019,9 @@
       <c r="AH56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AI56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6968,6 +7138,9 @@
       <c r="AH57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AI57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7084,6 +7257,9 @@
       <c r="AH58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AI58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7200,6 +7376,9 @@
       <c r="AH59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AI59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7316,6 +7495,9 @@
       <c r="AH60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AI60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7432,6 +7614,9 @@
       <c r="AH61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AI61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7544,6 +7729,9 @@
       <c r="AH62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AI62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7656,6 +7844,9 @@
       <c r="AH63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AI63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7768,6 +7959,9 @@
       <c r="AH64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AI64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7880,6 +8074,9 @@
       <c r="AH65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AI65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7992,6 +8189,9 @@
       <c r="AH66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AI66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8104,6 +8304,9 @@
       <c r="AH67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AI67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8216,6 +8419,9 @@
       <c r="AH68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AI68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8328,6 +8534,9 @@
       <c r="AH69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AI69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8440,6 +8649,9 @@
       <c r="AH70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AI70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8552,6 +8764,9 @@
       <c r="AH71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AI71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8664,6 +8879,9 @@
       <c r="AH72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AI72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8776,6 +8994,9 @@
       <c r="AH73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AI73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8888,6 +9109,9 @@
       <c r="AH74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AI74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9000,6 +9224,9 @@
       <c r="AH75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AI75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9110,6 +9337,9 @@
         <v>2519.95</v>
       </c>
       <c r="AH76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AI76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI76"/>
+  <dimension ref="A1:AJ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,11 @@
           <t>2026-02-17 06:52:56</t>
         </is>
       </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>2026-02-17 07:46:58</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -712,6 +717,9 @@
       <c r="AI2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -827,6 +835,9 @@
       <c r="AI3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -942,6 +953,9 @@
       <c r="AI4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1061,6 +1075,9 @@
       <c r="AI5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AI6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1299,6 +1319,9 @@
       <c r="AI7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1418,6 +1441,9 @@
       <c r="AI8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1537,6 +1563,9 @@
       <c r="AI9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1656,6 +1685,9 @@
       <c r="AI10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1771,6 +1803,9 @@
       <c r="AI11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1886,6 +1921,9 @@
       <c r="AI12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2001,6 +2039,9 @@
       <c r="AI13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2120,6 +2161,9 @@
       <c r="AI14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2235,6 +2279,9 @@
       <c r="AI15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2350,6 +2397,9 @@
       <c r="AI16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2465,6 +2515,9 @@
       <c r="AI17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2580,6 +2633,9 @@
       <c r="AI18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2695,6 +2751,9 @@
       <c r="AI19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2810,6 +2869,9 @@
       <c r="AI20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2925,6 +2987,9 @@
       <c r="AI21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3040,6 +3105,9 @@
       <c r="AI22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3159,6 +3227,9 @@
       <c r="AI23" t="n">
         <v>686</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3274,6 +3345,9 @@
       <c r="AI24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3389,6 +3463,9 @@
       <c r="AI25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3504,6 +3581,9 @@
       <c r="AI26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3619,6 +3699,9 @@
       <c r="AI27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3734,6 +3817,9 @@
       <c r="AI28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3849,6 +3935,9 @@
       <c r="AI29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3964,6 +4053,9 @@
       <c r="AI30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4083,6 +4175,9 @@
       <c r="AI31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4202,6 +4297,9 @@
       <c r="AI32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4321,6 +4419,9 @@
       <c r="AI33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4440,6 +4541,9 @@
       <c r="AI34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4555,6 +4659,9 @@
       <c r="AI35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4670,6 +4777,9 @@
       <c r="AI36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4785,6 +4895,9 @@
       <c r="AI37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4900,6 +5013,9 @@
       <c r="AI38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5015,6 +5131,9 @@
       <c r="AI39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5130,6 +5249,9 @@
       <c r="AI40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5249,6 +5371,9 @@
       <c r="AI41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5364,6 +5489,9 @@
       <c r="AI42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5479,6 +5607,9 @@
       <c r="AI43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5598,6 +5729,9 @@
       <c r="AI44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5717,6 +5851,9 @@
       <c r="AI45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5832,6 +5969,9 @@
       <c r="AI46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5951,6 +6091,9 @@
       <c r="AI47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6070,6 +6213,9 @@
       <c r="AI48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6189,6 +6335,9 @@
       <c r="AI49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6308,6 +6457,9 @@
       <c r="AI50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6427,6 +6579,9 @@
       <c r="AI51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6546,6 +6701,9 @@
       <c r="AI52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6665,6 +6823,9 @@
       <c r="AI53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6784,6 +6945,9 @@
       <c r="AI54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6903,6 +7067,9 @@
       <c r="AI55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7022,6 +7189,9 @@
       <c r="AI56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7141,6 +7311,9 @@
       <c r="AI57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7260,6 +7433,9 @@
       <c r="AI58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7379,6 +7555,9 @@
       <c r="AI59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7498,6 +7677,9 @@
       <c r="AI60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7617,6 +7799,9 @@
       <c r="AI61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7732,6 +7917,9 @@
       <c r="AI62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7847,6 +8035,9 @@
       <c r="AI63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7962,6 +8153,9 @@
       <c r="AI64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8077,6 +8271,9 @@
       <c r="AI65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8192,6 +8389,9 @@
       <c r="AI66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8307,6 +8507,9 @@
       <c r="AI67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8422,6 +8625,9 @@
       <c r="AI68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AJ68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8537,6 +8743,9 @@
       <c r="AI69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AJ69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8652,6 +8861,9 @@
       <c r="AI70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AJ70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8767,6 +8979,9 @@
       <c r="AI71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AJ71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8882,6 +9097,9 @@
       <c r="AI72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AJ72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8997,6 +9215,9 @@
       <c r="AI73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AJ73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9112,6 +9333,9 @@
       <c r="AI74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AJ74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9227,6 +9451,9 @@
       <c r="AI75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AJ75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9340,6 +9567,9 @@
         <v>2519.95</v>
       </c>
       <c r="AI76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ76"/>
+  <dimension ref="A1:AK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,11 @@
           <t>2026-02-17 07:46:58</t>
         </is>
       </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>2026-02-17 08:39:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -720,6 +725,9 @@
       <c r="AJ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AK2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -838,6 +846,9 @@
       <c r="AJ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AK3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -956,6 +967,9 @@
       <c r="AJ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AK4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1078,6 +1092,9 @@
       <c r="AJ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AK5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AJ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AK6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1322,6 +1342,9 @@
       <c r="AJ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AK7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1444,6 +1467,9 @@
       <c r="AJ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AK8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1566,6 +1592,9 @@
       <c r="AJ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AK9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1688,6 +1717,9 @@
       <c r="AJ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AK10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1806,6 +1838,9 @@
       <c r="AJ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AK11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1924,6 +1959,9 @@
       <c r="AJ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AK12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2042,6 +2080,9 @@
       <c r="AJ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AK13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2164,6 +2205,9 @@
       <c r="AJ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AK14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2282,6 +2326,9 @@
       <c r="AJ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AK15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2400,6 +2447,9 @@
       <c r="AJ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AK16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2518,6 +2568,9 @@
       <c r="AJ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AK17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2636,6 +2689,9 @@
       <c r="AJ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AK18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2754,6 +2810,9 @@
       <c r="AJ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AK19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2872,6 +2931,9 @@
       <c r="AJ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AK20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2990,6 +3052,9 @@
       <c r="AJ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AK21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3108,6 +3173,9 @@
       <c r="AJ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AK22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3230,6 +3298,9 @@
       <c r="AJ23" t="n">
         <v>686</v>
       </c>
+      <c r="AK23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3348,6 +3419,9 @@
       <c r="AJ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AK24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3466,6 +3540,9 @@
       <c r="AJ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AK25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3584,6 +3661,9 @@
       <c r="AJ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AK26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3702,6 +3782,9 @@
       <c r="AJ27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AK27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3820,6 +3903,9 @@
       <c r="AJ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AK28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3938,6 +4024,9 @@
       <c r="AJ29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AK29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4056,6 +4145,9 @@
       <c r="AJ30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AK30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4178,6 +4270,9 @@
       <c r="AJ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4300,6 +4395,9 @@
       <c r="AJ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4422,6 +4520,9 @@
       <c r="AJ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4544,6 +4645,9 @@
       <c r="AJ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4662,6 +4766,9 @@
       <c r="AJ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4780,6 +4887,9 @@
       <c r="AJ36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AK36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4898,6 +5008,9 @@
       <c r="AJ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AK37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5016,6 +5129,9 @@
       <c r="AJ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AK38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5134,6 +5250,9 @@
       <c r="AJ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AK39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5252,6 +5371,9 @@
       <c r="AJ40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AK40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5374,6 +5496,9 @@
       <c r="AJ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AK41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5492,6 +5617,9 @@
       <c r="AJ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AK42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5610,6 +5738,9 @@
       <c r="AJ43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AK43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5732,6 +5863,9 @@
       <c r="AJ44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AK44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5854,6 +5988,9 @@
       <c r="AJ45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AK45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5972,6 +6109,9 @@
       <c r="AJ46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AK46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6094,6 +6234,9 @@
       <c r="AJ47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AK47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6216,6 +6359,9 @@
       <c r="AJ48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AK48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6338,6 +6484,9 @@
       <c r="AJ49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AK49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6460,6 +6609,9 @@
       <c r="AJ50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AK50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6582,6 +6734,9 @@
       <c r="AJ51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AK51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6704,6 +6859,9 @@
       <c r="AJ52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AK52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6826,6 +6984,9 @@
       <c r="AJ53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AK53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6948,6 +7109,9 @@
       <c r="AJ54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AK54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7070,6 +7234,9 @@
       <c r="AJ55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AK55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7192,6 +7359,9 @@
       <c r="AJ56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AK56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7314,6 +7484,9 @@
       <c r="AJ57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AK57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7436,6 +7609,9 @@
       <c r="AJ58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AK58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7558,6 +7734,9 @@
       <c r="AJ59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AK59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7680,6 +7859,9 @@
       <c r="AJ60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AK60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7802,6 +7984,9 @@
       <c r="AJ61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AK61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7920,6 +8105,9 @@
       <c r="AJ62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AK62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8038,6 +8226,9 @@
       <c r="AJ63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AK63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8156,6 +8347,9 @@
       <c r="AJ64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AK64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8274,6 +8468,9 @@
       <c r="AJ65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AK65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8392,6 +8589,9 @@
       <c r="AJ66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AK66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8510,6 +8710,9 @@
       <c r="AJ67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AK67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8628,6 +8831,9 @@
       <c r="AJ68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AK68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8746,6 +8952,9 @@
       <c r="AJ69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AK69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8864,6 +9073,9 @@
       <c r="AJ70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AK70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8982,6 +9194,9 @@
       <c r="AJ71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AK71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9100,6 +9315,9 @@
       <c r="AJ72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AK72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9218,6 +9436,9 @@
       <c r="AJ73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AK73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9336,6 +9557,9 @@
       <c r="AJ74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AK74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9454,6 +9678,9 @@
       <c r="AJ75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AK75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9570,6 +9797,9 @@
         <v>2519.95</v>
       </c>
       <c r="AJ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AK76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK76"/>
+  <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +607,11 @@
           <t>2026-02-17 08:39:32</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>2026-02-17 09:42:59</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -728,6 +733,9 @@
       <c r="AK2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AL2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -849,6 +857,9 @@
       <c r="AK3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AL3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -970,6 +981,9 @@
       <c r="AK4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AL4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1095,6 +1109,9 @@
       <c r="AK5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AL5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1220,6 +1237,9 @@
       <c r="AK6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AL6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1345,6 +1365,9 @@
       <c r="AK7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AL7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1470,6 +1493,9 @@
       <c r="AK8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AL8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1595,6 +1621,9 @@
       <c r="AK9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AL9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1720,6 +1749,9 @@
       <c r="AK10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AL10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1841,6 +1873,9 @@
       <c r="AK11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AL11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1962,6 +1997,9 @@
       <c r="AK12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AL12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2083,6 +2121,9 @@
       <c r="AK13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AL13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2208,6 +2249,9 @@
       <c r="AK14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AL14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2329,6 +2373,9 @@
       <c r="AK15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AL15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2450,6 +2497,9 @@
       <c r="AK16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AL16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2571,6 +2621,9 @@
       <c r="AK17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AL17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2692,6 +2745,9 @@
       <c r="AK18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AL18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2813,6 +2869,9 @@
       <c r="AK19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AL19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2934,6 +2993,9 @@
       <c r="AK20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AL20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3055,6 +3117,9 @@
       <c r="AK21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AL21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3176,6 +3241,9 @@
       <c r="AK22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AL22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3301,6 +3369,9 @@
       <c r="AK23" t="n">
         <v>686</v>
       </c>
+      <c r="AL23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3320,7 +3391,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -3422,6 +3493,9 @@
       <c r="AK24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AL24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3543,6 +3617,9 @@
       <c r="AK25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AL25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3664,6 +3741,9 @@
       <c r="AK26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AL26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3683,7 +3763,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -3785,6 +3865,9 @@
       <c r="AK27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AL27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3906,6 +3989,9 @@
       <c r="AK28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AL28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4027,6 +4113,9 @@
       <c r="AK29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AL29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4148,6 +4237,9 @@
       <c r="AK30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AL30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4273,6 +4365,9 @@
       <c r="AK31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4398,6 +4493,9 @@
       <c r="AK32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4523,6 +4621,9 @@
       <c r="AK33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4648,6 +4749,9 @@
       <c r="AK34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4769,6 +4873,9 @@
       <c r="AK35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4890,6 +4997,9 @@
       <c r="AK36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AL36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5011,6 +5121,9 @@
       <c r="AK37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AL37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5132,6 +5245,9 @@
       <c r="AK38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AL38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5253,6 +5369,9 @@
       <c r="AK39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AL39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5374,6 +5493,9 @@
       <c r="AK40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AL40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5499,6 +5621,9 @@
       <c r="AK41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AL41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5620,6 +5745,9 @@
       <c r="AK42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AL42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5741,6 +5869,9 @@
       <c r="AK43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AL43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5866,6 +5997,9 @@
       <c r="AK44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AL44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5991,6 +6125,9 @@
       <c r="AK45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AL45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6112,6 +6249,9 @@
       <c r="AK46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AL46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6237,6 +6377,9 @@
       <c r="AK47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AL47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6362,6 +6505,9 @@
       <c r="AK48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AL48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6487,6 +6633,9 @@
       <c r="AK49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AL49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6612,6 +6761,9 @@
       <c r="AK50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AL50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6737,6 +6889,9 @@
       <c r="AK51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AL51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6862,6 +7017,9 @@
       <c r="AK52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AL52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6987,6 +7145,9 @@
       <c r="AK53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AL53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7112,6 +7273,9 @@
       <c r="AK54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AL54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7237,6 +7401,9 @@
       <c r="AK55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AL55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7362,6 +7529,9 @@
       <c r="AK56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AL56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7487,6 +7657,9 @@
       <c r="AK57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AL57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7612,6 +7785,9 @@
       <c r="AK58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AL58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7737,6 +7913,9 @@
       <c r="AK59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AL59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7862,6 +8041,9 @@
       <c r="AK60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AL60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7987,6 +8169,9 @@
       <c r="AK61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AL61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8108,6 +8293,9 @@
       <c r="AK62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AL62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8229,6 +8417,9 @@
       <c r="AK63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AL63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8350,6 +8541,9 @@
       <c r="AK64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AL64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8471,6 +8665,9 @@
       <c r="AK65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AL65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8592,6 +8789,9 @@
       <c r="AK66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AL66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8713,6 +8913,9 @@
       <c r="AK67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AL67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8834,6 +9037,9 @@
       <c r="AK68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AL68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8955,6 +9161,9 @@
       <c r="AK69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AL69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9076,6 +9285,9 @@
       <c r="AK70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AL70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9197,6 +9409,9 @@
       <c r="AK71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AL71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9318,6 +9533,9 @@
       <c r="AK72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AL72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9439,6 +9657,9 @@
       <c r="AK73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AL73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9560,6 +9781,9 @@
       <c r="AK74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AL74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9681,6 +9905,9 @@
       <c r="AK75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AL75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9800,6 +10027,9 @@
         <v>2519.95</v>
       </c>
       <c r="AK76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AL76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL76"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,11 @@
           <t>2026-02-17 09:42:59</t>
         </is>
       </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>2026-02-17 10:40:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -736,6 +741,9 @@
       <c r="AL2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AM2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -860,6 +868,9 @@
       <c r="AL3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AM3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -984,6 +995,9 @@
       <c r="AL4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AM4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1010,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1110,6 +1124,9 @@
         <v>199.95</v>
       </c>
       <c r="AL5" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="AM5" t="n">
         <v>199.95</v>
       </c>
     </row>
@@ -1138,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1238,6 +1255,9 @@
         <v>199.95</v>
       </c>
       <c r="AL6" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="AM6" t="n">
         <v>199.95</v>
       </c>
     </row>
@@ -1266,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1366,6 +1386,9 @@
         <v>199.95</v>
       </c>
       <c r="AL7" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="AM7" t="n">
         <v>199.95</v>
       </c>
     </row>
@@ -1394,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1494,6 +1517,9 @@
         <v>229.95</v>
       </c>
       <c r="AL8" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="AM8" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1522,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1622,6 +1648,9 @@
         <v>229.95</v>
       </c>
       <c r="AL9" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="AM9" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1650,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1750,6 +1779,9 @@
         <v>229.95</v>
       </c>
       <c r="AL10" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="AM10" t="n">
         <v>229.95</v>
       </c>
     </row>
@@ -1876,6 +1908,9 @@
       <c r="AL11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AM11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2000,6 +2035,9 @@
       <c r="AL12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AM12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2124,6 +2162,9 @@
       <c r="AL13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AM13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2252,6 +2293,9 @@
       <c r="AL14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AM14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2376,6 +2420,9 @@
       <c r="AL15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AM15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2500,6 +2547,9 @@
       <c r="AL16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AM16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2624,6 +2674,9 @@
       <c r="AL17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AM17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2748,6 +2801,9 @@
       <c r="AL18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AM18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2872,6 +2928,9 @@
       <c r="AL19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AM19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2996,6 +3055,9 @@
       <c r="AL20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AM20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3120,6 +3182,9 @@
       <c r="AL21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AM21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3244,6 +3309,9 @@
       <c r="AL22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AM22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3372,6 +3440,9 @@
       <c r="AL23" t="n">
         <v>686</v>
       </c>
+      <c r="AM23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3496,6 +3567,9 @@
       <c r="AL24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AM24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3620,6 +3694,9 @@
       <c r="AL25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AM25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3744,6 +3821,9 @@
       <c r="AL26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AM26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3868,6 +3948,9 @@
       <c r="AL27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AM27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3992,6 +4075,9 @@
       <c r="AL28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AM28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4116,6 +4202,9 @@
       <c r="AL29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AM29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4240,6 +4329,9 @@
       <c r="AL30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AM30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4368,6 +4460,9 @@
       <c r="AL31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4496,6 +4591,9 @@
       <c r="AL32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4624,6 +4722,9 @@
       <c r="AL33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4752,6 +4853,9 @@
       <c r="AL34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4876,6 +4980,9 @@
       <c r="AL35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5000,6 +5107,9 @@
       <c r="AL36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AM36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5124,6 +5234,9 @@
       <c r="AL37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AM37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5248,6 +5361,9 @@
       <c r="AL38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AM38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5372,6 +5488,9 @@
       <c r="AL39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AM39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5496,6 +5615,9 @@
       <c r="AL40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AM40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5624,6 +5746,9 @@
       <c r="AL41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AM41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5748,6 +5873,9 @@
       <c r="AL42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AM42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5872,6 +6000,9 @@
       <c r="AL43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AM43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6000,6 +6131,9 @@
       <c r="AL44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AM44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6128,6 +6262,9 @@
       <c r="AL45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AM45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6252,6 +6389,9 @@
       <c r="AL46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AM46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6380,6 +6520,9 @@
       <c r="AL47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AM47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6508,6 +6651,9 @@
       <c r="AL48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AM48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6636,6 +6782,9 @@
       <c r="AL49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AM49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6764,6 +6913,9 @@
       <c r="AL50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AM50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6892,6 +7044,9 @@
       <c r="AL51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AM51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7020,6 +7175,9 @@
       <c r="AL52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AM52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7148,6 +7306,9 @@
       <c r="AL53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AM53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7276,6 +7437,9 @@
       <c r="AL54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AM54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7404,6 +7568,9 @@
       <c r="AL55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AM55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7532,6 +7699,9 @@
       <c r="AL56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AM56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7660,6 +7830,9 @@
       <c r="AL57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AM57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7788,6 +7961,9 @@
       <c r="AL58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AM58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7916,6 +8092,9 @@
       <c r="AL59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AM59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7925,7 +8104,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -8042,6 +8221,9 @@
         <v>1829.95</v>
       </c>
       <c r="AL60" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="AM60" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -8172,6 +8354,9 @@
       <c r="AL61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AM61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8296,6 +8481,9 @@
       <c r="AL62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AM62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8420,6 +8608,9 @@
       <c r="AL63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AM63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8544,6 +8735,9 @@
       <c r="AL64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AM64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8668,6 +8862,9 @@
       <c r="AL65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AM65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8792,6 +8989,9 @@
       <c r="AL66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AM66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8916,6 +9116,9 @@
       <c r="AL67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AM67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9040,6 +9243,9 @@
       <c r="AL68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AM68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9164,6 +9370,9 @@
       <c r="AL69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AM69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9288,6 +9497,9 @@
       <c r="AL70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AM70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9412,6 +9624,9 @@
       <c r="AL71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AM71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9536,6 +9751,9 @@
       <c r="AL72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AM72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9660,6 +9878,9 @@
       <c r="AL73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AM73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9679,7 +9900,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -9784,6 +10005,9 @@
       <c r="AL74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AM74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9908,6 +10132,9 @@
       <c r="AL75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AM75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10030,6 +10257,9 @@
         <v>2519.95</v>
       </c>
       <c r="AL76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AM76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,6 +617,11 @@
           <t>2026-02-17 10:40:26</t>
         </is>
       </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>2026-02-17 11:36:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -744,6 +749,9 @@
       <c r="AM2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AN2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -871,6 +879,9 @@
       <c r="AM3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AN3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -998,6 +1009,9 @@
       <c r="AM4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AN4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1129,6 +1143,9 @@
       <c r="AM5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AN5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1260,6 +1277,9 @@
       <c r="AM6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AN6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1391,6 +1411,9 @@
       <c r="AM7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AN7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1522,6 +1545,9 @@
       <c r="AM8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AN8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1653,6 +1679,9 @@
       <c r="AM9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AN9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1784,6 +1813,9 @@
       <c r="AM10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AN10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1911,6 +1943,9 @@
       <c r="AM11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AN11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2038,6 +2073,9 @@
       <c r="AM12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AN12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2165,6 +2203,9 @@
       <c r="AM13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AN13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2296,6 +2337,9 @@
       <c r="AM14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AN14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2423,6 +2467,9 @@
       <c r="AM15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AN15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2550,6 +2597,9 @@
       <c r="AM16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AN16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2677,6 +2727,9 @@
       <c r="AM17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AN17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2804,6 +2857,9 @@
       <c r="AM18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AN18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2931,6 +2987,9 @@
       <c r="AM19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AN19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3058,6 +3117,9 @@
       <c r="AM20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AN20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3185,6 +3247,9 @@
       <c r="AM21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AN21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3312,6 +3377,9 @@
       <c r="AM22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AN22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3443,6 +3511,9 @@
       <c r="AM23" t="n">
         <v>686</v>
       </c>
+      <c r="AN23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3570,6 +3641,9 @@
       <c r="AM24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AN24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3697,6 +3771,9 @@
       <c r="AM25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AN25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3824,6 +3901,9 @@
       <c r="AM26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AN26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3951,6 +4031,9 @@
       <c r="AM27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AN27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4078,6 +4161,9 @@
       <c r="AM28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AN28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4205,6 +4291,9 @@
       <c r="AM29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AN29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4332,6 +4421,9 @@
       <c r="AM30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AN30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4463,6 +4555,9 @@
       <c r="AM31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4594,6 +4689,9 @@
       <c r="AM32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4725,6 +4823,9 @@
       <c r="AM33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4856,6 +4957,9 @@
       <c r="AM34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4983,6 +5087,9 @@
       <c r="AM35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5110,6 +5217,9 @@
       <c r="AM36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AN36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5237,6 +5347,9 @@
       <c r="AM37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AN37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5364,6 +5477,9 @@
       <c r="AM38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AN38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5491,6 +5607,9 @@
       <c r="AM39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AN39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5618,6 +5737,9 @@
       <c r="AM40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AN40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5749,6 +5871,9 @@
       <c r="AM41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AN41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5876,6 +6001,9 @@
       <c r="AM42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AN42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6003,6 +6131,9 @@
       <c r="AM43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AN43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6134,6 +6265,9 @@
       <c r="AM44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AN44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6265,6 +6399,9 @@
       <c r="AM45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AN45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6392,6 +6529,9 @@
       <c r="AM46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AN46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6523,6 +6663,9 @@
       <c r="AM47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AN47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6654,6 +6797,9 @@
       <c r="AM48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AN48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6785,6 +6931,9 @@
       <c r="AM49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AN49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6916,6 +7065,9 @@
       <c r="AM50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AN50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7047,6 +7199,9 @@
       <c r="AM51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AN51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7178,6 +7333,9 @@
       <c r="AM52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AN52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7309,6 +7467,9 @@
       <c r="AM53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AN53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7440,6 +7601,9 @@
       <c r="AM54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AN54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7571,6 +7735,9 @@
       <c r="AM55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AN55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7702,6 +7869,9 @@
       <c r="AM56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AN56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7833,6 +8003,9 @@
       <c r="AM57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AN57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7964,6 +8137,9 @@
       <c r="AM58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AN58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8095,6 +8271,9 @@
       <c r="AM59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AN59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8226,6 +8405,9 @@
       <c r="AM60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AN60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8357,6 +8539,9 @@
       <c r="AM61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AN61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8484,6 +8669,9 @@
       <c r="AM62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AN62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8611,6 +8799,9 @@
       <c r="AM63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AN63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8738,6 +8929,9 @@
       <c r="AM64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AN64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8865,6 +9059,9 @@
       <c r="AM65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AN65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8992,6 +9189,9 @@
       <c r="AM66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AN66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9119,6 +9319,9 @@
       <c r="AM67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AN67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9246,6 +9449,9 @@
       <c r="AM68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AN68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9373,6 +9579,9 @@
       <c r="AM69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AN69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9500,6 +9709,9 @@
       <c r="AM70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AN70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9627,6 +9839,9 @@
       <c r="AM71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AN71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9754,6 +9969,9 @@
       <c r="AM72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AN72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9881,6 +10099,9 @@
       <c r="AM73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AN73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9900,7 +10121,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -10008,6 +10229,9 @@
       <c r="AM74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AN74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10135,6 +10359,9 @@
       <c r="AM75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AN75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10260,6 +10487,9 @@
         <v>2519.95</v>
       </c>
       <c r="AM76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AN76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,11 @@
           <t>2026-02-17 11:36:32</t>
         </is>
       </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>2026-02-17 12:51:31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -752,6 +757,9 @@
       <c r="AN2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AO2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -882,6 +890,9 @@
       <c r="AN3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AO3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1012,6 +1023,9 @@
       <c r="AN4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AO4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1146,6 +1160,9 @@
       <c r="AN5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AO5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AN6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AO6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1414,6 +1434,9 @@
       <c r="AN7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AO7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1548,6 +1571,9 @@
       <c r="AN8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AO8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1682,6 +1708,9 @@
       <c r="AN9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AO9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1816,6 +1845,9 @@
       <c r="AN10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AO10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1946,6 +1978,9 @@
       <c r="AN11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AO11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2076,6 +2111,9 @@
       <c r="AN12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AO12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2206,6 +2244,9 @@
       <c r="AN13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AO13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2340,6 +2381,9 @@
       <c r="AN14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AO14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2470,6 +2514,9 @@
       <c r="AN15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AO15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2600,6 +2647,9 @@
       <c r="AN16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AO16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2730,6 +2780,9 @@
       <c r="AN17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AO17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2860,6 +2913,9 @@
       <c r="AN18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AO18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2990,6 +3046,9 @@
       <c r="AN19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AO19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3120,6 +3179,9 @@
       <c r="AN20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AO20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3250,6 +3312,9 @@
       <c r="AN21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AO21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3269,7 +3334,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -3380,6 +3445,9 @@
       <c r="AN22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AO22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3514,6 +3582,9 @@
       <c r="AN23" t="n">
         <v>686</v>
       </c>
+      <c r="AO23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3644,6 +3715,9 @@
       <c r="AN24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AO24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3774,6 +3848,9 @@
       <c r="AN25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AO25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3904,6 +3981,9 @@
       <c r="AN26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AO26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4034,6 +4114,9 @@
       <c r="AN27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AO27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4164,6 +4247,9 @@
       <c r="AN28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AO28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4294,6 +4380,9 @@
       <c r="AN29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AO29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4424,6 +4513,9 @@
       <c r="AN30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AO30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4558,6 +4650,9 @@
       <c r="AN31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4692,6 +4787,9 @@
       <c r="AN32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4826,6 +4924,9 @@
       <c r="AN33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4960,6 +5061,9 @@
       <c r="AN34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5090,6 +5194,9 @@
       <c r="AN35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5220,6 +5327,9 @@
       <c r="AN36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AO36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5350,6 +5460,9 @@
       <c r="AN37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AO37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5480,6 +5593,9 @@
       <c r="AN38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AO38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5610,6 +5726,9 @@
       <c r="AN39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AO39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5740,6 +5859,9 @@
       <c r="AN40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AO40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5874,6 +5996,9 @@
       <c r="AN41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AO41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6004,6 +6129,9 @@
       <c r="AN42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AO42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6134,6 +6262,9 @@
       <c r="AN43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AO43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6268,6 +6399,9 @@
       <c r="AN44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AO44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6402,6 +6536,9 @@
       <c r="AN45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AO45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6532,6 +6669,9 @@
       <c r="AN46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AO46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6666,6 +6806,9 @@
       <c r="AN47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AO47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6800,6 +6943,9 @@
       <c r="AN48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AO48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6934,6 +7080,9 @@
       <c r="AN49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AO49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7068,6 +7217,9 @@
       <c r="AN50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AO50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7202,6 +7354,9 @@
       <c r="AN51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AO51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7336,6 +7491,9 @@
       <c r="AN52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AO52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7470,6 +7628,9 @@
       <c r="AN53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AO53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7604,6 +7765,9 @@
       <c r="AN54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AO54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7738,6 +7902,9 @@
       <c r="AN55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AO55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7872,6 +8039,9 @@
       <c r="AN56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AO56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8006,6 +8176,9 @@
       <c r="AN57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AO57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8140,6 +8313,9 @@
       <c r="AN58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AO58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8274,6 +8450,9 @@
       <c r="AN59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AO59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8408,6 +8587,9 @@
       <c r="AN60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AO60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8542,6 +8724,9 @@
       <c r="AN61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AO61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8672,6 +8857,9 @@
       <c r="AN62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AO62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8802,6 +8990,9 @@
       <c r="AN63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AO63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8932,6 +9123,9 @@
       <c r="AN64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AO64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9062,6 +9256,9 @@
       <c r="AN65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AO65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9192,6 +9389,9 @@
       <c r="AN66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AO66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9322,6 +9522,9 @@
       <c r="AN67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AO67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9452,6 +9655,9 @@
       <c r="AN68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AO68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9582,6 +9788,9 @@
       <c r="AN69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AO69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9712,6 +9921,9 @@
       <c r="AN70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AO70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9842,6 +10054,9 @@
       <c r="AN71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AO71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9972,6 +10187,9 @@
       <c r="AN72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AO72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10102,6 +10320,9 @@
       <c r="AN73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AO73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10232,6 +10453,9 @@
       <c r="AN74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AO74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10362,6 +10586,9 @@
       <c r="AN75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AO75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10490,6 +10717,9 @@
         <v>2519.95</v>
       </c>
       <c r="AN76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AO76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO76"/>
+  <dimension ref="A1:AP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,11 @@
           <t>2026-02-17 12:51:31</t>
         </is>
       </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>2026-02-17 14:04:44</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -760,6 +765,9 @@
       <c r="AO2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AP2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -893,6 +901,9 @@
       <c r="AO3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AP3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1026,6 +1037,9 @@
       <c r="AO4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AP4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1163,6 +1177,9 @@
       <c r="AO5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AP5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1300,6 +1317,9 @@
       <c r="AO6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AP6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1437,6 +1457,9 @@
       <c r="AO7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AP7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1574,6 +1597,9 @@
       <c r="AO8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AP8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1711,6 +1737,9 @@
       <c r="AO9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AP9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1848,6 +1877,9 @@
       <c r="AO10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AP10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1981,6 +2013,9 @@
       <c r="AO11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AP11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2114,6 +2149,9 @@
       <c r="AO12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AP12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2247,6 +2285,9 @@
       <c r="AO13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AP13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2384,6 +2425,9 @@
       <c r="AO14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AP14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2517,6 +2561,9 @@
       <c r="AO15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AP15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2650,6 +2697,9 @@
       <c r="AO16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AP16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2783,6 +2833,9 @@
       <c r="AO17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AP17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2916,6 +2969,9 @@
       <c r="AO18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AP18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3049,6 +3105,9 @@
       <c r="AO19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AP19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3182,6 +3241,9 @@
       <c r="AO20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AP20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3315,6 +3377,9 @@
       <c r="AO21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AP21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3448,6 +3513,9 @@
       <c r="AO22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AP22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3585,6 +3653,9 @@
       <c r="AO23" t="n">
         <v>686</v>
       </c>
+      <c r="AP23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3718,6 +3789,9 @@
       <c r="AO24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AP24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3851,6 +3925,9 @@
       <c r="AO25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AP25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3984,6 +4061,9 @@
       <c r="AO26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AP26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4117,6 +4197,9 @@
       <c r="AO27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AP27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4250,6 +4333,9 @@
       <c r="AO28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AP28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4383,6 +4469,9 @@
       <c r="AO29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AP29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4516,6 +4605,9 @@
       <c r="AO30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AP30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4653,6 +4745,9 @@
       <c r="AO31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4790,6 +4885,9 @@
       <c r="AO32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4927,6 +5025,9 @@
       <c r="AO33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5064,6 +5165,9 @@
       <c r="AO34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5197,6 +5301,9 @@
       <c r="AO35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5330,6 +5437,9 @@
       <c r="AO36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AP36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5463,6 +5573,9 @@
       <c r="AO37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AP37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5596,6 +5709,9 @@
       <c r="AO38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AP38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5729,6 +5845,9 @@
       <c r="AO39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AP39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5862,6 +5981,9 @@
       <c r="AO40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AP40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5999,6 +6121,9 @@
       <c r="AO41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AP41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6132,6 +6257,9 @@
       <c r="AO42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AP42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6265,6 +6393,9 @@
       <c r="AO43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AP43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6402,6 +6533,9 @@
       <c r="AO44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AP44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6539,6 +6673,9 @@
       <c r="AO45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AP45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6672,6 +6809,9 @@
       <c r="AO46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AP46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6809,6 +6949,9 @@
       <c r="AO47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AP47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6946,6 +7089,9 @@
       <c r="AO48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AP48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7083,6 +7229,9 @@
       <c r="AO49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AP49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7220,6 +7369,9 @@
       <c r="AO50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AP50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7357,6 +7509,9 @@
       <c r="AO51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AP51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7494,6 +7649,9 @@
       <c r="AO52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AP52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7631,6 +7789,9 @@
       <c r="AO53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AP53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7768,6 +7929,9 @@
       <c r="AO54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AP54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7905,6 +8069,9 @@
       <c r="AO55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AP55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8042,6 +8209,9 @@
       <c r="AO56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AP56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8179,6 +8349,9 @@
       <c r="AO57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AP57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8316,6 +8489,9 @@
       <c r="AO58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AP58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8453,6 +8629,9 @@
       <c r="AO59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AP59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8590,6 +8769,9 @@
       <c r="AO60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AP60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8727,6 +8909,9 @@
       <c r="AO61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AP61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8860,6 +9045,9 @@
       <c r="AO62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AP62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8993,6 +9181,9 @@
       <c r="AO63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AP63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9126,6 +9317,9 @@
       <c r="AO64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AP64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9259,6 +9453,9 @@
       <c r="AO65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AP65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9392,6 +9589,9 @@
       <c r="AO66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AP66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9525,6 +9725,9 @@
       <c r="AO67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AP67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9658,6 +9861,9 @@
       <c r="AO68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AP68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9791,6 +9997,9 @@
       <c r="AO69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AP69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9924,6 +10133,9 @@
       <c r="AO70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AP70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10057,6 +10269,9 @@
       <c r="AO71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AP71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10190,6 +10405,9 @@
       <c r="AO72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AP72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10323,6 +10541,9 @@
       <c r="AO73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AP73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10456,6 +10677,9 @@
       <c r="AO74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AP74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10589,6 +10813,9 @@
       <c r="AO75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AP75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10720,6 +10947,9 @@
         <v>2519.95</v>
       </c>
       <c r="AO76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AP76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP76"/>
+  <dimension ref="A1:AQ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +632,11 @@
           <t>2026-02-17 14:04:44</t>
         </is>
       </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>2026-02-17 15:46:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -768,6 +773,9 @@
       <c r="AP2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -904,6 +912,9 @@
       <c r="AP3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1040,6 +1051,9 @@
       <c r="AP4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1180,6 +1194,9 @@
       <c r="AP5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1320,6 +1337,9 @@
       <c r="AP6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1460,6 +1480,9 @@
       <c r="AP7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1600,6 +1623,9 @@
       <c r="AP8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1740,6 +1766,9 @@
       <c r="AP9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1880,6 +1909,9 @@
       <c r="AP10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2016,6 +2048,9 @@
       <c r="AP11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2152,6 +2187,9 @@
       <c r="AP12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2288,6 +2326,9 @@
       <c r="AP13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2428,6 +2469,9 @@
       <c r="AP14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2564,6 +2608,9 @@
       <c r="AP15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2700,6 +2747,9 @@
       <c r="AP16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2836,6 +2886,9 @@
       <c r="AP17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2972,6 +3025,9 @@
       <c r="AP18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3108,6 +3164,9 @@
       <c r="AP19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3244,6 +3303,9 @@
       <c r="AP20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3380,6 +3442,9 @@
       <c r="AP21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3516,6 +3581,9 @@
       <c r="AP22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3656,6 +3724,9 @@
       <c r="AP23" t="n">
         <v>686</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3792,6 +3863,9 @@
       <c r="AP24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3928,6 +4002,9 @@
       <c r="AP25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4064,6 +4141,9 @@
       <c r="AP26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4200,6 +4280,9 @@
       <c r="AP27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4336,6 +4419,9 @@
       <c r="AP28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4472,6 +4558,9 @@
       <c r="AP29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4608,6 +4697,9 @@
       <c r="AP30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4748,6 +4840,9 @@
       <c r="AP31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4888,6 +4983,9 @@
       <c r="AP32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5028,6 +5126,9 @@
       <c r="AP33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5168,6 +5269,9 @@
       <c r="AP34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5304,6 +5408,9 @@
       <c r="AP35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5440,6 +5547,9 @@
       <c r="AP36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5576,6 +5686,9 @@
       <c r="AP37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5712,6 +5825,9 @@
       <c r="AP38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5848,6 +5964,9 @@
       <c r="AP39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5984,6 +6103,9 @@
       <c r="AP40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6124,6 +6246,9 @@
       <c r="AP41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6260,6 +6385,9 @@
       <c r="AP42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6396,6 +6524,9 @@
       <c r="AP43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6536,6 +6667,9 @@
       <c r="AP44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6676,6 +6810,9 @@
       <c r="AP45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6812,6 +6949,9 @@
       <c r="AP46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6952,6 +7092,9 @@
       <c r="AP47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7092,6 +7235,9 @@
       <c r="AP48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7232,6 +7378,9 @@
       <c r="AP49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7372,6 +7521,9 @@
       <c r="AP50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7512,6 +7664,9 @@
       <c r="AP51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7652,6 +7807,9 @@
       <c r="AP52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7792,6 +7950,9 @@
       <c r="AP53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7932,6 +8093,9 @@
       <c r="AP54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8072,6 +8236,9 @@
       <c r="AP55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8212,6 +8379,9 @@
       <c r="AP56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8231,7 +8401,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -8350,6 +8520,9 @@
         <v>1589.95</v>
       </c>
       <c r="AP57" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="AQ57" t="n">
         <v>1589.95</v>
       </c>
     </row>
@@ -8492,6 +8665,9 @@
       <c r="AP58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8632,6 +8808,9 @@
       <c r="AP59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8772,6 +8951,9 @@
       <c r="AP60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8912,6 +9094,9 @@
       <c r="AP61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9048,6 +9233,9 @@
       <c r="AP62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9184,6 +9372,9 @@
       <c r="AP63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9320,6 +9511,9 @@
       <c r="AP64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9456,6 +9650,9 @@
       <c r="AP65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9592,6 +9789,9 @@
       <c r="AP66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9728,6 +9928,9 @@
       <c r="AP67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AQ67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9864,6 +10067,9 @@
       <c r="AP68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AQ68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10000,6 +10206,9 @@
       <c r="AP69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AQ69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10136,6 +10345,9 @@
       <c r="AP70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AQ70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10272,6 +10484,9 @@
       <c r="AP71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AQ71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10408,6 +10623,9 @@
       <c r="AP72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AQ72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10544,6 +10762,9 @@
       <c r="AP73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AQ73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10680,6 +10901,9 @@
       <c r="AP74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AQ74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10816,6 +11040,9 @@
       <c r="AP75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AQ75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10950,6 +11177,9 @@
         <v>2519.95</v>
       </c>
       <c r="AP76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AQ76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ76"/>
+  <dimension ref="A1:AR76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,11 @@
           <t>2026-02-17 15:46:50</t>
         </is>
       </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>2026-02-17 16:51:52</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -776,6 +781,9 @@
       <c r="AQ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AR2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -915,6 +923,9 @@
       <c r="AQ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AR3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1054,6 +1065,9 @@
       <c r="AQ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AR4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1197,6 +1211,9 @@
       <c r="AQ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AR5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1340,6 +1357,9 @@
       <c r="AQ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AR6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1483,6 +1503,9 @@
       <c r="AQ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AR7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1626,6 +1649,9 @@
       <c r="AQ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AR8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1769,6 +1795,9 @@
       <c r="AQ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AR9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1912,6 +1941,9 @@
       <c r="AQ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AR10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2051,6 +2083,9 @@
       <c r="AQ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AR11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2190,6 +2225,9 @@
       <c r="AQ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AR12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2329,6 +2367,9 @@
       <c r="AQ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AR13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2472,6 +2513,9 @@
       <c r="AQ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AR14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2611,6 +2655,9 @@
       <c r="AQ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AR15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2750,6 +2797,9 @@
       <c r="AQ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AR16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2889,6 +2939,9 @@
       <c r="AQ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AR17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3028,6 +3081,9 @@
       <c r="AQ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AR18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3167,6 +3223,9 @@
       <c r="AQ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AR19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3306,6 +3365,9 @@
       <c r="AQ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AR20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3445,6 +3507,9 @@
       <c r="AQ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AR21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3584,6 +3649,9 @@
       <c r="AQ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AR22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3727,6 +3795,9 @@
       <c r="AQ23" t="n">
         <v>686</v>
       </c>
+      <c r="AR23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3866,6 +3937,9 @@
       <c r="AQ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AR24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4005,6 +4079,9 @@
       <c r="AQ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AR25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4144,6 +4221,9 @@
       <c r="AQ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AR26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4283,6 +4363,9 @@
       <c r="AQ27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AR27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4422,6 +4505,9 @@
       <c r="AQ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AR28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4561,6 +4647,9 @@
       <c r="AQ29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AR29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4700,6 +4789,9 @@
       <c r="AQ30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AR30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4843,6 +4935,9 @@
       <c r="AQ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4986,6 +5081,9 @@
       <c r="AQ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5129,6 +5227,9 @@
       <c r="AQ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5272,6 +5373,9 @@
       <c r="AQ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5411,6 +5515,9 @@
       <c r="AQ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5550,6 +5657,9 @@
       <c r="AQ36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AR36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5689,6 +5799,9 @@
       <c r="AQ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AR37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5828,6 +5941,9 @@
       <c r="AQ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AR38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5967,6 +6083,9 @@
       <c r="AQ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AR39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6106,6 +6225,9 @@
       <c r="AQ40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AR40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6249,6 +6371,9 @@
       <c r="AQ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AR41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6388,6 +6513,9 @@
       <c r="AQ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AR42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6527,6 +6655,9 @@
       <c r="AQ43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AR43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6670,6 +6801,9 @@
       <c r="AQ44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AR44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6813,6 +6947,9 @@
       <c r="AQ45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AR45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6952,6 +7089,9 @@
       <c r="AQ46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AR46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7095,6 +7235,9 @@
       <c r="AQ47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AR47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7238,6 +7381,9 @@
       <c r="AQ48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AR48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7381,6 +7527,9 @@
       <c r="AQ49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AR49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7524,6 +7673,9 @@
       <c r="AQ50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AR50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7667,6 +7819,9 @@
       <c r="AQ51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AR51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7810,6 +7965,9 @@
       <c r="AQ52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AR52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7953,6 +8111,9 @@
       <c r="AQ53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AR53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8096,6 +8257,9 @@
       <c r="AQ54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AR54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8239,6 +8403,9 @@
       <c r="AQ55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AR55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8382,6 +8549,9 @@
       <c r="AQ56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AR56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8525,6 +8695,9 @@
       <c r="AQ57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AR57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8668,6 +8841,9 @@
       <c r="AQ58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AR58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8811,6 +8987,9 @@
       <c r="AQ59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AR59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8954,6 +9133,9 @@
       <c r="AQ60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AR60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9097,6 +9279,9 @@
       <c r="AQ61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AR61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9236,6 +9421,9 @@
       <c r="AQ62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AR62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9375,6 +9563,9 @@
       <c r="AQ63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AR63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9514,6 +9705,9 @@
       <c r="AQ64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AR64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9653,6 +9847,9 @@
       <c r="AQ65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AR65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9792,6 +9989,9 @@
       <c r="AQ66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AR66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9931,6 +10131,9 @@
       <c r="AQ67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AR67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10070,6 +10273,9 @@
       <c r="AQ68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AR68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10209,6 +10415,9 @@
       <c r="AQ69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AR69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10348,6 +10557,9 @@
       <c r="AQ70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AR70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10487,6 +10699,9 @@
       <c r="AQ71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AR71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10626,6 +10841,9 @@
       <c r="AQ72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AR72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10765,6 +10983,9 @@
       <c r="AQ73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AR73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10904,6 +11125,9 @@
       <c r="AQ74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AR74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11043,6 +11267,9 @@
       <c r="AQ75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AR75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11180,6 +11407,9 @@
         <v>2519.95</v>
       </c>
       <c r="AQ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AR76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR76"/>
+  <dimension ref="A1:AS76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +642,11 @@
           <t>2026-02-17 16:51:52</t>
         </is>
       </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>2026-02-17 17:53:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -784,6 +789,9 @@
       <c r="AR2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AS2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -926,6 +934,9 @@
       <c r="AR3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AS3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1068,6 +1079,9 @@
       <c r="AR4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AS4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1214,6 +1228,9 @@
       <c r="AR5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AS5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1360,6 +1377,9 @@
       <c r="AR6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AS6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1506,6 +1526,9 @@
       <c r="AR7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AS7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1652,6 +1675,9 @@
       <c r="AR8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AS8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1798,6 +1824,9 @@
       <c r="AR9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AS9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1944,6 +1973,9 @@
       <c r="AR10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AS10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2086,6 +2118,9 @@
       <c r="AR11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AS11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2228,6 +2263,9 @@
       <c r="AR12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AS12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2370,6 +2408,9 @@
       <c r="AR13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AS13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2516,6 +2557,9 @@
       <c r="AR14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AS14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2658,6 +2702,9 @@
       <c r="AR15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AS15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2800,6 +2847,9 @@
       <c r="AR16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AS16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2942,6 +2992,9 @@
       <c r="AR17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AS17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3084,6 +3137,9 @@
       <c r="AR18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AS18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3226,6 +3282,9 @@
       <c r="AR19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AS19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3368,6 +3427,9 @@
       <c r="AR20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AS20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3510,6 +3572,9 @@
       <c r="AR21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AS21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3652,6 +3717,9 @@
       <c r="AR22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AS22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3798,6 +3866,9 @@
       <c r="AR23" t="n">
         <v>686</v>
       </c>
+      <c r="AS23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3940,6 +4011,9 @@
       <c r="AR24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AS24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4082,6 +4156,9 @@
       <c r="AR25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AS25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4224,6 +4301,9 @@
       <c r="AR26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AS26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4366,6 +4446,9 @@
       <c r="AR27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AS27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4508,6 +4591,9 @@
       <c r="AR28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AS28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4650,6 +4736,9 @@
       <c r="AR29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AS29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4792,6 +4881,9 @@
       <c r="AR30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AS30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4938,6 +5030,9 @@
       <c r="AR31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5084,6 +5179,9 @@
       <c r="AR32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5230,6 +5328,9 @@
       <c r="AR33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5376,6 +5477,9 @@
       <c r="AR34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5518,6 +5622,9 @@
       <c r="AR35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5660,6 +5767,9 @@
       <c r="AR36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AS36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5802,6 +5912,9 @@
       <c r="AR37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AS37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5944,6 +6057,9 @@
       <c r="AR38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AS38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6086,6 +6202,9 @@
       <c r="AR39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AS39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6228,6 +6347,9 @@
       <c r="AR40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AS40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6374,6 +6496,9 @@
       <c r="AR41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AS41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6516,6 +6641,9 @@
       <c r="AR42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AS42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6658,6 +6786,9 @@
       <c r="AR43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AS43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6804,6 +6935,9 @@
       <c r="AR44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AS44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6950,6 +7084,9 @@
       <c r="AR45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AS45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7092,6 +7229,9 @@
       <c r="AR46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AS46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7238,6 +7378,9 @@
       <c r="AR47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AS47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7384,6 +7527,9 @@
       <c r="AR48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AS48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7530,6 +7676,9 @@
       <c r="AR49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AS49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7676,6 +7825,9 @@
       <c r="AR50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AS50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7822,6 +7974,9 @@
       <c r="AR51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AS51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7968,6 +8123,9 @@
       <c r="AR52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AS52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8114,6 +8272,9 @@
       <c r="AR53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AS53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8260,6 +8421,9 @@
       <c r="AR54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AS54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8406,6 +8570,9 @@
       <c r="AR55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AS55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8552,6 +8719,9 @@
       <c r="AR56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AS56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8698,6 +8868,9 @@
       <c r="AR57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AS57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8844,6 +9017,9 @@
       <c r="AR58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AS58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8990,6 +9166,9 @@
       <c r="AR59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AS59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9136,6 +9315,9 @@
       <c r="AR60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AS60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9282,6 +9464,9 @@
       <c r="AR61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AS61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9424,6 +9609,9 @@
       <c r="AR62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AS62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9566,6 +9754,9 @@
       <c r="AR63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AS63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9708,6 +9899,9 @@
       <c r="AR64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AS64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9850,6 +10044,9 @@
       <c r="AR65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AS65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9992,6 +10189,9 @@
       <c r="AR66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AS66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10134,6 +10334,9 @@
       <c r="AR67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AS67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10276,6 +10479,9 @@
       <c r="AR68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AS68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10418,6 +10624,9 @@
       <c r="AR69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AS69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10560,6 +10769,9 @@
       <c r="AR70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AS70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10702,6 +10914,9 @@
       <c r="AR71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AS71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10844,6 +11059,9 @@
       <c r="AR72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AS72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10986,6 +11204,9 @@
       <c r="AR73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AS73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11128,6 +11349,9 @@
       <c r="AR74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AS74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11270,6 +11494,9 @@
       <c r="AR75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AS75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11410,6 +11637,9 @@
         <v>2519.95</v>
       </c>
       <c r="AR76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AS76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS76"/>
+  <dimension ref="A1:AT76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,6 +647,11 @@
           <t>2026-02-17 17:53:09</t>
         </is>
       </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>2026-02-17 18:50:37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -792,6 +797,9 @@
       <c r="AS2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AT2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -937,6 +945,9 @@
       <c r="AS3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AT3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1082,6 +1093,9 @@
       <c r="AS4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AT4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1231,6 +1245,9 @@
       <c r="AS5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AT5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1380,6 +1397,9 @@
       <c r="AS6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AT6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1529,6 +1549,9 @@
       <c r="AS7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AT7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1678,6 +1701,9 @@
       <c r="AS8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AT8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1827,6 +1853,9 @@
       <c r="AS9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AT9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1976,6 +2005,9 @@
       <c r="AS10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AT10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2121,6 +2153,9 @@
       <c r="AS11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AT11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2266,6 +2301,9 @@
       <c r="AS12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AT12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2411,6 +2449,9 @@
       <c r="AS13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AT13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2560,6 +2601,9 @@
       <c r="AS14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AT14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2705,6 +2749,9 @@
       <c r="AS15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AT15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2850,6 +2897,9 @@
       <c r="AS16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AT16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2995,6 +3045,9 @@
       <c r="AS17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AT17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3140,6 +3193,9 @@
       <c r="AS18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AT18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3285,6 +3341,9 @@
       <c r="AS19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AT19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3430,6 +3489,9 @@
       <c r="AS20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AT20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3575,6 +3637,9 @@
       <c r="AS21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AT21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3720,6 +3785,9 @@
       <c r="AS22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AT22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3869,6 +3937,9 @@
       <c r="AS23" t="n">
         <v>686</v>
       </c>
+      <c r="AT23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4014,6 +4085,9 @@
       <c r="AS24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AT24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4159,6 +4233,9 @@
       <c r="AS25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AT25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4304,6 +4381,9 @@
       <c r="AS26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AT26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4449,6 +4529,9 @@
       <c r="AS27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AT27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4594,6 +4677,9 @@
       <c r="AS28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AT28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4739,6 +4825,9 @@
       <c r="AS29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AT29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4884,6 +4973,9 @@
       <c r="AS30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AT30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5033,6 +5125,9 @@
       <c r="AS31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5182,6 +5277,9 @@
       <c r="AS32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5331,6 +5429,9 @@
       <c r="AS33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5480,6 +5581,9 @@
       <c r="AS34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5625,6 +5729,9 @@
       <c r="AS35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5770,6 +5877,9 @@
       <c r="AS36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AT36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5915,6 +6025,9 @@
       <c r="AS37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AT37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6060,6 +6173,9 @@
       <c r="AS38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AT38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6205,6 +6321,9 @@
       <c r="AS39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AT39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6350,6 +6469,9 @@
       <c r="AS40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AT40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6499,6 +6621,9 @@
       <c r="AS41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AT41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6644,6 +6769,9 @@
       <c r="AS42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AT42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6789,6 +6917,9 @@
       <c r="AS43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AT43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6938,6 +7069,9 @@
       <c r="AS44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AT44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7087,6 +7221,9 @@
       <c r="AS45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AT45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7232,6 +7369,9 @@
       <c r="AS46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AT46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7381,6 +7521,9 @@
       <c r="AS47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AT47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7530,6 +7673,9 @@
       <c r="AS48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AT48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7679,6 +7825,9 @@
       <c r="AS49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AT49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7828,6 +7977,9 @@
       <c r="AS50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AT50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7977,6 +8129,9 @@
       <c r="AS51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AT51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8126,6 +8281,9 @@
       <c r="AS52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AT52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8275,6 +8433,9 @@
       <c r="AS53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AT53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8424,6 +8585,9 @@
       <c r="AS54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AT54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8573,6 +8737,9 @@
       <c r="AS55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AT55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8722,6 +8889,9 @@
       <c r="AS56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AT56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8871,6 +9041,9 @@
       <c r="AS57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AT57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9020,6 +9193,9 @@
       <c r="AS58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AT58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9169,6 +9345,9 @@
       <c r="AS59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AT59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9318,6 +9497,9 @@
       <c r="AS60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AT60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9467,6 +9649,9 @@
       <c r="AS61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AT61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9612,6 +9797,9 @@
       <c r="AS62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AT62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9757,6 +9945,9 @@
       <c r="AS63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AT63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9902,6 +10093,9 @@
       <c r="AS64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AT64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10047,6 +10241,9 @@
       <c r="AS65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AT65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10192,6 +10389,9 @@
       <c r="AS66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AT66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10337,6 +10537,9 @@
       <c r="AS67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AT67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10482,6 +10685,9 @@
       <c r="AS68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AT68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10627,6 +10833,9 @@
       <c r="AS69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AT69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10772,6 +10981,9 @@
       <c r="AS70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AT70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10917,6 +11129,9 @@
       <c r="AS71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AT71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11062,6 +11277,9 @@
       <c r="AS72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AT72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11207,6 +11425,9 @@
       <c r="AS73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AT73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11352,6 +11573,9 @@
       <c r="AS74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AT74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11497,6 +11721,9 @@
       <c r="AS75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AT75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11640,6 +11867,9 @@
         <v>2519.95</v>
       </c>
       <c r="AS76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AT76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT76"/>
+  <dimension ref="A1:AU76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,6 +652,11 @@
           <t>2026-02-17 18:50:37</t>
         </is>
       </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>2026-02-17 19:44:10</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -800,6 +805,9 @@
       <c r="AT2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AU2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -948,6 +956,9 @@
       <c r="AT3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AU3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1096,6 +1107,9 @@
       <c r="AT4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AU4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1248,6 +1262,9 @@
       <c r="AT5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AU5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1400,6 +1417,9 @@
       <c r="AT6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AU6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1552,6 +1572,9 @@
       <c r="AT7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AU7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1704,6 +1727,9 @@
       <c r="AT8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AU8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1856,6 +1882,9 @@
       <c r="AT9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AU9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2008,6 +2037,9 @@
       <c r="AT10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AU10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2156,6 +2188,9 @@
       <c r="AT11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AU11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2304,6 +2339,9 @@
       <c r="AT12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AU12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2452,6 +2490,9 @@
       <c r="AT13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AU13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2604,6 +2645,9 @@
       <c r="AT14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AU14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2752,6 +2796,9 @@
       <c r="AT15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AU15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2900,6 +2947,9 @@
       <c r="AT16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AU16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3048,6 +3098,9 @@
       <c r="AT17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AU17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3196,6 +3249,9 @@
       <c r="AT18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AU18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3344,6 +3400,9 @@
       <c r="AT19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AU19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3492,6 +3551,9 @@
       <c r="AT20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AU20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3640,6 +3702,9 @@
       <c r="AT21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AU21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3788,6 +3853,9 @@
       <c r="AT22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AU22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3940,6 +4008,9 @@
       <c r="AT23" t="n">
         <v>686</v>
       </c>
+      <c r="AU23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4088,6 +4159,9 @@
       <c r="AT24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AU24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4236,6 +4310,9 @@
       <c r="AT25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AU25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4384,6 +4461,9 @@
       <c r="AT26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AU26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4532,6 +4612,9 @@
       <c r="AT27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AU27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4680,6 +4763,9 @@
       <c r="AT28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AU28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4828,6 +4914,9 @@
       <c r="AT29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AU29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4976,6 +5065,9 @@
       <c r="AT30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AU30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5128,6 +5220,9 @@
       <c r="AT31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5280,6 +5375,9 @@
       <c r="AT32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5432,6 +5530,9 @@
       <c r="AT33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5584,6 +5685,9 @@
       <c r="AT34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5732,6 +5836,9 @@
       <c r="AT35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5880,6 +5987,9 @@
       <c r="AT36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AU36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6028,6 +6138,9 @@
       <c r="AT37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AU37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6176,6 +6289,9 @@
       <c r="AT38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AU38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6324,6 +6440,9 @@
       <c r="AT39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AU39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6472,6 +6591,9 @@
       <c r="AT40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AU40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6624,6 +6746,9 @@
       <c r="AT41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AU41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6772,6 +6897,9 @@
       <c r="AT42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AU42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6920,6 +7048,9 @@
       <c r="AT43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AU43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7072,6 +7203,9 @@
       <c r="AT44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AU44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7224,6 +7358,9 @@
       <c r="AT45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AU45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7372,6 +7509,9 @@
       <c r="AT46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AU46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7524,6 +7664,9 @@
       <c r="AT47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AU47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7676,6 +7819,9 @@
       <c r="AT48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AU48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7828,6 +7974,9 @@
       <c r="AT49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AU49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7980,6 +8129,9 @@
       <c r="AT50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AU50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8132,6 +8284,9 @@
       <c r="AT51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AU51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8284,6 +8439,9 @@
       <c r="AT52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AU52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8436,6 +8594,9 @@
       <c r="AT53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AU53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8588,6 +8749,9 @@
       <c r="AT54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AU54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8740,6 +8904,9 @@
       <c r="AT55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AU55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8892,6 +9059,9 @@
       <c r="AT56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AU56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9044,6 +9214,9 @@
       <c r="AT57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AU57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9196,6 +9369,9 @@
       <c r="AT58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AU58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9348,6 +9524,9 @@
       <c r="AT59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AU59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9500,6 +9679,9 @@
       <c r="AT60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AU60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9652,6 +9834,9 @@
       <c r="AT61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AU61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9800,6 +9985,9 @@
       <c r="AT62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AU62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9948,6 +10136,9 @@
       <c r="AT63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AU63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10096,6 +10287,9 @@
       <c r="AT64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AU64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10244,6 +10438,9 @@
       <c r="AT65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AU65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10392,6 +10589,9 @@
       <c r="AT66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AU66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10540,6 +10740,9 @@
       <c r="AT67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AU67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10688,6 +10891,9 @@
       <c r="AT68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AU68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10836,6 +11042,9 @@
       <c r="AT69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AU69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10984,6 +11193,9 @@
       <c r="AT70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AU70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11132,6 +11344,9 @@
       <c r="AT71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AU71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11280,6 +11495,9 @@
       <c r="AT72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AU72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11428,6 +11646,9 @@
       <c r="AT73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AU73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11576,6 +11797,9 @@
       <c r="AT74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AU74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11724,6 +11948,9 @@
       <c r="AT75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AU75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11870,6 +12097,9 @@
         <v>2519.95</v>
       </c>
       <c r="AT76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AU76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU76"/>
+  <dimension ref="A1:AV76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,6 +657,11 @@
           <t>2026-02-17 19:44:10</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>2026-02-17 20:31:50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -808,6 +813,9 @@
       <c r="AU2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AV2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -959,6 +967,9 @@
       <c r="AU3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AV3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1110,6 +1121,9 @@
       <c r="AU4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AV4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1265,6 +1279,9 @@
       <c r="AU5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AV5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1420,6 +1437,9 @@
       <c r="AU6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AV6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1575,6 +1595,9 @@
       <c r="AU7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AV7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1730,6 +1753,9 @@
       <c r="AU8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AV8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1885,6 +1911,9 @@
       <c r="AU9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AV9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2040,6 +2069,9 @@
       <c r="AU10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AV10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2191,6 +2223,9 @@
       <c r="AU11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AV11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2342,6 +2377,9 @@
       <c r="AU12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AV12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2493,6 +2531,9 @@
       <c r="AU13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AV13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2648,6 +2689,9 @@
       <c r="AU14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AV14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2799,6 +2843,9 @@
       <c r="AU15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AV15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2950,6 +2997,9 @@
       <c r="AU16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AV16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3101,6 +3151,9 @@
       <c r="AU17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AV17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3252,6 +3305,9 @@
       <c r="AU18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AV18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3403,6 +3459,9 @@
       <c r="AU19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AV19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3554,6 +3613,9 @@
       <c r="AU20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AV20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3705,6 +3767,9 @@
       <c r="AU21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AV21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3856,6 +3921,9 @@
       <c r="AU22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AV22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4011,6 +4079,9 @@
       <c r="AU23" t="n">
         <v>686</v>
       </c>
+      <c r="AV23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4162,6 +4233,9 @@
       <c r="AU24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AV24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4313,6 +4387,9 @@
       <c r="AU25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AV25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4464,6 +4541,9 @@
       <c r="AU26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AV26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4615,6 +4695,9 @@
       <c r="AU27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AV27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4766,6 +4849,9 @@
       <c r="AU28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AV28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4917,6 +5003,9 @@
       <c r="AU29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AV29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5068,6 +5157,9 @@
       <c r="AU30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AV30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5223,6 +5315,9 @@
       <c r="AU31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5378,6 +5473,9 @@
       <c r="AU32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5533,6 +5631,9 @@
       <c r="AU33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5688,6 +5789,9 @@
       <c r="AU34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5839,6 +5943,9 @@
       <c r="AU35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5990,6 +6097,9 @@
       <c r="AU36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AV36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6141,6 +6251,9 @@
       <c r="AU37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AV37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6292,6 +6405,9 @@
       <c r="AU38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AV38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6443,6 +6559,9 @@
       <c r="AU39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AV39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6594,6 +6713,9 @@
       <c r="AU40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AV40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6749,6 +6871,9 @@
       <c r="AU41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AV41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6900,6 +7025,9 @@
       <c r="AU42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AV42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7051,6 +7179,9 @@
       <c r="AU43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AV43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7206,6 +7337,9 @@
       <c r="AU44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AV44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7361,6 +7495,9 @@
       <c r="AU45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AV45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7512,6 +7649,9 @@
       <c r="AU46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AV46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7667,6 +7807,9 @@
       <c r="AU47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AV47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7822,6 +7965,9 @@
       <c r="AU48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AV48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7977,6 +8123,9 @@
       <c r="AU49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AV49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8132,6 +8281,9 @@
       <c r="AU50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AV50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8287,6 +8439,9 @@
       <c r="AU51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AV51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8442,6 +8597,9 @@
       <c r="AU52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AV52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8597,6 +8755,9 @@
       <c r="AU53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AV53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8752,6 +8913,9 @@
       <c r="AU54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AV54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8907,6 +9071,9 @@
       <c r="AU55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AV55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9062,6 +9229,9 @@
       <c r="AU56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AV56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9217,6 +9387,9 @@
       <c r="AU57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AV57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9372,6 +9545,9 @@
       <c r="AU58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AV58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9527,6 +9703,9 @@
       <c r="AU59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AV59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9682,6 +9861,9 @@
       <c r="AU60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AV60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9837,6 +10019,9 @@
       <c r="AU61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AV61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9988,6 +10173,9 @@
       <c r="AU62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AV62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10139,6 +10327,9 @@
       <c r="AU63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AV63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10290,6 +10481,9 @@
       <c r="AU64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AV64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10441,6 +10635,9 @@
       <c r="AU65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AV65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10592,6 +10789,9 @@
       <c r="AU66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AV66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10743,6 +10943,9 @@
       <c r="AU67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AV67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10894,6 +11097,9 @@
       <c r="AU68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AV68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11045,6 +11251,9 @@
       <c r="AU69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AV69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11196,6 +11405,9 @@
       <c r="AU70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AV70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11347,6 +11559,9 @@
       <c r="AU71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AV71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11498,6 +11713,9 @@
       <c r="AU72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AV72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11649,6 +11867,9 @@
       <c r="AU73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AV73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11800,6 +12021,9 @@
       <c r="AU74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AV74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11951,6 +12175,9 @@
       <c r="AU75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AV75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12100,6 +12327,9 @@
         <v>2519.95</v>
       </c>
       <c r="AU76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AV76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV76"/>
+  <dimension ref="A1:AW76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,6 +662,11 @@
           <t>2026-02-17 20:31:50</t>
         </is>
       </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>2026-02-17 22:26:09</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -816,6 +821,9 @@
       <c r="AV2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AW2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -970,6 +978,9 @@
       <c r="AV3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AW3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1124,6 +1135,9 @@
       <c r="AV4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AW4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1282,6 +1296,9 @@
       <c r="AV5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AW5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1440,6 +1457,9 @@
       <c r="AV6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AW6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1598,6 +1618,9 @@
       <c r="AV7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AW7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1756,6 +1779,9 @@
       <c r="AV8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AW8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1914,6 +1940,9 @@
       <c r="AV9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AW9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2072,6 +2101,9 @@
       <c r="AV10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AW10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2226,6 +2258,9 @@
       <c r="AV11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AW11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2380,6 +2415,9 @@
       <c r="AV12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AW12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2534,6 +2572,9 @@
       <c r="AV13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AW13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2692,6 +2733,9 @@
       <c r="AV14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AW14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2846,6 +2890,9 @@
       <c r="AV15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AW15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3000,6 +3047,9 @@
       <c r="AV16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AW16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3154,6 +3204,9 @@
       <c r="AV17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AW17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3308,6 +3361,9 @@
       <c r="AV18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AW18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3462,6 +3518,9 @@
       <c r="AV19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AW19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3616,6 +3675,9 @@
       <c r="AV20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AW20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3770,6 +3832,9 @@
       <c r="AV21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AW21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3924,6 +3989,9 @@
       <c r="AV22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AW22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4082,6 +4150,9 @@
       <c r="AV23" t="n">
         <v>686</v>
       </c>
+      <c r="AW23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4236,6 +4307,9 @@
       <c r="AV24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AW24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4390,6 +4464,9 @@
       <c r="AV25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AW25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4544,6 +4621,9 @@
       <c r="AV26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AW26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4698,6 +4778,9 @@
       <c r="AV27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AW27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4852,6 +4935,9 @@
       <c r="AV28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AW28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5006,6 +5092,9 @@
       <c r="AV29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AW29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5160,6 +5249,9 @@
       <c r="AV30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AW30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5318,6 +5410,9 @@
       <c r="AV31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5476,6 +5571,9 @@
       <c r="AV32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5634,6 +5732,9 @@
       <c r="AV33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5792,6 +5893,9 @@
       <c r="AV34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5946,6 +6050,9 @@
       <c r="AV35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6100,6 +6207,9 @@
       <c r="AV36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AW36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6254,6 +6364,9 @@
       <c r="AV37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AW37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6408,6 +6521,9 @@
       <c r="AV38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AW38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6562,6 +6678,9 @@
       <c r="AV39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AW39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6716,6 +6835,9 @@
       <c r="AV40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AW40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6874,6 +6996,9 @@
       <c r="AV41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AW41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7028,6 +7153,9 @@
       <c r="AV42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AW42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7182,6 +7310,9 @@
       <c r="AV43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AW43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7340,6 +7471,9 @@
       <c r="AV44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AW44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7498,6 +7632,9 @@
       <c r="AV45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AW45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7652,6 +7789,9 @@
       <c r="AV46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AW46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7810,6 +7950,9 @@
       <c r="AV47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AW47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7968,6 +8111,9 @@
       <c r="AV48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AW48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8126,6 +8272,9 @@
       <c r="AV49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AW49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8284,6 +8433,9 @@
       <c r="AV50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AW50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8442,6 +8594,9 @@
       <c r="AV51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AW51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8600,6 +8755,9 @@
       <c r="AV52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AW52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8758,6 +8916,9 @@
       <c r="AV53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AW53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8916,6 +9077,9 @@
       <c r="AV54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AW54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9074,6 +9238,9 @@
       <c r="AV55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AW55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9232,6 +9399,9 @@
       <c r="AV56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AW56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9390,6 +9560,9 @@
       <c r="AV57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AW57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9548,6 +9721,9 @@
       <c r="AV58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AW58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9706,6 +9882,9 @@
       <c r="AV59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AW59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9864,6 +10043,9 @@
       <c r="AV60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AW60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10022,6 +10204,9 @@
       <c r="AV61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AW61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10176,6 +10361,9 @@
       <c r="AV62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AW62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10330,6 +10518,9 @@
       <c r="AV63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AW63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10484,6 +10675,9 @@
       <c r="AV64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AW64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10638,6 +10832,9 @@
       <c r="AV65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AW65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10792,6 +10989,9 @@
       <c r="AV66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AW66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10946,6 +11146,9 @@
       <c r="AV67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AW67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11100,6 +11303,9 @@
       <c r="AV68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AW68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11254,6 +11460,9 @@
       <c r="AV69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AW69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11408,6 +11617,9 @@
       <c r="AV70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AW70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11562,6 +11774,9 @@
       <c r="AV71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AW71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11716,6 +11931,9 @@
       <c r="AV72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AW72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11870,6 +12088,9 @@
       <c r="AV73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AW73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12024,6 +12245,9 @@
       <c r="AV74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AW74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12178,6 +12402,9 @@
       <c r="AV75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AW75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12330,6 +12557,9 @@
         <v>2519.95</v>
       </c>
       <c r="AV76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AW76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW76"/>
+  <dimension ref="A1:AX76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,6 +667,11 @@
           <t>2026-02-17 22:26:09</t>
         </is>
       </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>2026-02-17 23:24:20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -824,6 +829,9 @@
       <c r="AW2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AX2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -981,6 +989,9 @@
       <c r="AW3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AX3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1138,6 +1149,9 @@
       <c r="AW4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AX4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1299,6 +1313,9 @@
       <c r="AW5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AX5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1460,6 +1477,9 @@
       <c r="AW6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AX6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1621,6 +1641,9 @@
       <c r="AW7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AX7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1782,6 +1805,9 @@
       <c r="AW8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AX8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1943,6 +1969,9 @@
       <c r="AW9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AX9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2104,6 +2133,9 @@
       <c r="AW10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AX10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2261,6 +2293,9 @@
       <c r="AW11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AX11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2418,6 +2453,9 @@
       <c r="AW12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AX12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2575,6 +2613,9 @@
       <c r="AW13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AX13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2736,6 +2777,9 @@
       <c r="AW14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AX14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2893,6 +2937,9 @@
       <c r="AW15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AX15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3050,6 +3097,9 @@
       <c r="AW16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AX16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3207,6 +3257,9 @@
       <c r="AW17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AX17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3364,6 +3417,9 @@
       <c r="AW18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AX18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3521,6 +3577,9 @@
       <c r="AW19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AX19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3678,6 +3737,9 @@
       <c r="AW20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AX20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3835,6 +3897,9 @@
       <c r="AW21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AX21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3992,6 +4057,9 @@
       <c r="AW22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AX22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4153,6 +4221,9 @@
       <c r="AW23" t="n">
         <v>686</v>
       </c>
+      <c r="AX23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4310,6 +4381,9 @@
       <c r="AW24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AX24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4467,6 +4541,9 @@
       <c r="AW25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AX25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4624,6 +4701,9 @@
       <c r="AW26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AX26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4781,6 +4861,9 @@
       <c r="AW27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AX27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4938,6 +5021,9 @@
       <c r="AW28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AX28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5095,6 +5181,9 @@
       <c r="AW29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AX29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5252,6 +5341,9 @@
       <c r="AW30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AX30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5413,6 +5505,9 @@
       <c r="AW31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5574,6 +5669,9 @@
       <c r="AW32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5735,6 +5833,9 @@
       <c r="AW33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5896,6 +5997,9 @@
       <c r="AW34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6053,6 +6157,9 @@
       <c r="AW35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6210,6 +6317,9 @@
       <c r="AW36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AX36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6367,6 +6477,9 @@
       <c r="AW37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AX37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6524,6 +6637,9 @@
       <c r="AW38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AX38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6681,6 +6797,9 @@
       <c r="AW39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AX39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6838,6 +6957,9 @@
       <c r="AW40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AX40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6999,6 +7121,9 @@
       <c r="AW41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AX41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7156,6 +7281,9 @@
       <c r="AW42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AX42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7313,6 +7441,9 @@
       <c r="AW43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AX43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7474,6 +7605,9 @@
       <c r="AW44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AX44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7635,6 +7769,9 @@
       <c r="AW45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AX45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7792,6 +7929,9 @@
       <c r="AW46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AX46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7953,6 +8093,9 @@
       <c r="AW47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AX47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8114,6 +8257,9 @@
       <c r="AW48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AX48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8275,6 +8421,9 @@
       <c r="AW49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AX49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8436,6 +8585,9 @@
       <c r="AW50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AX50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8597,6 +8749,9 @@
       <c r="AW51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AX51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8758,6 +8913,9 @@
       <c r="AW52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AX52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8919,6 +9077,9 @@
       <c r="AW53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AX53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9080,6 +9241,9 @@
       <c r="AW54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AX54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9241,6 +9405,9 @@
       <c r="AW55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AX55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9402,6 +9569,9 @@
       <c r="AW56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AX56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9563,6 +9733,9 @@
       <c r="AW57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AX57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9724,6 +9897,9 @@
       <c r="AW58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AX58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9885,6 +10061,9 @@
       <c r="AW59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AX59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10046,6 +10225,9 @@
       <c r="AW60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AX60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10207,6 +10389,9 @@
       <c r="AW61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AX61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10364,6 +10549,9 @@
       <c r="AW62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AX62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10521,6 +10709,9 @@
       <c r="AW63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AX63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10678,6 +10869,9 @@
       <c r="AW64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AX64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10835,6 +11029,9 @@
       <c r="AW65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AX65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10992,6 +11189,9 @@
       <c r="AW66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AX66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11149,6 +11349,9 @@
       <c r="AW67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AX67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11306,6 +11509,9 @@
       <c r="AW68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AX68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11463,6 +11669,9 @@
       <c r="AW69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AX69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11620,6 +11829,9 @@
       <c r="AW70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AX70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11777,6 +11989,9 @@
       <c r="AW71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AX71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11934,6 +12149,9 @@
       <c r="AW72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AX72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12091,6 +12309,9 @@
       <c r="AW73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AX73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12248,6 +12469,9 @@
       <c r="AW74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AX74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12405,6 +12629,9 @@
       <c r="AW75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AX75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12560,6 +12787,9 @@
         <v>2519.95</v>
       </c>
       <c r="AW76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AX76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX76"/>
+  <dimension ref="A1:AY76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,6 +672,11 @@
           <t>2026-02-17 23:24:20</t>
         </is>
       </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>2026-02-18 01:46:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -832,6 +837,9 @@
       <c r="AX2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AY2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -992,6 +1000,9 @@
       <c r="AX3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AY3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1152,6 +1163,9 @@
       <c r="AX4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AY4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1316,6 +1330,9 @@
       <c r="AX5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AY5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1480,6 +1497,9 @@
       <c r="AX6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AY6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1644,6 +1664,9 @@
       <c r="AX7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AY7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1808,6 +1831,9 @@
       <c r="AX8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AY8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1972,6 +1998,9 @@
       <c r="AX9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AY9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2136,6 +2165,9 @@
       <c r="AX10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AY10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2296,6 +2328,9 @@
       <c r="AX11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AY11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2456,6 +2491,9 @@
       <c r="AX12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AY12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2616,6 +2654,9 @@
       <c r="AX13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AY13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2780,6 +2821,9 @@
       <c r="AX14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AY14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2940,6 +2984,9 @@
       <c r="AX15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AY15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3100,6 +3147,9 @@
       <c r="AX16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AY16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3260,6 +3310,9 @@
       <c r="AX17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AY17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3420,6 +3473,9 @@
       <c r="AX18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AY18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3580,6 +3636,9 @@
       <c r="AX19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AY19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3740,6 +3799,9 @@
       <c r="AX20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AY20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3900,6 +3962,9 @@
       <c r="AX21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AY21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4060,6 +4125,9 @@
       <c r="AX22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AY22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4224,6 +4292,9 @@
       <c r="AX23" t="n">
         <v>686</v>
       </c>
+      <c r="AY23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4384,6 +4455,9 @@
       <c r="AX24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AY24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4544,6 +4618,9 @@
       <c r="AX25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AY25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4704,6 +4781,9 @@
       <c r="AX26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AY26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4864,6 +4944,9 @@
       <c r="AX27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AY27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5024,6 +5107,9 @@
       <c r="AX28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AY28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5184,6 +5270,9 @@
       <c r="AX29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AY29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5344,6 +5433,9 @@
       <c r="AX30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AY30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5508,6 +5600,9 @@
       <c r="AX31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5672,6 +5767,9 @@
       <c r="AX32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5836,6 +5934,9 @@
       <c r="AX33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6000,6 +6101,9 @@
       <c r="AX34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6160,6 +6264,9 @@
       <c r="AX35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6320,6 +6427,9 @@
       <c r="AX36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AY36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6480,6 +6590,9 @@
       <c r="AX37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AY37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6640,6 +6753,9 @@
       <c r="AX38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AY38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6800,6 +6916,9 @@
       <c r="AX39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AY39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6960,6 +7079,9 @@
       <c r="AX40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AY40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7124,6 +7246,9 @@
       <c r="AX41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AY41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7284,6 +7409,9 @@
       <c r="AX42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AY42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7444,6 +7572,9 @@
       <c r="AX43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AY43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7608,6 +7739,9 @@
       <c r="AX44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AY44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7772,6 +7906,9 @@
       <c r="AX45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AY45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7932,6 +8069,9 @@
       <c r="AX46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AY46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8096,6 +8236,9 @@
       <c r="AX47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AY47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8260,6 +8403,9 @@
       <c r="AX48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AY48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8424,6 +8570,9 @@
       <c r="AX49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AY49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8588,6 +8737,9 @@
       <c r="AX50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AY50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8752,6 +8904,9 @@
       <c r="AX51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AY51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8916,6 +9071,9 @@
       <c r="AX52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AY52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9080,6 +9238,9 @@
       <c r="AX53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AY53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9244,6 +9405,9 @@
       <c r="AX54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AY54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9408,6 +9572,9 @@
       <c r="AX55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AY55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9572,6 +9739,9 @@
       <c r="AX56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AY56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9736,6 +9906,9 @@
       <c r="AX57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AY57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9900,6 +10073,9 @@
       <c r="AX58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AY58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10064,6 +10240,9 @@
       <c r="AX59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AY59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10228,6 +10407,9 @@
       <c r="AX60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AY60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10392,6 +10574,9 @@
       <c r="AX61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AY61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10552,6 +10737,9 @@
       <c r="AX62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AY62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10712,6 +10900,9 @@
       <c r="AX63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AY63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10872,6 +11063,9 @@
       <c r="AX64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AY64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11032,6 +11226,9 @@
       <c r="AX65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AY65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11192,6 +11389,9 @@
       <c r="AX66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AY66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11352,6 +11552,9 @@
       <c r="AX67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AY67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11512,6 +11715,9 @@
       <c r="AX68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AY68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11672,6 +11878,9 @@
       <c r="AX69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AY69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11832,6 +12041,9 @@
       <c r="AX70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AY70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11992,6 +12204,9 @@
       <c r="AX71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AY71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12152,6 +12367,9 @@
       <c r="AX72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AY72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12312,6 +12530,9 @@
       <c r="AX73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AY73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12472,6 +12693,9 @@
       <c r="AX74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AY74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12632,6 +12856,9 @@
       <c r="AX75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AY75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12790,6 +13017,9 @@
         <v>2519.95</v>
       </c>
       <c r="AX76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AY76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY76"/>
+  <dimension ref="A1:AZ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,11 @@
           <t>2026-02-18 01:46:08</t>
         </is>
       </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 04:17:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -840,6 +845,9 @@
       <c r="AY2" t="n">
         <v>169.95</v>
       </c>
+      <c r="AZ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1003,6 +1011,9 @@
       <c r="AY3" t="n">
         <v>169.95</v>
       </c>
+      <c r="AZ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1166,6 +1177,9 @@
       <c r="AY4" t="n">
         <v>169.95</v>
       </c>
+      <c r="AZ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1333,6 +1347,9 @@
       <c r="AY5" t="n">
         <v>199.95</v>
       </c>
+      <c r="AZ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1500,6 +1517,9 @@
       <c r="AY6" t="n">
         <v>199.95</v>
       </c>
+      <c r="AZ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1667,6 +1687,9 @@
       <c r="AY7" t="n">
         <v>199.95</v>
       </c>
+      <c r="AZ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1834,6 +1857,9 @@
       <c r="AY8" t="n">
         <v>229.95</v>
       </c>
+      <c r="AZ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2001,6 +2027,9 @@
       <c r="AY9" t="n">
         <v>229.95</v>
       </c>
+      <c r="AZ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2168,6 +2197,9 @@
       <c r="AY10" t="n">
         <v>229.95</v>
       </c>
+      <c r="AZ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2331,6 +2363,9 @@
       <c r="AY11" t="n">
         <v>294.95</v>
       </c>
+      <c r="AZ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2494,6 +2529,9 @@
       <c r="AY12" t="n">
         <v>318.95</v>
       </c>
+      <c r="AZ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2657,6 +2695,9 @@
       <c r="AY13" t="n">
         <v>318.95</v>
       </c>
+      <c r="AZ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2824,6 +2865,9 @@
       <c r="AY14" t="n">
         <v>339.95</v>
       </c>
+      <c r="AZ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2987,6 +3031,9 @@
       <c r="AY15" t="n">
         <v>399.95</v>
       </c>
+      <c r="AZ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3150,6 +3197,9 @@
       <c r="AY16" t="n">
         <v>399.95</v>
       </c>
+      <c r="AZ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3313,6 +3363,9 @@
       <c r="AY17" t="n">
         <v>429.95</v>
       </c>
+      <c r="AZ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3476,6 +3529,9 @@
       <c r="AY18" t="n">
         <v>499.95</v>
       </c>
+      <c r="AZ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3639,6 +3695,9 @@
       <c r="AY19" t="n">
         <v>499.95</v>
       </c>
+      <c r="AZ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3802,6 +3861,9 @@
       <c r="AY20" t="n">
         <v>499.95</v>
       </c>
+      <c r="AZ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3965,6 +4027,9 @@
       <c r="AY21" t="n">
         <v>499.95</v>
       </c>
+      <c r="AZ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4128,6 +4193,9 @@
       <c r="AY22" t="n">
         <v>519.95</v>
       </c>
+      <c r="AZ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4295,6 +4363,9 @@
       <c r="AY23" t="n">
         <v>686</v>
       </c>
+      <c r="AZ23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4458,6 +4529,9 @@
       <c r="AY24" t="n">
         <v>749.95</v>
       </c>
+      <c r="AZ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4621,6 +4695,9 @@
       <c r="AY25" t="n">
         <v>749.95</v>
       </c>
+      <c r="AZ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4784,6 +4861,9 @@
       <c r="AY26" t="n">
         <v>749.95</v>
       </c>
+      <c r="AZ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4947,6 +5027,9 @@
       <c r="AY27" t="n">
         <v>749.95</v>
       </c>
+      <c r="AZ27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5110,6 +5193,9 @@
       <c r="AY28" t="n">
         <v>809.95</v>
       </c>
+      <c r="AZ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5273,6 +5359,9 @@
       <c r="AY29" t="n">
         <v>809.95</v>
       </c>
+      <c r="AZ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5436,6 +5525,9 @@
       <c r="AY30" t="n">
         <v>809.95</v>
       </c>
+      <c r="AZ30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5603,6 +5695,9 @@
       <c r="AY31" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5770,6 +5865,9 @@
       <c r="AY32" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5937,6 +6035,9 @@
       <c r="AY33" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6104,6 +6205,9 @@
       <c r="AY34" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6267,6 +6371,9 @@
       <c r="AY35" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6430,6 +6537,9 @@
       <c r="AY36" t="n">
         <v>899.95</v>
       </c>
+      <c r="AZ36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6593,6 +6703,9 @@
       <c r="AY37" t="n">
         <v>929.95</v>
       </c>
+      <c r="AZ37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6756,6 +6869,9 @@
       <c r="AY38" t="n">
         <v>929.95</v>
       </c>
+      <c r="AZ38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6919,6 +7035,9 @@
       <c r="AY39" t="n">
         <v>929.95</v>
       </c>
+      <c r="AZ39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7082,6 +7201,9 @@
       <c r="AY40" t="n">
         <v>929.95</v>
       </c>
+      <c r="AZ40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7249,6 +7371,9 @@
       <c r="AY41" t="n">
         <v>959.95</v>
       </c>
+      <c r="AZ41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7412,6 +7537,9 @@
       <c r="AY42" t="n">
         <v>959.95</v>
       </c>
+      <c r="AZ42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7575,6 +7703,9 @@
       <c r="AY43" t="n">
         <v>959.95</v>
       </c>
+      <c r="AZ43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7742,6 +7873,9 @@
       <c r="AY44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="AZ44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7909,6 +8043,9 @@
       <c r="AY45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AZ45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8072,6 +8209,9 @@
       <c r="AY46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AZ46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8239,6 +8379,9 @@
       <c r="AY47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AZ47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8406,6 +8549,9 @@
       <c r="AY48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AZ48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8573,6 +8719,9 @@
       <c r="AY49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AZ49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8740,6 +8889,9 @@
       <c r="AY50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="AZ50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8907,6 +9059,9 @@
       <c r="AY51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AZ51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9074,6 +9229,9 @@
       <c r="AY52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="AZ52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9241,6 +9399,9 @@
       <c r="AY53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AZ53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9408,6 +9569,9 @@
       <c r="AY54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AZ54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9575,6 +9739,9 @@
       <c r="AY55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="AZ55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9742,6 +9909,9 @@
       <c r="AY56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AZ56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9909,6 +10079,9 @@
       <c r="AY57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AZ57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10076,6 +10249,9 @@
       <c r="AY58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="AZ58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10243,6 +10419,9 @@
       <c r="AY59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AZ59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10410,6 +10589,9 @@
       <c r="AY60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AZ60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10577,6 +10759,9 @@
       <c r="AY61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="AZ61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10740,6 +10925,9 @@
       <c r="AY62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AZ62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10903,6 +11091,9 @@
       <c r="AY63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AZ63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11066,6 +11257,9 @@
       <c r="AY64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AZ64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11229,6 +11423,9 @@
       <c r="AY65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="AZ65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11392,6 +11589,9 @@
       <c r="AY66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AZ66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11555,6 +11755,9 @@
       <c r="AY67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AZ67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11718,6 +11921,9 @@
       <c r="AY68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="AZ68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11881,6 +12087,9 @@
       <c r="AY69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="AZ69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12044,6 +12253,9 @@
       <c r="AY70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AZ70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12207,6 +12419,9 @@
       <c r="AY71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AZ71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12370,6 +12585,9 @@
       <c r="AY72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="AZ72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12533,6 +12751,9 @@
       <c r="AY73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AZ73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12696,6 +12917,9 @@
       <c r="AY74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="AZ74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -12859,6 +13083,9 @@
       <c r="AY75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="AZ75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13020,6 +13247,9 @@
         <v>2519.95</v>
       </c>
       <c r="AY76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AZ76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ76"/>
+  <dimension ref="A1:BA76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,6 +682,11 @@
           <t>2026-02-18 04:17:14</t>
         </is>
       </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>2026-02-18 05:57:52</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -848,6 +853,9 @@
       <c r="AZ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BA2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1014,6 +1022,9 @@
       <c r="AZ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BA3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1180,6 +1191,9 @@
       <c r="AZ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BA4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1350,6 +1364,9 @@
       <c r="AZ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BA5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1520,6 +1537,9 @@
       <c r="AZ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BA6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1690,6 +1710,9 @@
       <c r="AZ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BA7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1860,6 +1883,9 @@
       <c r="AZ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BA8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2030,6 +2056,9 @@
       <c r="AZ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BA9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2200,6 +2229,9 @@
       <c r="AZ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BA10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2366,6 +2398,9 @@
       <c r="AZ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BA11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2532,6 +2567,9 @@
       <c r="AZ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BA12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2698,6 +2736,9 @@
       <c r="AZ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BA13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2868,6 +2909,9 @@
       <c r="AZ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BA14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3034,6 +3078,9 @@
       <c r="AZ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BA15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3200,6 +3247,9 @@
       <c r="AZ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BA16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3366,6 +3416,9 @@
       <c r="AZ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BA17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3532,6 +3585,9 @@
       <c r="AZ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BA18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3698,6 +3754,9 @@
       <c r="AZ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BA19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3864,6 +3923,9 @@
       <c r="AZ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BA20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4030,6 +4092,9 @@
       <c r="AZ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BA21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4196,6 +4261,9 @@
       <c r="AZ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BA22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4366,6 +4434,9 @@
       <c r="AZ23" t="n">
         <v>686</v>
       </c>
+      <c r="BA23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4532,6 +4603,9 @@
       <c r="AZ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BA24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4698,6 +4772,9 @@
       <c r="AZ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BA25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4864,6 +4941,9 @@
       <c r="AZ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BA26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5030,6 +5110,9 @@
       <c r="AZ27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BA27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5196,6 +5279,9 @@
       <c r="AZ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BA28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5362,6 +5448,9 @@
       <c r="AZ29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BA29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5528,6 +5617,9 @@
       <c r="AZ30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BA30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5698,6 +5790,9 @@
       <c r="AZ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5868,6 +5963,9 @@
       <c r="AZ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6038,6 +6136,9 @@
       <c r="AZ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6208,6 +6309,9 @@
       <c r="AZ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6374,6 +6478,9 @@
       <c r="AZ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6540,6 +6647,9 @@
       <c r="AZ36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BA36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6706,6 +6816,9 @@
       <c r="AZ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BA37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6872,6 +6985,9 @@
       <c r="AZ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BA38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7038,6 +7154,9 @@
       <c r="AZ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BA39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7204,6 +7323,9 @@
       <c r="AZ40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BA40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7374,6 +7496,9 @@
       <c r="AZ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BA41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7540,6 +7665,9 @@
       <c r="AZ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BA42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7706,6 +7834,9 @@
       <c r="AZ43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BA43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7876,6 +8007,9 @@
       <c r="AZ44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BA44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8046,6 +8180,9 @@
       <c r="AZ45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BA45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8212,6 +8349,9 @@
       <c r="AZ46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BA46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8382,6 +8522,9 @@
       <c r="AZ47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BA47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8552,6 +8695,9 @@
       <c r="AZ48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BA48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8722,6 +8868,9 @@
       <c r="AZ49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BA49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8892,6 +9041,9 @@
       <c r="AZ50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BA50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9062,6 +9214,9 @@
       <c r="AZ51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BA51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9232,6 +9387,9 @@
       <c r="AZ52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BA52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9402,6 +9560,9 @@
       <c r="AZ53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BA53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9572,6 +9733,9 @@
       <c r="AZ54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BA54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9742,6 +9906,9 @@
       <c r="AZ55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BA55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9912,6 +10079,9 @@
       <c r="AZ56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BA56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10082,6 +10252,9 @@
       <c r="AZ57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BA57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10252,6 +10425,9 @@
       <c r="AZ58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BA58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10422,6 +10598,9 @@
       <c r="AZ59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BA59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10441,7 +10620,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -10590,6 +10769,9 @@
         <v>1829.95</v>
       </c>
       <c r="AZ60" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="BA60" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -10762,6 +10944,9 @@
       <c r="AZ61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BA61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10928,6 +11113,9 @@
       <c r="AZ62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BA62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11094,6 +11282,9 @@
       <c r="AZ63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BA63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11260,6 +11451,9 @@
       <c r="AZ64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BA64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11426,6 +11620,9 @@
       <c r="AZ65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BA65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11592,6 +11789,9 @@
       <c r="AZ66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BA66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11758,6 +11958,9 @@
       <c r="AZ67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BA67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -11924,6 +12127,9 @@
       <c r="AZ68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BA68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12090,6 +12296,9 @@
       <c r="AZ69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BA69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12256,6 +12465,9 @@
       <c r="AZ70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BA70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12422,6 +12634,9 @@
       <c r="AZ71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BA71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12588,6 +12803,9 @@
       <c r="AZ72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BA72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12754,6 +12972,9 @@
       <c r="AZ73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BA73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -12920,6 +13141,9 @@
       <c r="AZ74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BA74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13086,6 +13310,9 @@
       <c r="AZ75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BA75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13250,6 +13477,9 @@
         <v>2519.95</v>
       </c>
       <c r="AZ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BA76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA76"/>
+  <dimension ref="A1:BB76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +687,11 @@
           <t>2026-02-18 05:57:52</t>
         </is>
       </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>2026-02-18 07:01:02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -856,6 +861,9 @@
       <c r="BA2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BB2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1025,6 +1033,9 @@
       <c r="BA3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BB3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1194,6 +1205,9 @@
       <c r="BA4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BB4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1367,6 +1381,9 @@
       <c r="BA5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BB5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1540,6 +1557,9 @@
       <c r="BA6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BB6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1713,6 +1733,9 @@
       <c r="BA7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BB7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1886,6 +1909,9 @@
       <c r="BA8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BB8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2059,6 +2085,9 @@
       <c r="BA9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BB9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2232,6 +2261,9 @@
       <c r="BA10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BB10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2401,6 +2433,9 @@
       <c r="BA11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BB11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2570,6 +2605,9 @@
       <c r="BA12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BB12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2739,6 +2777,9 @@
       <c r="BA13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BB13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2912,6 +2953,9 @@
       <c r="BA14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BB14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3081,6 +3125,9 @@
       <c r="BA15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BB15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3250,6 +3297,9 @@
       <c r="BA16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BB16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3419,6 +3469,9 @@
       <c r="BA17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BB17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3588,6 +3641,9 @@
       <c r="BA18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BB18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3757,6 +3813,9 @@
       <c r="BA19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BB19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3926,6 +3985,9 @@
       <c r="BA20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BB20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4095,6 +4157,9 @@
       <c r="BA21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BB21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4264,6 +4329,9 @@
       <c r="BA22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BB22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4437,6 +4505,9 @@
       <c r="BA23" t="n">
         <v>686</v>
       </c>
+      <c r="BB23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4606,6 +4677,9 @@
       <c r="BA24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BB24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4775,6 +4849,9 @@
       <c r="BA25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BB25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4944,6 +5021,9 @@
       <c r="BA26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BB26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5113,6 +5193,9 @@
       <c r="BA27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BB27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5282,6 +5365,9 @@
       <c r="BA28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BB28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5451,6 +5537,9 @@
       <c r="BA29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BB29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5470,7 +5559,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock sous 7 jours (23/02/2026)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -5620,6 +5709,9 @@
       <c r="BA30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BB30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5793,6 +5885,9 @@
       <c r="BA31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5966,6 +6061,9 @@
       <c r="BA32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6139,6 +6237,9 @@
       <c r="BA33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6312,6 +6413,9 @@
       <c r="BA34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6481,6 +6585,9 @@
       <c r="BA35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6650,6 +6757,9 @@
       <c r="BA36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BB36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6819,6 +6929,9 @@
       <c r="BA37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BB37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6988,6 +7101,9 @@
       <c r="BA38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BB38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7157,6 +7273,9 @@
       <c r="BA39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BB39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7326,6 +7445,9 @@
       <c r="BA40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BB40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7499,6 +7621,9 @@
       <c r="BA41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BB41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7668,6 +7793,9 @@
       <c r="BA42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BB42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7837,6 +7965,9 @@
       <c r="BA43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BB43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8010,6 +8141,9 @@
       <c r="BA44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BB44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8183,6 +8317,9 @@
       <c r="BA45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BB45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8352,6 +8489,9 @@
       <c r="BA46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BB46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8525,6 +8665,9 @@
       <c r="BA47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BB47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8698,6 +8841,9 @@
       <c r="BA48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BB48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8871,6 +9017,9 @@
       <c r="BA49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BB49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9044,6 +9193,9 @@
       <c r="BA50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BB50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9217,6 +9369,9 @@
       <c r="BA51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BB51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9390,6 +9545,9 @@
       <c r="BA52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BB52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9563,6 +9721,9 @@
       <c r="BA53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BB53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9736,6 +9897,9 @@
       <c r="BA54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BB54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9909,6 +10073,9 @@
       <c r="BA55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BB55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10082,6 +10249,9 @@
       <c r="BA56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BB56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10255,6 +10425,9 @@
       <c r="BA57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BB57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10428,6 +10601,9 @@
       <c r="BA58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BB58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10601,6 +10777,9 @@
       <c r="BA59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BB59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10774,6 +10953,9 @@
       <c r="BA60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BB60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10947,6 +11129,9 @@
       <c r="BA61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BB61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11116,6 +11301,9 @@
       <c r="BA62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BB62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11285,6 +11473,9 @@
       <c r="BA63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BB63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11454,6 +11645,9 @@
       <c r="BA64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BB64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11623,6 +11817,9 @@
       <c r="BA65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BB65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11792,6 +11989,9 @@
       <c r="BA66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BB66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -11961,6 +12161,9 @@
       <c r="BA67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BB67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12130,6 +12333,9 @@
       <c r="BA68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BB68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12299,6 +12505,9 @@
       <c r="BA69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BB69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12468,6 +12677,9 @@
       <c r="BA70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BB70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12637,6 +12849,9 @@
       <c r="BA71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BB71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -12806,6 +13021,9 @@
       <c r="BA72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BB72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -12975,6 +13193,9 @@
       <c r="BA73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BB73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13144,6 +13365,9 @@
       <c r="BA74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BB74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13313,6 +13537,9 @@
       <c r="BA75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BB75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13480,6 +13707,9 @@
         <v>2519.95</v>
       </c>
       <c r="BA76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BB76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB76"/>
+  <dimension ref="A1:BC76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,6 +692,11 @@
           <t>2026-02-18 07:01:02</t>
         </is>
       </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>2026-02-18 07:56:34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -864,6 +869,9 @@
       <c r="BB2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BC2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1036,6 +1044,9 @@
       <c r="BB3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BC3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1208,6 +1219,9 @@
       <c r="BB4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BC4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1384,6 +1398,9 @@
       <c r="BB5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BC5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1560,6 +1577,9 @@
       <c r="BB6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BC6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1736,6 +1756,9 @@
       <c r="BB7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BC7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1912,6 +1935,9 @@
       <c r="BB8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BC8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2088,6 +2114,9 @@
       <c r="BB9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BC9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2264,6 +2293,9 @@
       <c r="BB10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BC10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2436,6 +2468,9 @@
       <c r="BB11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BC11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2608,6 +2643,9 @@
       <c r="BB12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BC12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2780,6 +2818,9 @@
       <c r="BB13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BC13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2956,6 +2997,9 @@
       <c r="BB14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BC14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3128,6 +3172,9 @@
       <c r="BB15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BC15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3300,6 +3347,9 @@
       <c r="BB16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BC16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3472,6 +3522,9 @@
       <c r="BB17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BC17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3644,6 +3697,9 @@
       <c r="BB18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BC18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3816,6 +3872,9 @@
       <c r="BB19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BC19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3988,6 +4047,9 @@
       <c r="BB20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BC20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4160,6 +4222,9 @@
       <c r="BB21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BC21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4332,6 +4397,9 @@
       <c r="BB22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BC22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4508,6 +4576,9 @@
       <c r="BB23" t="n">
         <v>686</v>
       </c>
+      <c r="BC23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4680,6 +4751,9 @@
       <c r="BB24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BC24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4852,6 +4926,9 @@
       <c r="BB25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BC25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5024,6 +5101,9 @@
       <c r="BB26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BC26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5196,6 +5276,9 @@
       <c r="BB27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BC27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5368,6 +5451,9 @@
       <c r="BB28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BC28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5540,6 +5626,9 @@
       <c r="BB29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BC29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5712,6 +5801,9 @@
       <c r="BB30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BC30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5888,6 +5980,9 @@
       <c r="BB31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6064,6 +6159,9 @@
       <c r="BB32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6240,6 +6338,9 @@
       <c r="BB33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6416,6 +6517,9 @@
       <c r="BB34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6588,6 +6692,9 @@
       <c r="BB35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6760,6 +6867,9 @@
       <c r="BB36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BC36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6932,6 +7042,9 @@
       <c r="BB37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BC37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7104,6 +7217,9 @@
       <c r="BB38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BC38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7276,6 +7392,9 @@
       <c r="BB39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BC39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7448,6 +7567,9 @@
       <c r="BB40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BC40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7624,6 +7746,9 @@
       <c r="BB41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BC41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7796,6 +7921,9 @@
       <c r="BB42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BC42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7968,6 +8096,9 @@
       <c r="BB43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BC43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8144,6 +8275,9 @@
       <c r="BB44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BC44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8320,6 +8454,9 @@
       <c r="BB45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BC45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8492,6 +8629,9 @@
       <c r="BB46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BC46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8668,6 +8808,9 @@
       <c r="BB47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BC47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8844,6 +8987,9 @@
       <c r="BB48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BC48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9020,6 +9166,9 @@
       <c r="BB49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BC49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9196,6 +9345,9 @@
       <c r="BB50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BC50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9372,6 +9524,9 @@
       <c r="BB51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BC51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9548,6 +9703,9 @@
       <c r="BB52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BC52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9724,6 +9882,9 @@
       <c r="BB53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BC53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9900,6 +10061,9 @@
       <c r="BB54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BC54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10076,6 +10240,9 @@
       <c r="BB55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BC55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10252,6 +10419,9 @@
       <c r="BB56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BC56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10428,6 +10598,9 @@
       <c r="BB57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BC57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10604,6 +10777,9 @@
       <c r="BB58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BC58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10780,6 +10956,9 @@
       <c r="BB59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BC59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -10956,6 +11135,9 @@
       <c r="BB60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BC60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11132,6 +11314,9 @@
       <c r="BB61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BC61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11304,6 +11489,9 @@
       <c r="BB62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BC62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11476,6 +11664,9 @@
       <c r="BB63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BC63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11648,6 +11839,9 @@
       <c r="BB64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BC64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -11820,6 +12014,9 @@
       <c r="BB65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BC65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -11992,6 +12189,9 @@
       <c r="BB66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BC66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12164,6 +12364,9 @@
       <c r="BB67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BC67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12336,6 +12539,9 @@
       <c r="BB68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BC68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12508,6 +12714,9 @@
       <c r="BB69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BC69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12680,6 +12889,9 @@
       <c r="BB70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BC70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -12852,6 +13064,9 @@
       <c r="BB71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BC71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13024,6 +13239,9 @@
       <c r="BB72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BC72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13196,6 +13414,9 @@
       <c r="BB73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BC73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13368,6 +13589,9 @@
       <c r="BB74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BC74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13540,6 +13764,9 @@
       <c r="BB75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BC75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13710,6 +13937,9 @@
         <v>2519.95</v>
       </c>
       <c r="BB76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BC76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC76"/>
+  <dimension ref="A1:BD76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,11 @@
           <t>2026-02-18 07:56:34</t>
         </is>
       </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>2026-02-18 08:39:46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -872,6 +877,9 @@
       <c r="BC2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BD2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1047,6 +1055,9 @@
       <c r="BC3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BD3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1222,6 +1233,9 @@
       <c r="BC4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BD4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1401,6 +1415,9 @@
       <c r="BC5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BD5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1580,6 +1597,9 @@
       <c r="BC6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BD6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1759,6 +1779,9 @@
       <c r="BC7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BD7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1938,6 +1961,9 @@
       <c r="BC8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BD8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2117,6 +2143,9 @@
       <c r="BC9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BD9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2296,6 +2325,9 @@
       <c r="BC10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BD10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2471,6 +2503,9 @@
       <c r="BC11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BD11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2646,6 +2681,9 @@
       <c r="BC12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BD12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2821,6 +2859,9 @@
       <c r="BC13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BD13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3000,6 +3041,9 @@
       <c r="BC14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BD14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3175,6 +3219,9 @@
       <c r="BC15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BD15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3350,6 +3397,9 @@
       <c r="BC16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BD16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3525,6 +3575,9 @@
       <c r="BC17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BD17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3700,6 +3753,9 @@
       <c r="BC18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BD18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3875,6 +3931,9 @@
       <c r="BC19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BD19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4050,6 +4109,9 @@
       <c r="BC20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BD20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4225,6 +4287,9 @@
       <c r="BC21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BD21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4400,6 +4465,9 @@
       <c r="BC22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BD22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4579,6 +4647,9 @@
       <c r="BC23" t="n">
         <v>686</v>
       </c>
+      <c r="BD23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4754,6 +4825,9 @@
       <c r="BC24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BD24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4929,6 +5003,9 @@
       <c r="BC25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BD25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5104,6 +5181,9 @@
       <c r="BC26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BD26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5279,6 +5359,9 @@
       <c r="BC27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BD27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5454,6 +5537,9 @@
       <c r="BC28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BD28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5629,6 +5715,9 @@
       <c r="BC29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BD29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5804,6 +5893,9 @@
       <c r="BC30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BD30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5983,6 +6075,9 @@
       <c r="BC31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6162,6 +6257,9 @@
       <c r="BC32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6341,6 +6439,9 @@
       <c r="BC33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6520,6 +6621,9 @@
       <c r="BC34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6695,6 +6799,9 @@
       <c r="BC35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6870,6 +6977,9 @@
       <c r="BC36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BD36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7045,6 +7155,9 @@
       <c r="BC37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BD37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7220,6 +7333,9 @@
       <c r="BC38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BD38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7395,6 +7511,9 @@
       <c r="BC39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BD39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7570,6 +7689,9 @@
       <c r="BC40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BD40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7749,6 +7871,9 @@
       <c r="BC41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BD41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -7924,6 +8049,9 @@
       <c r="BC42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BD42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8099,6 +8227,9 @@
       <c r="BC43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BD43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8278,6 +8409,9 @@
       <c r="BC44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BD44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8457,6 +8591,9 @@
       <c r="BC45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BD45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8632,6 +8769,9 @@
       <c r="BC46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BD46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8811,6 +8951,9 @@
       <c r="BC47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BD47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8990,6 +9133,9 @@
       <c r="BC48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BD48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9169,6 +9315,9 @@
       <c r="BC49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BD49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9348,6 +9497,9 @@
       <c r="BC50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BD50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9527,6 +9679,9 @@
       <c r="BC51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BD51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9706,6 +9861,9 @@
       <c r="BC52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BD52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9885,6 +10043,9 @@
       <c r="BC53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BD53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10064,6 +10225,9 @@
       <c r="BC54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BD54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10243,6 +10407,9 @@
       <c r="BC55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BD55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10422,6 +10589,9 @@
       <c r="BC56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BD56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10601,6 +10771,9 @@
       <c r="BC57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BD57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10780,6 +10953,9 @@
       <c r="BC58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BD58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10959,6 +11135,9 @@
       <c r="BC59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BD59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11138,6 +11317,9 @@
       <c r="BC60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BD60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11317,6 +11499,9 @@
       <c r="BC61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BD61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11492,6 +11677,9 @@
       <c r="BC62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BD62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11667,6 +11855,9 @@
       <c r="BC63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BD63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -11842,6 +12033,9 @@
       <c r="BC64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BD64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12017,6 +12211,9 @@
       <c r="BC65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BD65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12192,6 +12389,9 @@
       <c r="BC66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BD66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12367,6 +12567,9 @@
       <c r="BC67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BD67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12542,6 +12745,9 @@
       <c r="BC68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BD68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12717,6 +12923,9 @@
       <c r="BC69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BD69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12892,6 +13101,9 @@
       <c r="BC70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BD70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13067,6 +13279,9 @@
       <c r="BC71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BD71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13242,6 +13457,9 @@
       <c r="BC72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BD72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13417,6 +13635,9 @@
       <c r="BC73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BD73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13592,6 +13813,9 @@
       <c r="BC74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BD74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13767,6 +13991,9 @@
       <c r="BC75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BD75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13940,6 +14167,9 @@
         <v>2519.95</v>
       </c>
       <c r="BC76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BD76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD76"/>
+  <dimension ref="A1:BE76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -702,6 +702,11 @@
           <t>2026-02-18 08:39:46</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>2026-02-18 09:41:48</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -880,6 +885,9 @@
       <c r="BD2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BE2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1058,6 +1066,9 @@
       <c r="BD3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BE3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1236,6 +1247,9 @@
       <c r="BD4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BE4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1418,6 +1432,9 @@
       <c r="BD5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BE5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1600,6 +1617,9 @@
       <c r="BD6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BE6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1782,6 +1802,9 @@
       <c r="BD7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BE7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1964,6 +1987,9 @@
       <c r="BD8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BE8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2146,6 +2172,9 @@
       <c r="BD9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BE9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2328,6 +2357,9 @@
       <c r="BD10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BE10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2506,6 +2538,9 @@
       <c r="BD11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BE11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2684,6 +2719,9 @@
       <c r="BD12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BE12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2862,6 +2900,9 @@
       <c r="BD13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BE13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3044,6 +3085,9 @@
       <c r="BD14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BE14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3222,6 +3266,9 @@
       <c r="BD15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BE15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3400,6 +3447,9 @@
       <c r="BD16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BE16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3578,6 +3628,9 @@
       <c r="BD17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BE17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3756,6 +3809,9 @@
       <c r="BD18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BE18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3934,6 +3990,9 @@
       <c r="BD19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BE19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4112,6 +4171,9 @@
       <c r="BD20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BE20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4290,6 +4352,9 @@
       <c r="BD21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BE21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4468,6 +4533,9 @@
       <c r="BD22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BE22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4650,6 +4718,9 @@
       <c r="BD23" t="n">
         <v>686</v>
       </c>
+      <c r="BE23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4828,6 +4899,9 @@
       <c r="BD24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BE24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5006,6 +5080,9 @@
       <c r="BD25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BE25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5184,6 +5261,9 @@
       <c r="BD26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BE26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5362,6 +5442,9 @@
       <c r="BD27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BE27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5540,6 +5623,9 @@
       <c r="BD28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BE28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5718,6 +5804,9 @@
       <c r="BD29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BE29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5896,6 +5985,9 @@
       <c r="BD30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BE30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6078,6 +6170,9 @@
       <c r="BD31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BE31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6260,6 +6355,9 @@
       <c r="BD32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BE32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6442,6 +6540,9 @@
       <c r="BD33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BE33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6624,6 +6725,9 @@
       <c r="BD34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BE34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6802,6 +6906,9 @@
       <c r="BD35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BE35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6980,6 +7087,9 @@
       <c r="BD36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BE36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7158,6 +7268,9 @@
       <c r="BD37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BE37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7336,6 +7449,9 @@
       <c r="BD38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BE38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7514,6 +7630,9 @@
       <c r="BD39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BE39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7692,6 +7811,9 @@
       <c r="BD40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BE40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7874,6 +7996,9 @@
       <c r="BD41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BE41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8052,6 +8177,9 @@
       <c r="BD42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BE42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8230,6 +8358,9 @@
       <c r="BD43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BE43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8412,6 +8543,9 @@
       <c r="BD44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BE44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8594,6 +8728,9 @@
       <c r="BD45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BE45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8772,6 +8909,9 @@
       <c r="BD46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BE46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8954,6 +9094,9 @@
       <c r="BD47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BE47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9136,6 +9279,9 @@
       <c r="BD48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BE48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9318,6 +9464,9 @@
       <c r="BD49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BE49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9500,6 +9649,9 @@
       <c r="BD50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BE50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9682,6 +9834,9 @@
       <c r="BD51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BE51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9864,6 +10019,9 @@
       <c r="BD52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BE52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10046,6 +10204,9 @@
       <c r="BD53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BE53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10228,6 +10389,9 @@
       <c r="BD54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BE54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10410,6 +10574,9 @@
       <c r="BD55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BE55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10592,6 +10759,9 @@
       <c r="BD56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BE56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10774,6 +10944,9 @@
       <c r="BD57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BE57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -10956,6 +11129,9 @@
       <c r="BD58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BE58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11138,6 +11314,9 @@
       <c r="BD59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BE59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11320,6 +11499,9 @@
       <c r="BD60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BE60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11502,6 +11684,9 @@
       <c r="BD61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BE61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11680,6 +11865,9 @@
       <c r="BD62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BE62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -11858,6 +12046,9 @@
       <c r="BD63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BE63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12036,6 +12227,9 @@
       <c r="BD64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BE64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12214,6 +12408,9 @@
       <c r="BD65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BE65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12392,6 +12589,9 @@
       <c r="BD66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BE66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12570,6 +12770,9 @@
       <c r="BD67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BE67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12748,6 +12951,9 @@
       <c r="BD68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BE68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12926,6 +13132,9 @@
       <c r="BD69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BE69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13104,6 +13313,9 @@
       <c r="BD70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BE70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13282,6 +13494,9 @@
       <c r="BD71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BE71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13460,6 +13675,9 @@
       <c r="BD72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BE72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13638,6 +13856,9 @@
       <c r="BD73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BE73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13816,6 +14037,9 @@
       <c r="BD74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BE74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13994,6 +14218,9 @@
       <c r="BD75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BE75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14170,6 +14397,9 @@
         <v>2519.95</v>
       </c>
       <c r="BD76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BE76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE76"/>
+  <dimension ref="A1:BF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,6 +707,11 @@
           <t>2026-02-18 09:41:48</t>
         </is>
       </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>2026-02-18 10:39:39</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -888,6 +893,9 @@
       <c r="BE2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BF2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1069,6 +1077,9 @@
       <c r="BE3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BF3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1250,6 +1261,9 @@
       <c r="BE4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BF4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1435,6 +1449,9 @@
       <c r="BE5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BF5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1620,6 +1637,9 @@
       <c r="BE6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BF6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1805,6 +1825,9 @@
       <c r="BE7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BF7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1990,6 +2013,9 @@
       <c r="BE8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BF8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2175,6 +2201,9 @@
       <c r="BE9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BF9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2360,6 +2389,9 @@
       <c r="BE10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BF10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2541,6 +2573,9 @@
       <c r="BE11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BF11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2722,6 +2757,9 @@
       <c r="BE12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BF12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2903,6 +2941,9 @@
       <c r="BE13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BF13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3088,6 +3129,9 @@
       <c r="BE14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BF14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3269,6 +3313,9 @@
       <c r="BE15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BF15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3450,6 +3497,9 @@
       <c r="BE16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BF16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3631,6 +3681,9 @@
       <c r="BE17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BF17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3812,6 +3865,9 @@
       <c r="BE18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BF18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3993,6 +4049,9 @@
       <c r="BE19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BF19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4174,6 +4233,9 @@
       <c r="BE20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BF20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4355,6 +4417,9 @@
       <c r="BE21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BF21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4536,6 +4601,9 @@
       <c r="BE22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BF22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4721,6 +4789,9 @@
       <c r="BE23" t="n">
         <v>686</v>
       </c>
+      <c r="BF23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4902,6 +4973,9 @@
       <c r="BE24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BF24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5083,6 +5157,9 @@
       <c r="BE25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BF25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5264,6 +5341,9 @@
       <c r="BE26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BF26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5445,6 +5525,9 @@
       <c r="BE27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BF27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5626,6 +5709,9 @@
       <c r="BE28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BF28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5807,6 +5893,9 @@
       <c r="BE29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BF29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5988,6 +6077,9 @@
       <c r="BE30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BF30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6173,6 +6265,9 @@
       <c r="BE31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6358,6 +6453,9 @@
       <c r="BE32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6543,6 +6641,9 @@
       <c r="BE33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6728,6 +6829,9 @@
       <c r="BE34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6909,6 +7013,9 @@
       <c r="BE35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7090,6 +7197,9 @@
       <c r="BE36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BF36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7271,6 +7381,9 @@
       <c r="BE37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BF37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7452,6 +7565,9 @@
       <c r="BE38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BF38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7633,6 +7749,9 @@
       <c r="BE39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BF39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7814,6 +7933,9 @@
       <c r="BE40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BF40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7999,6 +8121,9 @@
       <c r="BE41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BF41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8180,6 +8305,9 @@
       <c r="BE42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BF42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8361,6 +8489,9 @@
       <c r="BE43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BF43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8546,6 +8677,9 @@
       <c r="BE44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BF44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8731,6 +8865,9 @@
       <c r="BE45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BF45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8912,6 +9049,9 @@
       <c r="BE46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BF46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9097,6 +9237,9 @@
       <c r="BE47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BF47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9282,6 +9425,9 @@
       <c r="BE48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BF48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9467,6 +9613,9 @@
       <c r="BE49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BF49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9652,6 +9801,9 @@
       <c r="BE50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BF50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9837,6 +9989,9 @@
       <c r="BE51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BF51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10022,6 +10177,9 @@
       <c r="BE52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BF52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10207,6 +10365,9 @@
       <c r="BE53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BF53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10392,6 +10553,9 @@
       <c r="BE54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BF54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10577,6 +10741,9 @@
       <c r="BE55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BF55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10762,6 +10929,9 @@
       <c r="BE56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BF56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -10947,6 +11117,9 @@
       <c r="BE57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BF57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11132,6 +11305,9 @@
       <c r="BE58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BF58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11317,6 +11493,9 @@
       <c r="BE59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BF59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11502,6 +11681,9 @@
       <c r="BE60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BF60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11687,6 +11869,9 @@
       <c r="BE61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BF61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11868,6 +12053,9 @@
       <c r="BE62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BF62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12049,6 +12237,9 @@
       <c r="BE63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BF63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12230,6 +12421,9 @@
       <c r="BE64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BF64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12411,6 +12605,9 @@
       <c r="BE65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BF65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12592,6 +12789,9 @@
       <c r="BE66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BF66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12773,6 +12973,9 @@
       <c r="BE67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BF67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -12954,6 +13157,9 @@
       <c r="BE68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BF68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13135,6 +13341,9 @@
       <c r="BE69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BF69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13316,6 +13525,9 @@
       <c r="BE70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BF70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13497,6 +13709,9 @@
       <c r="BE71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BF71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13678,6 +13893,9 @@
       <c r="BE72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BF72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13859,6 +14077,9 @@
       <c r="BE73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BF73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14040,6 +14261,9 @@
       <c r="BE74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BF74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14221,6 +14445,9 @@
       <c r="BE75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BF75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14400,6 +14627,9 @@
         <v>2519.95</v>
       </c>
       <c r="BE76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BF76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF76"/>
+  <dimension ref="A1:BG76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>2026-02-18 10:39:39</t>
         </is>
       </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>2026-02-18 11:35:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -896,6 +901,9 @@
       <c r="BF2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BG2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1080,6 +1088,9 @@
       <c r="BF3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BG3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1264,6 +1275,9 @@
       <c r="BF4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BG4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1452,6 +1466,9 @@
       <c r="BF5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BG5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1640,6 +1657,9 @@
       <c r="BF6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BG6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1828,6 +1848,9 @@
       <c r="BF7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BG7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2016,6 +2039,9 @@
       <c r="BF8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BG8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2204,6 +2230,9 @@
       <c r="BF9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BG9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2392,6 +2421,9 @@
       <c r="BF10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BG10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2576,6 +2608,9 @@
       <c r="BF11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BG11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2760,6 +2795,9 @@
       <c r="BF12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BG12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2944,6 +2982,9 @@
       <c r="BF13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BG13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3132,6 +3173,9 @@
       <c r="BF14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BG14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3316,6 +3360,9 @@
       <c r="BF15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BG15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3500,6 +3547,9 @@
       <c r="BF16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BG16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3684,6 +3734,9 @@
       <c r="BF17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BG17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3868,6 +3921,9 @@
       <c r="BF18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BG18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4052,6 +4108,9 @@
       <c r="BF19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BG19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4236,6 +4295,9 @@
       <c r="BF20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BG20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4420,6 +4482,9 @@
       <c r="BF21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BG21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4604,6 +4669,9 @@
       <c r="BF22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BG22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4792,6 +4860,9 @@
       <c r="BF23" t="n">
         <v>686</v>
       </c>
+      <c r="BG23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4976,6 +5047,9 @@
       <c r="BF24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BG24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5160,6 +5234,9 @@
       <c r="BF25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BG25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5344,6 +5421,9 @@
       <c r="BF26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BG26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5528,6 +5608,9 @@
       <c r="BF27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BG27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5712,6 +5795,9 @@
       <c r="BF28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BG28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5896,6 +5982,9 @@
       <c r="BF29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BG29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6080,6 +6169,9 @@
       <c r="BF30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BG30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6268,6 +6360,9 @@
       <c r="BF31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6456,6 +6551,9 @@
       <c r="BF32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6644,6 +6742,9 @@
       <c r="BF33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6832,6 +6933,9 @@
       <c r="BF34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7016,6 +7120,9 @@
       <c r="BF35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7200,6 +7307,9 @@
       <c r="BF36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BG36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7384,6 +7494,9 @@
       <c r="BF37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BG37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7568,6 +7681,9 @@
       <c r="BF38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BG38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7752,6 +7868,9 @@
       <c r="BF39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BG39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7936,6 +8055,9 @@
       <c r="BF40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BG40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8124,6 +8246,9 @@
       <c r="BF41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BG41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8308,6 +8433,9 @@
       <c r="BF42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BG42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8492,6 +8620,9 @@
       <c r="BF43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BG43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8680,6 +8811,9 @@
       <c r="BF44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BG44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8868,6 +9002,9 @@
       <c r="BF45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BG45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9052,6 +9189,9 @@
       <c r="BF46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BG46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9240,6 +9380,9 @@
       <c r="BF47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BG47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9428,6 +9571,9 @@
       <c r="BF48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BG48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9616,6 +9762,9 @@
       <c r="BF49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BG49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9804,6 +9953,9 @@
       <c r="BF50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BG50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9992,6 +10144,9 @@
       <c r="BF51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BG51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10180,6 +10335,9 @@
       <c r="BF52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BG52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10368,6 +10526,9 @@
       <c r="BF53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BG53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10556,6 +10717,9 @@
       <c r="BF54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BG54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10744,6 +10908,9 @@
       <c r="BF55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BG55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -10932,6 +11099,9 @@
       <c r="BF56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BG56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11120,6 +11290,9 @@
       <c r="BF57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BG57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11308,6 +11481,9 @@
       <c r="BF58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BG58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11496,6 +11672,9 @@
       <c r="BF59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BG59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11684,6 +11863,9 @@
       <c r="BF60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BG60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -11872,6 +12054,9 @@
       <c r="BF61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BG61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12056,6 +12241,9 @@
       <c r="BF62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BG62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12240,6 +12428,9 @@
       <c r="BF63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BG63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12424,6 +12615,9 @@
       <c r="BF64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BG64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12608,6 +12802,9 @@
       <c r="BF65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BG65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12792,6 +12989,9 @@
       <c r="BF66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BG66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -12976,6 +13176,9 @@
       <c r="BF67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BG67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13160,6 +13363,9 @@
       <c r="BF68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BG68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13344,6 +13550,9 @@
       <c r="BF69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BG69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13528,6 +13737,9 @@
       <c r="BF70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BG70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13712,6 +13924,9 @@
       <c r="BF71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BG71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13896,6 +14111,9 @@
       <c r="BF72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BG72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14080,6 +14298,9 @@
       <c r="BF73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BG73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14264,6 +14485,9 @@
       <c r="BF74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BG74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14448,6 +14672,9 @@
       <c r="BF75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BG75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14630,6 +14857,9 @@
         <v>2519.95</v>
       </c>
       <c r="BF76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BG76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG76"/>
+  <dimension ref="A1:BH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,6 +717,11 @@
           <t>2026-02-18 11:35:32</t>
         </is>
       </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>2026-02-18 12:53:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -904,6 +909,9 @@
       <c r="BG2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BH2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1091,6 +1099,9 @@
       <c r="BG3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BH3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1278,6 +1289,9 @@
       <c r="BG4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BH4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1469,6 +1483,9 @@
       <c r="BG5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BH5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1660,6 +1677,9 @@
       <c r="BG6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BH6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1851,6 +1871,9 @@
       <c r="BG7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BH7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2042,6 +2065,9 @@
       <c r="BG8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BH8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2233,6 +2259,9 @@
       <c r="BG9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BH9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2424,6 +2453,9 @@
       <c r="BG10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BH10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2611,6 +2643,9 @@
       <c r="BG11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BH11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2798,6 +2833,9 @@
       <c r="BG12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BH12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2985,6 +3023,9 @@
       <c r="BG13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BH13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3176,6 +3217,9 @@
       <c r="BG14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BH14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3363,6 +3407,9 @@
       <c r="BG15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BH15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3550,6 +3597,9 @@
       <c r="BG16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BH16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3737,6 +3787,9 @@
       <c r="BG17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BH17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3924,6 +3977,9 @@
       <c r="BG18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BH18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4111,6 +4167,9 @@
       <c r="BG19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BH19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4298,6 +4357,9 @@
       <c r="BG20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BH20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4485,6 +4547,9 @@
       <c r="BG21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BH21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4672,6 +4737,9 @@
       <c r="BG22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BH22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4863,6 +4931,9 @@
       <c r="BG23" t="n">
         <v>686</v>
       </c>
+      <c r="BH23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5050,6 +5121,9 @@
       <c r="BG24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BH24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5237,6 +5311,9 @@
       <c r="BG25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BH25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5424,6 +5501,9 @@
       <c r="BG26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BH26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5611,6 +5691,9 @@
       <c r="BG27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BH27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5798,6 +5881,9 @@
       <c r="BG28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BH28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -5985,6 +6071,9 @@
       <c r="BG29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BH29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6004,7 +6093,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock sous 7 jours (23/02/2026)</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6172,6 +6261,9 @@
       <c r="BG30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BH30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6363,6 +6455,9 @@
       <c r="BG31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6554,6 +6649,9 @@
       <c r="BG32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6745,6 +6843,9 @@
       <c r="BG33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6936,6 +7037,9 @@
       <c r="BG34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7123,6 +7227,9 @@
       <c r="BG35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7310,6 +7417,9 @@
       <c r="BG36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BH36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7497,6 +7607,9 @@
       <c r="BG37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BH37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7684,6 +7797,9 @@
       <c r="BG38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BH38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7871,6 +7987,9 @@
       <c r="BG39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BH39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8058,6 +8177,9 @@
       <c r="BG40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BH40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8249,6 +8371,9 @@
       <c r="BG41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BH41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8436,6 +8561,9 @@
       <c r="BG42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BH42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8623,6 +8751,9 @@
       <c r="BG43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BH43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8814,6 +8945,9 @@
       <c r="BG44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BH44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9005,6 +9139,9 @@
       <c r="BG45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BH45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9192,6 +9329,9 @@
       <c r="BG46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BH46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9383,6 +9523,9 @@
       <c r="BG47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BH47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9574,6 +9717,9 @@
       <c r="BG48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BH48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9765,6 +9911,9 @@
       <c r="BG49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BH49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9956,6 +10105,9 @@
       <c r="BG50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BH50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10147,6 +10299,9 @@
       <c r="BG51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BH51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10338,6 +10493,9 @@
       <c r="BG52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BH52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10529,6 +10687,9 @@
       <c r="BG53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BH53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10720,6 +10881,9 @@
       <c r="BG54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BH54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -10911,6 +11075,9 @@
       <c r="BG55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BH55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11102,6 +11269,9 @@
       <c r="BG56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BH56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11293,6 +11463,9 @@
       <c r="BG57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BH57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11484,6 +11657,9 @@
       <c r="BG58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BH58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11675,6 +11851,9 @@
       <c r="BG59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BH59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -11866,6 +12045,9 @@
       <c r="BG60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BH60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12057,6 +12239,9 @@
       <c r="BG61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BH61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12244,6 +12429,9 @@
       <c r="BG62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BH62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12431,6 +12619,9 @@
       <c r="BG63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BH63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12618,6 +12809,9 @@
       <c r="BG64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BH64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -12805,6 +12999,9 @@
       <c r="BG65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BH65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -12992,6 +13189,9 @@
       <c r="BG66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BH66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13179,6 +13379,9 @@
       <c r="BG67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BH67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13366,6 +13569,9 @@
       <c r="BG68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BH68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13553,6 +13759,9 @@
       <c r="BG69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BH69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13740,6 +13949,9 @@
       <c r="BG70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BH70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13927,6 +14139,9 @@
       <c r="BG71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BH71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14114,6 +14329,9 @@
       <c r="BG72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BH72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14301,6 +14519,9 @@
       <c r="BG73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BH73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14488,6 +14709,9 @@
       <c r="BG74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BH74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14675,6 +14899,9 @@
       <c r="BG75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BH75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -14860,6 +15087,9 @@
         <v>2519.95</v>
       </c>
       <c r="BG76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BH76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH76"/>
+  <dimension ref="A1:BI76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,11 @@
           <t>2026-02-18 12:53:05</t>
         </is>
       </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>2026-02-18 14:05:51</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -912,6 +917,9 @@
       <c r="BH2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BI2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1110,9 @@
       <c r="BH3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BI3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1292,6 +1303,9 @@
       <c r="BH4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BI4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1486,6 +1500,9 @@
       <c r="BH5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BI5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1680,6 +1697,9 @@
       <c r="BH6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BI6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1874,6 +1894,9 @@
       <c r="BH7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BI7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2068,6 +2091,9 @@
       <c r="BH8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BI8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2262,6 +2288,9 @@
       <c r="BH9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BI9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2456,6 +2485,9 @@
       <c r="BH10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BI10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2646,6 +2678,9 @@
       <c r="BH11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BI11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2836,6 +2871,9 @@
       <c r="BH12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BI12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3026,6 +3064,9 @@
       <c r="BH13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BI13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3220,6 +3261,9 @@
       <c r="BH14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BI14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3410,6 +3454,9 @@
       <c r="BH15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BI15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3600,6 +3647,9 @@
       <c r="BH16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BI16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3790,6 +3840,9 @@
       <c r="BH17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BI17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3980,6 +4033,9 @@
       <c r="BH18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BI18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4170,6 +4226,9 @@
       <c r="BH19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BI19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4360,6 +4419,9 @@
       <c r="BH20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BI20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4550,6 +4612,9 @@
       <c r="BH21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BI21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4740,6 +4805,9 @@
       <c r="BH22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BI22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4934,6 +5002,9 @@
       <c r="BH23" t="n">
         <v>686</v>
       </c>
+      <c r="BI23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5124,6 +5195,9 @@
       <c r="BH24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BI24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5314,6 +5388,9 @@
       <c r="BH25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BI25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5504,6 +5581,9 @@
       <c r="BH26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BI26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5523,7 +5603,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5694,6 +5774,9 @@
       <c r="BH27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BI27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5884,6 +5967,9 @@
       <c r="BH28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BI28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6074,6 +6160,9 @@
       <c r="BH29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BI29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6264,6 +6353,9 @@
       <c r="BH30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BI30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6458,6 +6550,9 @@
       <c r="BH31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6652,6 +6747,9 @@
       <c r="BH32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6846,6 +6944,9 @@
       <c r="BH33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7040,6 +7141,9 @@
       <c r="BH34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7230,6 +7334,9 @@
       <c r="BH35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7420,6 +7527,9 @@
       <c r="BH36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BI36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7610,6 +7720,9 @@
       <c r="BH37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BI37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7800,6 +7913,9 @@
       <c r="BH38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BI38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7990,6 +8106,9 @@
       <c r="BH39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BI39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8180,6 +8299,9 @@
       <c r="BH40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BI40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8374,6 +8496,9 @@
       <c r="BH41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BI41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8564,6 +8689,9 @@
       <c r="BH42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BI42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8754,6 +8882,9 @@
       <c r="BH43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BI43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8948,6 +9079,9 @@
       <c r="BH44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BI44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9142,6 +9276,9 @@
       <c r="BH45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BI45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9332,6 +9469,9 @@
       <c r="BH46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BI46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9526,6 +9666,9 @@
       <c r="BH47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BI47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9720,6 +9863,9 @@
       <c r="BH48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BI48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9914,6 +10060,9 @@
       <c r="BH49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BI49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10108,6 +10257,9 @@
       <c r="BH50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BI50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10302,6 +10454,9 @@
       <c r="BH51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BI51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10496,6 +10651,9 @@
       <c r="BH52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BI52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10690,6 +10848,9 @@
       <c r="BH53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BI53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -10884,6 +11045,9 @@
       <c r="BH54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BI54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11078,6 +11242,9 @@
       <c r="BH55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BI55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11272,6 +11439,9 @@
       <c r="BH56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BI56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11466,6 +11636,9 @@
       <c r="BH57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BI57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11660,6 +11833,9 @@
       <c r="BH58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BI58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -11854,6 +12030,9 @@
       <c r="BH59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BI59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12048,6 +12227,9 @@
       <c r="BH60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BI60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12242,6 +12424,9 @@
       <c r="BH61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BI61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12432,6 +12617,9 @@
       <c r="BH62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BI62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12622,6 +12810,9 @@
       <c r="BH63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BI63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -12812,6 +13003,9 @@
       <c r="BH64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BI64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13002,6 +13196,9 @@
       <c r="BH65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BI65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13192,6 +13389,9 @@
       <c r="BH66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BI66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13382,6 +13582,9 @@
       <c r="BH67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BI67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13572,6 +13775,9 @@
       <c r="BH68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BI68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13762,6 +13968,9 @@
       <c r="BH69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BI69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13952,6 +14161,9 @@
       <c r="BH70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BI70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14142,6 +14354,9 @@
       <c r="BH71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BI71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14332,6 +14547,9 @@
       <c r="BH72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BI72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14522,6 +14740,9 @@
       <c r="BH73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BI73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14712,6 +14933,9 @@
       <c r="BH74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BI74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -14902,6 +15126,9 @@
       <c r="BH75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BI75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15090,6 +15317,9 @@
         <v>2519.95</v>
       </c>
       <c r="BH76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BI76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI76"/>
+  <dimension ref="A1:BJ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,6 +727,11 @@
           <t>2026-02-18 14:05:51</t>
         </is>
       </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>2026-02-18 15:45:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -920,6 +925,9 @@
       <c r="BI2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BJ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1113,6 +1121,9 @@
       <c r="BI3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BJ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1306,6 +1317,9 @@
       <c r="BI4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BJ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1503,6 +1517,9 @@
       <c r="BI5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BJ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1700,6 +1717,9 @@
       <c r="BI6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BJ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1897,6 +1917,9 @@
       <c r="BI7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BJ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2094,6 +2117,9 @@
       <c r="BI8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BJ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2291,6 +2317,9 @@
       <c r="BI9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BJ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2488,6 +2517,9 @@
       <c r="BI10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BJ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2681,6 +2713,9 @@
       <c r="BI11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BJ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2874,6 +2909,9 @@
       <c r="BI12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BJ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3067,6 +3105,9 @@
       <c r="BI13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BJ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3264,6 +3305,9 @@
       <c r="BI14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BJ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3457,6 +3501,9 @@
       <c r="BI15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BJ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3650,6 +3697,9 @@
       <c r="BI16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BJ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3843,6 +3893,9 @@
       <c r="BI17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BJ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4036,6 +4089,9 @@
       <c r="BI18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BJ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4229,6 +4285,9 @@
       <c r="BI19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BJ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4422,6 +4481,9 @@
       <c r="BI20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BJ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4615,6 +4677,9 @@
       <c r="BI21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BJ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4808,6 +4873,9 @@
       <c r="BI22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BJ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5005,6 +5073,9 @@
       <c r="BI23" t="n">
         <v>686</v>
       </c>
+      <c r="BJ23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5198,6 +5269,9 @@
       <c r="BI24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BJ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5391,6 +5465,9 @@
       <c r="BI25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BJ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5584,6 +5661,9 @@
       <c r="BI26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BJ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5777,6 +5857,9 @@
       <c r="BI27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BJ27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -5970,6 +6053,9 @@
       <c r="BI28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BJ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6163,6 +6249,9 @@
       <c r="BI29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BJ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6356,6 +6445,9 @@
       <c r="BI30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BJ30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6553,6 +6645,9 @@
       <c r="BI31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6750,6 +6845,9 @@
       <c r="BI32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6947,6 +7045,9 @@
       <c r="BI33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7144,6 +7245,9 @@
       <c r="BI34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7337,6 +7441,9 @@
       <c r="BI35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7530,6 +7637,9 @@
       <c r="BI36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BJ36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7723,6 +7833,9 @@
       <c r="BI37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BJ37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -7916,6 +8029,9 @@
       <c r="BI38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BJ38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8109,6 +8225,9 @@
       <c r="BI39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BJ39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8302,6 +8421,9 @@
       <c r="BI40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BJ40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8499,6 +8621,9 @@
       <c r="BI41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BJ41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8692,6 +8817,9 @@
       <c r="BI42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BJ42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8885,6 +9013,9 @@
       <c r="BI43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BJ43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9082,6 +9213,9 @@
       <c r="BI44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BJ44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9279,6 +9413,9 @@
       <c r="BI45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BJ45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9472,6 +9609,9 @@
       <c r="BI46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BJ46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9669,6 +9809,9 @@
       <c r="BI47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BJ47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9866,6 +10009,9 @@
       <c r="BI48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BJ48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10063,6 +10209,9 @@
       <c r="BI49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BJ49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10260,6 +10409,9 @@
       <c r="BI50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BJ50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10457,6 +10609,9 @@
       <c r="BI51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BJ51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10654,6 +10809,9 @@
       <c r="BI52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BJ52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -10851,6 +11009,9 @@
       <c r="BI53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BJ53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11048,6 +11209,9 @@
       <c r="BI54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BJ54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11245,6 +11409,9 @@
       <c r="BI55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BJ55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11442,6 +11609,9 @@
       <c r="BI56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BJ56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11639,6 +11809,9 @@
       <c r="BI57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BJ57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11836,6 +12009,9 @@
       <c r="BI58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BJ58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12033,6 +12209,9 @@
       <c r="BI59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BJ59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12230,6 +12409,9 @@
       <c r="BI60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BJ60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12427,6 +12609,9 @@
       <c r="BI61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BJ61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -12620,6 +12805,9 @@
       <c r="BI62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BJ62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -12813,6 +13001,9 @@
       <c r="BI63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BJ63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13006,6 +13197,9 @@
       <c r="BI64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BJ64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13199,6 +13393,9 @@
       <c r="BI65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BJ65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13218,7 +13415,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13392,6 +13589,9 @@
       <c r="BI66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BJ66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13585,6 +13785,9 @@
       <c r="BI67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BJ67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13778,6 +13981,9 @@
       <c r="BI68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BJ68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13971,6 +14177,9 @@
       <c r="BI69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BJ69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14164,6 +14373,9 @@
       <c r="BI70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BJ70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14357,6 +14569,9 @@
       <c r="BI71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BJ71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -14550,6 +14765,9 @@
       <c r="BI72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BJ72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -14743,6 +14961,9 @@
       <c r="BI73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BJ73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14936,6 +15157,9 @@
       <c r="BI74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BJ74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15129,6 +15353,9 @@
       <c r="BI75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BJ75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15320,6 +15547,9 @@
         <v>2519.95</v>
       </c>
       <c r="BI76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BJ76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ76"/>
+  <dimension ref="A1:BK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,6 +732,11 @@
           <t>2026-02-18 15:45:35</t>
         </is>
       </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>2026-02-18 16:58:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -928,6 +933,9 @@
       <c r="BJ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BK2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1124,6 +1132,9 @@
       <c r="BJ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BK3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1320,6 +1331,9 @@
       <c r="BJ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BK4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1520,6 +1534,9 @@
       <c r="BJ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BK5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1720,6 +1737,9 @@
       <c r="BJ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BK6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1920,6 +1940,9 @@
       <c r="BJ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BK7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2120,6 +2143,9 @@
       <c r="BJ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BK8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2320,6 +2346,9 @@
       <c r="BJ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BK9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2520,6 +2549,9 @@
       <c r="BJ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BK10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2716,6 +2748,9 @@
       <c r="BJ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BK11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2912,6 +2947,9 @@
       <c r="BJ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BK12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3108,6 +3146,9 @@
       <c r="BJ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BK13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3308,6 +3349,9 @@
       <c r="BJ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BK14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3504,6 +3548,9 @@
       <c r="BJ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BK15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3700,6 +3747,9 @@
       <c r="BJ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BK16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3896,6 +3946,9 @@
       <c r="BJ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BK17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4092,6 +4145,9 @@
       <c r="BJ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BK18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4288,6 +4344,9 @@
       <c r="BJ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BK19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4484,6 +4543,9 @@
       <c r="BJ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BK20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4680,6 +4742,9 @@
       <c r="BJ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BK21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4876,6 +4941,9 @@
       <c r="BJ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BK22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5076,6 +5144,9 @@
       <c r="BJ23" t="n">
         <v>686</v>
       </c>
+      <c r="BK23" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5272,6 +5343,9 @@
       <c r="BJ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BK24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5468,6 +5542,9 @@
       <c r="BJ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BK25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5664,6 +5741,9 @@
       <c r="BJ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BK26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5860,6 +5940,9 @@
       <c r="BJ27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BK27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6056,6 +6139,9 @@
       <c r="BJ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BK28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6252,6 +6338,9 @@
       <c r="BJ29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BK29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6448,6 +6537,9 @@
       <c r="BJ30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BK30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6648,6 +6740,9 @@
       <c r="BJ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6848,6 +6943,9 @@
       <c r="BJ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7048,6 +7146,9 @@
       <c r="BJ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7248,6 +7349,9 @@
       <c r="BJ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7444,6 +7548,9 @@
       <c r="BJ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7640,6 +7747,9 @@
       <c r="BJ36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BK36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7836,6 +7946,9 @@
       <c r="BJ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BK37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8032,6 +8145,9 @@
       <c r="BJ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BK38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8228,6 +8344,9 @@
       <c r="BJ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BK39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8424,6 +8543,9 @@
       <c r="BJ40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BK40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8624,6 +8746,9 @@
       <c r="BJ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BK41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8820,6 +8945,9 @@
       <c r="BJ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BK42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9016,16 +9144,19 @@
       <c r="BJ43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BK43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00662825</t>
+          <t>PB00663120</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9035,7 +9166,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -9051,181 +9182,184 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="J44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="K44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="M44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="N44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="O44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="P44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="S44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="T44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="U44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="V44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="W44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="X44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Y44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Z44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AA44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AB44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AC44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AD44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AE44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AF44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AG44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AH44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AI44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AK44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AL44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AM44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AN44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AO44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AP44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AR44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AS44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AT44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AU44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AV44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AW44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AX44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AY44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BA44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BB44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BC44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BD44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BE44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BF44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BG44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BH44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BI44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BJ44" t="n">
-        <v>1079.95</v>
+        <v>1589.95</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>982</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00627244</t>
+          <t>PB00662825</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9235,14 +9369,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -9251,181 +9385,184 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="J45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="K45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="L45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="M45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="N45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="O45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="P45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="R45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="S45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="T45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="U45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="V45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="W45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="X45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Y45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Z45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AA45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AB45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AC45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AD45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AE45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AF45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AG45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AH45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AI45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AK45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AL45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AM45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AN45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AO45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AP45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AR45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AS45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AT45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AU45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AV45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AW45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AX45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AY45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AZ45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BA45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BB45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BC45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BD45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BE45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BF45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BG45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BH45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BI45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BJ45" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1079.95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00627429</t>
+          <t>PB00663124</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9438,8 +9575,12 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>14</v>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -9447,181 +9588,184 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="J46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="K46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="L46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="M46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="N46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="O46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="P46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Q46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="S46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="T46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="U46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="V46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="W46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="X46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Y46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Z46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AA46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AB46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AC46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AD46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AE46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AF46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AG46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AH46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AI46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AK46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AL46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AM46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AN46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AO46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AP46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AR46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AS46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AT46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AU46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AV46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AW46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AX46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AY46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AZ46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BA46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BB46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BC46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BD46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BE46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BF46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BG46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BH46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BI46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BJ46" t="n">
-        <v>1199.95</v>
+        <v>1589.95</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00627245</t>
+          <t>PB00627244</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9647,7 +9791,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -9810,18 +9954,21 @@
         <v>1199.95</v>
       </c>
       <c r="BJ47" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BK47" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00692498</t>
+          <t>PB00627429</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9831,15 +9978,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rupture</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>6</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -9847,7 +9990,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -10010,18 +10153,21 @@
         <v>1199.95</v>
       </c>
       <c r="BJ48" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BK48" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00692500</t>
+          <t>PB00627245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10035,10 +10181,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -10047,7 +10193,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -10210,18 +10356,21 @@
         <v>1199.95</v>
       </c>
       <c r="BJ49" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BK49" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00692499</t>
+          <t>PB00692498</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10231,7 +10380,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -10247,7 +10396,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -10410,18 +10559,21 @@
         <v>1199.95</v>
       </c>
       <c r="BJ50" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BK50" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00692501</t>
+          <t>PB00692500</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10431,7 +10583,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -10447,181 +10599,184 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="J51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="K51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="L51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="M51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="N51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="O51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="P51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Q51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="R51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="S51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="T51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="U51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="V51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="W51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="X51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Y51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Z51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AA51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AB51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AC51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AD51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AE51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AF51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AG51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AH51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AI51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AK51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AL51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AM51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AN51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AO51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AP51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AR51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AS51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AT51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AU51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AV51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AW51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AX51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AY51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BA51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BB51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BC51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BD51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BE51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BF51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BG51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BH51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BI51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BJ51" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1199.95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00692502</t>
+          <t>PB00692499</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10631,7 +10786,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -10647,181 +10802,184 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="J52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="K52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="L52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="M52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="N52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="O52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="P52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="R52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="S52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="U52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="V52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="W52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="X52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Y52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AA52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AB52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AC52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AD52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AE52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AF52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AG52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AH52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AI52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AK52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AL52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AM52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AN52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AO52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AP52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AR52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AS52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AT52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AU52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AV52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AW52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AX52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AY52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BA52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BB52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BC52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BD52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BE52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BF52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BG52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BH52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BI52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BJ52" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1199.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00663118</t>
+          <t>PB00692501</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10831,14 +10989,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -10847,181 +11005,184 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="J53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="K53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="L53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="M53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="N53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="O53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="P53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Q53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="R53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="S53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="T53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="U53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="V53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="W53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="X53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Y53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Z53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AA53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AB53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AC53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AD53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AE53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AF53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AG53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AH53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AI53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AK53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AL53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AM53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AN53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AO53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AP53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AR53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AS53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AT53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AU53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AV53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AW53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AX53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AY53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AZ53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BA53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BB53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BC53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BD53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BE53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BF53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BG53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BH53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BI53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BJ53" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1319.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00663117</t>
+          <t>PB00663118</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11031,7 +11192,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -11047,7 +11208,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -11210,18 +11371,21 @@
         <v>1469.95</v>
       </c>
       <c r="BJ54" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="BK54" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00663115</t>
+          <t>PB00663117</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11247,7 +11411,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -11410,18 +11574,21 @@
         <v>1469.95</v>
       </c>
       <c r="BJ55" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="BK55" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00663124</t>
+          <t>PB00663115</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11431,7 +11598,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -11447,181 +11614,184 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="J56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="K56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="L56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="M56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="N56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="O56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="P56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Q56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="R56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="S56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="T56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="V56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="W56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="X56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Y56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Z56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AA56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AB56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AC56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AD56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AE56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AF56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AG56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AH56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AI56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AK56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AL56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AM56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AN56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AO56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AP56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AR56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AS56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AT56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AU56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AV56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AW56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AX56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AY56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BA56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BB56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BC56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BD56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BE56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BF56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BG56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BH56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BI56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BJ56" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1469.95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00663120</t>
+          <t>PB00663119</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11631,7 +11801,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans 7/15 jours</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -11647,7 +11817,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -11810,18 +11980,21 @@
         <v>1589.95</v>
       </c>
       <c r="BJ57" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="BK57" t="n">
         <v>1589.95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00663119</t>
+          <t>PB00663128</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11831,7 +12004,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock dans 7/15 jours</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -11847,181 +12020,184 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="J58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="K58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="L58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="M58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="N58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="O58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="P58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Q58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="R58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="S58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="T58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="U58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="V58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="W58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="X58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Y58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Z58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AA58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AB58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AC58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AD58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AE58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AF58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AG58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AH58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AI58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AK58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AL58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AM58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AN58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AO58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AP58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AR58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AS58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AT58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AU58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AV58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AW58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AX58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AY58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BA58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BB58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BC58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BD58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BE58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BF58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BG58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BH58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BI58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BJ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1829.95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00663128</t>
+          <t>PB00663126</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12207,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -12047,7 +12223,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -12210,18 +12386,21 @@
         <v>1829.95</v>
       </c>
       <c r="BJ59" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="BK59" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00663126</t>
+          <t>PB00663125</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12231,7 +12410,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -12247,7 +12426,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -12410,18 +12589,21 @@
         <v>1829.95</v>
       </c>
       <c r="BJ60" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="BK60" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00663125</t>
+          <t>PB00627257</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12431,197 +12613,196 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>10</v>
-      </c>
-      <c r="F61" t="n">
-        <v>14</v>
-      </c>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="J61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="K61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="L61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="M61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="N61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="O61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="P61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Q61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="R61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="S61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="T61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="U61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="V61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="W61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="X61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Y61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Z61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AA61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AB61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AC61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AD61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AE61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AF61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AG61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AH61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AI61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AK61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AL61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AM61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AN61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AO61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AP61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AR61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AS61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AT61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AU61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AV61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AW61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AX61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AY61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BA61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BB61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BC61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BD61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BE61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BF61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BG61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BH61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BI61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BJ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1999.95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00627257</t>
+          <t>PB00627428</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12643,7 +12824,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -12806,18 +12987,21 @@
         <v>1999.95</v>
       </c>
       <c r="BJ62" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BK62" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00627428</t>
+          <t>PB00627255</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12839,7 +13023,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -13002,18 +13186,21 @@
         <v>1999.95</v>
       </c>
       <c r="BJ63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BK63" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00627255</t>
+          <t>PB00692518</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13023,193 +13210,196 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="J64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="K64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="L64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="M64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="N64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="O64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="P64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Q64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="R64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="S64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="T64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="U64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="V64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="W64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="X64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Y64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Z64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AA64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AB64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AC64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AD64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AE64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AF64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AG64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AH64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AI64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AK64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AL64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AM64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AN64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AO64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AP64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AR64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AS64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AT64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AU64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AV64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AW64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AX64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AY64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AZ64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BA64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BB64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BC64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BD64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BE64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BF64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BG64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BH64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BI64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BJ64" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>2099.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00627256</t>
+          <t>PB00692520</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13219,193 +13409,196 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="J65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="K65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="L65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="M65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="N65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="O65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="P65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Q65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="R65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="S65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="T65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="U65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="V65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="W65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="X65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Y65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Z65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AA65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AB65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AC65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AD65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AE65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AF65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AG65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AH65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AI65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AK65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AL65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AM65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AN65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AO65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AP65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AR65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AS65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AT65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AU65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AV65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AW65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AX65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AY65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AZ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BA65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BB65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BC65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BD65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BE65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BF65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BG65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BH65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BI65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BJ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2099.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00692518</t>
+          <t>PB00692519</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13427,7 +13620,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -13590,18 +13783,21 @@
         <v>2099.95</v>
       </c>
       <c r="BJ66" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BK66" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00692520</t>
+          <t>PB00627260</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13618,186 +13814,189 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="J67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="K67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="L67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="M67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="N67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="O67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="P67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Q67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="R67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="S67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="T67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="U67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="V67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="W67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="X67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Y67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Z67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AA67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AB67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AC67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AD67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AE67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AF67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AG67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AH67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AI67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AJ67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AK67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AL67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AM67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AN67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AO67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AP67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AR67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AS67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AT67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AU67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AV67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AW67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AX67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AY67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AZ67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BA67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BB67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BC67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BD67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BE67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BF67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BG67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BH67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BI67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BJ67" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>2119.95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00692519</t>
+          <t>PB00692521</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13819,181 +14018,184 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="J68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="K68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="L68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="M68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="N68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="O68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="P68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Q68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="R68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="S68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="T68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="U68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="V68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="W68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="X68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Z68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AA68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AB68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AC68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AD68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AE68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AF68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AG68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AH68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AI68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AK68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AL68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AM68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AN68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AO68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AP68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AR68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AS68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AT68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AU68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AV68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AW68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AX68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AY68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BA68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BB68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BC68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BD68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BE68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BF68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BG68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BH68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BI68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BJ68" t="n">
-        <v>2099.95</v>
+        <v>2219.95</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>2219.95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00627260</t>
+          <t>PB00692523</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14010,186 +14212,189 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="J69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="K69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="L69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="M69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="N69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="O69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="P69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Q69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="R69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="S69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="T69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="U69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="V69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="W69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="X69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Y69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Z69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AA69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AB69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AC69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AD69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AE69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AF69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AG69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AH69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AI69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AK69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AL69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AM69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AN69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AO69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AP69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AR69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AS69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AT69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AU69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AV69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AW69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AX69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AY69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AZ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BA69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BB69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BC69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BD69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BE69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BF69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BG69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BH69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BI69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BJ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>2219.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00692521</t>
+          <t>PB00692522</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14199,7 +14404,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14211,7 +14416,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -14374,18 +14579,21 @@
         <v>2219.95</v>
       </c>
       <c r="BJ70" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="BK70" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00692523</t>
+          <t>PB00627265</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14402,186 +14610,189 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="J71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="K71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="L71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="M71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="N71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="O71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="P71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Q71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="R71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="S71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="T71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="U71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="V71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="W71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="X71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Y71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Z71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AA71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AB71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AC71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AD71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AE71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AF71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AG71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AH71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AI71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AJ71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AK71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AL71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AM71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AN71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AO71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AP71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AR71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AS71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AT71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AU71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AV71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AW71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AX71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AY71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AZ71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BA71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BB71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BC71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BD71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BE71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BF71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BG71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BH71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BI71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BJ71" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>2359.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00692522</t>
+          <t>PB00627263</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14598,186 +14809,189 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="J72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="K72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="L72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="M72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="N72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="O72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="P72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Q72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="R72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="S72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="T72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="U72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="V72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="W72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="X72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Y72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Z72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AA72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AB72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AC72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AD72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AE72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AF72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AG72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AH72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AI72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AK72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AL72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AM72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AN72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AO72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AP72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AR72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AS72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AT72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AU72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AV72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AW72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AX72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AY72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AZ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BA72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BB72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BC72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BD72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BE72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BF72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BG72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BH72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BI72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BJ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>2359.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00627265</t>
+          <t>PB00692525</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14787,193 +15001,196 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="J73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="K73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="L73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="M73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="N73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="O73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="P73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Q73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="R73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="S73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="T73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="U73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="V73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="W73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="X73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Y73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Z73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AA73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AB73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AC73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AD73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AE73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AF73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AG73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AH73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AI73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AK73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AL73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AM73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AN73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AO73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AP73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AQ73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AR73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AS73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AT73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AU73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AV73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AW73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AX73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AY73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AZ73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BA73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BB73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BC73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BD73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BE73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BF73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BG73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BH73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BI73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BJ73" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>2519.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00627263</t>
+          <t>PB00692526</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14983,193 +15200,196 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="J74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="K74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="L74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="M74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="N74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="O74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="P74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Q74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="R74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="S74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="T74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="U74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="V74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="W74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="X74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Y74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Z74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AA74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AB74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AC74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AD74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AE74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AF74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AG74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AH74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AI74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AK74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AL74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AM74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AN74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AO74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AP74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AR74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AS74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AT74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AU74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AV74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AW74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AX74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AY74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BA74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BB74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BC74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BD74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BE74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BF74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BG74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BH74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BI74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BJ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>2519.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PB00692525</t>
+          <t>PB00692502</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15179,11 +15399,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Rupture</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+          <t>En stock fournisseur</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>6</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -15191,181 +15415,182 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="J75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="K75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="L75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="M75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="N75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="O75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="P75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Q75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="R75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="S75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="T75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="U75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="V75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="W75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="X75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Y75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Z75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AA75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AB75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AC75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AD75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AE75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AF75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AG75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AH75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AI75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AJ75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AK75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AL75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AM75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AN75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AO75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AP75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AR75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AS75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AT75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AU75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AV75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AW75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AX75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AY75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AZ75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BA75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BB75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BC75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BD75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BE75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BF75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BG75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BH75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BI75" t="n">
-        <v>2519.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BJ75" t="n">
-        <v>2519.95</v>
-      </c>
+        <v>1319.95</v>
+      </c>
+      <c r="BK75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PB00692526</t>
+          <t>PB00627256</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15375,183 +15600,184 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="J76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="K76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="L76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="M76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="N76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="O76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="P76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Q76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="R76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="S76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="T76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="U76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="V76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="W76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="X76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Y76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Z76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AA76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AB76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AC76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AD76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AE76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AF76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AG76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AH76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AI76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AJ76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AK76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AL76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AM76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AN76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AO76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AP76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AR76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AS76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AT76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AU76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AV76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AW76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AX76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AY76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AZ76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BA76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BB76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BC76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BD76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BE76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BF76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BG76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BH76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BI76" t="n">
-        <v>2519.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BJ76" t="n">
-        <v>2519.95</v>
-      </c>
+        <v>1999.95</v>
+      </c>
+      <c r="BK76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BL76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,11 @@
           <t>2026-02-18 16:58:01</t>
         </is>
       </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>2026-02-18 17:52:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -936,6 +941,9 @@
       <c r="BK2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BL2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1135,6 +1143,9 @@
       <c r="BK3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BL3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1334,6 +1345,9 @@
       <c r="BK4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BL4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1537,6 +1551,9 @@
       <c r="BK5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BL5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1740,6 +1757,9 @@
       <c r="BK6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BL6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1943,6 +1963,9 @@
       <c r="BK7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BL7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2146,6 +2169,9 @@
       <c r="BK8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BL8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2349,6 +2375,9 @@
       <c r="BK9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BL9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2552,6 +2581,9 @@
       <c r="BK10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BL10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2751,6 +2783,9 @@
       <c r="BK11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BL11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2950,6 +2985,9 @@
       <c r="BK12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BL12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3149,6 +3187,9 @@
       <c r="BK13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BL13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3352,6 +3393,9 @@
       <c r="BK14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BL14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3551,6 +3595,9 @@
       <c r="BK15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BL15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3750,6 +3797,9 @@
       <c r="BK16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BL16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3949,6 +3999,9 @@
       <c r="BK17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BL17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4148,6 +4201,9 @@
       <c r="BK18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BL18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4347,6 +4403,9 @@
       <c r="BK19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BL19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4546,6 +4605,9 @@
       <c r="BK20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BL20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4745,6 +4807,9 @@
       <c r="BK21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BL21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4944,6 +5009,9 @@
       <c r="BK22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BL22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5147,6 +5215,9 @@
       <c r="BK23" t="n">
         <v>647</v>
       </c>
+      <c r="BL23" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5346,6 +5417,9 @@
       <c r="BK24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BL24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5545,6 +5619,9 @@
       <c r="BK25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BL25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5744,6 +5821,9 @@
       <c r="BK26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BL26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5943,6 +6023,9 @@
       <c r="BK27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BL27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6142,6 +6225,9 @@
       <c r="BK28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BL28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6341,6 +6427,9 @@
       <c r="BK29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BL29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6540,6 +6629,9 @@
       <c r="BK30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BL30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6743,6 +6835,9 @@
       <c r="BK31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6946,6 +7041,9 @@
       <c r="BK32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7149,6 +7247,9 @@
       <c r="BK33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7352,6 +7453,9 @@
       <c r="BK34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7551,6 +7655,9 @@
       <c r="BK35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7750,6 +7857,9 @@
       <c r="BK36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BL36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7949,6 +8059,9 @@
       <c r="BK37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BL37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8148,6 +8261,9 @@
       <c r="BK38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BL38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8347,6 +8463,9 @@
       <c r="BK39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BL39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8546,6 +8665,9 @@
       <c r="BK40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BL40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8749,6 +8871,9 @@
       <c r="BK41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BL41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8948,6 +9073,9 @@
       <c r="BK42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BL42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9147,6 +9275,9 @@
       <c r="BK43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BL43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9350,6 +9481,9 @@
       <c r="BK44" t="n">
         <v>982</v>
       </c>
+      <c r="BL44" t="n">
+        <v>982</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9553,6 +9687,9 @@
       <c r="BK45" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BL45" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9756,6 +9893,9 @@
       <c r="BK46" t="n">
         <v>1139</v>
       </c>
+      <c r="BL46" t="n">
+        <v>1139</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9959,6 +10099,9 @@
       <c r="BK47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BL47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10158,6 +10301,9 @@
       <c r="BK48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BL48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10361,6 +10507,9 @@
       <c r="BK49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BL49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10564,6 +10713,9 @@
       <c r="BK50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BL50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10767,6 +10919,9 @@
       <c r="BK51" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BL51" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -10970,6 +11125,9 @@
       <c r="BK52" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BL52" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11173,16 +11331,19 @@
       <c r="BK53" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BL53" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00663118</t>
+          <t>PB00692502</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11192,14 +11353,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -11208,184 +11369,185 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="J54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="K54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="L54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="M54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="N54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="O54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="P54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Q54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="R54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="S54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="T54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="U54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="V54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="W54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="X54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Y54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Z54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AA54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AB54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AC54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AD54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AE54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AF54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AG54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AH54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AI54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AK54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AL54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AM54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AN54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AO54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AP54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AR54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AS54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AT54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AU54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AV54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AW54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AX54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AY54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AZ54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BA54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BB54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BC54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BD54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BE54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BF54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BG54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BH54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BI54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BJ54" t="n">
-        <v>1469.95</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
+      </c>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="n">
+        <v>1319.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00663117</t>
+          <t>PB00663118</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11395,7 +11557,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -11411,7 +11573,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -11577,18 +11739,21 @@
         <v>1469.95</v>
       </c>
       <c r="BK55" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="BL55" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00663115</t>
+          <t>PB00663117</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11614,7 +11779,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -11780,18 +11945,21 @@
         <v>1469.95</v>
       </c>
       <c r="BK56" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="BL56" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00663119</t>
+          <t>PB00663115</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11801,7 +11969,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock dans 7/15 jours</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -11817,184 +11985,187 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="J57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="K57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="L57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="M57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="N57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="O57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="P57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Q57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="R57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="S57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="T57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="U57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="V57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="W57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="X57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Y57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Z57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AA57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AB57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AC57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AD57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AE57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AF57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AG57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AH57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AI57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AK57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AL57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AM57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AN57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AO57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AP57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AR57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AS57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AT57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AU57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AV57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AW57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AX57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AY57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AZ57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BA57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BB57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BC57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BD57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BE57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BF57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BG57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BH57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BI57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BJ57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BK57" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1469.95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00663128</t>
+          <t>PB00663119</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -12004,7 +12175,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock dans 7/15 jours</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -12020,184 +12191,187 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="J58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="K58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="L58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="M58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="N58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="O58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="P58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Q58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="R58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="S58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="T58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="U58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="V58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="W58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="X58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Y58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Z58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AA58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AB58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AC58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AD58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AE58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AF58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AG58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AH58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AI58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AK58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AL58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AM58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AN58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AO58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AP58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AR58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AS58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AT58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AU58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AV58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AW58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AX58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AY58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BA58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BB58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BC58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BD58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BE58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BF58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BG58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BH58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BI58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BJ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BK58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1589.95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00663126</t>
+          <t>PB00663128</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12207,7 +12381,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -12223,7 +12397,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -12389,18 +12563,21 @@
         <v>1829.95</v>
       </c>
       <c r="BK59" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="BL59" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00663125</t>
+          <t>PB00663126</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12410,7 +12587,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -12426,7 +12603,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -12592,18 +12769,21 @@
         <v>1829.95</v>
       </c>
       <c r="BK60" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="BL60" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00627257</t>
+          <t>PB00663125</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12613,196 +12793,203 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+          <t>En stock dans + de 15 jours</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>14</v>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="J61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="K61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="L61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="M61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="N61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="O61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="P61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Q61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="R61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="S61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="T61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="U61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="V61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="W61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="X61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Y61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Z61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AA61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AB61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AC61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AD61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AE61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AF61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AG61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AH61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AI61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AK61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AL61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AM61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AN61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AO61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AP61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AR61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AS61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AT61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AU61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AV61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AW61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AX61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AY61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BA61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BB61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BC61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BD61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BE61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BF61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BG61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BH61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BI61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BJ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BK61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1829.95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00627428</t>
+          <t>PB00627257</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12824,7 +13011,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -12990,18 +13177,21 @@
         <v>1999.95</v>
       </c>
       <c r="BK62" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BL62" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00627255</t>
+          <t>PB00627428</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -13023,7 +13213,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -13189,18 +13379,21 @@
         <v>1999.95</v>
       </c>
       <c r="BK63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BL63" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00692518</t>
+          <t>PB00627255</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13210,196 +13403,199 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="J64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="K64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="L64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="M64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="N64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="O64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="P64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Q64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="R64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="S64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="T64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="U64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="V64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="W64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="X64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Y64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Z64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AA64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AB64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AC64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AD64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AE64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AF64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AG64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AH64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AI64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AJ64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AK64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AL64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AM64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AN64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AO64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AP64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AQ64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AR64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AS64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AT64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AU64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AV64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AW64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AX64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AY64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AZ64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BA64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BB64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BC64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BD64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BE64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BF64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BG64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BH64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BI64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BJ64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BK64" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1999.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00692520</t>
+          <t>PB00692518</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13409,7 +13605,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13421,7 +13617,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -13587,18 +13783,21 @@
         <v>2099.95</v>
       </c>
       <c r="BK65" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BL65" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00692519</t>
+          <t>PB00692520</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13608,7 +13807,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13620,7 +13819,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -13786,18 +13985,21 @@
         <v>2099.95</v>
       </c>
       <c r="BK66" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BL66" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00627260</t>
+          <t>PB00692519</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13807,196 +14009,199 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="J67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="K67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="L67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="M67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="N67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="O67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="P67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Q67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="R67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="S67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="T67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="U67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="V67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="W67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="X67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Y67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Z67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AA67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AB67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AC67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AD67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AE67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AF67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AG67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AH67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AI67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AJ67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AK67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AL67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AM67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AN67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AO67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AP67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AR67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AS67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AT67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AU67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AV67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AW67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AX67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AY67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AZ67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BA67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BB67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BC67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BD67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BE67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BF67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BG67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BH67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BI67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BJ67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BK67" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2099.95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00692521</t>
+          <t>PB00627260</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14006,196 +14211,199 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="J68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="K68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="L68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="M68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="N68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="O68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="P68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Q68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="R68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="S68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="T68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="U68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="V68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="W68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="X68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Z68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AA68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AB68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AC68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AD68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AE68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AF68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AG68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AH68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AI68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AK68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AL68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AM68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AN68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AO68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AP68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AR68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AS68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AT68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AU68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AV68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AW68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AX68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AY68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BA68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BB68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BC68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BD68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BE68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BF68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BG68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BH68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BI68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BJ68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BK68" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2119.95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00692523</t>
+          <t>PB00692521</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14205,7 +14413,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14217,7 +14425,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -14383,18 +14591,21 @@
         <v>2219.95</v>
       </c>
       <c r="BK69" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="BL69" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00692522</t>
+          <t>PB00692523</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14416,7 +14627,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -14582,18 +14793,21 @@
         <v>2219.95</v>
       </c>
       <c r="BK70" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="BL70" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00627265</t>
+          <t>PB00692522</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14610,189 +14824,192 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="J71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="K71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="L71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="M71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="N71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="O71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="P71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Q71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="R71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="S71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="T71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="U71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="V71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="W71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="X71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Y71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Z71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AA71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AB71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AC71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AD71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AE71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AF71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AG71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AH71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AI71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AJ71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AK71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AL71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AM71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AN71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AO71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AP71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AR71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AS71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AT71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AU71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AV71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AW71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AX71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AY71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AZ71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BA71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BB71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BC71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BD71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BE71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BF71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BG71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BH71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BI71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BJ71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BK71" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2219.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00627263</t>
+          <t>PB00627265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14814,7 +15031,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -14980,18 +15197,21 @@
         <v>2359.95</v>
       </c>
       <c r="BK72" t="n">
+        <v>2359.95</v>
+      </c>
+      <c r="BL72" t="n">
         <v>2359.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00692525</t>
+          <t>PB00627263</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -15001,196 +15221,199 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="J73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="K73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="L73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="M73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="N73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="O73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="P73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Q73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="R73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="S73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="T73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="U73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="V73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="W73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="X73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Y73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Z73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AA73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AB73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AC73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AD73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AE73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AF73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AG73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AH73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AI73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AJ73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AK73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AL73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AM73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AN73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AO73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AP73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AQ73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AR73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AS73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AT73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AU73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AV73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AW73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AX73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AY73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AZ73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BA73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BB73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BC73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BD73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BE73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BF73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BG73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BH73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BI73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BJ73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BK73" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2359.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00692526</t>
+          <t>PB00692525</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15200,7 +15423,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15212,7 +15435,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -15378,18 +15601,21 @@
         <v>2519.95</v>
       </c>
       <c r="BK74" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BL74" t="n">
         <v>2519.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PB00692502</t>
+          <t>PB00692526</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15399,15 +15625,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>6</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
+          <t>En stock dans + de 15 jours</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -15415,172 +15637,177 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="J75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="K75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="L75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="M75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="N75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="O75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="P75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Q75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="R75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="S75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="T75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="U75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="V75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="W75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="X75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Y75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Z75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AA75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AB75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AC75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AD75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AE75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AF75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AG75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AH75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AI75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AJ75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AK75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AL75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AM75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AN75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AO75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AP75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AR75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AS75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AT75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AU75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AV75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AW75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AX75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AY75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AZ75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BA75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BB75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BC75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BD75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BE75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BF75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BG75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BH75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BI75" t="n">
-        <v>1319.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BJ75" t="n">
-        <v>1319.95</v>
-      </c>
-      <c r="BK75" t="inlineStr"/>
+        <v>2519.95</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15778,6 +16005,7 @@
         <v>1999.95</v>
       </c>
       <c r="BK76" t="inlineStr"/>
+      <c r="BL76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL76"/>
+  <dimension ref="A1:BM76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,6 +742,11 @@
           <t>2026-02-18 17:52:53</t>
         </is>
       </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>2026-02-18 18:45:05</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -944,6 +949,9 @@
       <c r="BL2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BM2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1146,6 +1154,9 @@
       <c r="BL3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BM3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1348,6 +1359,9 @@
       <c r="BL4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BM4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1554,6 +1568,9 @@
       <c r="BL5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BM5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1760,6 +1777,9 @@
       <c r="BL6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BM6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1966,6 +1986,9 @@
       <c r="BL7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BM7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2172,6 +2195,9 @@
       <c r="BL8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BM8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2378,6 +2404,9 @@
       <c r="BL9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BM9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2584,6 +2613,9 @@
       <c r="BL10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BM10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2786,6 +2818,9 @@
       <c r="BL11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BM11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2988,6 +3023,9 @@
       <c r="BL12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BM12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3190,6 +3228,9 @@
       <c r="BL13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BM13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3396,6 +3437,9 @@
       <c r="BL14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BM14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3598,6 +3642,9 @@
       <c r="BL15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BM15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3800,6 +3847,9 @@
       <c r="BL16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BM16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4002,6 +4052,9 @@
       <c r="BL17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BM17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4204,6 +4257,9 @@
       <c r="BL18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BM18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4406,6 +4462,9 @@
       <c r="BL19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BM19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4608,6 +4667,9 @@
       <c r="BL20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BM20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4810,6 +4872,9 @@
       <c r="BL21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BM21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5012,6 +5077,9 @@
       <c r="BL22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BM22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5031,7 +5099,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5216,6 +5284,9 @@
         <v>647</v>
       </c>
       <c r="BL23" t="n">
+        <v>647</v>
+      </c>
+      <c r="BM23" t="n">
         <v>647</v>
       </c>
     </row>
@@ -5420,6 +5491,9 @@
       <c r="BL24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BM24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5622,6 +5696,9 @@
       <c r="BL25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BM25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5824,6 +5901,9 @@
       <c r="BL26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BM26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6026,6 +6106,9 @@
       <c r="BL27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BM27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6228,6 +6311,9 @@
       <c r="BL28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BM28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6430,6 +6516,9 @@
       <c r="BL29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BM29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6632,6 +6721,9 @@
       <c r="BL30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BM30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6838,6 +6930,9 @@
       <c r="BL31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7044,6 +7139,9 @@
       <c r="BL32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7250,6 +7348,9 @@
       <c r="BL33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7456,6 +7557,9 @@
       <c r="BL34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7658,6 +7762,9 @@
       <c r="BL35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7860,6 +7967,9 @@
       <c r="BL36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BM36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8062,6 +8172,9 @@
       <c r="BL37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BM37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8264,6 +8377,9 @@
       <c r="BL38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BM38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8466,6 +8582,9 @@
       <c r="BL39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BM39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8668,6 +8787,9 @@
       <c r="BL40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BM40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8874,6 +8996,9 @@
       <c r="BL41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BM41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9076,6 +9201,9 @@
       <c r="BL42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BM42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9278,6 +9406,9 @@
       <c r="BL43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BM43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9297,7 +9428,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -9483,6 +9614,9 @@
       </c>
       <c r="BL44" t="n">
         <v>982</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>983</v>
       </c>
     </row>
     <row r="45">
@@ -9690,6 +9824,9 @@
       <c r="BL45" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BM45" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9709,7 +9846,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -9894,6 +10031,9 @@
         <v>1139</v>
       </c>
       <c r="BL46" t="n">
+        <v>1139</v>
+      </c>
+      <c r="BM46" t="n">
         <v>1139</v>
       </c>
     </row>
@@ -10102,6 +10242,9 @@
       <c r="BL47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BM47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10304,6 +10447,9 @@
       <c r="BL48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BM48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10510,6 +10656,9 @@
       <c r="BL49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BM49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10716,6 +10865,9 @@
       <c r="BL50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BM50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10922,6 +11074,9 @@
       <c r="BL51" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BM51" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11128,6 +11283,9 @@
       <c r="BL52" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BM52" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11334,6 +11492,9 @@
       <c r="BL53" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BM53" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11538,6 +11699,9 @@
       <c r="BL54" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BM54" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11744,6 +11908,9 @@
       <c r="BL55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BM55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11950,6 +12117,9 @@
       <c r="BL56" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BM56" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12156,6 +12326,9 @@
       <c r="BL57" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BM57" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12362,6 +12535,9 @@
       <c r="BL58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BM58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12568,6 +12744,9 @@
       <c r="BL59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BM59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12774,6 +12953,9 @@
       <c r="BL60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BM60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12980,6 +13162,9 @@
       <c r="BL61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BM61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13182,6 +13367,9 @@
       <c r="BL62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BM62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13384,6 +13572,9 @@
       <c r="BL63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BM63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13586,6 +13777,9 @@
       <c r="BL64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BM64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13788,6 +13982,9 @@
       <c r="BL65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BM65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13990,6 +14187,9 @@
       <c r="BL66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BM66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14192,6 +14392,9 @@
       <c r="BL67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BM67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14394,6 +14597,9 @@
       <c r="BL68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BM68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14596,6 +14802,9 @@
       <c r="BL69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BM69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14798,6 +15007,9 @@
       <c r="BL70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BM70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15000,6 +15212,9 @@
       <c r="BL71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BM71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15202,6 +15417,9 @@
       <c r="BL72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BM72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15404,6 +15622,9 @@
       <c r="BL73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BM73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15606,6 +15827,9 @@
       <c r="BL74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BM74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15808,6 +16032,9 @@
       <c r="BL75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BM75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16006,6 +16233,7 @@
       </c>
       <c r="BK76" t="inlineStr"/>
       <c r="BL76" t="inlineStr"/>
+      <c r="BM76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM76"/>
+  <dimension ref="A1:BN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,11 @@
           <t>2026-02-18 18:45:05</t>
         </is>
       </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>2026-02-18 19:44:43</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -952,6 +957,9 @@
       <c r="BM2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BN2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1157,6 +1165,9 @@
       <c r="BM3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BN3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1362,6 +1373,9 @@
       <c r="BM4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BN4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1571,6 +1585,9 @@
       <c r="BM5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BN5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1780,6 +1797,9 @@
       <c r="BM6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BN6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1989,6 +2009,9 @@
       <c r="BM7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BN7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2198,6 +2221,9 @@
       <c r="BM8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BN8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2407,6 +2433,9 @@
       <c r="BM9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BN9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2616,6 +2645,9 @@
       <c r="BM10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BN10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2821,6 +2853,9 @@
       <c r="BM11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BN11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3026,6 +3061,9 @@
       <c r="BM12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BN12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3231,6 +3269,9 @@
       <c r="BM13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BN13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3440,6 +3481,9 @@
       <c r="BM14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BN14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3645,6 +3689,9 @@
       <c r="BM15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BN15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3850,6 +3897,9 @@
       <c r="BM16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BN16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4055,6 +4105,9 @@
       <c r="BM17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BN17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4260,6 +4313,9 @@
       <c r="BM18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BN18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4465,6 +4521,9 @@
       <c r="BM19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BN19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4670,6 +4729,9 @@
       <c r="BM20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BN20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4875,6 +4937,9 @@
       <c r="BM21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BN21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5080,6 +5145,9 @@
       <c r="BM22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BN22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5099,7 +5167,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5288,6 +5356,9 @@
       </c>
       <c r="BM23" t="n">
         <v>647</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>686</v>
       </c>
     </row>
     <row r="24">
@@ -5494,6 +5565,9 @@
       <c r="BM24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BN24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5699,6 +5773,9 @@
       <c r="BM25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BN25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5904,6 +5981,9 @@
       <c r="BM26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BN26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6109,6 +6189,9 @@
       <c r="BM27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BN27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6314,6 +6397,9 @@
       <c r="BM28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BN28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6519,6 +6605,9 @@
       <c r="BM29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BN29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6724,6 +6813,9 @@
       <c r="BM30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BN30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6933,6 +7025,9 @@
       <c r="BM31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7142,6 +7237,9 @@
       <c r="BM32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7351,6 +7449,9 @@
       <c r="BM33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7560,6 +7661,9 @@
       <c r="BM34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7765,6 +7869,9 @@
       <c r="BM35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7970,6 +8077,9 @@
       <c r="BM36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BN36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8175,6 +8285,9 @@
       <c r="BM37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BN37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8380,6 +8493,9 @@
       <c r="BM38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BN38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8585,6 +8701,9 @@
       <c r="BM39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BN39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8790,6 +8909,9 @@
       <c r="BM40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BN40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8999,6 +9121,9 @@
       <c r="BM41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BN41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9204,6 +9329,9 @@
       <c r="BM42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BN42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9409,16 +9537,19 @@
       <c r="BM43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BN43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00663120</t>
+          <t>PB00662825</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9444,190 +9575,193 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="J44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="K44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="M44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="N44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="O44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="P44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="S44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="T44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="U44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="V44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="W44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="X44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Y44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Z44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AA44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AB44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AC44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AD44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AE44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AF44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AG44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AH44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AI44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AK44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AL44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AM44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AN44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AO44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AP44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AR44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AS44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AT44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AU44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AV44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AW44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AX44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AY44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BA44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BB44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BC44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BD44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BE44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BF44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BG44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BH44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BI44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BJ44" t="n">
-        <v>1589.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BK44" t="n">
-        <v>982</v>
+        <v>1079.95</v>
       </c>
       <c r="BL44" t="n">
-        <v>982</v>
+        <v>1079.95</v>
       </c>
       <c r="BM44" t="n">
-        <v>983</v>
+        <v>1079.95</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1079.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00662825</t>
+          <t>PB00627244</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9637,14 +9771,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -9653,190 +9787,193 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="J45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="K45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="L45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="M45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="N45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="O45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="P45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Q45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="R45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="S45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="T45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="U45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="V45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="W45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="X45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Y45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Z45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AA45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AB45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AC45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AD45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AE45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AF45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AG45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AH45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AI45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AK45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AL45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AM45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AN45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AO45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AP45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AR45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AS45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AT45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AU45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AV45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AW45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AX45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AY45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AZ45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BA45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BB45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BC45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BD45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BE45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BF45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BG45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BH45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BI45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BJ45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BK45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BL45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BM45" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1199.95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00663124</t>
+          <t>PB00627429</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9846,15 +9983,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rupture</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" t="n">
-        <v>14</v>
-      </c>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -9862,190 +9995,193 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="J46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="K46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="L46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="M46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="N46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="O46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="P46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Q46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="S46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="T46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="U46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="V46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="W46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="X46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Y46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Z46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AA46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AB46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AC46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AD46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AE46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AF46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AG46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AH46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AI46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AK46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AL46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AM46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AN46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AO46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AP46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AR46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AS46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AT46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AU46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AV46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AW46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AX46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AY46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AZ46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BA46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BB46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BC46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BD46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BE46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BF46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BG46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BH46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BI46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BJ46" t="n">
-        <v>1589.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BK46" t="n">
-        <v>1139</v>
+        <v>1199.95</v>
       </c>
       <c r="BL46" t="n">
-        <v>1139</v>
+        <v>1199.95</v>
       </c>
       <c r="BM46" t="n">
-        <v>1139</v>
+        <v>1199.95</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1199.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00627244</t>
+          <t>PB00627245</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10071,7 +10207,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -10243,18 +10379,21 @@
         <v>1199.95</v>
       </c>
       <c r="BM47" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BN47" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00627429</t>
+          <t>PB00692498</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10264,11 +10403,15 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+          <t>Rupture</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -10276,7 +10419,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -10448,18 +10591,21 @@
         <v>1199.95</v>
       </c>
       <c r="BM48" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BN48" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00627245</t>
+          <t>PB00692500</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10473,10 +10619,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -10485,7 +10631,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -10657,18 +10803,21 @@
         <v>1199.95</v>
       </c>
       <c r="BM49" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BN49" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00692498</t>
+          <t>PB00692499</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10678,7 +10827,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -10694,7 +10843,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -10866,18 +11015,21 @@
         <v>1199.95</v>
       </c>
       <c r="BM50" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BN50" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00692500</t>
+          <t>PB00692501</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10887,7 +11039,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -10903,190 +11055,193 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="J51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="K51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="L51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="M51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="N51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="O51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="P51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Q51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="R51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="S51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="T51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="U51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="V51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="W51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="X51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Y51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Z51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AA51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AB51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AC51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AD51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AE51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AF51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AG51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AH51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AI51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AK51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AL51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AM51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AN51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AO51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AP51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AR51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AS51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AT51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AU51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AV51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AW51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AX51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AY51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AZ51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BA51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BB51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BC51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BD51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BE51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BF51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BG51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BH51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BI51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BJ51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BK51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BL51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BM51" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1319.95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00692499</t>
+          <t>PB00692502</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11096,7 +11251,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -11112,190 +11267,191 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="J52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="K52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="L52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="M52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="N52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="O52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="P52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="R52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="S52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="U52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="V52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="W52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="X52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Y52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AA52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AB52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AC52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AD52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AE52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AF52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AG52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AH52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AI52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AK52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AL52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AM52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AN52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AO52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AP52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AR52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AS52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AT52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AU52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AV52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AW52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AX52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AY52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BA52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BB52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BC52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BD52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BE52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BF52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BG52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BH52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BI52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BJ52" t="n">
-        <v>1199.95</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>1199.95</v>
-      </c>
+        <v>1319.95</v>
+      </c>
+      <c r="BK52" t="inlineStr"/>
       <c r="BL52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BM52" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1319.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00692501</t>
+          <t>PB00663118</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -11305,14 +11461,14 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -11321,190 +11477,193 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="J53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="K53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="L53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="M53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="N53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="O53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="P53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Q53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="R53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="S53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="T53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="U53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="V53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="W53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="X53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Y53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Z53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AA53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AB53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AC53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AD53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AE53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AF53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AG53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AH53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AI53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AK53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AL53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AM53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AN53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AO53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AP53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AR53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AS53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AT53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AU53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AV53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AW53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AX53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AY53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AZ53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BA53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BB53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BC53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BD53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BE53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BF53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BG53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BH53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BI53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BJ53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BK53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BL53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BM53" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1469.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00692502</t>
+          <t>PB00663117</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11514,14 +11673,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -11530,188 +11689,193 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="J54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="K54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="L54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="M54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="N54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="O54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="P54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Q54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="R54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="S54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="T54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="U54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="V54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="W54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="X54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Y54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Z54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AA54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AB54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AC54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AD54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AE54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AF54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AG54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AH54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AI54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AK54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AL54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AM54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AN54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AO54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AP54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AR54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AS54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AT54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AU54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AV54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AW54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AX54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AY54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AZ54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BA54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BB54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BC54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BD54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BE54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BF54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BG54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BH54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BI54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BJ54" t="n">
-        <v>1319.95</v>
-      </c>
-      <c r="BK54" t="inlineStr"/>
+        <v>1469.95</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1469.95</v>
+      </c>
       <c r="BL54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BM54" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1469.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00663118</t>
+          <t>PB00663115</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11721,7 +11885,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -11737,7 +11901,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -11909,18 +12073,21 @@
         <v>1469.95</v>
       </c>
       <c r="BM55" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="BN55" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00663117</t>
+          <t>PB00663124</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11930,7 +12097,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -11946,190 +12113,193 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="J56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="K56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="L56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="M56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="N56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="O56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="P56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Q56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="R56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="S56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="T56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="U56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="V56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="W56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="X56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Y56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Z56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AA56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AB56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AC56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AD56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AE56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AF56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AG56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AH56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AI56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AK56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AL56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AM56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AN56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AO56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AP56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AR56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AS56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AT56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AU56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AV56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AW56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AX56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AY56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BA56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BB56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BC56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BD56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BE56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BF56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BG56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BH56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BI56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BJ56" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BK56" t="n">
-        <v>1469.95</v>
+        <v>1139</v>
       </c>
       <c r="BL56" t="n">
-        <v>1469.95</v>
+        <v>1139</v>
       </c>
       <c r="BM56" t="n">
-        <v>1469.95</v>
+        <v>1139</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1589.95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00663115</t>
+          <t>PB00663120</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -12139,7 +12309,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -12155,179 +12325,182 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="J57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="K57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="L57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="M57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="N57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="O57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="P57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Q57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="R57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="S57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="T57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="U57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="V57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="W57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="X57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Y57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Z57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AA57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AB57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AC57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AD57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AE57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AF57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AG57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AH57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AI57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AK57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AL57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AM57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AN57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AO57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AP57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AR57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AS57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AT57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AU57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AV57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AW57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AX57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AY57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AZ57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BA57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BB57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BC57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BD57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BE57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BF57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BG57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BH57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BI57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BJ57" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BK57" t="n">
-        <v>1469.95</v>
+        <v>982</v>
       </c>
       <c r="BL57" t="n">
-        <v>1469.95</v>
+        <v>982</v>
       </c>
       <c r="BM57" t="n">
-        <v>1469.95</v>
+        <v>983</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1589.95</v>
       </c>
     </row>
     <row r="58">
@@ -12538,6 +12711,9 @@
       <c r="BM58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BN58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12747,6 +12923,9 @@
       <c r="BM59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BN59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12956,6 +13135,9 @@
       <c r="BM60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BN60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13165,6 +13347,9 @@
       <c r="BM61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BN61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13370,6 +13555,9 @@
       <c r="BM62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BN62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13575,6 +13763,9 @@
       <c r="BM63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BN63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13780,16 +13971,19 @@
       <c r="BM64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BN64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00692518</t>
+          <t>PB00627256</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13799,202 +13993,199 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="J65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="K65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="L65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="M65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="N65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="O65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="P65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Q65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="R65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="S65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="T65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="U65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="V65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="W65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="X65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Y65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Z65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AA65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AB65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AC65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AD65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AE65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AF65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AG65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AH65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AI65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AJ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AK65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AL65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AM65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AN65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AO65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AP65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AR65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AS65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AT65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AU65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AV65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AW65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AX65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AY65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AZ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BA65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BB65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BC65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BD65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BE65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BF65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BG65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BH65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BI65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BJ65" t="n">
-        <v>2099.95</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>2099.95</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>2099.95</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
+      </c>
+      <c r="BK65" t="inlineStr"/>
+      <c r="BL65" t="inlineStr"/>
+      <c r="BM65" t="inlineStr"/>
+      <c r="BN65" t="n">
+        <v>1999.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00692520</t>
+          <t>PB00692518</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -14004,7 +14195,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -14016,7 +14207,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -14188,18 +14379,21 @@
         <v>2099.95</v>
       </c>
       <c r="BM66" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BN66" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00692519</t>
+          <t>PB00692520</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -14209,7 +14403,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -14221,7 +14415,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -14393,18 +14587,21 @@
         <v>2099.95</v>
       </c>
       <c r="BM67" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BN67" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00627260</t>
+          <t>PB00692519</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -14414,202 +14611,205 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="J68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="K68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="L68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="M68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="N68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="O68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="P68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Q68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="R68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="S68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="T68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="U68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="V68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="W68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="X68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Z68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AA68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AB68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AC68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AD68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AE68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AF68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AG68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AH68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AI68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AK68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AL68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AM68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AN68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AO68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AP68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AR68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AS68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AT68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AU68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AV68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AW68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AX68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AY68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BA68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BB68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BC68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BD68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BE68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BF68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BG68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BH68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BI68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BJ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BK68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BL68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BM68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>2099.95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00692521</t>
+          <t>PB00627260</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14619,202 +14819,205 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="J69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="K69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="L69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="M69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="N69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="O69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="P69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Q69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="R69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="S69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="T69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="U69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="V69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="W69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="X69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Y69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Z69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AA69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AB69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AC69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AD69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AE69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AF69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AG69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AH69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AI69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AK69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AL69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AM69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AN69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AO69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AP69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AR69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AS69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AT69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AU69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AV69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AW69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AX69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AY69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AZ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BA69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BB69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BC69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BD69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BE69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BF69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BG69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BH69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BI69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BJ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BK69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BL69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BM69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>2119.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00692523</t>
+          <t>PB00692521</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14824,7 +15027,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14836,7 +15039,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -15008,18 +15211,21 @@
         <v>2219.95</v>
       </c>
       <c r="BM70" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="BN70" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00692522</t>
+          <t>PB00692523</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -15041,7 +15247,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -15213,18 +15419,21 @@
         <v>2219.95</v>
       </c>
       <c r="BM71" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="BN71" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00627265</t>
+          <t>PB00692522</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -15241,195 +15450,198 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="J72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="K72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="L72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="M72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="N72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="O72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="P72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Q72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="R72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="S72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="T72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="U72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="V72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="W72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="X72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Y72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Z72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AA72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AB72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AC72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AD72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AE72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AF72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AG72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AH72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AI72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AK72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AL72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AM72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AN72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AO72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AP72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AR72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AS72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AT72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AU72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AV72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AW72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AX72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AY72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AZ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BA72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BB72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BC72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BD72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BE72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BF72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BG72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BH72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BI72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BJ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BK72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BL72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BM72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>2219.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00627263</t>
+          <t>PB00627265</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -15451,7 +15663,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -15623,18 +15835,21 @@
         <v>2359.95</v>
       </c>
       <c r="BM73" t="n">
+        <v>2359.95</v>
+      </c>
+      <c r="BN73" t="n">
         <v>2359.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00692525</t>
+          <t>PB00627263</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15644,202 +15859,205 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="J74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="K74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="L74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="M74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="N74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="O74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="P74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Q74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="R74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="S74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="T74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="U74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="V74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="W74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="X74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Y74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Z74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AA74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AB74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AC74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AD74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AE74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AF74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AG74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AH74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AI74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AK74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AL74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AM74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AN74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AO74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AP74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AR74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AS74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AT74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AU74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AV74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AW74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AX74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AY74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BA74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BB74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BC74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BD74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BE74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BF74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BG74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BH74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BI74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BJ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BK74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BL74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BM74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>2359.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PB00692526</t>
+          <t>PB00692525</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15849,7 +16067,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15861,7 +16079,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -16033,18 +16251,21 @@
         <v>2519.95</v>
       </c>
       <c r="BM75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BN75" t="n">
         <v>2519.95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PB00627256</t>
+          <t>PB00692526</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -16054,186 +16275,195 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="J76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="K76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="L76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="M76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="N76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="O76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="P76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Q76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="R76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="S76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="T76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="U76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="V76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="W76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="X76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Y76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Z76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AA76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AB76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AC76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AD76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AE76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AF76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AG76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AH76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AI76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AJ76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AK76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AL76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AM76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AN76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AO76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AP76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AR76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AS76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AT76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AU76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AV76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AW76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AX76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AY76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AZ76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BA76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BB76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BC76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BD76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BE76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BF76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BG76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BH76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BI76" t="n">
-        <v>1999.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BJ76" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="BK76" t="inlineStr"/>
-      <c r="BL76" t="inlineStr"/>
-      <c r="BM76" t="inlineStr"/>
+        <v>2519.95</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN76"/>
+  <dimension ref="A1:BO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,6 +752,11 @@
           <t>2026-02-18 19:44:43</t>
         </is>
       </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>2026-02-18 21:31:35</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -960,6 +965,9 @@
       <c r="BN2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BO2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1168,6 +1176,9 @@
       <c r="BN3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BO3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1376,6 +1387,9 @@
       <c r="BN4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BO4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1588,6 +1602,9 @@
       <c r="BN5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BO5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1800,6 +1817,9 @@
       <c r="BN6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BO6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2012,6 +2032,9 @@
       <c r="BN7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BO7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2224,6 +2247,9 @@
       <c r="BN8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BO8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2436,6 +2462,9 @@
       <c r="BN9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BO9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2648,6 +2677,9 @@
       <c r="BN10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BO10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2856,6 +2888,9 @@
       <c r="BN11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BO11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3064,6 +3099,9 @@
       <c r="BN12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BO12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3272,6 +3310,9 @@
       <c r="BN13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BO13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3484,6 +3525,9 @@
       <c r="BN14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BO14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3692,6 +3736,9 @@
       <c r="BN15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BO15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3900,6 +3947,9 @@
       <c r="BN16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BO16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4108,6 +4158,9 @@
       <c r="BN17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BO17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4316,6 +4369,9 @@
       <c r="BN18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BO18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4524,6 +4580,9 @@
       <c r="BN19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BO19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4732,6 +4791,9 @@
       <c r="BN20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BO20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4940,6 +5002,9 @@
       <c r="BN21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BO21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5148,6 +5213,9 @@
       <c r="BN22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BO22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5360,6 +5428,9 @@
       <c r="BN23" t="n">
         <v>686</v>
       </c>
+      <c r="BO23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5568,6 +5639,9 @@
       <c r="BN24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BO24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5776,6 +5850,9 @@
       <c r="BN25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BO25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5984,6 +6061,9 @@
       <c r="BN26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BO26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6192,6 +6272,9 @@
       <c r="BN27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BO27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6400,6 +6483,9 @@
       <c r="BN28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BO28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6608,6 +6694,9 @@
       <c r="BN29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BO29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6816,6 +6905,9 @@
       <c r="BN30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BO30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7028,6 +7120,9 @@
       <c r="BN31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7240,6 +7335,9 @@
       <c r="BN32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7452,6 +7550,9 @@
       <c r="BN33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7664,6 +7765,9 @@
       <c r="BN34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7872,6 +7976,9 @@
       <c r="BN35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8080,6 +8187,9 @@
       <c r="BN36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BO36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8288,6 +8398,9 @@
       <c r="BN37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BO37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8496,6 +8609,9 @@
       <c r="BN38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BO38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8704,6 +8820,9 @@
       <c r="BN39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BO39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8912,6 +9031,9 @@
       <c r="BN40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BO40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9124,6 +9246,9 @@
       <c r="BN41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BO41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9332,6 +9457,9 @@
       <c r="BN42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BO42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9540,6 +9668,9 @@
       <c r="BN43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BO43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9752,6 +9883,9 @@
       <c r="BN44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BO44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9964,6 +10098,9 @@
       <c r="BN45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BO45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10172,6 +10309,9 @@
       <c r="BN46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BO46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10384,6 +10524,9 @@
       <c r="BN47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BO47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10596,6 +10739,9 @@
       <c r="BN48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BO48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10808,6 +10954,9 @@
       <c r="BN49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BO49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11020,6 +11169,9 @@
       <c r="BN50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BO50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11232,6 +11384,9 @@
       <c r="BN51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BO51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11442,6 +11597,9 @@
       <c r="BN52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BO52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11654,6 +11812,9 @@
       <c r="BN53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BO53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11866,6 +12027,9 @@
       <c r="BN54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BO54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12078,6 +12242,9 @@
       <c r="BN55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BO55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12290,6 +12457,9 @@
       <c r="BN56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BO56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12502,6 +12672,9 @@
       <c r="BN57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BO57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12714,6 +12887,9 @@
       <c r="BN58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BO58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12926,6 +13102,9 @@
       <c r="BN59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BO59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13138,6 +13317,9 @@
       <c r="BN60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BO60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13350,6 +13532,9 @@
       <c r="BN61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BO61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13558,6 +13743,9 @@
       <c r="BN62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BO62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13766,6 +13954,9 @@
       <c r="BN63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BO63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13972,6 +14163,9 @@
         <v>1999.95</v>
       </c>
       <c r="BN64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BO64" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -14176,6 +14370,9 @@
       <c r="BN65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BO65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14384,6 +14581,9 @@
       <c r="BN66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BO66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14592,6 +14792,9 @@
       <c r="BN67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BO67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14800,6 +15003,9 @@
       <c r="BN68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BO68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15008,6 +15214,9 @@
       <c r="BN69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BO69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15216,6 +15425,9 @@
       <c r="BN70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BO70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15424,6 +15636,9 @@
       <c r="BN71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BO71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15632,6 +15847,9 @@
       <c r="BN72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BO72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15840,6 +16058,9 @@
       <c r="BN73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BO73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16048,6 +16269,9 @@
       <c r="BN74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BO74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16256,6 +16480,9 @@
       <c r="BN75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BO75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16462,6 +16689,9 @@
         <v>2519.95</v>
       </c>
       <c r="BN76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BO76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO76"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,11 @@
           <t>2026-02-18 21:31:35</t>
         </is>
       </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>2026-02-18 22:28:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -968,6 +973,9 @@
       <c r="BO2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BP2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1179,6 +1187,9 @@
       <c r="BO3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BP3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1390,6 +1401,9 @@
       <c r="BO4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BP4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1605,6 +1619,9 @@
       <c r="BO5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BP5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1820,6 +1837,9 @@
       <c r="BO6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BP6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2035,6 +2055,9 @@
       <c r="BO7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BP7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2250,6 +2273,9 @@
       <c r="BO8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BP8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2465,6 +2491,9 @@
       <c r="BO9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BP9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2680,6 +2709,9 @@
       <c r="BO10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BP10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2891,6 +2923,9 @@
       <c r="BO11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BP11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3102,6 +3137,9 @@
       <c r="BO12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BP12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3313,6 +3351,9 @@
       <c r="BO13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BP13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3528,6 +3569,9 @@
       <c r="BO14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BP14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3739,6 +3783,9 @@
       <c r="BO15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BP15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3950,6 +3997,9 @@
       <c r="BO16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BP16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4161,6 +4211,9 @@
       <c r="BO17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BP17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4372,6 +4425,9 @@
       <c r="BO18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BP18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4583,6 +4639,9 @@
       <c r="BO19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BP19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4794,6 +4853,9 @@
       <c r="BO20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BP20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5005,6 +5067,9 @@
       <c r="BO21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BP21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5216,6 +5281,9 @@
       <c r="BO22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BP22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5431,6 +5499,9 @@
       <c r="BO23" t="n">
         <v>686</v>
       </c>
+      <c r="BP23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5642,6 +5713,9 @@
       <c r="BO24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BP24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5853,6 +5927,9 @@
       <c r="BO25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BP25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6064,6 +6141,9 @@
       <c r="BO26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BP26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6275,6 +6355,9 @@
       <c r="BO27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BP27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6486,6 +6569,9 @@
       <c r="BO28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BP28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6697,6 +6783,9 @@
       <c r="BO29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BP29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6908,6 +6997,9 @@
       <c r="BO30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BP30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7123,6 +7215,9 @@
       <c r="BO31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7338,6 +7433,9 @@
       <c r="BO32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7553,6 +7651,9 @@
       <c r="BO33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7768,6 +7869,9 @@
       <c r="BO34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7979,6 +8083,9 @@
       <c r="BO35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8190,6 +8297,9 @@
       <c r="BO36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BP36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8401,6 +8511,9 @@
       <c r="BO37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BP37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8612,6 +8725,9 @@
       <c r="BO38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BP38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8823,6 +8939,9 @@
       <c r="BO39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BP39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9034,6 +9153,9 @@
       <c r="BO40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BP40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9249,6 +9371,9 @@
       <c r="BO41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BP41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9460,6 +9585,9 @@
       <c r="BO42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BP42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9671,6 +9799,9 @@
       <c r="BO43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BP43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9886,6 +10017,9 @@
       <c r="BO44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BP44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10101,6 +10235,9 @@
       <c r="BO45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BP45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10312,6 +10449,9 @@
       <c r="BO46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BP46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10527,6 +10667,9 @@
       <c r="BO47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BP47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10742,6 +10885,9 @@
       <c r="BO48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BP48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10957,6 +11103,9 @@
       <c r="BO49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BP49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11172,6 +11321,9 @@
       <c r="BO50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BP50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11387,6 +11539,9 @@
       <c r="BO51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BP51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11600,6 +11755,9 @@
       <c r="BO52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BP52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11815,6 +11973,9 @@
       <c r="BO53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BP53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12030,6 +12191,9 @@
       <c r="BO54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BP54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12245,6 +12409,9 @@
       <c r="BO55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BP55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12460,6 +12627,9 @@
       <c r="BO56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BP56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12675,6 +12845,9 @@
       <c r="BO57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BP57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12890,6 +13063,9 @@
       <c r="BO58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BP58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13105,6 +13281,9 @@
       <c r="BO59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BP59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13320,6 +13499,9 @@
       <c r="BO60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BP60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13535,6 +13717,9 @@
       <c r="BO61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BP61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13746,6 +13931,9 @@
       <c r="BO62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BP62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13957,6 +14145,9 @@
       <c r="BO63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BP63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14166,6 +14357,9 @@
         <v>1999.95</v>
       </c>
       <c r="BO64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BP64" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -14373,6 +14567,9 @@
       <c r="BO65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BP65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14584,6 +14781,9 @@
       <c r="BO66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BP66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14795,6 +14995,9 @@
       <c r="BO67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BP67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15006,6 +15209,9 @@
       <c r="BO68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BP68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15217,6 +15423,9 @@
       <c r="BO69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BP69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15428,6 +15637,9 @@
       <c r="BO70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BP70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15639,6 +15851,9 @@
       <c r="BO71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BP71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15850,6 +16065,9 @@
       <c r="BO72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BP72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16061,6 +16279,9 @@
       <c r="BO73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BP73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16272,6 +16493,9 @@
       <c r="BO74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BP74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16483,6 +16707,9 @@
       <c r="BO75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BP75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16692,6 +16919,9 @@
         <v>2519.95</v>
       </c>
       <c r="BO76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BP76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BQ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,6 +762,11 @@
           <t>2026-02-18 22:28:17</t>
         </is>
       </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>2026-02-19 01:45:12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -976,6 +981,9 @@
       <c r="BP2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BQ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1190,6 +1198,9 @@
       <c r="BP3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BQ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1404,6 +1415,9 @@
       <c r="BP4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BQ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1622,6 +1636,9 @@
       <c r="BP5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BQ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1840,6 +1857,9 @@
       <c r="BP6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BQ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2058,6 +2078,9 @@
       <c r="BP7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BQ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2276,6 +2299,9 @@
       <c r="BP8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BQ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2494,6 +2520,9 @@
       <c r="BP9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BQ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2712,6 +2741,9 @@
       <c r="BP10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BQ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2926,6 +2958,9 @@
       <c r="BP11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BQ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3140,6 +3175,9 @@
       <c r="BP12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BQ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3354,6 +3392,9 @@
       <c r="BP13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BQ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3572,6 +3613,9 @@
       <c r="BP14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BQ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3786,6 +3830,9 @@
       <c r="BP15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BQ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4000,6 +4047,9 @@
       <c r="BP16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BQ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4214,6 +4264,9 @@
       <c r="BP17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BQ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4428,6 +4481,9 @@
       <c r="BP18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BQ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4642,6 +4698,9 @@
       <c r="BP19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BQ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4856,6 +4915,9 @@
       <c r="BP20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BQ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5070,6 +5132,9 @@
       <c r="BP21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BQ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5284,6 +5349,9 @@
       <c r="BP22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BQ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5502,6 +5570,9 @@
       <c r="BP23" t="n">
         <v>686</v>
       </c>
+      <c r="BQ23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5716,6 +5787,9 @@
       <c r="BP24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BQ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5930,6 +6004,9 @@
       <c r="BP25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BQ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6144,6 +6221,9 @@
       <c r="BP26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BQ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6358,6 +6438,9 @@
       <c r="BP27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BQ27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6572,6 +6655,9 @@
       <c r="BP28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BQ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6786,6 +6872,9 @@
       <c r="BP29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BQ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7000,6 +7089,9 @@
       <c r="BP30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BQ30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7218,6 +7310,9 @@
       <c r="BP31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7436,6 +7531,9 @@
       <c r="BP32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7654,6 +7752,9 @@
       <c r="BP33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7872,6 +7973,9 @@
       <c r="BP34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8086,6 +8190,9 @@
       <c r="BP35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8300,6 +8407,9 @@
       <c r="BP36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BQ36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8514,6 +8624,9 @@
       <c r="BP37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BQ37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8728,6 +8841,9 @@
       <c r="BP38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BQ38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8942,6 +9058,9 @@
       <c r="BP39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BQ39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9156,6 +9275,9 @@
       <c r="BP40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BQ40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9374,6 +9496,9 @@
       <c r="BP41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BQ41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9588,6 +9713,9 @@
       <c r="BP42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BQ42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9802,6 +9930,9 @@
       <c r="BP43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BQ43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10020,6 +10151,9 @@
       <c r="BP44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BQ44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10238,6 +10372,9 @@
       <c r="BP45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BQ45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10452,6 +10589,9 @@
       <c r="BP46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BQ46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10670,6 +10810,9 @@
       <c r="BP47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BQ47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10888,6 +11031,9 @@
       <c r="BP48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BQ48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11106,6 +11252,9 @@
       <c r="BP49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BQ49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11324,6 +11473,9 @@
       <c r="BP50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BQ50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11542,6 +11694,9 @@
       <c r="BP51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BQ51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11758,6 +11913,9 @@
       <c r="BP52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BQ52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11976,6 +12134,9 @@
       <c r="BP53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BQ53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12194,6 +12355,9 @@
       <c r="BP54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BQ54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12412,6 +12576,9 @@
       <c r="BP55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BQ55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12630,6 +12797,9 @@
       <c r="BP56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BQ56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12848,6 +13018,9 @@
       <c r="BP57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BQ57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13066,6 +13239,9 @@
       <c r="BP58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BQ58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13284,6 +13460,9 @@
       <c r="BP59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BQ59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13502,6 +13681,9 @@
       <c r="BP60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BQ60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13720,6 +13902,9 @@
       <c r="BP61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BQ61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13934,6 +14119,9 @@
       <c r="BP62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BQ62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14148,6 +14336,9 @@
       <c r="BP63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BQ63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14360,6 +14551,9 @@
         <v>1999.95</v>
       </c>
       <c r="BP64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BQ64" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -14570,6 +14764,9 @@
       <c r="BP65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BQ65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14784,6 +14981,9 @@
       <c r="BP66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BQ66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14998,6 +15198,9 @@
       <c r="BP67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BQ67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15212,6 +15415,9 @@
       <c r="BP68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BQ68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15426,6 +15632,9 @@
       <c r="BP69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BQ69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15640,6 +15849,9 @@
       <c r="BP70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BQ70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15854,6 +16066,9 @@
       <c r="BP71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BQ71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16068,6 +16283,9 @@
       <c r="BP72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BQ72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16282,6 +16500,9 @@
       <c r="BP73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BQ73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16496,6 +16717,9 @@
       <c r="BP74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BQ74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16710,6 +16934,9 @@
       <c r="BP75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BQ75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16922,6 +17149,9 @@
         <v>2519.95</v>
       </c>
       <c r="BP76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BQ76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ76"/>
+  <dimension ref="A1:BR76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,6 +767,11 @@
           <t>2026-02-19 01:45:12</t>
         </is>
       </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>2026-02-19 04:15:53</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -984,6 +989,9 @@
       <c r="BQ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BR2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1201,6 +1209,9 @@
       <c r="BQ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BR3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1418,6 +1429,9 @@
       <c r="BQ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BR4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1639,6 +1653,9 @@
       <c r="BQ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BR5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1860,6 +1877,9 @@
       <c r="BQ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BR6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2081,6 +2101,9 @@
       <c r="BQ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BR7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2302,6 +2325,9 @@
       <c r="BQ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BR8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2523,6 +2549,9 @@
       <c r="BQ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BR9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2744,6 +2773,9 @@
       <c r="BQ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BR10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2961,6 +2993,9 @@
       <c r="BQ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BR11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3178,6 +3213,9 @@
       <c r="BQ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BR12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3395,6 +3433,9 @@
       <c r="BQ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BR13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3616,6 +3657,9 @@
       <c r="BQ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BR14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3833,6 +3877,9 @@
       <c r="BQ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BR15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4050,6 +4097,9 @@
       <c r="BQ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BR16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4267,6 +4317,9 @@
       <c r="BQ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BR17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4484,6 +4537,9 @@
       <c r="BQ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BR18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4701,6 +4757,9 @@
       <c r="BQ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BR19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4918,6 +4977,9 @@
       <c r="BQ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BR20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5135,6 +5197,9 @@
       <c r="BQ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BR21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5352,6 +5417,9 @@
       <c r="BQ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BR22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5573,6 +5641,9 @@
       <c r="BQ23" t="n">
         <v>686</v>
       </c>
+      <c r="BR23" t="n">
+        <v>686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5790,6 +5861,9 @@
       <c r="BQ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BR24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6007,6 +6081,9 @@
       <c r="BQ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BR25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6224,6 +6301,9 @@
       <c r="BQ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BR26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6441,6 +6521,9 @@
       <c r="BQ27" t="n">
         <v>749.95</v>
       </c>
+      <c r="BR27" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6658,6 +6741,9 @@
       <c r="BQ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BR28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6875,6 +6961,9 @@
       <c r="BQ29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BR29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7092,6 +7181,9 @@
       <c r="BQ30" t="n">
         <v>809.95</v>
       </c>
+      <c r="BR30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7313,6 +7405,9 @@
       <c r="BQ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7534,6 +7629,9 @@
       <c r="BQ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7755,6 +7853,9 @@
       <c r="BQ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7976,6 +8077,9 @@
       <c r="BQ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8193,6 +8297,9 @@
       <c r="BQ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8410,6 +8517,9 @@
       <c r="BQ36" t="n">
         <v>899.95</v>
       </c>
+      <c r="BR36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8627,6 +8737,9 @@
       <c r="BQ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BR37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8844,6 +8957,9 @@
       <c r="BQ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BR38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9061,6 +9177,9 @@
       <c r="BQ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BR39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9278,6 +9397,9 @@
       <c r="BQ40" t="n">
         <v>929.95</v>
       </c>
+      <c r="BR40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9499,6 +9621,9 @@
       <c r="BQ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BR41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9716,6 +9841,9 @@
       <c r="BQ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BR42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9933,6 +10061,9 @@
       <c r="BQ43" t="n">
         <v>959.95</v>
       </c>
+      <c r="BR43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10154,6 +10285,9 @@
       <c r="BQ44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BR44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10375,6 +10509,9 @@
       <c r="BQ45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BR45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10592,6 +10729,9 @@
       <c r="BQ46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BR46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10813,6 +10953,9 @@
       <c r="BQ47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BR47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11034,6 +11177,9 @@
       <c r="BQ48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BR48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11255,6 +11401,9 @@
       <c r="BQ49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BR49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11476,6 +11625,9 @@
       <c r="BQ50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BR50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11697,6 +11849,9 @@
       <c r="BQ51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BR51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11916,6 +12071,9 @@
       <c r="BQ52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BR52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12137,6 +12295,9 @@
       <c r="BQ53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BR53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12358,6 +12519,9 @@
       <c r="BQ54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BR54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12579,6 +12743,9 @@
       <c r="BQ55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BR55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12800,6 +12967,9 @@
       <c r="BQ56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BR56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13021,6 +13191,9 @@
       <c r="BQ57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BR57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13242,6 +13415,9 @@
       <c r="BQ58" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BR58" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13463,6 +13639,9 @@
       <c r="BQ59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BR59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13684,6 +13863,9 @@
       <c r="BQ60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BR60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13905,6 +14087,9 @@
       <c r="BQ61" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BR61" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14122,6 +14307,9 @@
       <c r="BQ62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BR62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14339,6 +14527,9 @@
       <c r="BQ63" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BR63" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14554,6 +14745,9 @@
         <v>1999.95</v>
       </c>
       <c r="BQ64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BR64" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -14767,6 +14961,9 @@
       <c r="BQ65" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BR65" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14984,6 +15181,9 @@
       <c r="BQ66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BR66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15201,6 +15401,9 @@
       <c r="BQ67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BR67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15418,6 +15621,9 @@
       <c r="BQ68" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BR68" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15635,6 +15841,9 @@
       <c r="BQ69" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BR69" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15852,6 +16061,9 @@
       <c r="BQ70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BR70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16069,6 +16281,9 @@
       <c r="BQ71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BR71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16286,6 +16501,9 @@
       <c r="BQ72" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BR72" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16503,6 +16721,9 @@
       <c r="BQ73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BR73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16720,6 +16941,9 @@
       <c r="BQ74" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BR74" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16937,6 +17161,9 @@
       <c r="BQ75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BR75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17152,6 +17379,9 @@
         <v>2519.95</v>
       </c>
       <c r="BQ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BR76" t="n">
         <v>2519.95</v>
       </c>
     </row>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR76"/>
+  <dimension ref="A1:BS76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +772,11 @@
           <t>2026-02-19 04:15:53</t>
         </is>
       </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>2026-02-19 05:56:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -992,6 +997,9 @@
       <c r="BR2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BS2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1212,6 +1220,9 @@
       <c r="BR3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BS3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1432,6 +1443,9 @@
       <c r="BR4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BS4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1656,6 +1670,9 @@
       <c r="BR5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BS5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1880,6 +1897,9 @@
       <c r="BR6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BS6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2104,6 +2124,9 @@
       <c r="BR7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BS7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2328,6 +2351,9 @@
       <c r="BR8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BS8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2552,6 +2578,9 @@
       <c r="BR9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BS9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2776,6 +2805,9 @@
       <c r="BR10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BS10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2996,6 +3028,9 @@
       <c r="BR11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BS11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3216,6 +3251,9 @@
       <c r="BR12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BS12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3436,6 +3474,9 @@
       <c r="BR13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BS13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3660,6 +3701,9 @@
       <c r="BR14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BS14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3880,6 +3924,9 @@
       <c r="BR15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BS15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4100,6 +4147,9 @@
       <c r="BR16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BS16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4320,6 +4370,9 @@
       <c r="BR17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BS17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4540,6 +4593,9 @@
       <c r="BR18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BS18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4760,6 +4816,9 @@
       <c r="BR19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BS19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4980,6 +5039,9 @@
       <c r="BR20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BS20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5200,6 +5262,9 @@
       <c r="BR21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BS21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5420,16 +5485,19 @@
       <c r="BR22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BS22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PB00662820</t>
+          <t>PB00701930</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5439,15 +5507,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" t="n">
-        <v>14</v>
-      </c>
+          <t>En stock dans + de 15 jours</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -5455,205 +5519,208 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662820.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701930.html</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="J23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="K23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="L23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="M23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="N23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="O23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="P23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="Q23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="R23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="S23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="T23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="U23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="V23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="W23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="X23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="Y23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="Z23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AA23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AB23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AC23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AD23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AE23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AF23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AG23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AH23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AI23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AJ23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AK23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AL23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AM23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AN23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AO23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AP23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AQ23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AR23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AS23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AT23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AU23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AV23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AW23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AX23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AY23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="AZ23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BA23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BB23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BC23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BD23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BE23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BF23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BG23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BH23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BI23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BJ23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BK23" t="n">
-        <v>647</v>
+        <v>749.95</v>
       </c>
       <c r="BL23" t="n">
-        <v>647</v>
+        <v>749.95</v>
       </c>
       <c r="BM23" t="n">
-        <v>647</v>
+        <v>749.95</v>
       </c>
       <c r="BN23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BO23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BP23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BQ23" t="n">
-        <v>686</v>
+        <v>749.95</v>
       </c>
       <c r="BR23" t="n">
-        <v>686</v>
+        <v>749.95</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>749.95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PB00701930</t>
+          <t>PB00701932</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5663,7 +5730,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5675,7 +5742,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701930.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701932.html</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -5862,18 +5929,21 @@
         <v>749.95</v>
       </c>
       <c r="BR24" t="n">
+        <v>749.95</v>
+      </c>
+      <c r="BS24" t="n">
         <v>749.95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PB00701932</t>
+          <t>PB00701933</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5883,7 +5953,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5895,7 +5965,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701932.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701933.html</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -6082,18 +6152,21 @@
         <v>749.95</v>
       </c>
       <c r="BR25" t="n">
+        <v>749.95</v>
+      </c>
+      <c r="BS25" t="n">
         <v>749.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PB00701933</t>
+          <t>PB00701931</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6103,7 +6176,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -6115,7 +6188,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701933.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701931.html</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -6302,18 +6375,21 @@
         <v>749.95</v>
       </c>
       <c r="BR26" t="n">
+        <v>749.95</v>
+      </c>
+      <c r="BS26" t="n">
         <v>749.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PB00701931</t>
+          <t>PB00701934</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6323,7 +6399,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -6335,205 +6411,208 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701931.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701934.html</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="J27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="K27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="L27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="M27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="N27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="O27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="P27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="Q27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="R27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="S27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="T27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="U27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="V27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="W27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="X27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="Y27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="Z27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AA27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AB27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AC27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AD27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AE27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AF27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AG27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AH27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AI27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AK27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AL27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AM27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AN27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AO27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AP27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AQ27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AR27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AS27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AT27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AU27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AV27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AW27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AX27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AY27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="AZ27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BA27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BB27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BC27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BD27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BE27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BF27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BG27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BH27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BI27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BJ27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BK27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BL27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BM27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BN27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BO27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BP27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BQ27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
       </c>
       <c r="BR27" t="n">
-        <v>749.95</v>
+        <v>809.95</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>809.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PB00701934</t>
+          <t>PB00701936</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6555,7 +6634,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701934.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701936.html</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -6742,18 +6821,21 @@
         <v>809.95</v>
       </c>
       <c r="BR28" t="n">
+        <v>809.95</v>
+      </c>
+      <c r="BS28" t="n">
         <v>809.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PB00701936</t>
+          <t>PB00701937</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6763,7 +6845,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6775,7 +6857,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701936.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701937.html</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -6962,18 +7044,21 @@
         <v>809.95</v>
       </c>
       <c r="BR29" t="n">
+        <v>809.95</v>
+      </c>
+      <c r="BS29" t="n">
         <v>809.95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00701937</t>
+          <t>PB00662813</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Clair (12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6983,11 +7068,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14</v>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -6995,205 +7084,208 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701937.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662813.html</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="J30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="K30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="L30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="M30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="N30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="O30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="P30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="Q30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="R30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="S30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="T30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="U30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="V30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="W30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="X30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="Y30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="Z30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AA30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AB30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AC30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AD30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AE30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AF30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AG30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AH30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AI30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AJ30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AK30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AL30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AM30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AN30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AO30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AP30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AQ30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AR30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AS30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AT30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AU30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AV30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AW30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AX30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AY30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="AZ30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BA30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BB30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BC30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BD30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BE30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BF30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BG30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BH30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BI30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BJ30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BK30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BL30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BM30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BN30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BO30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BP30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BQ30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
       </c>
       <c r="BR30" t="n">
-        <v>809.95</v>
+        <v>899.95</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>899.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00662813</t>
+          <t>PB00662814</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Clair (12 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7219,7 +7311,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662813.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662814.html</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -7406,18 +7498,21 @@
         <v>899.95</v>
       </c>
       <c r="BR31" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="BS31" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00662814</t>
+          <t>PB00662811</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Gris(12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7443,7 +7538,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662814.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662811.html</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -7630,18 +7725,21 @@
         <v>899.95</v>
       </c>
       <c r="BR32" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="BS32" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00662811</t>
+          <t>PB00662812</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Gris(12 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7667,7 +7765,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662811.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662812.html</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -7854,18 +7952,21 @@
         <v>899.95</v>
       </c>
       <c r="BR33" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="BS33" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00662812</t>
+          <t>PB00692513</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 128 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7878,12 +7979,8 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>10</v>
-      </c>
-      <c r="F34" t="n">
-        <v>14</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -7891,41 +7988,41 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692513.html</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="J34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="K34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="L34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="M34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="N34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="O34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="P34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="Q34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="R34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="S34" t="n">
-        <v>899.95</v>
+        <v>999.95</v>
       </c>
       <c r="T34" t="n">
         <v>899.95</v>
@@ -8078,18 +8175,21 @@
         <v>899.95</v>
       </c>
       <c r="BR34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="BS34" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00692513</t>
+          <t>PB00692508</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8111,7 +8211,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692513.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692508.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -8298,18 +8398,21 @@
         <v>899.95</v>
       </c>
       <c r="BR35" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="BS35" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00692508</t>
+          <t>PB00701938</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -8319,7 +8422,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -8331,205 +8434,208 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692508.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701938.html</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="J36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="K36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="L36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="M36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="N36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="O36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="P36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="R36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="S36" t="n">
-        <v>999.95</v>
+        <v>929.95</v>
       </c>
       <c r="T36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="U36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="V36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="W36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="X36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="Y36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="Z36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AA36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AB36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AC36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AD36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AE36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AF36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AG36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AH36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AI36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AJ36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AK36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AL36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AM36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AN36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AO36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AP36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AQ36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AR36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AS36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AT36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AU36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AV36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AW36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AX36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AY36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="AZ36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BA36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BB36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BC36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BD36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BE36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BF36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BG36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BH36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BI36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BJ36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BK36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BL36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BM36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BN36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BO36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BP36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BQ36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
       </c>
       <c r="BR36" t="n">
-        <v>899.95</v>
+        <v>929.95</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>929.95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00701938</t>
+          <t>PB00701941</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8551,7 +8657,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701938.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701941.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -8738,18 +8844,21 @@
         <v>929.95</v>
       </c>
       <c r="BR37" t="n">
+        <v>929.95</v>
+      </c>
+      <c r="BS37" t="n">
         <v>929.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00701941</t>
+          <t>PB00701943</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8771,7 +8880,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701941.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701943.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -8958,18 +9067,21 @@
         <v>929.95</v>
       </c>
       <c r="BR38" t="n">
+        <v>929.95</v>
+      </c>
+      <c r="BS38" t="n">
         <v>929.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00701943</t>
+          <t>PB00701940</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8991,7 +9103,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701943.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701940.html</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -9178,18 +9290,21 @@
         <v>929.95</v>
       </c>
       <c r="BR39" t="n">
+        <v>929.95</v>
+      </c>
+      <c r="BS39" t="n">
         <v>929.95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00701940</t>
+          <t>PB00662818</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9202,8 +9317,12 @@
           <t>Rupture</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14</v>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -9211,205 +9330,208 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701940.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662818.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="J40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="K40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="L40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="M40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="N40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="O40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="P40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="Q40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="R40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="S40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="T40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="U40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="V40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="W40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="X40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="Z40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AA40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AB40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AC40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AD40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AE40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AF40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AG40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AH40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AI40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AJ40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AK40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AL40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AM40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AN40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AO40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AP40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AQ40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AR40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AS40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AT40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AU40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AV40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AW40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AX40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AY40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="AZ40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BA40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BB40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BC40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BD40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BE40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BF40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BG40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BH40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BI40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BJ40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BK40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BL40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BM40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BN40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BO40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BP40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BQ40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
       </c>
       <c r="BR40" t="n">
-        <v>929.95</v>
+        <v>959.95</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>959.95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00662818</t>
+          <t>PB00692515</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9419,15 +9541,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rupture</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>10</v>
-      </c>
-      <c r="F41" t="n">
-        <v>14</v>
-      </c>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -9435,41 +9553,41 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692515.html</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="J41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="K41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="L41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="M41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="N41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="O41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="P41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="Q41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="R41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="S41" t="n">
-        <v>959.95</v>
+        <v>1059.95</v>
       </c>
       <c r="T41" t="n">
         <v>959.95</v>
@@ -9622,18 +9740,21 @@
         <v>959.95</v>
       </c>
       <c r="BR41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="BS41" t="n">
         <v>959.95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00692515</t>
+          <t>PB00692514</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9655,7 +9776,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692515.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692514.html</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -9842,18 +9963,21 @@
         <v>959.95</v>
       </c>
       <c r="BR42" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="BS42" t="n">
         <v>959.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00692514</t>
+          <t>PB00662825</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9863,11 +9987,15 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+          <t>Rupture</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14</v>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -9875,205 +10003,208 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692514.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="J43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="K43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="M43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="O43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="P43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Q43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="R43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="S43" t="n">
-        <v>1059.95</v>
+        <v>1079.95</v>
       </c>
       <c r="T43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="U43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="V43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="W43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="X43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Y43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Z43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AA43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AB43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AC43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AD43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AE43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AF43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AG43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AH43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AI43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AJ43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AK43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AL43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AM43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AN43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AO43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AP43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AQ43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AR43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AS43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AT43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AU43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AV43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AW43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AX43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AY43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AZ43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BA43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BB43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BC43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BD43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BE43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BF43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BG43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BH43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BI43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BJ43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BK43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BL43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BM43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BN43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BO43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BP43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BQ43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BR43" t="n">
-        <v>959.95</v>
+        <v>1079.95</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>1079.95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00662825</t>
+          <t>PB00627244</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10083,14 +10214,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -10099,205 +10230,208 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="J44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="K44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="M44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="N44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="O44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="P44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="S44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="T44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="U44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="V44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="W44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="X44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Y44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Z44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AA44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AB44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AC44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AD44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AE44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AF44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AG44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AH44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AI44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AK44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AL44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AM44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AN44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AO44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AP44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AR44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AS44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AT44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AU44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AV44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AW44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AX44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AY44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BA44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BB44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BC44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BD44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BE44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BF44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BG44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BH44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BI44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BJ44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BK44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BL44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BM44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BN44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BO44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BP44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BQ44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BR44" t="n">
-        <v>1079.95</v>
+        <v>1199.95</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>1199.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00627244</t>
+          <t>PB00627429</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10310,12 +10444,8 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>10</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2</v>
-      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -10323,7 +10453,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -10510,18 +10640,21 @@
         <v>1199.95</v>
       </c>
       <c r="BR45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BS45" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00627429</t>
+          <t>PB00627245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10534,8 +10667,12 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -10543,7 +10680,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -10730,18 +10867,21 @@
         <v>1199.95</v>
       </c>
       <c r="BR46" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BS46" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00627245</t>
+          <t>PB00692498</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10751,14 +10891,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -10767,7 +10907,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -10954,18 +11094,21 @@
         <v>1199.95</v>
       </c>
       <c r="BR47" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BS47" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00692498</t>
+          <t>PB00692500</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10975,7 +11118,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -10991,7 +11134,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -11178,18 +11321,21 @@
         <v>1199.95</v>
       </c>
       <c r="BR48" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BS48" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00692500</t>
+          <t>PB00692499</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -11215,7 +11361,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -11402,18 +11548,21 @@
         <v>1199.95</v>
       </c>
       <c r="BR49" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="BS49" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00692499</t>
+          <t>PB00692501</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -11423,7 +11572,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -11439,205 +11588,208 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="J50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="K50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="L50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="M50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="N50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="O50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="P50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Q50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="R50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="S50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="T50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="U50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="V50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="W50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="X50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Y50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Z50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AA50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AB50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AC50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AD50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AE50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AF50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AG50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AH50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AI50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AK50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AL50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AM50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AN50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AO50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AP50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AR50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AS50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AT50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AU50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AV50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AW50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AX50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AY50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AZ50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BA50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BB50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BC50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BD50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BE50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BF50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BG50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BH50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BI50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BJ50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BK50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BL50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BM50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BN50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BO50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BP50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BQ50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BR50" t="n">
-        <v>1199.95</v>
+        <v>1319.95</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>1319.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00692501</t>
+          <t>PB00692502</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -11647,7 +11799,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -11663,7 +11815,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -11828,9 +11980,7 @@
       <c r="BJ51" t="n">
         <v>1319.95</v>
       </c>
-      <c r="BK51" t="n">
-        <v>1319.95</v>
-      </c>
+      <c r="BK51" t="inlineStr"/>
       <c r="BL51" t="n">
         <v>1319.95</v>
       </c>
@@ -11850,18 +12000,21 @@
         <v>1319.95</v>
       </c>
       <c r="BR51" t="n">
+        <v>1319.95</v>
+      </c>
+      <c r="BS51" t="n">
         <v>1319.95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00692502</t>
+          <t>PB00663118</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -11871,14 +12024,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -11887,203 +12040,208 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="J52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="K52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="L52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="M52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="N52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="O52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="P52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="R52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="S52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="U52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="V52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="W52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="X52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Y52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AA52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AB52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AC52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AD52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AE52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AF52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AG52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AH52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AI52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AK52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AL52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AM52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AN52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AO52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AP52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AR52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AS52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AT52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AU52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AV52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AW52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AX52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AY52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BA52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BB52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BC52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BD52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BE52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BF52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BG52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BH52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BI52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BJ52" t="n">
-        <v>1319.95</v>
-      </c>
-      <c r="BK52" t="inlineStr"/>
+        <v>1469.95</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1469.95</v>
+      </c>
       <c r="BL52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BM52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BN52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BO52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BP52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BQ52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BR52" t="n">
-        <v>1319.95</v>
+        <v>1469.95</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>1469.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00663118</t>
+          <t>PB00663117</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -12093,7 +12251,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -12109,7 +12267,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -12296,18 +12454,21 @@
         <v>1469.95</v>
       </c>
       <c r="BR53" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="BS53" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00663117</t>
+          <t>PB00663115</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -12333,7 +12494,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -12520,18 +12681,21 @@
         <v>1469.95</v>
       </c>
       <c r="BR54" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="BS54" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00663115</t>
+          <t>PB00663124</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -12541,7 +12705,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -12557,205 +12721,208 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="J55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="K55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="L55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="M55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="N55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="O55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="P55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Q55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="R55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="S55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="T55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="U55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="W55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="X55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Y55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Z55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AA55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AB55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AC55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AD55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AE55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AF55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AG55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AH55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AI55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AK55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AL55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AM55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AN55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AO55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AP55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AR55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AS55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AT55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AU55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AV55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AW55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AX55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AY55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AZ55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BA55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BB55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BC55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BD55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BE55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BF55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BG55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BH55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BI55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BJ55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BK55" t="n">
-        <v>1469.95</v>
+        <v>1139</v>
       </c>
       <c r="BL55" t="n">
-        <v>1469.95</v>
+        <v>1139</v>
       </c>
       <c r="BM55" t="n">
-        <v>1469.95</v>
+        <v>1139</v>
       </c>
       <c r="BN55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BO55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BP55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BQ55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BR55" t="n">
-        <v>1469.95</v>
+        <v>1589.95</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>1589.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00663124</t>
+          <t>PB00663120</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -12765,7 +12932,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -12781,7 +12948,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -12947,13 +13114,13 @@
         <v>1589.95</v>
       </c>
       <c r="BK56" t="n">
-        <v>1139</v>
+        <v>982</v>
       </c>
       <c r="BL56" t="n">
-        <v>1139</v>
+        <v>982</v>
       </c>
       <c r="BM56" t="n">
-        <v>1139</v>
+        <v>983</v>
       </c>
       <c r="BN56" t="n">
         <v>1589.95</v>
@@ -12968,18 +13135,21 @@
         <v>1589.95</v>
       </c>
       <c r="BR56" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="BS56" t="n">
         <v>1589.95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00663120</t>
+          <t>PB00663119</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -12989,7 +13159,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans 7/15 jours</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -13005,7 +13175,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -13171,13 +13341,13 @@
         <v>1589.95</v>
       </c>
       <c r="BK57" t="n">
-        <v>982</v>
+        <v>1589.95</v>
       </c>
       <c r="BL57" t="n">
-        <v>982</v>
+        <v>1589.95</v>
       </c>
       <c r="BM57" t="n">
-        <v>983</v>
+        <v>1589.95</v>
       </c>
       <c r="BN57" t="n">
         <v>1589.95</v>
@@ -13192,18 +13362,21 @@
         <v>1589.95</v>
       </c>
       <c r="BR57" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="BS57" t="n">
         <v>1589.95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00663119</t>
+          <t>PB00663128</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -13213,7 +13386,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock dans 7/15 jours</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -13229,205 +13402,208 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="J58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="K58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="L58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="M58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="N58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="O58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="P58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Q58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="R58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="S58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="T58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="U58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="V58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="W58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="X58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Y58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Z58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AA58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AB58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AC58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AD58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AE58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AF58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AG58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AH58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AI58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AK58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AL58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AM58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AN58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AO58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AP58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AR58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AS58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AT58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AU58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AV58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AW58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AX58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AY58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BA58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BB58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BC58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BD58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BE58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BF58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BG58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BH58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BI58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BJ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BK58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BL58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BM58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BN58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BO58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BP58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BQ58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BR58" t="n">
-        <v>1589.95</v>
+        <v>1829.95</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>1829.95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00663128</t>
+          <t>PB00663126</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -13437,7 +13613,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -13453,7 +13629,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -13640,18 +13816,21 @@
         <v>1829.95</v>
       </c>
       <c r="BR59" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="BS59" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00663126</t>
+          <t>PB00663125</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -13661,7 +13840,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -13677,7 +13856,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -13864,18 +14043,21 @@
         <v>1829.95</v>
       </c>
       <c r="BR60" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="BS60" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00663125</t>
+          <t>PB00627257</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -13885,221 +14067,220 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>10</v>
-      </c>
-      <c r="F61" t="n">
-        <v>14</v>
-      </c>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="J61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="K61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="L61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="M61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="N61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="O61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="P61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Q61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="R61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="S61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="T61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="U61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="V61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="W61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="X61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Y61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Z61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AA61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AB61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AC61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AD61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AE61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AF61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AG61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AH61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AI61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AK61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AL61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AM61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AN61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AO61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AP61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AR61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AS61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AT61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AU61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AV61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AW61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AX61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AY61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BA61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BB61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BC61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BD61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BE61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BF61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BG61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BH61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BI61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BJ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BK61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BL61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BM61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BN61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BO61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BP61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BQ61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BR61" t="n">
-        <v>1829.95</v>
+        <v>1999.95</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>1999.95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00627257</t>
+          <t>PB00627428</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -14121,7 +14302,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -14308,18 +14489,21 @@
         <v>1999.95</v>
       </c>
       <c r="BR62" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BS62" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00627428</t>
+          <t>PB00627255</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -14341,7 +14525,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -14528,18 +14712,21 @@
         <v>1999.95</v>
       </c>
       <c r="BR63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BS63" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00627255</t>
+          <t>PB00627256</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -14549,7 +14736,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -14561,7 +14748,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -14726,15 +14913,9 @@
       <c r="BJ64" t="n">
         <v>1999.95</v>
       </c>
-      <c r="BK64" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>1999.95</v>
-      </c>
+      <c r="BK64" t="inlineStr"/>
+      <c r="BL64" t="inlineStr"/>
+      <c r="BM64" t="inlineStr"/>
       <c r="BN64" t="n">
         <v>1999.95</v>
       </c>
@@ -14748,18 +14929,21 @@
         <v>1999.95</v>
       </c>
       <c r="BR64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BS64" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00627256</t>
+          <t>PB00692518</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -14769,211 +14953,220 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="J65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="K65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="L65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="M65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="N65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="O65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="P65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Q65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="R65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="S65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="T65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="U65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="V65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="W65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="X65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Y65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Z65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AA65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AB65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AC65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AD65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AE65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AF65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AG65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AH65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AI65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AJ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AK65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AL65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AM65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AN65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AO65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AP65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AR65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AS65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AT65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AU65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AV65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AW65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AX65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AY65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AZ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BA65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BB65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BC65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BD65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BE65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BF65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BG65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BH65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BI65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BJ65" t="n">
-        <v>1999.95</v>
-      </c>
-      <c r="BK65" t="inlineStr"/>
-      <c r="BL65" t="inlineStr"/>
-      <c r="BM65" t="inlineStr"/>
+        <v>2099.95</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2099.95</v>
+      </c>
       <c r="BN65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BO65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BP65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BQ65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BR65" t="n">
-        <v>1999.95</v>
+        <v>2099.95</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>2099.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00692518</t>
+          <t>PB00692520</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -14983,7 +15176,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -14995,7 +15188,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -15182,18 +15375,21 @@
         <v>2099.95</v>
       </c>
       <c r="BR66" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BS66" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00692520</t>
+          <t>PB00692519</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -15203,7 +15399,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -15215,7 +15411,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -15402,18 +15598,21 @@
         <v>2099.95</v>
       </c>
       <c r="BR67" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="BS67" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00692519</t>
+          <t>PB00627260</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -15423,217 +15622,220 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="J68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="K68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="L68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="M68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="N68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="O68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="P68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Q68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="R68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="S68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="T68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="U68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="V68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="W68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="X68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Z68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AA68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AB68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AC68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AD68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AE68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AF68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AG68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AH68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AI68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AK68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AL68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AM68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AN68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AO68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AP68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AR68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AS68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AT68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AU68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AV68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AW68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AX68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AY68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BA68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BB68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BC68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BD68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BE68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BF68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BG68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BH68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BI68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BJ68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BK68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BL68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BM68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BN68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BO68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BP68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BQ68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BR68" t="n">
-        <v>2099.95</v>
+        <v>2119.95</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>2119.95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00627260</t>
+          <t>PB00692521</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -15643,217 +15845,220 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="J69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="K69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="L69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="M69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="N69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="O69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="P69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Q69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="R69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="S69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="T69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="U69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="V69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="W69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="X69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Y69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Z69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AA69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AB69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AC69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AD69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AE69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AF69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AG69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AH69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AI69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AK69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AL69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AM69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AN69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AO69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AP69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AR69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AS69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AT69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AU69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AV69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AW69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AX69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AY69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AZ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BA69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BB69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BC69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BD69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BE69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BF69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BG69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BH69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BI69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BJ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BK69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BL69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BM69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BN69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BO69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BP69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BQ69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BR69" t="n">
-        <v>2119.95</v>
+        <v>2219.95</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>2219.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00692521</t>
+          <t>PB00692523</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -15863,7 +16068,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -15875,7 +16080,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -16062,18 +16267,21 @@
         <v>2219.95</v>
       </c>
       <c r="BR70" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="BS70" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00692523</t>
+          <t>PB00692522</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -16095,7 +16303,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -16282,18 +16490,21 @@
         <v>2219.95</v>
       </c>
       <c r="BR71" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="BS71" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00692522</t>
+          <t>PB00627265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -16310,210 +16521,213 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="J72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="K72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="L72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="M72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="N72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="O72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="P72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Q72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="R72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="S72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="T72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="U72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="V72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="W72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="X72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Y72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Z72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AA72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AB72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AC72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AD72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AE72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AF72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AG72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AH72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AI72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AK72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AL72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AM72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AN72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AO72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AP72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AR72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AS72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AT72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AU72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AV72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AW72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AX72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AY72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AZ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BA72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BB72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BC72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BD72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BE72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BF72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BG72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BH72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BI72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BJ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BK72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BL72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BM72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BN72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BO72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BP72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BQ72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BR72" t="n">
-        <v>2219.95</v>
+        <v>2359.95</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>2359.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00627265</t>
+          <t>PB00627263</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -16535,7 +16749,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -16722,18 +16936,21 @@
         <v>2359.95</v>
       </c>
       <c r="BR73" t="n">
+        <v>2359.95</v>
+      </c>
+      <c r="BS73" t="n">
         <v>2359.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00627263</t>
+          <t>PB00692525</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -16743,217 +16960,220 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="J74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="K74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="L74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="M74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="N74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="O74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="P74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Q74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="R74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="S74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="T74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="U74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="V74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="W74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="X74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Y74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="Z74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AA74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AB74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AC74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AD74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AE74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AF74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AG74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AH74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AI74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AK74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AL74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AM74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AN74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AO74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AP74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AR74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AS74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AT74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AU74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AV74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AW74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AX74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AY74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BA74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BB74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BC74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BD74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BE74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BF74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BG74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BH74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BI74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BJ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BK74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BL74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BM74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BN74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BO74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BP74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BQ74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
       </c>
       <c r="BR74" t="n">
-        <v>2359.95</v>
+        <v>2519.95</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>2519.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PB00692525</t>
+          <t>PB00692526</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -16963,7 +17183,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -16975,7 +17195,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -17162,18 +17382,21 @@
         <v>2519.95</v>
       </c>
       <c r="BR75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BS75" t="n">
         <v>2519.95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PB00692526</t>
+          <t>PB00662820</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -17183,11 +17406,15 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>14</v>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -17195,195 +17422,196 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662820.html</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="J76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="K76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="L76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="M76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="N76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="O76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="P76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="Q76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="R76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="S76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="T76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="U76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="V76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="W76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="X76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="Y76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="Z76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AA76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AB76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AC76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AD76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AE76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AF76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AG76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AH76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AI76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AJ76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AK76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AL76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AM76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AN76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AO76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AP76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AR76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AS76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AT76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AU76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AV76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AW76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AX76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AY76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="AZ76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BA76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BB76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BC76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BD76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BE76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BF76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BG76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BH76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BI76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BJ76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BK76" t="n">
-        <v>2519.95</v>
+        <v>647</v>
       </c>
       <c r="BL76" t="n">
-        <v>2519.95</v>
+        <v>647</v>
       </c>
       <c r="BM76" t="n">
-        <v>2519.95</v>
+        <v>647</v>
       </c>
       <c r="BN76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BO76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BP76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BQ76" t="n">
-        <v>2519.95</v>
+        <v>686</v>
       </c>
       <c r="BR76" t="n">
-        <v>2519.95</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="BS76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS76"/>
+  <dimension ref="A1:BT76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,6 +777,11 @@
           <t>2026-02-19 05:56:00</t>
         </is>
       </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>2026-02-19 06:55:15</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1000,6 +1005,9 @@
       <c r="BS2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BT2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1223,6 +1231,9 @@
       <c r="BS3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BT3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1446,6 +1457,9 @@
       <c r="BS4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BT4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1673,6 +1687,9 @@
       <c r="BS5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BT5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1900,6 +1917,9 @@
       <c r="BS6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BT6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2127,6 +2147,9 @@
       <c r="BS7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BT7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2354,6 +2377,9 @@
       <c r="BS8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BT8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2581,6 +2607,9 @@
       <c r="BS9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BT9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2808,6 +2837,9 @@
       <c r="BS10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BT10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3031,6 +3063,9 @@
       <c r="BS11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BT11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3254,6 +3289,9 @@
       <c r="BS12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BT12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3477,6 +3515,9 @@
       <c r="BS13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BT13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3704,6 +3745,9 @@
       <c r="BS14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BT14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3927,6 +3971,9 @@
       <c r="BS15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BT15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4150,6 +4197,9 @@
       <c r="BS16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BT16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4373,6 +4423,9 @@
       <c r="BS17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BT17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4596,6 +4649,9 @@
       <c r="BS18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BT18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4819,6 +4875,9 @@
       <c r="BS19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BT19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5042,6 +5101,9 @@
       <c r="BS20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BT20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5265,6 +5327,9 @@
       <c r="BS21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BT21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5488,6 +5553,9 @@
       <c r="BS22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BT22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5711,6 +5779,9 @@
       <c r="BS23" t="n">
         <v>749.95</v>
       </c>
+      <c r="BT23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5934,6 +6005,9 @@
       <c r="BS24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BT24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6157,6 +6231,9 @@
       <c r="BS25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BT25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6380,6 +6457,9 @@
       <c r="BS26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BT26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6603,6 +6683,9 @@
       <c r="BS27" t="n">
         <v>809.95</v>
       </c>
+      <c r="BT27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6826,6 +6909,9 @@
       <c r="BS28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BT28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7049,6 +7135,9 @@
       <c r="BS29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BT29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7276,6 +7365,9 @@
       <c r="BS30" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7503,6 +7595,9 @@
       <c r="BS31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7730,6 +7825,9 @@
       <c r="BS32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7957,6 +8055,9 @@
       <c r="BS33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8180,6 +8281,9 @@
       <c r="BS34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8403,6 +8507,9 @@
       <c r="BS35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BT35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8626,6 +8733,9 @@
       <c r="BS36" t="n">
         <v>929.95</v>
       </c>
+      <c r="BT36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8849,6 +8959,9 @@
       <c r="BS37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BT37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9072,6 +9185,9 @@
       <c r="BS38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BT38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9295,6 +9411,9 @@
       <c r="BS39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BT39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9522,6 +9641,9 @@
       <c r="BS40" t="n">
         <v>959.95</v>
       </c>
+      <c r="BT40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9745,6 +9867,9 @@
       <c r="BS41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BT41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9968,6 +10093,9 @@
       <c r="BS42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BT42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10195,6 +10323,9 @@
       <c r="BS43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BT43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10422,6 +10553,9 @@
       <c r="BS44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BT44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10645,6 +10779,9 @@
       <c r="BS45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BT45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10872,6 +11009,9 @@
       <c r="BS46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BT46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11099,6 +11239,9 @@
       <c r="BS47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BT47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11326,6 +11469,9 @@
       <c r="BS48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BT48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11553,6 +11699,9 @@
       <c r="BS49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BT49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11780,6 +11929,9 @@
       <c r="BS50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BT50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12005,6 +12157,9 @@
       <c r="BS51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BT51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12232,6 +12387,9 @@
       <c r="BS52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BT52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12459,6 +12617,9 @@
       <c r="BS53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BT53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12686,6 +12847,9 @@
       <c r="BS54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BT54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12913,6 +13077,9 @@
       <c r="BS55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BT55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13140,6 +13307,9 @@
       <c r="BS56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BT56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13367,6 +13537,9 @@
       <c r="BS57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BT57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13594,6 +13767,9 @@
       <c r="BS58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BT58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13821,6 +13997,9 @@
       <c r="BS59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BT59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14048,6 +14227,9 @@
       <c r="BS60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BT60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14271,6 +14453,9 @@
       <c r="BS61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BT61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14494,6 +14679,9 @@
       <c r="BS62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BT62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14715,6 +14903,9 @@
         <v>1999.95</v>
       </c>
       <c r="BS63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BT63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -14934,6 +15125,9 @@
       <c r="BS64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BT64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15157,6 +15351,9 @@
       <c r="BS65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BT65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15380,6 +15577,9 @@
       <c r="BS66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BT66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15603,6 +15803,9 @@
       <c r="BS67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BT67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15826,6 +16029,9 @@
       <c r="BS68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BT68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16049,6 +16255,9 @@
       <c r="BS69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BT69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16272,6 +16481,9 @@
       <c r="BS70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BT70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16495,6 +16707,9 @@
       <c r="BS71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BT71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16718,6 +16933,9 @@
       <c r="BS72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BT72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16941,6 +17159,9 @@
       <c r="BS73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BT73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17164,6 +17385,9 @@
       <c r="BS74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BT74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17387,6 +17611,9 @@
       <c r="BS75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BT75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17612,6 +17839,7 @@
         <v>686</v>
       </c>
       <c r="BS76" t="inlineStr"/>
+      <c r="BT76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT76"/>
+  <dimension ref="A1:BU76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>2026-02-19 06:55:15</t>
         </is>
       </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>2026-02-19 07:46:43</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1008,6 +1013,9 @@
       <c r="BT2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BU2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1234,6 +1242,9 @@
       <c r="BT3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BU3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1460,6 +1471,9 @@
       <c r="BT4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BU4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1690,6 +1704,9 @@
       <c r="BT5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BU5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1920,6 +1937,9 @@
       <c r="BT6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BU6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2150,6 +2170,9 @@
       <c r="BT7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BU7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2380,6 +2403,9 @@
       <c r="BT8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BU8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2610,6 +2636,9 @@
       <c r="BT9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BU9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2840,6 +2869,9 @@
       <c r="BT10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BU10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3066,6 +3098,9 @@
       <c r="BT11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BU11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3292,6 +3327,9 @@
       <c r="BT12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BU12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3518,6 +3556,9 @@
       <c r="BT13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BU13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3748,6 +3789,9 @@
       <c r="BT14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BU14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3974,6 +4018,9 @@
       <c r="BT15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BU15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4200,6 +4247,9 @@
       <c r="BT16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BU16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4426,6 +4476,9 @@
       <c r="BT17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BU17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4652,6 +4705,9 @@
       <c r="BT18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BU18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4878,6 +4934,9 @@
       <c r="BT19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BU19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5104,6 +5163,9 @@
       <c r="BT20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BU20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5330,6 +5392,9 @@
       <c r="BT21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BU21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5556,6 +5621,9 @@
       <c r="BT22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BU22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5782,6 +5850,9 @@
       <c r="BT23" t="n">
         <v>749.95</v>
       </c>
+      <c r="BU23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6008,6 +6079,9 @@
       <c r="BT24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BU24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6234,6 +6308,9 @@
       <c r="BT25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BU25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6460,6 +6537,9 @@
       <c r="BT26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BU26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6686,6 +6766,9 @@
       <c r="BT27" t="n">
         <v>809.95</v>
       </c>
+      <c r="BU27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6912,6 +6995,9 @@
       <c r="BT28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BU28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7138,6 +7224,9 @@
       <c r="BT29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BU29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7368,6 +7457,9 @@
       <c r="BT30" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7598,6 +7690,9 @@
       <c r="BT31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7828,6 +7923,9 @@
       <c r="BT32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8058,6 +8156,9 @@
       <c r="BT33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8284,6 +8385,9 @@
       <c r="BT34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8510,6 +8614,9 @@
       <c r="BT35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BU35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8736,6 +8843,9 @@
       <c r="BT36" t="n">
         <v>929.95</v>
       </c>
+      <c r="BU36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8962,6 +9072,9 @@
       <c r="BT37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BU37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9188,6 +9301,9 @@
       <c r="BT38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BU38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9414,6 +9530,9 @@
       <c r="BT39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BU39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9644,6 +9763,9 @@
       <c r="BT40" t="n">
         <v>959.95</v>
       </c>
+      <c r="BU40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9870,6 +9992,9 @@
       <c r="BT41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BU41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10096,6 +10221,9 @@
       <c r="BT42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BU42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10326,6 +10454,9 @@
       <c r="BT43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BU43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10556,6 +10687,9 @@
       <c r="BT44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BU44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10782,6 +10916,9 @@
       <c r="BT45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BU45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11012,6 +11149,9 @@
       <c r="BT46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BU46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11242,6 +11382,9 @@
       <c r="BT47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BU47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11472,6 +11615,9 @@
       <c r="BT48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BU48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11702,6 +11848,9 @@
       <c r="BT49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BU49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11932,6 +12081,9 @@
       <c r="BT50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BU50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12160,6 +12312,9 @@
       <c r="BT51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BU51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12390,6 +12545,9 @@
       <c r="BT52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BU52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12620,6 +12778,9 @@
       <c r="BT53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BU53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12850,6 +13011,9 @@
       <c r="BT54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BU54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13080,6 +13244,9 @@
       <c r="BT55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BU55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13310,6 +13477,9 @@
       <c r="BT56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BU56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13540,6 +13710,9 @@
       <c r="BT57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BU57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13770,6 +13943,9 @@
       <c r="BT58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BU58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14000,6 +14176,9 @@
       <c r="BT59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BU59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14230,6 +14409,9 @@
       <c r="BT60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BU60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14456,6 +14638,9 @@
       <c r="BT61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BU61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14682,6 +14867,9 @@
       <c r="BT62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BU62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14906,6 +15094,9 @@
         <v>1999.95</v>
       </c>
       <c r="BT63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BU63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -15128,6 +15319,9 @@
       <c r="BT64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BU64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15354,6 +15548,9 @@
       <c r="BT65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BU65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15580,6 +15777,9 @@
       <c r="BT66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BU66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15806,6 +16006,9 @@
       <c r="BT67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BU67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16032,6 +16235,9 @@
       <c r="BT68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BU68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16258,6 +16464,9 @@
       <c r="BT69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BU69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16484,6 +16693,9 @@
       <c r="BT70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BU70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16710,6 +16922,9 @@
       <c r="BT71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BU71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16936,6 +17151,9 @@
       <c r="BT72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BU72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17162,6 +17380,9 @@
       <c r="BT73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BU73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17388,6 +17609,9 @@
       <c r="BT74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BU74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17614,6 +17838,9 @@
       <c r="BT75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BU75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17840,6 +18067,7 @@
       </c>
       <c r="BS76" t="inlineStr"/>
       <c r="BT76" t="inlineStr"/>
+      <c r="BU76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU76"/>
+  <dimension ref="A1:BV76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,6 +787,11 @@
           <t>2026-02-19 07:46:43</t>
         </is>
       </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>2026-02-19 08:37:55</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1016,6 +1021,9 @@
       <c r="BU2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BV2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1245,6 +1253,9 @@
       <c r="BU3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BV3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1474,6 +1485,9 @@
       <c r="BU4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BV4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1707,6 +1721,9 @@
       <c r="BU5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BV5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1940,6 +1957,9 @@
       <c r="BU6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BV6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2173,6 +2193,9 @@
       <c r="BU7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BV7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2406,6 +2429,9 @@
       <c r="BU8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BV8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2639,6 +2665,9 @@
       <c r="BU9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BV9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2872,6 +2901,9 @@
       <c r="BU10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BV10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3101,6 +3133,9 @@
       <c r="BU11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BV11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3330,6 +3365,9 @@
       <c r="BU12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BV12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3559,6 +3597,9 @@
       <c r="BU13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BV13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3792,6 +3833,9 @@
       <c r="BU14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BV14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4021,6 +4065,9 @@
       <c r="BU15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BV15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4250,6 +4297,9 @@
       <c r="BU16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BV16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4479,6 +4529,9 @@
       <c r="BU17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BV17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4708,6 +4761,9 @@
       <c r="BU18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BV18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4937,6 +4993,9 @@
       <c r="BU19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BV19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5166,6 +5225,9 @@
       <c r="BU20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BV20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5395,6 +5457,9 @@
       <c r="BU21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BV21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5624,6 +5689,9 @@
       <c r="BU22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BV22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5853,6 +5921,9 @@
       <c r="BU23" t="n">
         <v>749.95</v>
       </c>
+      <c r="BV23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6082,6 +6153,9 @@
       <c r="BU24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BV24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6311,6 +6385,9 @@
       <c r="BU25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BV25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6540,6 +6617,9 @@
       <c r="BU26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BV26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6769,6 +6849,9 @@
       <c r="BU27" t="n">
         <v>809.95</v>
       </c>
+      <c r="BV27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6998,6 +7081,9 @@
       <c r="BU28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BV28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7227,6 +7313,9 @@
       <c r="BU29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BV29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7460,6 +7549,9 @@
       <c r="BU30" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7693,6 +7785,9 @@
       <c r="BU31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7926,6 +8021,9 @@
       <c r="BU32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8159,6 +8257,9 @@
       <c r="BU33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8388,6 +8489,9 @@
       <c r="BU34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8617,6 +8721,9 @@
       <c r="BU35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BV35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8846,6 +8953,9 @@
       <c r="BU36" t="n">
         <v>929.95</v>
       </c>
+      <c r="BV36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9075,6 +9185,9 @@
       <c r="BU37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BV37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9304,6 +9417,9 @@
       <c r="BU38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BV38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9533,6 +9649,9 @@
       <c r="BU39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BV39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9766,6 +9885,9 @@
       <c r="BU40" t="n">
         <v>959.95</v>
       </c>
+      <c r="BV40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9995,6 +10117,9 @@
       <c r="BU41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BV41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10224,6 +10349,9 @@
       <c r="BU42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BV42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10457,6 +10585,9 @@
       <c r="BU43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BV43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10690,6 +10821,9 @@
       <c r="BU44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BV44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10919,6 +11053,9 @@
       <c r="BU45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BV45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11152,6 +11289,9 @@
       <c r="BU46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BV46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11385,6 +11525,9 @@
       <c r="BU47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BV47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11618,6 +11761,9 @@
       <c r="BU48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BV48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11851,6 +11997,9 @@
       <c r="BU49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BV49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12084,6 +12233,9 @@
       <c r="BU50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BV50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12315,6 +12467,9 @@
       <c r="BU51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BV51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12548,6 +12703,9 @@
       <c r="BU52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BV52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12781,6 +12939,9 @@
       <c r="BU53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BV53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13014,6 +13175,9 @@
       <c r="BU54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BV54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13247,6 +13411,9 @@
       <c r="BU55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BV55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13480,6 +13647,9 @@
       <c r="BU56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BV56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13713,6 +13883,9 @@
       <c r="BU57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BV57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13946,6 +14119,9 @@
       <c r="BU58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BV58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14179,6 +14355,9 @@
       <c r="BU59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BV59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14412,6 +14591,9 @@
       <c r="BU60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BV60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14438,7 +14620,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>listing</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -14639,6 +14821,9 @@
         <v>1999.95</v>
       </c>
       <c r="BU61" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BV61" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -14870,6 +15055,9 @@
       <c r="BU62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BV62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15097,6 +15285,9 @@
         <v>1999.95</v>
       </c>
       <c r="BU63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BV63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -15322,6 +15513,9 @@
       <c r="BU64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BV64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15551,6 +15745,9 @@
       <c r="BU65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BV65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15780,6 +15977,9 @@
       <c r="BU66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BV66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16009,6 +16209,9 @@
       <c r="BU67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BV67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16238,6 +16441,9 @@
       <c r="BU68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BV68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16467,6 +16673,9 @@
       <c r="BU69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BV69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16696,6 +16905,9 @@
       <c r="BU70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BV70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16925,6 +17137,9 @@
       <c r="BU71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BV71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17154,6 +17369,9 @@
       <c r="BU72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BV72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17383,6 +17601,9 @@
       <c r="BU73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BV73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17612,6 +17833,9 @@
       <c r="BU74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BV74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17841,6 +18065,9 @@
       <c r="BU75" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BV75" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18068,6 +18295,7 @@
       <c r="BS76" t="inlineStr"/>
       <c r="BT76" t="inlineStr"/>
       <c r="BU76" t="inlineStr"/>
+      <c r="BV76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV76"/>
+  <dimension ref="A1:BW76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,6 +792,11 @@
           <t>2026-02-19 08:37:55</t>
         </is>
       </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>2026-02-19 10:38:22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1024,6 +1029,9 @@
       <c r="BV2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BW2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1256,6 +1264,9 @@
       <c r="BV3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BW3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1488,6 +1499,9 @@
       <c r="BV4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BW4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1724,6 +1738,9 @@
       <c r="BV5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BW5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1960,6 +1977,9 @@
       <c r="BV6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BW6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2196,6 +2216,9 @@
       <c r="BV7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BW7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2432,6 +2455,9 @@
       <c r="BV8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BW8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2668,6 +2694,9 @@
       <c r="BV9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BW9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2904,6 +2933,9 @@
       <c r="BV10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BW10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3136,6 +3168,9 @@
       <c r="BV11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BW11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3368,6 +3403,9 @@
       <c r="BV12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BW12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3600,6 +3638,9 @@
       <c r="BV13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BW13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3836,6 +3877,9 @@
       <c r="BV14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BW14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4068,6 +4112,9 @@
       <c r="BV15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BW15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4300,6 +4347,9 @@
       <c r="BV16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BW16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4532,6 +4582,9 @@
       <c r="BV17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BW17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4764,6 +4817,9 @@
       <c r="BV18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BW18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4996,6 +5052,9 @@
       <c r="BV19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BW19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5228,6 +5287,9 @@
       <c r="BV20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BW20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5460,6 +5522,9 @@
       <c r="BV21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BW21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5692,6 +5757,9 @@
       <c r="BV22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BW22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5924,6 +5992,9 @@
       <c r="BV23" t="n">
         <v>749.95</v>
       </c>
+      <c r="BW23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6156,6 +6227,9 @@
       <c r="BV24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BW24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6388,6 +6462,9 @@
       <c r="BV25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BW25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6620,6 +6697,9 @@
       <c r="BV26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BW26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6852,6 +6932,9 @@
       <c r="BV27" t="n">
         <v>809.95</v>
       </c>
+      <c r="BW27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7084,6 +7167,9 @@
       <c r="BV28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BW28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7316,6 +7402,9 @@
       <c r="BV29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BW29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7552,6 +7641,9 @@
       <c r="BV30" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7788,6 +7880,9 @@
       <c r="BV31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8024,6 +8119,9 @@
       <c r="BV32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8260,6 +8358,9 @@
       <c r="BV33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8492,6 +8593,9 @@
       <c r="BV34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8724,6 +8828,9 @@
       <c r="BV35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BW35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8956,6 +9063,9 @@
       <c r="BV36" t="n">
         <v>929.95</v>
       </c>
+      <c r="BW36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9188,6 +9298,9 @@
       <c r="BV37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BW37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9420,6 +9533,9 @@
       <c r="BV38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BW38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9652,6 +9768,9 @@
       <c r="BV39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BW39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9888,6 +10007,9 @@
       <c r="BV40" t="n">
         <v>959.95</v>
       </c>
+      <c r="BW40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10120,6 +10242,9 @@
       <c r="BV41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BW41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10352,6 +10477,9 @@
       <c r="BV42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BW42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10588,6 +10716,9 @@
       <c r="BV43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BW43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10824,6 +10955,9 @@
       <c r="BV44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BW44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11056,6 +11190,9 @@
       <c r="BV45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BW45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11292,6 +11429,9 @@
       <c r="BV46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BW46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11528,6 +11668,9 @@
       <c r="BV47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BW47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11764,6 +11907,9 @@
       <c r="BV48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BW48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12000,6 +12146,9 @@
       <c r="BV49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BW49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12236,6 +12385,9 @@
       <c r="BV50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BW50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12470,6 +12622,9 @@
       <c r="BV51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BW51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12706,6 +12861,9 @@
       <c r="BV52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BW52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12942,6 +13100,9 @@
       <c r="BV53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BW53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13178,6 +13339,9 @@
       <c r="BV54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BW54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13414,6 +13578,9 @@
       <c r="BV55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BW55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13650,6 +13817,9 @@
       <c r="BV56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BW56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13886,6 +14056,9 @@
       <c r="BV57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BW57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14122,6 +14295,9 @@
       <c r="BV58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BW58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14358,6 +14534,9 @@
       <c r="BV59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BW59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14594,6 +14773,9 @@
       <c r="BV60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BW60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14826,6 +15008,9 @@
       <c r="BV61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BW61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15058,6 +15243,9 @@
       <c r="BV62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BW62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15288,6 +15476,9 @@
         <v>1999.95</v>
       </c>
       <c r="BV63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BW63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -15516,6 +15707,9 @@
       <c r="BV64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BW64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15748,6 +15942,9 @@
       <c r="BV65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BW65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15980,6 +16177,9 @@
       <c r="BV66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BW66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16212,6 +16412,9 @@
       <c r="BV67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BW67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16444,6 +16647,9 @@
       <c r="BV68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BW68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16676,6 +16882,9 @@
       <c r="BV69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BW69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16908,6 +17117,9 @@
       <c r="BV70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BW70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17140,6 +17352,9 @@
       <c r="BV71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BW71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17372,6 +17587,9 @@
       <c r="BV72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BW72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17604,6 +17822,9 @@
       <c r="BV73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BW73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17836,6 +18057,9 @@
       <c r="BV74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BW74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18066,6 +18290,9 @@
         <v>2519.95</v>
       </c>
       <c r="BV75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BW75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -18296,6 +18523,7 @@
       <c r="BT76" t="inlineStr"/>
       <c r="BU76" t="inlineStr"/>
       <c r="BV76" t="inlineStr"/>
+      <c r="BW76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW76"/>
+  <dimension ref="A1:BX76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,6 +797,11 @@
           <t>2026-02-19 10:38:22</t>
         </is>
       </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>2026-02-19 11:35:28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1032,6 +1037,9 @@
       <c r="BW2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BX2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1267,6 +1275,9 @@
       <c r="BW3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BX3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1502,6 +1513,9 @@
       <c r="BW4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BX4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1741,6 +1755,9 @@
       <c r="BW5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BX5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1980,6 +1997,9 @@
       <c r="BW6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BX6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2219,6 +2239,9 @@
       <c r="BW7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BX7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2458,6 +2481,9 @@
       <c r="BW8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BX8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2697,6 +2723,9 @@
       <c r="BW9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BX9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2936,6 +2965,9 @@
       <c r="BW10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BX10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3171,6 +3203,9 @@
       <c r="BW11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BX11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3406,6 +3441,9 @@
       <c r="BW12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BX12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3641,6 +3679,9 @@
       <c r="BW13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BX13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3880,6 +3921,9 @@
       <c r="BW14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BX14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4115,6 +4159,9 @@
       <c r="BW15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BX15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4350,6 +4397,9 @@
       <c r="BW16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BX16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4585,6 +4635,9 @@
       <c r="BW17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BX17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4820,6 +4873,9 @@
       <c r="BW18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BX18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5055,6 +5111,9 @@
       <c r="BW19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BX19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5290,6 +5349,9 @@
       <c r="BW20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BX20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5525,6 +5587,9 @@
       <c r="BW21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BX21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5760,6 +5825,9 @@
       <c r="BW22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BX22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5995,6 +6063,9 @@
       <c r="BW23" t="n">
         <v>749.95</v>
       </c>
+      <c r="BX23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6230,6 +6301,9 @@
       <c r="BW24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BX24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6465,6 +6539,9 @@
       <c r="BW25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BX25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6700,6 +6777,9 @@
       <c r="BW26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BX26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6935,6 +7015,9 @@
       <c r="BW27" t="n">
         <v>809.95</v>
       </c>
+      <c r="BX27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7170,6 +7253,9 @@
       <c r="BW28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BX28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7405,6 +7491,9 @@
       <c r="BW29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BX29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7644,6 +7733,9 @@
       <c r="BW30" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7883,6 +7975,9 @@
       <c r="BW31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8122,6 +8217,9 @@
       <c r="BW32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8361,6 +8459,9 @@
       <c r="BW33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8596,6 +8697,9 @@
       <c r="BW34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8831,6 +8935,9 @@
       <c r="BW35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BX35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9066,6 +9173,9 @@
       <c r="BW36" t="n">
         <v>929.95</v>
       </c>
+      <c r="BX36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9301,6 +9411,9 @@
       <c r="BW37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BX37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9536,6 +9649,9 @@
       <c r="BW38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BX38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9771,6 +9887,9 @@
       <c r="BW39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BX39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10010,6 +10129,9 @@
       <c r="BW40" t="n">
         <v>959.95</v>
       </c>
+      <c r="BX40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10245,6 +10367,9 @@
       <c r="BW41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BX41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10480,6 +10605,9 @@
       <c r="BW42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BX42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10719,6 +10847,9 @@
       <c r="BW43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BX43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10958,6 +11089,9 @@
       <c r="BW44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BX44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11193,6 +11327,9 @@
       <c r="BW45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BX45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11432,6 +11569,9 @@
       <c r="BW46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BX46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11671,6 +11811,9 @@
       <c r="BW47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BX47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11910,6 +12053,9 @@
       <c r="BW48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BX48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12149,6 +12295,9 @@
       <c r="BW49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BX49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12388,6 +12537,9 @@
       <c r="BW50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BX50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12625,6 +12777,9 @@
       <c r="BW51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BX51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12864,6 +13019,9 @@
       <c r="BW52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BX52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13103,6 +13261,9 @@
       <c r="BW53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BX53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13342,6 +13503,9 @@
       <c r="BW54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BX54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13581,6 +13745,9 @@
       <c r="BW55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BX55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13820,6 +13987,9 @@
       <c r="BW56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BX56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14059,6 +14229,9 @@
       <c r="BW57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BX57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14298,6 +14471,9 @@
       <c r="BW58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BX58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14537,6 +14713,9 @@
       <c r="BW59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BX59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14776,6 +14955,9 @@
       <c r="BW60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BX60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15011,6 +15193,9 @@
       <c r="BW61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BX61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15246,6 +15431,9 @@
       <c r="BW62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BX62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15479,6 +15667,9 @@
         <v>1999.95</v>
       </c>
       <c r="BW63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BX63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -15710,6 +15901,9 @@
       <c r="BW64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BX64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15945,6 +16139,9 @@
       <c r="BW65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BX65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16180,6 +16377,9 @@
       <c r="BW66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BX66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16415,6 +16615,9 @@
       <c r="BW67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BX67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16650,6 +16853,9 @@
       <c r="BW68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BX68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -16885,6 +17091,9 @@
       <c r="BW69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BX69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17120,6 +17329,9 @@
       <c r="BW70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BX70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17355,6 +17567,9 @@
       <c r="BW71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BX71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17590,6 +17805,9 @@
       <c r="BW72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BX72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17825,6 +18043,9 @@
       <c r="BW73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BX73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18060,6 +18281,9 @@
       <c r="BW74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BX74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18293,6 +18517,9 @@
         <v>2519.95</v>
       </c>
       <c r="BW75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BX75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -18524,6 +18751,7 @@
       <c r="BU76" t="inlineStr"/>
       <c r="BV76" t="inlineStr"/>
       <c r="BW76" t="inlineStr"/>
+      <c r="BX76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX76"/>
+  <dimension ref="A1:BY76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,6 +802,11 @@
           <t>2026-02-19 11:35:28</t>
         </is>
       </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>2026-02-19 12:53:26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1040,6 +1045,9 @@
       <c r="BX2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BY2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1278,6 +1286,9 @@
       <c r="BX3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BY3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1516,6 +1527,9 @@
       <c r="BX4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BY4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1758,6 +1772,9 @@
       <c r="BX5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BY5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2000,6 +2017,9 @@
       <c r="BX6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BY6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2242,6 +2262,9 @@
       <c r="BX7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BY7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2484,6 +2507,9 @@
       <c r="BX8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BY8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2726,6 +2752,9 @@
       <c r="BX9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BY9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2968,6 +2997,9 @@
       <c r="BX10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BY10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3206,6 +3238,9 @@
       <c r="BX11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BY11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3444,6 +3479,9 @@
       <c r="BX12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BY12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3682,6 +3720,9 @@
       <c r="BX13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BY13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3924,6 +3965,9 @@
       <c r="BX14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BY14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4162,6 +4206,9 @@
       <c r="BX15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BY15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4400,6 +4447,9 @@
       <c r="BX16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BY16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4638,6 +4688,9 @@
       <c r="BX17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BY17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4876,6 +4929,9 @@
       <c r="BX18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BY18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5114,6 +5170,9 @@
       <c r="BX19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BY19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5352,6 +5411,9 @@
       <c r="BX20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BY20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5590,6 +5652,9 @@
       <c r="BX21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BY21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5828,6 +5893,9 @@
       <c r="BX22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BY22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6066,6 +6134,9 @@
       <c r="BX23" t="n">
         <v>749.95</v>
       </c>
+      <c r="BY23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6304,6 +6375,9 @@
       <c r="BX24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BY24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6542,6 +6616,9 @@
       <c r="BX25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BY25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6780,6 +6857,9 @@
       <c r="BX26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BY26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7018,6 +7098,9 @@
       <c r="BX27" t="n">
         <v>809.95</v>
       </c>
+      <c r="BY27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7256,6 +7339,9 @@
       <c r="BX28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BY28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7494,6 +7580,9 @@
       <c r="BX29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BY29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7736,6 +7825,9 @@
       <c r="BX30" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7978,6 +8070,9 @@
       <c r="BX31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8220,6 +8315,9 @@
       <c r="BX32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8462,6 +8560,9 @@
       <c r="BX33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8700,6 +8801,9 @@
       <c r="BX34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8938,6 +9042,9 @@
       <c r="BX35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BY35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9176,6 +9283,9 @@
       <c r="BX36" t="n">
         <v>929.95</v>
       </c>
+      <c r="BY36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9414,6 +9524,9 @@
       <c r="BX37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BY37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9652,6 +9765,9 @@
       <c r="BX38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BY38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9890,6 +10006,9 @@
       <c r="BX39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BY39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10132,6 +10251,9 @@
       <c r="BX40" t="n">
         <v>959.95</v>
       </c>
+      <c r="BY40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10370,6 +10492,9 @@
       <c r="BX41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BY41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10608,6 +10733,9 @@
       <c r="BX42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BY42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10850,6 +10978,9 @@
       <c r="BX43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BY43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11092,6 +11223,9 @@
       <c r="BX44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BY44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11330,6 +11464,9 @@
       <c r="BX45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BY45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11572,6 +11709,9 @@
       <c r="BX46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BY46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11814,6 +11954,9 @@
       <c r="BX47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BY47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12056,6 +12199,9 @@
       <c r="BX48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BY48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12298,6 +12444,9 @@
       <c r="BX49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BY49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12540,6 +12689,9 @@
       <c r="BX50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BY50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12780,6 +12932,9 @@
       <c r="BX51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BY51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13022,6 +13177,9 @@
       <c r="BX52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BY52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13264,6 +13422,9 @@
       <c r="BX53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BY53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13506,6 +13667,9 @@
       <c r="BX54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BY54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13748,6 +13912,9 @@
       <c r="BX55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BY55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13990,6 +14157,9 @@
       <c r="BX56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BY56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14232,6 +14402,9 @@
       <c r="BX57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BY57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14474,6 +14647,9 @@
       <c r="BX58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BY58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14716,6 +14892,9 @@
       <c r="BX59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BY59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -14958,6 +15137,9 @@
       <c r="BX60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BY60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15196,6 +15378,9 @@
       <c r="BX61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BY61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15434,6 +15619,9 @@
       <c r="BX62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BY62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15670,6 +15858,9 @@
         <v>1999.95</v>
       </c>
       <c r="BX63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BY63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -15904,6 +16095,9 @@
       <c r="BX64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BY64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16142,6 +16336,9 @@
       <c r="BX65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BY65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16380,6 +16577,9 @@
       <c r="BX66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BY66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16618,6 +16818,9 @@
       <c r="BX67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BY67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -16856,6 +17059,9 @@
       <c r="BX68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BY68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17094,6 +17300,9 @@
       <c r="BX69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BY69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17332,6 +17541,9 @@
       <c r="BX70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BY70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17570,6 +17782,9 @@
       <c r="BX71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BY71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17808,6 +18023,9 @@
       <c r="BX72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BY72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18046,6 +18264,9 @@
       <c r="BX73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BY73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18284,6 +18505,9 @@
       <c r="BX74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BY74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18520,6 +18744,9 @@
         <v>2519.95</v>
       </c>
       <c r="BX75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BY75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -18752,6 +18979,7 @@
       <c r="BV76" t="inlineStr"/>
       <c r="BW76" t="inlineStr"/>
       <c r="BX76" t="inlineStr"/>
+      <c r="BY76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY76"/>
+  <dimension ref="A1:BZ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,6 +807,11 @@
           <t>2026-02-19 12:53:26</t>
         </is>
       </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>2026-02-19 14:07:04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1048,6 +1053,9 @@
       <c r="BY2" t="n">
         <v>169.95</v>
       </c>
+      <c r="BZ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1289,6 +1297,9 @@
       <c r="BY3" t="n">
         <v>169.95</v>
       </c>
+      <c r="BZ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1530,6 +1541,9 @@
       <c r="BY4" t="n">
         <v>169.95</v>
       </c>
+      <c r="BZ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1775,6 +1789,9 @@
       <c r="BY5" t="n">
         <v>199.95</v>
       </c>
+      <c r="BZ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2020,6 +2037,9 @@
       <c r="BY6" t="n">
         <v>199.95</v>
       </c>
+      <c r="BZ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2265,6 +2285,9 @@
       <c r="BY7" t="n">
         <v>199.95</v>
       </c>
+      <c r="BZ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2510,6 +2533,9 @@
       <c r="BY8" t="n">
         <v>229.95</v>
       </c>
+      <c r="BZ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2755,6 +2781,9 @@
       <c r="BY9" t="n">
         <v>229.95</v>
       </c>
+      <c r="BZ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3000,6 +3029,9 @@
       <c r="BY10" t="n">
         <v>229.95</v>
       </c>
+      <c r="BZ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3241,6 +3273,9 @@
       <c r="BY11" t="n">
         <v>294.95</v>
       </c>
+      <c r="BZ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3482,6 +3517,9 @@
       <c r="BY12" t="n">
         <v>318.95</v>
       </c>
+      <c r="BZ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3723,6 +3761,9 @@
       <c r="BY13" t="n">
         <v>318.95</v>
       </c>
+      <c r="BZ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3968,6 +4009,9 @@
       <c r="BY14" t="n">
         <v>339.95</v>
       </c>
+      <c r="BZ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4209,6 +4253,9 @@
       <c r="BY15" t="n">
         <v>399.95</v>
       </c>
+      <c r="BZ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4228,7 +4275,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -4450,6 +4497,9 @@
       <c r="BY16" t="n">
         <v>399.95</v>
       </c>
+      <c r="BZ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4691,6 +4741,9 @@
       <c r="BY17" t="n">
         <v>429.95</v>
       </c>
+      <c r="BZ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4932,6 +4985,9 @@
       <c r="BY18" t="n">
         <v>499.95</v>
       </c>
+      <c r="BZ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5173,6 +5229,9 @@
       <c r="BY19" t="n">
         <v>499.95</v>
       </c>
+      <c r="BZ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5414,6 +5473,9 @@
       <c r="BY20" t="n">
         <v>499.95</v>
       </c>
+      <c r="BZ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5655,6 +5717,9 @@
       <c r="BY21" t="n">
         <v>499.95</v>
       </c>
+      <c r="BZ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5896,6 +5961,9 @@
       <c r="BY22" t="n">
         <v>519.95</v>
       </c>
+      <c r="BZ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6137,6 +6205,9 @@
       <c r="BY23" t="n">
         <v>749.95</v>
       </c>
+      <c r="BZ23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6378,6 +6449,9 @@
       <c r="BY24" t="n">
         <v>749.95</v>
       </c>
+      <c r="BZ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6619,6 +6693,9 @@
       <c r="BY25" t="n">
         <v>749.95</v>
       </c>
+      <c r="BZ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6860,6 +6937,9 @@
       <c r="BY26" t="n">
         <v>749.95</v>
       </c>
+      <c r="BZ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7101,6 +7181,9 @@
       <c r="BY27" t="n">
         <v>809.95</v>
       </c>
+      <c r="BZ27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7342,6 +7425,9 @@
       <c r="BY28" t="n">
         <v>809.95</v>
       </c>
+      <c r="BZ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7583,6 +7669,9 @@
       <c r="BY29" t="n">
         <v>809.95</v>
       </c>
+      <c r="BZ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7828,6 +7917,9 @@
       <c r="BY30" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8073,6 +8165,9 @@
       <c r="BY31" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8318,6 +8413,9 @@
       <c r="BY32" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8563,6 +8661,9 @@
       <c r="BY33" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8804,6 +8905,9 @@
       <c r="BY34" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9045,6 +9149,9 @@
       <c r="BY35" t="n">
         <v>899.95</v>
       </c>
+      <c r="BZ35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9286,6 +9393,9 @@
       <c r="BY36" t="n">
         <v>929.95</v>
       </c>
+      <c r="BZ36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9527,6 +9637,9 @@
       <c r="BY37" t="n">
         <v>929.95</v>
       </c>
+      <c r="BZ37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9768,6 +9881,9 @@
       <c r="BY38" t="n">
         <v>929.95</v>
       </c>
+      <c r="BZ38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10009,6 +10125,9 @@
       <c r="BY39" t="n">
         <v>929.95</v>
       </c>
+      <c r="BZ39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10254,6 +10373,9 @@
       <c r="BY40" t="n">
         <v>959.95</v>
       </c>
+      <c r="BZ40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10495,6 +10617,9 @@
       <c r="BY41" t="n">
         <v>959.95</v>
       </c>
+      <c r="BZ41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10736,6 +10861,9 @@
       <c r="BY42" t="n">
         <v>959.95</v>
       </c>
+      <c r="BZ42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10981,6 +11109,9 @@
       <c r="BY43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="BZ43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11226,6 +11357,9 @@
       <c r="BY44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BZ44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11467,6 +11601,9 @@
       <c r="BY45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BZ45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11712,6 +11849,9 @@
       <c r="BY46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BZ46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11957,6 +12097,9 @@
       <c r="BY47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BZ47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12202,6 +12345,9 @@
       <c r="BY48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BZ48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12447,6 +12593,9 @@
       <c r="BY49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="BZ49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12692,6 +12841,9 @@
       <c r="BY50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BZ50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12935,6 +13087,9 @@
       <c r="BY51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="BZ51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13180,6 +13335,9 @@
       <c r="BY52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BZ52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13425,6 +13583,9 @@
       <c r="BY53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BZ53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13670,6 +13831,9 @@
       <c r="BY54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="BZ54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13915,6 +14079,9 @@
       <c r="BY55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BZ55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14160,6 +14327,9 @@
       <c r="BY56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BZ56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14405,6 +14575,9 @@
       <c r="BY57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="BZ57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14650,6 +14823,9 @@
       <c r="BY58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BZ58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14895,6 +15071,9 @@
       <c r="BY59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BZ59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15140,6 +15319,9 @@
       <c r="BY60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="BZ60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15381,6 +15563,9 @@
       <c r="BY61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BZ61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15622,6 +15807,9 @@
       <c r="BY62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BZ62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15861,6 +16049,9 @@
         <v>1999.95</v>
       </c>
       <c r="BY63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BZ63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -16098,6 +16289,9 @@
       <c r="BY64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="BZ64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16339,6 +16533,9 @@
       <c r="BY65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BZ65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16580,6 +16777,9 @@
       <c r="BY66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BZ66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -16821,6 +17021,9 @@
       <c r="BY67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="BZ67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17062,6 +17265,9 @@
       <c r="BY68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="BZ68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17303,6 +17509,9 @@
       <c r="BY69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BZ69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17544,6 +17753,9 @@
       <c r="BY70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BZ70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17785,6 +17997,9 @@
       <c r="BY71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="BZ71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18026,6 +18241,9 @@
       <c r="BY72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BZ72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18267,6 +18485,9 @@
       <c r="BY73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="BZ73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18508,6 +18729,9 @@
       <c r="BY74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="BZ74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18747,6 +18971,9 @@
         <v>2519.95</v>
       </c>
       <c r="BY75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BZ75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -18980,6 +19207,7 @@
       <c r="BW76" t="inlineStr"/>
       <c r="BX76" t="inlineStr"/>
       <c r="BY76" t="inlineStr"/>
+      <c r="BZ76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ76"/>
+  <dimension ref="A1:CA76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,6 +812,11 @@
           <t>2026-02-19 14:07:04</t>
         </is>
       </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>2026-02-19 15:43:36</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1056,6 +1061,9 @@
       <c r="BZ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CA2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1300,6 +1308,9 @@
       <c r="BZ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CA3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1544,6 +1555,9 @@
       <c r="BZ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CA4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1792,6 +1806,9 @@
       <c r="BZ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CA5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2040,6 +2057,9 @@
       <c r="BZ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CA6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2288,6 +2308,9 @@
       <c r="BZ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CA7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2536,6 +2559,9 @@
       <c r="BZ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CA8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2784,6 +2810,9 @@
       <c r="BZ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CA9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3032,6 +3061,9 @@
       <c r="BZ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CA10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3276,6 +3308,9 @@
       <c r="BZ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CA11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3520,6 +3555,9 @@
       <c r="BZ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CA12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3764,6 +3802,9 @@
       <c r="BZ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CA13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4012,6 +4053,9 @@
       <c r="BZ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CA14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4256,6 +4300,9 @@
       <c r="BZ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CA15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4500,6 +4547,9 @@
       <c r="BZ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CA16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4744,6 +4794,9 @@
       <c r="BZ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CA17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4988,6 +5041,9 @@
       <c r="BZ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CA18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5232,6 +5288,9 @@
       <c r="BZ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CA19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5476,6 +5535,9 @@
       <c r="BZ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CA20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5720,6 +5782,9 @@
       <c r="BZ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CA21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5964,6 +6029,9 @@
       <c r="BZ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CA22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6208,6 +6276,9 @@
       <c r="BZ23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CA23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6452,6 +6523,9 @@
       <c r="BZ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CA24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6696,6 +6770,9 @@
       <c r="BZ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CA25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6940,6 +7017,9 @@
       <c r="BZ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CA26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7184,6 +7264,9 @@
       <c r="BZ27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CA27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7428,6 +7511,9 @@
       <c r="BZ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CA28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7672,6 +7758,9 @@
       <c r="BZ29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CA29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7920,6 +8009,9 @@
       <c r="BZ30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8168,6 +8260,9 @@
       <c r="BZ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8416,6 +8511,9 @@
       <c r="BZ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8664,6 +8762,9 @@
       <c r="BZ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8908,6 +9009,9 @@
       <c r="BZ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9152,6 +9256,9 @@
       <c r="BZ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CA35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9396,6 +9503,9 @@
       <c r="BZ36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CA36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9640,6 +9750,9 @@
       <c r="BZ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CA37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9884,6 +9997,9 @@
       <c r="BZ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CA38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10128,6 +10244,9 @@
       <c r="BZ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CA39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10376,6 +10495,9 @@
       <c r="BZ40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CA40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10620,6 +10742,9 @@
       <c r="BZ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CA41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10864,6 +10989,9 @@
       <c r="BZ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CA42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11112,6 +11240,9 @@
       <c r="BZ43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CA43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11360,6 +11491,9 @@
       <c r="BZ44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CA44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11604,6 +11738,9 @@
       <c r="BZ45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CA45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11852,6 +11989,9 @@
       <c r="BZ46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CA46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12100,6 +12240,9 @@
       <c r="BZ47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CA47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12348,6 +12491,9 @@
       <c r="BZ48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CA48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12596,6 +12742,9 @@
       <c r="BZ49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CA49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12844,6 +12993,9 @@
       <c r="BZ50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CA50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13090,6 +13242,9 @@
       <c r="BZ51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CA51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13338,6 +13493,9 @@
       <c r="BZ52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CA52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13586,6 +13744,9 @@
       <c r="BZ53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CA53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13834,6 +13995,9 @@
       <c r="BZ54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CA54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14082,6 +14246,9 @@
       <c r="BZ55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CA55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14330,6 +14497,9 @@
       <c r="BZ56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CA56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14578,6 +14748,9 @@
       <c r="BZ57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CA57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14826,6 +14999,9 @@
       <c r="BZ58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CA58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15074,6 +15250,9 @@
       <c r="BZ59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CA59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15322,6 +15501,9 @@
       <c r="BZ60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CA60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15566,6 +15748,9 @@
       <c r="BZ61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CA61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15810,6 +15995,9 @@
       <c r="BZ62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CA62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16052,6 +16240,9 @@
         <v>1999.95</v>
       </c>
       <c r="BZ63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CA63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -16292,6 +16483,9 @@
       <c r="BZ64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CA64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16536,6 +16730,9 @@
       <c r="BZ65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CA65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16780,6 +16977,9 @@
       <c r="BZ66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CA66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17024,6 +17224,9 @@
       <c r="BZ67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CA67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17268,6 +17471,9 @@
       <c r="BZ68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CA68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17512,6 +17718,9 @@
       <c r="BZ69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CA69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17756,6 +17965,9 @@
       <c r="BZ70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CA70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18000,6 +18212,9 @@
       <c r="BZ71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CA71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18244,6 +18459,9 @@
       <c r="BZ72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CA72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18263,7 +18481,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -18488,6 +18706,9 @@
       <c r="BZ73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CA73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18732,6 +18953,9 @@
       <c r="BZ74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CA74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -18974,6 +19198,9 @@
         <v>2519.95</v>
       </c>
       <c r="BZ75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CA75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -19208,6 +19435,7 @@
       <c r="BX76" t="inlineStr"/>
       <c r="BY76" t="inlineStr"/>
       <c r="BZ76" t="inlineStr"/>
+      <c r="CA76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA76"/>
+  <dimension ref="A1:CB76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,6 +817,11 @@
           <t>2026-02-19 15:43:36</t>
         </is>
       </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>2026-02-19 16:45:14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1064,6 +1069,9 @@
       <c r="CA2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CB2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1311,6 +1319,9 @@
       <c r="CA3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CB3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1558,6 +1569,9 @@
       <c r="CA4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CB4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1809,6 +1823,9 @@
       <c r="CA5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CB5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2060,6 +2077,9 @@
       <c r="CA6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CB6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2311,6 +2331,9 @@
       <c r="CA7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CB7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2562,6 +2585,9 @@
       <c r="CA8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CB8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2813,6 +2839,9 @@
       <c r="CA9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CB9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3064,6 +3093,9 @@
       <c r="CA10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CB10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3311,6 +3343,9 @@
       <c r="CA11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CB11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3558,6 +3593,9 @@
       <c r="CA12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CB12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3805,6 +3843,9 @@
       <c r="CA13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CB13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4056,6 +4097,9 @@
       <c r="CA14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CB14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4303,6 +4347,9 @@
       <c r="CA15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CB15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4550,6 +4597,9 @@
       <c r="CA16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CB16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4797,6 +4847,9 @@
       <c r="CA17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CB17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5044,6 +5097,9 @@
       <c r="CA18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CB18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5291,6 +5347,9 @@
       <c r="CA19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CB19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5538,6 +5597,9 @@
       <c r="CA20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CB20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5785,6 +5847,9 @@
       <c r="CA21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CB21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6032,6 +6097,9 @@
       <c r="CA22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CB22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6279,6 +6347,9 @@
       <c r="CA23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CB23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6526,6 +6597,9 @@
       <c r="CA24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CB24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6773,6 +6847,9 @@
       <c r="CA25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CB25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7020,6 +7097,9 @@
       <c r="CA26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CB26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7267,6 +7347,9 @@
       <c r="CA27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CB27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7514,6 +7597,9 @@
       <c r="CA28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CB28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7761,6 +7847,9 @@
       <c r="CA29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CB29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8012,6 +8101,9 @@
       <c r="CA30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8263,6 +8355,9 @@
       <c r="CA31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8514,6 +8609,9 @@
       <c r="CA32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8765,6 +8863,9 @@
       <c r="CA33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9012,6 +9113,9 @@
       <c r="CA34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9259,6 +9363,9 @@
       <c r="CA35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CB35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9506,6 +9613,9 @@
       <c r="CA36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CB36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9753,6 +9863,9 @@
       <c r="CA37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CB37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10000,6 +10113,9 @@
       <c r="CA38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CB38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10247,6 +10363,9 @@
       <c r="CA39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CB39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10498,6 +10617,9 @@
       <c r="CA40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CB40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10745,6 +10867,9 @@
       <c r="CA41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CB41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10992,6 +11117,9 @@
       <c r="CA42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CB42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11243,6 +11371,9 @@
       <c r="CA43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CB43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11494,6 +11625,9 @@
       <c r="CA44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CB44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11741,6 +11875,9 @@
       <c r="CA45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CB45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11992,6 +12129,9 @@
       <c r="CA46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CB46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12243,6 +12383,9 @@
       <c r="CA47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CB47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12494,6 +12637,9 @@
       <c r="CA48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CB48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12745,6 +12891,9 @@
       <c r="CA49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CB49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12996,6 +13145,9 @@
       <c r="CA50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CB50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13245,6 +13397,9 @@
       <c r="CA51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CB51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13496,6 +13651,9 @@
       <c r="CA52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CB52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13747,6 +13905,9 @@
       <c r="CA53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CB53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13998,6 +14159,9 @@
       <c r="CA54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CB54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14249,6 +14413,9 @@
       <c r="CA55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CB55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14500,6 +14667,9 @@
       <c r="CA56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CB56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14751,6 +14921,9 @@
       <c r="CA57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CB57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15002,6 +15175,9 @@
       <c r="CA58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CB58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15253,6 +15429,9 @@
       <c r="CA59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CB59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15504,6 +15683,9 @@
       <c r="CA60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CB60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15751,6 +15933,9 @@
       <c r="CA61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CB61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15998,6 +16183,9 @@
       <c r="CA62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CB62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16243,6 +16431,9 @@
         <v>1999.95</v>
       </c>
       <c r="CA63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CB63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -16486,6 +16677,9 @@
       <c r="CA64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CB64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16733,6 +16927,9 @@
       <c r="CA65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CB65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16980,6 +17177,9 @@
       <c r="CA66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CB66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17227,6 +17427,9 @@
       <c r="CA67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CB67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17474,6 +17677,9 @@
       <c r="CA68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CB68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17721,6 +17927,9 @@
       <c r="CA69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CB69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17968,6 +18177,9 @@
       <c r="CA70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CB70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18215,6 +18427,9 @@
       <c r="CA71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CB71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18462,6 +18677,9 @@
       <c r="CA72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CB72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18709,6 +18927,9 @@
       <c r="CA73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CB73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18956,6 +19177,9 @@
       <c r="CA74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CB74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19201,6 +19425,9 @@
         <v>2519.95</v>
       </c>
       <c r="CA75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CB75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -19436,6 +19663,7 @@
       <c r="BY76" t="inlineStr"/>
       <c r="BZ76" t="inlineStr"/>
       <c r="CA76" t="inlineStr"/>
+      <c r="CB76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB76"/>
+  <dimension ref="A1:CC76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,11 @@
           <t>2026-02-19 16:45:14</t>
         </is>
       </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>2026-02-19 17:46:23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1072,6 +1077,9 @@
       <c r="CB2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CC2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1322,6 +1330,9 @@
       <c r="CB3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CC3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1572,6 +1583,9 @@
       <c r="CB4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CC4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1826,6 +1840,9 @@
       <c r="CB5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CC5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2080,6 +2097,9 @@
       <c r="CB6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CC6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2334,6 +2354,9 @@
       <c r="CB7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CC7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2588,6 +2611,9 @@
       <c r="CB8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CC8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2842,6 +2868,9 @@
       <c r="CB9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CC9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3096,6 +3125,9 @@
       <c r="CB10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CC10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3346,6 +3378,9 @@
       <c r="CB11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CC11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3596,6 +3631,9 @@
       <c r="CB12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CC12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3846,6 +3884,9 @@
       <c r="CB13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CC13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4100,6 +4141,9 @@
       <c r="CB14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CC14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4350,6 +4394,9 @@
       <c r="CB15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CC15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4600,6 +4647,9 @@
       <c r="CB16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CC16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4850,6 +4900,9 @@
       <c r="CB17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CC17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5100,6 +5153,9 @@
       <c r="CB18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CC18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5350,6 +5406,9 @@
       <c r="CB19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CC19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5600,6 +5659,9 @@
       <c r="CB20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CC20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5850,6 +5912,9 @@
       <c r="CB21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CC21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6100,6 +6165,9 @@
       <c r="CB22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CC22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6350,6 +6418,9 @@
       <c r="CB23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CC23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6600,6 +6671,9 @@
       <c r="CB24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CC24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6850,6 +6924,9 @@
       <c r="CB25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CC25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7100,6 +7177,9 @@
       <c r="CB26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CC26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7350,6 +7430,9 @@
       <c r="CB27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CC27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7600,6 +7683,9 @@
       <c r="CB28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CC28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7850,6 +7936,9 @@
       <c r="CB29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CC29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8104,6 +8193,9 @@
       <c r="CB30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8358,6 +8450,9 @@
       <c r="CB31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8612,6 +8707,9 @@
       <c r="CB32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8866,6 +8964,9 @@
       <c r="CB33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9116,6 +9217,9 @@
       <c r="CB34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9366,6 +9470,9 @@
       <c r="CB35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CC35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9616,6 +9723,9 @@
       <c r="CB36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CC36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9866,6 +9976,9 @@
       <c r="CB37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CC37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10116,6 +10229,9 @@
       <c r="CB38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CC38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10366,6 +10482,9 @@
       <c r="CB39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CC39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10620,6 +10739,9 @@
       <c r="CB40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CC40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10870,6 +10992,9 @@
       <c r="CB41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CC41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11120,6 +11245,9 @@
       <c r="CB42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CC42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11374,6 +11502,9 @@
       <c r="CB43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CC43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11628,6 +11759,9 @@
       <c r="CB44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CC44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11878,6 +12012,9 @@
       <c r="CB45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CC45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12132,6 +12269,9 @@
       <c r="CB46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CC46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12386,6 +12526,9 @@
       <c r="CB47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CC47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12640,6 +12783,9 @@
       <c r="CB48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CC48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12894,6 +13040,9 @@
       <c r="CB49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CC49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13148,6 +13297,9 @@
       <c r="CB50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CC50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13400,6 +13552,9 @@
       <c r="CB51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CC51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13654,6 +13809,9 @@
       <c r="CB52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CC52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13908,6 +14066,9 @@
       <c r="CB53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CC53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14162,6 +14323,9 @@
       <c r="CB54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CC54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14416,6 +14580,9 @@
       <c r="CB55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CC55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14670,6 +14837,9 @@
       <c r="CB56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CC56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14924,6 +15094,9 @@
       <c r="CB57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CC57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15178,6 +15351,9 @@
       <c r="CB58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CC58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15432,6 +15608,9 @@
       <c r="CB59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CC59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15686,6 +15865,9 @@
       <c r="CB60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CC60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15936,6 +16118,9 @@
       <c r="CB61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CC61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16186,6 +16371,9 @@
       <c r="CB62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CC62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16434,6 +16622,9 @@
         <v>1999.95</v>
       </c>
       <c r="CB63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CC63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -16680,6 +16871,9 @@
       <c r="CB64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CC64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16930,6 +17124,9 @@
       <c r="CB65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CC65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17180,6 +17377,9 @@
       <c r="CB66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CC66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17430,6 +17630,9 @@
       <c r="CB67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CC67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17680,6 +17883,9 @@
       <c r="CB68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CC68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17930,6 +18136,9 @@
       <c r="CB69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CC69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18180,6 +18389,9 @@
       <c r="CB70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CC70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18430,6 +18642,9 @@
       <c r="CB71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CC71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18680,6 +18895,9 @@
       <c r="CB72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CC72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18930,6 +19148,9 @@
       <c r="CB73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CC73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19180,6 +19401,9 @@
       <c r="CB74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CC74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19428,6 +19652,9 @@
         <v>2519.95</v>
       </c>
       <c r="CB75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CC75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -19664,6 +19891,7 @@
       <c r="BZ76" t="inlineStr"/>
       <c r="CA76" t="inlineStr"/>
       <c r="CB76" t="inlineStr"/>
+      <c r="CC76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC76"/>
+  <dimension ref="A1:CD76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,6 +827,11 @@
           <t>2026-02-19 17:46:23</t>
         </is>
       </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>2026-02-19 18:44:17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1080,6 +1085,9 @@
       <c r="CC2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CD2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1333,6 +1341,9 @@
       <c r="CC3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CD3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1586,6 +1597,9 @@
       <c r="CC4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CD4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1843,6 +1857,9 @@
       <c r="CC5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CD5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2100,6 +2117,9 @@
       <c r="CC6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CD6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2357,6 +2377,9 @@
       <c r="CC7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CD7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2614,6 +2637,9 @@
       <c r="CC8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CD8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2871,6 +2897,9 @@
       <c r="CC9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CD9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3128,6 +3157,9 @@
       <c r="CC10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CD10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3381,6 +3413,9 @@
       <c r="CC11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CD11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3634,6 +3669,9 @@
       <c r="CC12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CD12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3887,6 +3925,9 @@
       <c r="CC13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CD13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4144,6 +4185,9 @@
       <c r="CC14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CD14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4397,6 +4441,9 @@
       <c r="CC15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CD15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4650,6 +4697,9 @@
       <c r="CC16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CD16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4903,6 +4953,9 @@
       <c r="CC17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CD17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5156,6 +5209,9 @@
       <c r="CC18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CD18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5409,6 +5465,9 @@
       <c r="CC19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CD19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5662,6 +5721,9 @@
       <c r="CC20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CD20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5915,6 +5977,9 @@
       <c r="CC21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CD21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6168,6 +6233,9 @@
       <c r="CC22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CD22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6421,6 +6489,9 @@
       <c r="CC23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CD23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6674,6 +6745,9 @@
       <c r="CC24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CD24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6927,6 +7001,9 @@
       <c r="CC25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CD25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7180,6 +7257,9 @@
       <c r="CC26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CD26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7433,6 +7513,9 @@
       <c r="CC27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CD27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7686,6 +7769,9 @@
       <c r="CC28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CD28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7939,6 +8025,9 @@
       <c r="CC29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CD29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8196,6 +8285,9 @@
       <c r="CC30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8453,6 +8545,9 @@
       <c r="CC31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8710,6 +8805,9 @@
       <c r="CC32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8967,6 +9065,9 @@
       <c r="CC33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9220,6 +9321,9 @@
       <c r="CC34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9473,6 +9577,9 @@
       <c r="CC35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CD35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9726,6 +9833,9 @@
       <c r="CC36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CD36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9979,6 +10089,9 @@
       <c r="CC37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CD37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10232,6 +10345,9 @@
       <c r="CC38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CD38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10485,6 +10601,9 @@
       <c r="CC39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CD39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10742,6 +10861,9 @@
       <c r="CC40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CD40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10995,6 +11117,9 @@
       <c r="CC41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CD41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11248,6 +11373,9 @@
       <c r="CC42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CD42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11505,6 +11633,9 @@
       <c r="CC43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CD43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11762,6 +11893,9 @@
       <c r="CC44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CD44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12015,6 +12149,9 @@
       <c r="CC45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CD45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12272,6 +12409,9 @@
       <c r="CC46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CD46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12529,6 +12669,9 @@
       <c r="CC47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CD47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12786,6 +12929,9 @@
       <c r="CC48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CD48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13043,6 +13189,9 @@
       <c r="CC49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CD49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13300,6 +13449,9 @@
       <c r="CC50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CD50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13555,6 +13707,9 @@
       <c r="CC51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CD51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13812,6 +13967,9 @@
       <c r="CC52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CD52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14069,6 +14227,9 @@
       <c r="CC53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CD53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14326,6 +14487,9 @@
       <c r="CC54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CD54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14583,6 +14747,9 @@
       <c r="CC55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CD55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14840,6 +15007,9 @@
       <c r="CC56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CD56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15097,6 +15267,9 @@
       <c r="CC57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CD57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15354,6 +15527,9 @@
       <c r="CC58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CD58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15611,6 +15787,9 @@
       <c r="CC59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CD59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15868,6 +16047,9 @@
       <c r="CC60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CD60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16121,6 +16303,9 @@
       <c r="CC61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CD61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16374,6 +16559,9 @@
       <c r="CC62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CD62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16625,6 +16813,9 @@
         <v>1999.95</v>
       </c>
       <c r="CC63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CD63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -16874,6 +17065,9 @@
       <c r="CC64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CD64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17127,6 +17321,9 @@
       <c r="CC65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CD65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17380,6 +17577,9 @@
       <c r="CC66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CD66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17633,6 +17833,9 @@
       <c r="CC67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CD67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17886,6 +18089,9 @@
       <c r="CC68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CD68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18139,6 +18345,9 @@
       <c r="CC69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CD69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18392,6 +18601,9 @@
       <c r="CC70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CD70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18645,6 +18857,9 @@
       <c r="CC71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CD71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18898,6 +19113,9 @@
       <c r="CC72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CD72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19151,6 +19369,9 @@
       <c r="CC73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CD73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19404,6 +19625,9 @@
       <c r="CC74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CD74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19655,6 +19879,9 @@
         <v>2519.95</v>
       </c>
       <c r="CC75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CD75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -19892,6 +20119,7 @@
       <c r="CA76" t="inlineStr"/>
       <c r="CB76" t="inlineStr"/>
       <c r="CC76" t="inlineStr"/>
+      <c r="CD76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD76"/>
+  <dimension ref="A1:CE76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,6 +832,11 @@
           <t>2026-02-19 18:44:17</t>
         </is>
       </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>2026-02-19 19:36:48</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1088,6 +1093,9 @@
       <c r="CD2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CE2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1344,6 +1352,9 @@
       <c r="CD3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CE3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1600,6 +1611,9 @@
       <c r="CD4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CE4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1860,6 +1874,9 @@
       <c r="CD5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CE5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2120,6 +2137,9 @@
       <c r="CD6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CE6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2380,6 +2400,9 @@
       <c r="CD7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CE7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2640,6 +2663,9 @@
       <c r="CD8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CE8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2900,6 +2926,9 @@
       <c r="CD9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CE9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3160,6 +3189,9 @@
       <c r="CD10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CE10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3416,6 +3448,9 @@
       <c r="CD11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CE11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3672,6 +3707,9 @@
       <c r="CD12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CE12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3928,6 +3966,9 @@
       <c r="CD13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CE13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4188,6 +4229,9 @@
       <c r="CD14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CE14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4444,6 +4488,9 @@
       <c r="CD15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CE15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4700,6 +4747,9 @@
       <c r="CD16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CE16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4956,6 +5006,9 @@
       <c r="CD17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CE17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5212,6 +5265,9 @@
       <c r="CD18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CE18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5468,6 +5524,9 @@
       <c r="CD19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CE19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5724,6 +5783,9 @@
       <c r="CD20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CE20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5980,6 +6042,9 @@
       <c r="CD21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CE21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6236,6 +6301,9 @@
       <c r="CD22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CE22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6492,6 +6560,9 @@
       <c r="CD23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CE23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6748,6 +6819,9 @@
       <c r="CD24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CE24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7004,6 +7078,9 @@
       <c r="CD25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CE25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7260,6 +7337,9 @@
       <c r="CD26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CE26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7516,6 +7596,9 @@
       <c r="CD27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CE27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7772,6 +7855,9 @@
       <c r="CD28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CE28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8028,6 +8114,9 @@
       <c r="CD29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CE29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8288,6 +8377,9 @@
       <c r="CD30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8548,6 +8640,9 @@
       <c r="CD31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8808,6 +8903,9 @@
       <c r="CD32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9068,6 +9166,9 @@
       <c r="CD33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9324,6 +9425,9 @@
       <c r="CD34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9580,6 +9684,9 @@
       <c r="CD35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CE35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9836,6 +9943,9 @@
       <c r="CD36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CE36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10092,6 +10202,9 @@
       <c r="CD37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CE37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10348,6 +10461,9 @@
       <c r="CD38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CE38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10604,6 +10720,9 @@
       <c r="CD39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CE39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10864,6 +10983,9 @@
       <c r="CD40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CE40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11120,6 +11242,9 @@
       <c r="CD41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CE41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11376,6 +11501,9 @@
       <c r="CD42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CE42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11636,6 +11764,9 @@
       <c r="CD43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CE43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11896,6 +12027,9 @@
       <c r="CD44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CE44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12152,6 +12286,9 @@
       <c r="CD45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CE45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12412,6 +12549,9 @@
       <c r="CD46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CE46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12672,6 +12812,9 @@
       <c r="CD47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CE47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12932,6 +13075,9 @@
       <c r="CD48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CE48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13192,6 +13338,9 @@
       <c r="CD49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CE49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13452,6 +13601,9 @@
       <c r="CD50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CE50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13710,6 +13862,9 @@
       <c r="CD51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CE51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13970,6 +14125,9 @@
       <c r="CD52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CE52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14230,6 +14388,9 @@
       <c r="CD53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CE53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14490,6 +14651,9 @@
       <c r="CD54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CE54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14750,6 +14914,9 @@
       <c r="CD55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CE55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15010,6 +15177,9 @@
       <c r="CD56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CE56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15270,6 +15440,9 @@
       <c r="CD57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CE57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15530,6 +15703,9 @@
       <c r="CD58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CE58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15790,6 +15966,9 @@
       <c r="CD59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CE59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16050,6 +16229,9 @@
       <c r="CD60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CE60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16306,6 +16488,9 @@
       <c r="CD61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CE61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16562,6 +16747,9 @@
       <c r="CD62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CE62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16816,6 +17004,9 @@
         <v>1999.95</v>
       </c>
       <c r="CD63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CE63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -17068,6 +17259,9 @@
       <c r="CD64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CE64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17324,6 +17518,9 @@
       <c r="CD65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CE65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17580,6 +17777,9 @@
       <c r="CD66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CE66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17836,6 +18036,9 @@
       <c r="CD67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CE67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18092,6 +18295,9 @@
       <c r="CD68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CE68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18348,6 +18554,9 @@
       <c r="CD69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CE69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18604,6 +18813,9 @@
       <c r="CD70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CE70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18860,6 +19072,9 @@
       <c r="CD71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CE71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19116,6 +19331,9 @@
       <c r="CD72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CE72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19372,6 +19590,9 @@
       <c r="CD73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CE73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19628,6 +19849,9 @@
       <c r="CD74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CE74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19882,6 +20106,9 @@
         <v>2519.95</v>
       </c>
       <c r="CD75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CE75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -20120,6 +20347,7 @@
       <c r="CB76" t="inlineStr"/>
       <c r="CC76" t="inlineStr"/>
       <c r="CD76" t="inlineStr"/>
+      <c r="CE76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE76"/>
+  <dimension ref="A1:CF76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,6 +837,11 @@
           <t>2026-02-19 19:36:48</t>
         </is>
       </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>2026-02-19 20:26:42</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1096,6 +1101,9 @@
       <c r="CE2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CF2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1355,6 +1363,9 @@
       <c r="CE3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CF3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1614,6 +1625,9 @@
       <c r="CE4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CF4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1877,6 +1891,9 @@
       <c r="CE5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CF5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2140,6 +2157,9 @@
       <c r="CE6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CF6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2403,6 +2423,9 @@
       <c r="CE7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CF7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2666,6 +2689,9 @@
       <c r="CE8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CF8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2929,6 +2955,9 @@
       <c r="CE9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CF9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3192,6 +3221,9 @@
       <c r="CE10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CF10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3451,6 +3483,9 @@
       <c r="CE11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CF11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3710,6 +3745,9 @@
       <c r="CE12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CF12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3969,6 +4007,9 @@
       <c r="CE13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CF13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4232,6 +4273,9 @@
       <c r="CE14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CF14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4491,6 +4535,9 @@
       <c r="CE15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CF15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4750,6 +4797,9 @@
       <c r="CE16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CF16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5009,6 +5059,9 @@
       <c r="CE17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CF17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5268,6 +5321,9 @@
       <c r="CE18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CF18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5527,6 +5583,9 @@
       <c r="CE19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CF19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5786,6 +5845,9 @@
       <c r="CE20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CF20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6045,6 +6107,9 @@
       <c r="CE21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CF21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6304,6 +6369,9 @@
       <c r="CE22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CF22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6563,6 +6631,9 @@
       <c r="CE23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CF23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6822,6 +6893,9 @@
       <c r="CE24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CF24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7081,6 +7155,9 @@
       <c r="CE25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CF25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7340,6 +7417,9 @@
       <c r="CE26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CF26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7599,6 +7679,9 @@
       <c r="CE27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CF27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7858,6 +7941,9 @@
       <c r="CE28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CF28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8117,6 +8203,9 @@
       <c r="CE29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CF29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8380,6 +8469,9 @@
       <c r="CE30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8643,6 +8735,9 @@
       <c r="CE31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8906,6 +9001,9 @@
       <c r="CE32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9169,6 +9267,9 @@
       <c r="CE33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9428,6 +9529,9 @@
       <c r="CE34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9687,6 +9791,9 @@
       <c r="CE35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CF35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9946,6 +10053,9 @@
       <c r="CE36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CF36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10205,6 +10315,9 @@
       <c r="CE37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CF37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10464,6 +10577,9 @@
       <c r="CE38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CF38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10723,6 +10839,9 @@
       <c r="CE39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CF39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10986,6 +11105,9 @@
       <c r="CE40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CF40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11245,6 +11367,9 @@
       <c r="CE41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CF41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11504,6 +11629,9 @@
       <c r="CE42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CF42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11767,6 +11895,9 @@
       <c r="CE43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CF43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12030,6 +12161,9 @@
       <c r="CE44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CF44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12289,6 +12423,9 @@
       <c r="CE45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CF45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12552,6 +12689,9 @@
       <c r="CE46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CF46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12815,6 +12955,9 @@
       <c r="CE47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CF47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13078,6 +13221,9 @@
       <c r="CE48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CF48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13341,6 +13487,9 @@
       <c r="CE49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CF49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13604,6 +13753,9 @@
       <c r="CE50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CF50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13865,6 +14017,9 @@
       <c r="CE51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CF51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14128,6 +14283,9 @@
       <c r="CE52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CF52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14391,6 +14549,9 @@
       <c r="CE53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CF53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14654,6 +14815,9 @@
       <c r="CE54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CF54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14917,6 +15081,9 @@
       <c r="CE55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CF55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15180,6 +15347,9 @@
       <c r="CE56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CF56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15443,6 +15613,9 @@
       <c r="CE57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CF57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15706,6 +15879,9 @@
       <c r="CE58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CF58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15969,6 +16145,9 @@
       <c r="CE59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CF59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16232,6 +16411,9 @@
       <c r="CE60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CF60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16491,6 +16673,9 @@
       <c r="CE61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CF61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16750,6 +16935,9 @@
       <c r="CE62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CF62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17007,6 +17195,9 @@
         <v>1999.95</v>
       </c>
       <c r="CE63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CF63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -17262,6 +17453,9 @@
       <c r="CE64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CF64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17521,6 +17715,9 @@
       <c r="CE65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CF65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17780,6 +17977,9 @@
       <c r="CE66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CF66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18039,6 +18239,9 @@
       <c r="CE67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CF67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18298,6 +18501,9 @@
       <c r="CE68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CF68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18557,6 +18763,9 @@
       <c r="CE69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CF69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18816,6 +19025,9 @@
       <c r="CE70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CF70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19075,6 +19287,9 @@
       <c r="CE71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CF71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19334,6 +19549,9 @@
       <c r="CE72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CF72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19593,6 +19811,9 @@
       <c r="CE73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CF73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19852,6 +20073,9 @@
       <c r="CE74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CF74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -20109,6 +20333,9 @@
         <v>2519.95</v>
       </c>
       <c r="CE75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CF75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -20348,6 +20575,7 @@
       <c r="CC76" t="inlineStr"/>
       <c r="CD76" t="inlineStr"/>
       <c r="CE76" t="inlineStr"/>
+      <c r="CF76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF76"/>
+  <dimension ref="A1:CG76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +842,11 @@
           <t>2026-02-19 20:26:42</t>
         </is>
       </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>2026-02-19 21:27:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1104,6 +1109,9 @@
       <c r="CF2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CG2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1366,6 +1374,9 @@
       <c r="CF3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CG3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1628,6 +1639,9 @@
       <c r="CF4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CG4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1894,6 +1908,9 @@
       <c r="CF5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CG5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2160,6 +2177,9 @@
       <c r="CF6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CG6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2426,6 +2446,9 @@
       <c r="CF7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CG7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2692,6 +2715,9 @@
       <c r="CF8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CG8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2958,6 +2984,9 @@
       <c r="CF9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CG9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3224,6 +3253,9 @@
       <c r="CF10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CG10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3486,6 +3518,9 @@
       <c r="CF11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CG11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3748,6 +3783,9 @@
       <c r="CF12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CG12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4010,6 +4048,9 @@
       <c r="CF13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CG13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4276,6 +4317,9 @@
       <c r="CF14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CG14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4538,6 +4582,9 @@
       <c r="CF15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CG15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4800,6 +4847,9 @@
       <c r="CF16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CG16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5062,6 +5112,9 @@
       <c r="CF17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CG17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5324,6 +5377,9 @@
       <c r="CF18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CG18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5586,6 +5642,9 @@
       <c r="CF19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CG19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5848,6 +5907,9 @@
       <c r="CF20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CG20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6110,6 +6172,9 @@
       <c r="CF21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CG21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6372,6 +6437,9 @@
       <c r="CF22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CG22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6634,6 +6702,9 @@
       <c r="CF23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CG23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6896,6 +6967,9 @@
       <c r="CF24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CG24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7158,6 +7232,9 @@
       <c r="CF25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CG25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7420,6 +7497,9 @@
       <c r="CF26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CG26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7682,6 +7762,9 @@
       <c r="CF27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CG27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7944,6 +8027,9 @@
       <c r="CF28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CG28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8206,6 +8292,9 @@
       <c r="CF29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CG29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8472,6 +8561,9 @@
       <c r="CF30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8738,6 +8830,9 @@
       <c r="CF31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9004,6 +9099,9 @@
       <c r="CF32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9270,6 +9368,9 @@
       <c r="CF33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9532,6 +9633,9 @@
       <c r="CF34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9794,6 +9898,9 @@
       <c r="CF35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CG35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10056,6 +10163,9 @@
       <c r="CF36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CG36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10318,6 +10428,9 @@
       <c r="CF37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CG37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10580,6 +10693,9 @@
       <c r="CF38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CG38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10842,6 +10958,9 @@
       <c r="CF39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CG39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11108,6 +11227,9 @@
       <c r="CF40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CG40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11370,6 +11492,9 @@
       <c r="CF41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CG41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11632,6 +11757,9 @@
       <c r="CF42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CG42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11898,6 +12026,9 @@
       <c r="CF43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CG43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12164,6 +12295,9 @@
       <c r="CF44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CG44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12426,6 +12560,9 @@
       <c r="CF45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CG45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12692,6 +12829,9 @@
       <c r="CF46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CG46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12958,6 +13098,9 @@
       <c r="CF47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CG47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13224,6 +13367,9 @@
       <c r="CF48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CG48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13490,6 +13636,9 @@
       <c r="CF49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CG49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13756,6 +13905,9 @@
       <c r="CF50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CG50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14020,6 +14172,9 @@
       <c r="CF51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CG51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14286,6 +14441,9 @@
       <c r="CF52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CG52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14552,6 +14710,9 @@
       <c r="CF53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CG53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14818,6 +14979,9 @@
       <c r="CF54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CG54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15084,6 +15248,9 @@
       <c r="CF55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CG55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15350,6 +15517,9 @@
       <c r="CF56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CG56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15616,6 +15786,9 @@
       <c r="CF57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CG57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15882,6 +16055,9 @@
       <c r="CF58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CG58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16148,6 +16324,9 @@
       <c r="CF59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CG59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16414,6 +16593,9 @@
       <c r="CF60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CG60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16676,6 +16858,9 @@
       <c r="CF61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CG61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16938,6 +17123,9 @@
       <c r="CF62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CG62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17198,6 +17386,9 @@
         <v>1999.95</v>
       </c>
       <c r="CF63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CG63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -17456,6 +17647,9 @@
       <c r="CF64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CG64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17718,6 +17912,9 @@
       <c r="CF65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CG65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17980,6 +18177,9 @@
       <c r="CF66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CG66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18242,6 +18442,9 @@
       <c r="CF67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CG67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18504,6 +18707,9 @@
       <c r="CF68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CG68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18766,6 +18972,9 @@
       <c r="CF69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CG69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -19028,6 +19237,9 @@
       <c r="CF70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CG70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19290,6 +19502,9 @@
       <c r="CF71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CG71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19552,6 +19767,9 @@
       <c r="CF72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CG72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19814,6 +20032,9 @@
       <c r="CF73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CG73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -20076,6 +20297,9 @@
       <c r="CF74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CG74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -20336,6 +20560,9 @@
         <v>2519.95</v>
       </c>
       <c r="CF75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CG75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -20576,6 +20803,7 @@
       <c r="CD76" t="inlineStr"/>
       <c r="CE76" t="inlineStr"/>
       <c r="CF76" t="inlineStr"/>
+      <c r="CG76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG76"/>
+  <dimension ref="A1:CH76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,6 +847,11 @@
           <t>2026-02-19 21:27:38</t>
         </is>
       </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>2026-02-19 22:26:52</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1112,6 +1117,9 @@
       <c r="CG2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CH2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1377,6 +1385,9 @@
       <c r="CG3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CH3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1642,6 +1653,9 @@
       <c r="CG4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CH4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1911,6 +1925,9 @@
       <c r="CG5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CH5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2180,6 +2197,9 @@
       <c r="CG6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CH6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2449,6 +2469,9 @@
       <c r="CG7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CH7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2718,6 +2741,9 @@
       <c r="CG8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CH8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2987,6 +3013,9 @@
       <c r="CG9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CH9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3256,6 +3285,9 @@
       <c r="CG10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CH10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3521,6 +3553,9 @@
       <c r="CG11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CH11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3786,6 +3821,9 @@
       <c r="CG12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CH12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4051,6 +4089,9 @@
       <c r="CG13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CH13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4320,6 +4361,9 @@
       <c r="CG14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CH14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4585,6 +4629,9 @@
       <c r="CG15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CH15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4850,6 +4897,9 @@
       <c r="CG16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CH16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5115,6 +5165,9 @@
       <c r="CG17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CH17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5380,6 +5433,9 @@
       <c r="CG18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CH18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5645,6 +5701,9 @@
       <c r="CG19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CH19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5910,6 +5969,9 @@
       <c r="CG20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CH20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6175,6 +6237,9 @@
       <c r="CG21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CH21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6440,6 +6505,9 @@
       <c r="CG22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CH22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6705,6 +6773,9 @@
       <c r="CG23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CH23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6970,6 +7041,9 @@
       <c r="CG24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CH24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7235,6 +7309,9 @@
       <c r="CG25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CH25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7500,6 +7577,9 @@
       <c r="CG26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CH26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7765,6 +7845,9 @@
       <c r="CG27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CH27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8030,6 +8113,9 @@
       <c r="CG28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CH28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8295,6 +8381,9 @@
       <c r="CG29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CH29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8564,6 +8653,9 @@
       <c r="CG30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8833,6 +8925,9 @@
       <c r="CG31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9102,6 +9197,9 @@
       <c r="CG32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9371,6 +9469,9 @@
       <c r="CG33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9636,6 +9737,9 @@
       <c r="CG34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9901,6 +10005,9 @@
       <c r="CG35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CH35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10166,6 +10273,9 @@
       <c r="CG36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CH36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10431,6 +10541,9 @@
       <c r="CG37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CH37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10696,6 +10809,9 @@
       <c r="CG38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CH38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10961,6 +11077,9 @@
       <c r="CG39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CH39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11230,6 +11349,9 @@
       <c r="CG40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CH40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11495,6 +11617,9 @@
       <c r="CG41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CH41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11760,6 +11885,9 @@
       <c r="CG42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CH42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12029,6 +12157,9 @@
       <c r="CG43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CH43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12298,6 +12429,9 @@
       <c r="CG44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CH44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12563,6 +12697,9 @@
       <c r="CG45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CH45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12832,6 +12969,9 @@
       <c r="CG46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CH46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13101,6 +13241,9 @@
       <c r="CG47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CH47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13370,6 +13513,9 @@
       <c r="CG48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CH48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13639,6 +13785,9 @@
       <c r="CG49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CH49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13908,6 +14057,9 @@
       <c r="CG50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CH50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14175,6 +14327,9 @@
       <c r="CG51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CH51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14444,6 +14599,9 @@
       <c r="CG52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CH52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14713,6 +14871,9 @@
       <c r="CG53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CH53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14982,6 +15143,9 @@
       <c r="CG54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CH54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15251,6 +15415,9 @@
       <c r="CG55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CH55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15520,6 +15687,9 @@
       <c r="CG56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CH56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15789,6 +15959,9 @@
       <c r="CG57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CH57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16058,6 +16231,9 @@
       <c r="CG58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CH58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16327,6 +16503,9 @@
       <c r="CG59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CH59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16596,6 +16775,9 @@
       <c r="CG60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CH60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16861,6 +17043,9 @@
       <c r="CG61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CH61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17126,6 +17311,9 @@
       <c r="CG62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CH62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17389,6 +17577,9 @@
         <v>1999.95</v>
       </c>
       <c r="CG63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CH63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -17650,6 +17841,9 @@
       <c r="CG64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CH64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17915,6 +18109,9 @@
       <c r="CG65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CH65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18180,6 +18377,9 @@
       <c r="CG66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CH66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18445,6 +18645,9 @@
       <c r="CG67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CH67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18710,6 +18913,9 @@
       <c r="CG68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CH68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18975,6 +19181,9 @@
       <c r="CG69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CH69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -19240,6 +19449,9 @@
       <c r="CG70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CH70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19505,6 +19717,9 @@
       <c r="CG71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CH71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19770,6 +19985,9 @@
       <c r="CG72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CH72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -20035,6 +20253,9 @@
       <c r="CG73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CH73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -20300,6 +20521,9 @@
       <c r="CG74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CH74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -20563,6 +20787,9 @@
         <v>2519.95</v>
       </c>
       <c r="CG75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CH75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -20804,6 +21031,7 @@
       <c r="CE76" t="inlineStr"/>
       <c r="CF76" t="inlineStr"/>
       <c r="CG76" t="inlineStr"/>
+      <c r="CH76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH76"/>
+  <dimension ref="A1:CI76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,6 +852,11 @@
           <t>2026-02-19 22:26:52</t>
         </is>
       </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>2026-02-19 23:25:37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1120,6 +1125,9 @@
       <c r="CH2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CI2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1388,6 +1396,9 @@
       <c r="CH3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CI3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1656,6 +1667,9 @@
       <c r="CH4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CI4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1928,6 +1942,9 @@
       <c r="CH5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CI5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2200,6 +2217,9 @@
       <c r="CH6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CI6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2472,6 +2492,9 @@
       <c r="CH7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CI7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2744,6 +2767,9 @@
       <c r="CH8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CI8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3016,6 +3042,9 @@
       <c r="CH9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CI9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3288,6 +3317,9 @@
       <c r="CH10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CI10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3556,6 +3588,9 @@
       <c r="CH11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CI11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3824,6 +3859,9 @@
       <c r="CH12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CI12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4092,6 +4130,9 @@
       <c r="CH13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CI13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4364,6 +4405,9 @@
       <c r="CH14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CI14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4632,6 +4676,9 @@
       <c r="CH15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CI15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4900,6 +4947,9 @@
       <c r="CH16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CI16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5168,6 +5218,9 @@
       <c r="CH17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CI17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5436,6 +5489,9 @@
       <c r="CH18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CI18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5704,6 +5760,9 @@
       <c r="CH19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CI19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5972,6 +6031,9 @@
       <c r="CH20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CI20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6240,6 +6302,9 @@
       <c r="CH21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CI21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6508,6 +6573,9 @@
       <c r="CH22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CI22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6776,6 +6844,9 @@
       <c r="CH23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CI23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7044,6 +7115,9 @@
       <c r="CH24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CI24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7312,6 +7386,9 @@
       <c r="CH25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CI25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7580,6 +7657,9 @@
       <c r="CH26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CI26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7848,6 +7928,9 @@
       <c r="CH27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CI27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8116,6 +8199,9 @@
       <c r="CH28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CI28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8384,6 +8470,9 @@
       <c r="CH29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CI29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8656,6 +8745,9 @@
       <c r="CH30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8928,6 +9020,9 @@
       <c r="CH31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9200,6 +9295,9 @@
       <c r="CH32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9472,6 +9570,9 @@
       <c r="CH33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9740,6 +9841,9 @@
       <c r="CH34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10008,6 +10112,9 @@
       <c r="CH35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CI35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10276,6 +10383,9 @@
       <c r="CH36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CI36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10544,6 +10654,9 @@
       <c r="CH37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CI37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10812,6 +10925,9 @@
       <c r="CH38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CI38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11080,6 +11196,9 @@
       <c r="CH39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CI39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11352,6 +11471,9 @@
       <c r="CH40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CI40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11620,6 +11742,9 @@
       <c r="CH41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CI41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11888,6 +12013,9 @@
       <c r="CH42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CI42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12160,6 +12288,9 @@
       <c r="CH43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CI43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12432,6 +12563,9 @@
       <c r="CH44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CI44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12700,6 +12834,9 @@
       <c r="CH45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CI45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12972,6 +13109,9 @@
       <c r="CH46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CI46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13244,6 +13384,9 @@
       <c r="CH47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CI47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13516,6 +13659,9 @@
       <c r="CH48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CI48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13788,6 +13934,9 @@
       <c r="CH49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CI49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14060,6 +14209,9 @@
       <c r="CH50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CI50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14330,6 +14482,9 @@
       <c r="CH51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CI51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14602,6 +14757,9 @@
       <c r="CH52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CI52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14874,6 +15032,9 @@
       <c r="CH53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CI53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15146,6 +15307,9 @@
       <c r="CH54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CI54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15418,6 +15582,9 @@
       <c r="CH55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CI55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15690,6 +15857,9 @@
       <c r="CH56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CI56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15962,6 +16132,9 @@
       <c r="CH57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CI57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16234,6 +16407,9 @@
       <c r="CH58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CI58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16506,6 +16682,9 @@
       <c r="CH59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CI59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16778,6 +16957,9 @@
       <c r="CH60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CI60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17046,6 +17228,9 @@
       <c r="CH61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CI61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17314,6 +17499,9 @@
       <c r="CH62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CI62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17580,6 +17768,9 @@
         <v>1999.95</v>
       </c>
       <c r="CH63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CI63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -17844,6 +18035,9 @@
       <c r="CH64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CI64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -18112,6 +18306,9 @@
       <c r="CH65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CI65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18380,6 +18577,9 @@
       <c r="CH66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CI66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18648,6 +18848,9 @@
       <c r="CH67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CI67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18916,6 +19119,9 @@
       <c r="CH68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CI68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19184,6 +19390,9 @@
       <c r="CH69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CI69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -19452,6 +19661,9 @@
       <c r="CH70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CI70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19720,6 +19932,9 @@
       <c r="CH71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CI71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19988,6 +20203,9 @@
       <c r="CH72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CI72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -20256,6 +20474,9 @@
       <c r="CH73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CI73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -20524,6 +20745,9 @@
       <c r="CH74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CI74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -20790,6 +21014,9 @@
         <v>2519.95</v>
       </c>
       <c r="CH75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CI75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -21032,6 +21259,7 @@
       <c r="CF76" t="inlineStr"/>
       <c r="CG76" t="inlineStr"/>
       <c r="CH76" t="inlineStr"/>
+      <c r="CI76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI76"/>
+  <dimension ref="A1:CJ76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,6 +857,11 @@
           <t>2026-02-19 23:25:37</t>
         </is>
       </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>2026-02-20 01:28:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1128,6 +1133,9 @@
       <c r="CI2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CJ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1399,6 +1407,9 @@
       <c r="CI3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CJ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1670,6 +1681,9 @@
       <c r="CI4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CJ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1945,6 +1959,9 @@
       <c r="CI5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CJ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2220,6 +2237,9 @@
       <c r="CI6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CJ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2495,6 +2515,9 @@
       <c r="CI7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CJ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2770,6 +2793,9 @@
       <c r="CI8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CJ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3045,6 +3071,9 @@
       <c r="CI9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CJ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3320,6 +3349,9 @@
       <c r="CI10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CJ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3591,6 +3623,9 @@
       <c r="CI11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CJ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3862,6 +3897,9 @@
       <c r="CI12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CJ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4133,6 +4171,9 @@
       <c r="CI13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CJ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4408,6 +4449,9 @@
       <c r="CI14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CJ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4679,6 +4723,9 @@
       <c r="CI15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CJ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4950,6 +4997,9 @@
       <c r="CI16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CJ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5221,6 +5271,9 @@
       <c r="CI17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CJ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5492,6 +5545,9 @@
       <c r="CI18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CJ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5763,6 +5819,9 @@
       <c r="CI19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CJ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6034,6 +6093,9 @@
       <c r="CI20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CJ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6305,6 +6367,9 @@
       <c r="CI21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CJ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6576,6 +6641,9 @@
       <c r="CI22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CJ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6847,6 +6915,9 @@
       <c r="CI23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CJ23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7118,6 +7189,9 @@
       <c r="CI24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CJ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7389,6 +7463,9 @@
       <c r="CI25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CJ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7660,6 +7737,9 @@
       <c r="CI26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CJ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7931,6 +8011,9 @@
       <c r="CI27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CJ27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8202,6 +8285,9 @@
       <c r="CI28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CJ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8473,6 +8559,9 @@
       <c r="CI29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CJ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8748,6 +8837,9 @@
       <c r="CI30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9023,6 +9115,9 @@
       <c r="CI31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9298,6 +9393,9 @@
       <c r="CI32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9573,6 +9671,9 @@
       <c r="CI33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9844,6 +9945,9 @@
       <c r="CI34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10115,6 +10219,9 @@
       <c r="CI35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CJ35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10386,6 +10493,9 @@
       <c r="CI36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CJ36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10657,6 +10767,9 @@
       <c r="CI37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CJ37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10928,6 +11041,9 @@
       <c r="CI38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CJ38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11199,6 +11315,9 @@
       <c r="CI39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CJ39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11474,6 +11593,9 @@
       <c r="CI40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CJ40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11745,6 +11867,9 @@
       <c r="CI41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CJ41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12016,6 +12141,9 @@
       <c r="CI42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CJ42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12291,6 +12419,9 @@
       <c r="CI43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CJ43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12566,6 +12697,9 @@
       <c r="CI44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CJ44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12837,6 +12971,9 @@
       <c r="CI45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CJ45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13112,6 +13249,9 @@
       <c r="CI46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CJ46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13387,6 +13527,9 @@
       <c r="CI47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CJ47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13662,6 +13805,9 @@
       <c r="CI48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CJ48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13937,6 +14083,9 @@
       <c r="CI49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CJ49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14212,6 +14361,9 @@
       <c r="CI50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CJ50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14485,6 +14637,9 @@
       <c r="CI51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CJ51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14494,7 +14649,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -14758,6 +14913,9 @@
         <v>1469.95</v>
       </c>
       <c r="CI52" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="CJ52" t="n">
         <v>1469.95</v>
       </c>
     </row>
@@ -15035,6 +15193,9 @@
       <c r="CI53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CJ53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15310,6 +15471,9 @@
       <c r="CI54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CJ54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15585,6 +15749,9 @@
       <c r="CI55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CJ55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15860,6 +16027,9 @@
       <c r="CI56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CJ56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16135,6 +16305,9 @@
       <c r="CI57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CJ57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16410,6 +16583,9 @@
       <c r="CI58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CJ58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16419,7 +16595,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -16683,6 +16859,9 @@
         <v>1829.95</v>
       </c>
       <c r="CI59" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="CJ59" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -16960,6 +17139,9 @@
       <c r="CI60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CJ60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17231,6 +17413,9 @@
       <c r="CI61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CJ61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17502,6 +17687,9 @@
       <c r="CI62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CJ62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17771,6 +17959,9 @@
         <v>1999.95</v>
       </c>
       <c r="CI63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CJ63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -18038,6 +18229,9 @@
       <c r="CI64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CJ64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -18309,6 +18503,9 @@
       <c r="CI65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CJ65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18580,6 +18777,9 @@
       <c r="CI66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CJ66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18851,6 +19051,9 @@
       <c r="CI67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CJ67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -19122,6 +19325,9 @@
       <c r="CI68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CJ68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19393,6 +19599,9 @@
       <c r="CI69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CJ69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -19664,6 +19873,9 @@
       <c r="CI70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CJ70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19935,6 +20147,9 @@
       <c r="CI71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CJ71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -20206,6 +20421,9 @@
       <c r="CI72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CJ72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -20477,6 +20695,9 @@
       <c r="CI73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CJ73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -20748,6 +20969,9 @@
       <c r="CI74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CJ74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -21017,6 +21241,9 @@
         <v>2519.95</v>
       </c>
       <c r="CI75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CJ75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -21260,6 +21487,7 @@
       <c r="CG76" t="inlineStr"/>
       <c r="CH76" t="inlineStr"/>
       <c r="CI76" t="inlineStr"/>
+      <c r="CJ76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ76"/>
+  <dimension ref="A1:CK76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,6 +862,11 @@
           <t>2026-02-20 01:28:32</t>
         </is>
       </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>2026-02-20 04:11:18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1136,6 +1141,9 @@
       <c r="CJ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CK2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1410,6 +1418,9 @@
       <c r="CJ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CK3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1684,6 +1695,9 @@
       <c r="CJ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CK4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1962,6 +1976,9 @@
       <c r="CJ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CK5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2240,6 +2257,9 @@
       <c r="CJ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CK6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2518,6 +2538,9 @@
       <c r="CJ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CK7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2796,6 +2819,9 @@
       <c r="CJ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CK8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3074,6 +3100,9 @@
       <c r="CJ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CK9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3352,6 +3381,9 @@
       <c r="CJ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CK10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3626,6 +3658,9 @@
       <c r="CJ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CK11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3900,6 +3935,9 @@
       <c r="CJ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CK12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4174,6 +4212,9 @@
       <c r="CJ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CK13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4452,6 +4493,9 @@
       <c r="CJ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CK14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4726,6 +4770,9 @@
       <c r="CJ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CK15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5000,6 +5047,9 @@
       <c r="CJ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CK16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5274,6 +5324,9 @@
       <c r="CJ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CK17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5548,6 +5601,9 @@
       <c r="CJ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CK18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5822,6 +5878,9 @@
       <c r="CJ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CK19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6096,6 +6155,9 @@
       <c r="CJ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CK20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6370,6 +6432,9 @@
       <c r="CJ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CK21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6644,6 +6709,9 @@
       <c r="CJ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CK22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6918,6 +6986,9 @@
       <c r="CJ23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CK23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7192,6 +7263,9 @@
       <c r="CJ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CK24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7466,6 +7540,9 @@
       <c r="CJ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CK25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7740,6 +7817,9 @@
       <c r="CJ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CK26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8014,6 +8094,9 @@
       <c r="CJ27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CK27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8288,6 +8371,9 @@
       <c r="CJ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CK28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8562,6 +8648,9 @@
       <c r="CJ29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CK29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8840,6 +8929,9 @@
       <c r="CJ30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9118,6 +9210,9 @@
       <c r="CJ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9396,6 +9491,9 @@
       <c r="CJ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9674,6 +9772,9 @@
       <c r="CJ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9948,6 +10049,9 @@
       <c r="CJ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10222,6 +10326,9 @@
       <c r="CJ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CK35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10496,6 +10603,9 @@
       <c r="CJ36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CK36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10770,6 +10880,9 @@
       <c r="CJ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CK37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11044,6 +11157,9 @@
       <c r="CJ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CK38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11318,6 +11434,9 @@
       <c r="CJ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CK39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11596,6 +11715,9 @@
       <c r="CJ40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CK40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11870,6 +11992,9 @@
       <c r="CJ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CK41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12144,6 +12269,9 @@
       <c r="CJ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CK42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12422,6 +12550,9 @@
       <c r="CJ43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CK43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12700,6 +12831,9 @@
       <c r="CJ44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CK44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -12974,6 +13108,9 @@
       <c r="CJ45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CK45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13252,6 +13389,9 @@
       <c r="CJ46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CK46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13530,6 +13670,9 @@
       <c r="CJ47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CK47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13808,6 +13951,9 @@
       <c r="CJ48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CK48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14086,6 +14232,9 @@
       <c r="CJ49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CK49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14364,6 +14513,9 @@
       <c r="CJ50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CK50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14640,6 +14792,9 @@
       <c r="CJ51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CK51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -14918,6 +15073,9 @@
       <c r="CJ52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CK52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -15196,6 +15354,9 @@
       <c r="CJ53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CK53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15474,6 +15635,9 @@
       <c r="CJ54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CK54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15752,6 +15916,9 @@
       <c r="CJ55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CK55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16030,6 +16197,9 @@
       <c r="CJ56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CK56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16308,6 +16478,9 @@
       <c r="CJ57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CK57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16586,6 +16759,9 @@
       <c r="CJ58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CK58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16864,6 +17040,9 @@
       <c r="CJ59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CK59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -17142,6 +17321,9 @@
       <c r="CJ60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CK60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17416,6 +17598,9 @@
       <c r="CJ61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CK61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17690,6 +17875,9 @@
       <c r="CJ62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CK62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17962,6 +18150,9 @@
         <v>1999.95</v>
       </c>
       <c r="CJ63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CK63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -18232,6 +18423,9 @@
       <c r="CJ64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CK64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -18506,6 +18700,9 @@
       <c r="CJ65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CK65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18780,6 +18977,9 @@
       <c r="CJ66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CK66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -19054,6 +19254,9 @@
       <c r="CJ67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CK67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -19328,6 +19531,9 @@
       <c r="CJ68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CK68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19602,6 +19808,9 @@
       <c r="CJ69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CK69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -19876,6 +20085,9 @@
       <c r="CJ70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CK70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -20150,6 +20362,9 @@
       <c r="CJ71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CK71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -20424,6 +20639,9 @@
       <c r="CJ72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CK72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -20698,6 +20916,9 @@
       <c r="CJ73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CK73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -20972,6 +21193,9 @@
       <c r="CJ74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CK74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -21244,6 +21468,9 @@
         <v>2519.95</v>
       </c>
       <c r="CJ75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CK75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -21488,6 +21715,7 @@
       <c r="CH76" t="inlineStr"/>
       <c r="CI76" t="inlineStr"/>
       <c r="CJ76" t="inlineStr"/>
+      <c r="CK76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK76"/>
+  <dimension ref="A1:CL76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,6 +867,11 @@
           <t>2026-02-20 04:11:18</t>
         </is>
       </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>2026-02-20 05:50:01</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1144,6 +1149,9 @@
       <c r="CK2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CL2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1421,6 +1429,9 @@
       <c r="CK3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CL3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1698,6 +1709,9 @@
       <c r="CK4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CL4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1979,6 +1993,9 @@
       <c r="CK5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CL5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2260,6 +2277,9 @@
       <c r="CK6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CL6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2541,6 +2561,9 @@
       <c r="CK7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CL7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2822,6 +2845,9 @@
       <c r="CK8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CL8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3103,6 +3129,9 @@
       <c r="CK9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CL9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3384,6 +3413,9 @@
       <c r="CK10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CL10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3661,6 +3693,9 @@
       <c r="CK11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CL11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3938,6 +3973,9 @@
       <c r="CK12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CL12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4215,6 +4253,9 @@
       <c r="CK13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CL13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4496,6 +4537,9 @@
       <c r="CK14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CL14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4773,6 +4817,9 @@
       <c r="CK15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CL15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5050,6 +5097,9 @@
       <c r="CK16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CL16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5327,6 +5377,9 @@
       <c r="CK17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CL17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5604,6 +5657,9 @@
       <c r="CK18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CL18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5881,6 +5937,9 @@
       <c r="CK19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CL19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6158,6 +6217,9 @@
       <c r="CK20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CL20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6435,6 +6497,9 @@
       <c r="CK21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CL21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6712,6 +6777,9 @@
       <c r="CK22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CL22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6989,6 +7057,9 @@
       <c r="CK23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CL23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7266,6 +7337,9 @@
       <c r="CK24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CL24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7543,6 +7617,9 @@
       <c r="CK25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CL25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7820,6 +7897,9 @@
       <c r="CK26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CL26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8097,6 +8177,9 @@
       <c r="CK27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CL27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8374,6 +8457,9 @@
       <c r="CK28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CL28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8651,6 +8737,9 @@
       <c r="CK29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CL29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8932,6 +9021,9 @@
       <c r="CK30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9213,6 +9305,9 @@
       <c r="CK31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9494,6 +9589,9 @@
       <c r="CK32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9775,6 +9873,9 @@
       <c r="CK33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10052,6 +10153,9 @@
       <c r="CK34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10329,6 +10433,9 @@
       <c r="CK35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CL35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10606,6 +10713,9 @@
       <c r="CK36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CL36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10883,6 +10993,9 @@
       <c r="CK37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CL37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11160,6 +11273,9 @@
       <c r="CK38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CL38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11437,6 +11553,9 @@
       <c r="CK39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CL39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11718,6 +11837,9 @@
       <c r="CK40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CL40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11995,6 +12117,9 @@
       <c r="CK41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CL41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12272,6 +12397,9 @@
       <c r="CK42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CL42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12553,6 +12681,9 @@
       <c r="CK43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CL43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12834,6 +12965,9 @@
       <c r="CK44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CL44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13111,6 +13245,9 @@
       <c r="CK45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CL45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13392,6 +13529,9 @@
       <c r="CK46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CL46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13673,6 +13813,9 @@
       <c r="CK47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CL47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13954,6 +14097,9 @@
       <c r="CK48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CL48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14235,6 +14381,9 @@
       <c r="CK49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CL49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14516,6 +14665,9 @@
       <c r="CK50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CL50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14795,6 +14947,9 @@
       <c r="CK51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CL51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -15076,6 +15231,9 @@
       <c r="CK52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CL52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -15357,6 +15515,9 @@
       <c r="CK53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CL53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15638,6 +15799,9 @@
       <c r="CK54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CL54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15919,6 +16083,9 @@
       <c r="CK55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CL55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16200,6 +16367,9 @@
       <c r="CK56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CL56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16481,6 +16651,9 @@
       <c r="CK57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CL57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16762,6 +16935,9 @@
       <c r="CK58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CL58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16771,7 +16947,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -17041,6 +17217,9 @@
         <v>1829.95</v>
       </c>
       <c r="CK59" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="CL59" t="n">
         <v>1829.95</v>
       </c>
     </row>
@@ -17324,6 +17503,9 @@
       <c r="CK60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CL60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17601,6 +17783,9 @@
       <c r="CK61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CL61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17878,6 +18063,9 @@
       <c r="CK62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CL62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -18153,6 +18341,9 @@
         <v>1999.95</v>
       </c>
       <c r="CK63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CL63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -18426,6 +18617,9 @@
       <c r="CK64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CL64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -18703,6 +18897,9 @@
       <c r="CK65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CL65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18980,6 +19177,9 @@
       <c r="CK66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CL66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -19257,6 +19457,9 @@
       <c r="CK67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CL67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -19534,6 +19737,9 @@
       <c r="CK68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CL68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19811,6 +20017,9 @@
       <c r="CK69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CL69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -20088,6 +20297,9 @@
       <c r="CK70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CL70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -20365,6 +20577,9 @@
       <c r="CK71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CL71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -20642,6 +20857,9 @@
       <c r="CK72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CL72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -20919,6 +21137,9 @@
       <c r="CK73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CL73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -21196,6 +21417,9 @@
       <c r="CK74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CL74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -21471,6 +21695,9 @@
         <v>2519.95</v>
       </c>
       <c r="CK75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CL75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -21716,6 +21943,7 @@
       <c r="CI76" t="inlineStr"/>
       <c r="CJ76" t="inlineStr"/>
       <c r="CK76" t="inlineStr"/>
+      <c r="CL76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL76"/>
+  <dimension ref="A1:CM76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,11 @@
           <t>2026-02-20 05:50:01</t>
         </is>
       </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>2026-02-20 06:48:46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1152,6 +1157,9 @@
       <c r="CL2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CM2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1432,6 +1440,9 @@
       <c r="CL3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CM3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1712,6 +1723,9 @@
       <c r="CL4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CM4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1996,6 +2010,9 @@
       <c r="CL5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CM5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2280,6 +2297,9 @@
       <c r="CL6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CM6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2564,6 +2584,9 @@
       <c r="CL7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CM7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2848,6 +2871,9 @@
       <c r="CL8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CM8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3132,6 +3158,9 @@
       <c r="CL9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CM9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3416,6 +3445,9 @@
       <c r="CL10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CM10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3696,6 +3728,9 @@
       <c r="CL11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CM11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3976,6 +4011,9 @@
       <c r="CL12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CM12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4256,6 +4294,9 @@
       <c r="CL13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CM13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4540,6 +4581,9 @@
       <c r="CL14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CM14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4820,6 +4864,9 @@
       <c r="CL15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CM15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4839,7 +4886,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>En stock sous 7 jours (25/02/2026)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -5100,6 +5147,9 @@
       <c r="CL16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CM16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5380,6 +5430,9 @@
       <c r="CL17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CM17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5660,6 +5713,9 @@
       <c r="CL18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CM18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5940,6 +5996,9 @@
       <c r="CL19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CM19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6220,6 +6279,9 @@
       <c r="CL20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CM20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6500,6 +6562,9 @@
       <c r="CL21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CM21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6780,6 +6845,9 @@
       <c r="CL22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CM22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7060,6 +7128,9 @@
       <c r="CL23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CM23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7340,6 +7411,9 @@
       <c r="CL24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CM24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7620,6 +7694,9 @@
       <c r="CL25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CM25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7900,6 +7977,9 @@
       <c r="CL26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CM26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8180,6 +8260,9 @@
       <c r="CL27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CM27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8460,6 +8543,9 @@
       <c r="CL28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CM28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8740,6 +8826,9 @@
       <c r="CL29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CM29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9024,6 +9113,9 @@
       <c r="CL30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9308,6 +9400,9 @@
       <c r="CL31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9592,6 +9687,9 @@
       <c r="CL32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9876,6 +9974,9 @@
       <c r="CL33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10156,6 +10257,9 @@
       <c r="CL34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10436,6 +10540,9 @@
       <c r="CL35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CM35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10716,6 +10823,9 @@
       <c r="CL36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CM36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10996,6 +11106,9 @@
       <c r="CL37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CM37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11276,6 +11389,9 @@
       <c r="CL38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CM38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11556,6 +11672,9 @@
       <c r="CL39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CM39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11840,6 +11959,9 @@
       <c r="CL40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CM40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12120,6 +12242,9 @@
       <c r="CL41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CM41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12400,6 +12525,9 @@
       <c r="CL42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CM42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12684,6 +12812,9 @@
       <c r="CL43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CM43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -12968,6 +13099,9 @@
       <c r="CL44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CM44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13248,6 +13382,9 @@
       <c r="CL45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CM45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13532,6 +13669,9 @@
       <c r="CL46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CM46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13816,6 +13956,9 @@
       <c r="CL47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CM47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14100,6 +14243,9 @@
       <c r="CL48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CM48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14384,6 +14530,9 @@
       <c r="CL49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CM49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14668,6 +14817,9 @@
       <c r="CL50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CM50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -14950,6 +15102,9 @@
       <c r="CL51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CM51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -15234,6 +15389,9 @@
       <c r="CL52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CM52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -15518,6 +15676,9 @@
       <c r="CL53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CM53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15802,6 +15963,9 @@
       <c r="CL54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CM54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16086,6 +16250,9 @@
       <c r="CL55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CM55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16370,6 +16537,9 @@
       <c r="CL56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CM56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16654,6 +16824,9 @@
       <c r="CL57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CM57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16938,6 +17111,9 @@
       <c r="CL58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CM58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -17222,6 +17398,9 @@
       <c r="CL59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CM59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -17506,6 +17685,9 @@
       <c r="CL60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CM60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17786,6 +17968,9 @@
       <c r="CL61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CM61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -18066,6 +18251,9 @@
       <c r="CL62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CM62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -18344,6 +18532,9 @@
         <v>1999.95</v>
       </c>
       <c r="CL63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CM63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -18620,6 +18811,9 @@
       <c r="CL64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CM64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -18900,6 +19094,9 @@
       <c r="CL65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CM65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -19180,6 +19377,9 @@
       <c r="CL66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CM66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -19460,6 +19660,9 @@
       <c r="CL67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CM67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -19740,6 +19943,9 @@
       <c r="CL68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CM68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -20020,6 +20226,9 @@
       <c r="CL69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CM69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -20300,6 +20509,9 @@
       <c r="CL70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CM70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -20580,6 +20792,9 @@
       <c r="CL71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CM71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -20860,6 +21075,9 @@
       <c r="CL72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CM72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -21140,6 +21358,9 @@
       <c r="CL73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CM73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -21420,6 +21641,9 @@
       <c r="CL74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CM74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -21698,6 +21922,9 @@
         <v>2519.95</v>
       </c>
       <c r="CL75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CM75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -21944,6 +22171,7 @@
       <c r="CJ76" t="inlineStr"/>
       <c r="CK76" t="inlineStr"/>
       <c r="CL76" t="inlineStr"/>
+      <c r="CM76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM76"/>
+  <dimension ref="A1:CN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,6 +877,11 @@
           <t>2026-02-20 06:48:46</t>
         </is>
       </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>2026-02-20 07:44:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1160,6 +1165,9 @@
       <c r="CM2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CN2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1443,6 +1451,9 @@
       <c r="CM3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CN3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1726,6 +1737,9 @@
       <c r="CM4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CN4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2013,6 +2027,9 @@
       <c r="CM5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CN5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2300,6 +2317,9 @@
       <c r="CM6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CN6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2587,6 +2607,9 @@
       <c r="CM7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CN7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2874,6 +2897,9 @@
       <c r="CM8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CN8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3161,6 +3187,9 @@
       <c r="CM9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CN9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3448,6 +3477,9 @@
       <c r="CM10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CN10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3731,6 +3763,9 @@
       <c r="CM11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CN11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4014,6 +4049,9 @@
       <c r="CM12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CN12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4297,6 +4335,9 @@
       <c r="CM13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CN13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4584,6 +4625,9 @@
       <c r="CM14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CN14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4867,6 +4911,9 @@
       <c r="CM15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CN15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5150,6 +5197,9 @@
       <c r="CM16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CN16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5433,6 +5483,9 @@
       <c r="CM17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CN17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5716,6 +5769,9 @@
       <c r="CM18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CN18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5999,6 +6055,9 @@
       <c r="CM19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CN19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6282,6 +6341,9 @@
       <c r="CM20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CN20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6565,6 +6627,9 @@
       <c r="CM21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CN21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6848,6 +6913,9 @@
       <c r="CM22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CN22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7131,6 +7199,9 @@
       <c r="CM23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CN23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7414,6 +7485,9 @@
       <c r="CM24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CN24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7697,6 +7771,9 @@
       <c r="CM25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CN25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7980,6 +8057,9 @@
       <c r="CM26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CN26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8263,6 +8343,9 @@
       <c r="CM27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CN27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8546,6 +8629,9 @@
       <c r="CM28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CN28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8829,6 +8915,9 @@
       <c r="CM29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CN29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9116,6 +9205,9 @@
       <c r="CM30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9403,6 +9495,9 @@
       <c r="CM31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9690,6 +9785,9 @@
       <c r="CM32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9977,6 +10075,9 @@
       <c r="CM33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10260,6 +10361,9 @@
       <c r="CM34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10543,6 +10647,9 @@
       <c r="CM35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CN35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10826,6 +10933,9 @@
       <c r="CM36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CN36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11109,6 +11219,9 @@
       <c r="CM37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CN37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11392,6 +11505,9 @@
       <c r="CM38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CN38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11675,6 +11791,9 @@
       <c r="CM39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CN39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11962,6 +12081,9 @@
       <c r="CM40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CN40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12245,6 +12367,9 @@
       <c r="CM41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CN41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12528,6 +12653,9 @@
       <c r="CM42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CN42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12815,6 +12943,9 @@
       <c r="CM43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CN43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13102,6 +13233,9 @@
       <c r="CM44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CN44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13385,6 +13519,9 @@
       <c r="CM45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CN45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13672,6 +13809,9 @@
       <c r="CM46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CN46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13959,6 +14099,9 @@
       <c r="CM47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CN47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14246,6 +14389,9 @@
       <c r="CM48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CN48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14533,6 +14679,9 @@
       <c r="CM49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CN49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14820,6 +14969,9 @@
       <c r="CM50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CN50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15105,6 +15257,9 @@
       <c r="CM51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CN51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -15392,6 +15547,9 @@
       <c r="CM52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CN52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -15679,6 +15837,9 @@
       <c r="CM53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CN53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15966,6 +16127,9 @@
       <c r="CM54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CN54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16253,6 +16417,9 @@
       <c r="CM55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CN55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16540,6 +16707,9 @@
       <c r="CM56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CN56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16827,6 +16997,9 @@
       <c r="CM57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CN57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -17114,6 +17287,9 @@
       <c r="CM58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CN58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -17401,6 +17577,9 @@
       <c r="CM59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CN59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -17688,6 +17867,9 @@
       <c r="CM60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CN60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17971,6 +18153,9 @@
       <c r="CM61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CN61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -18254,6 +18439,9 @@
       <c r="CM62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CN62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -18535,6 +18723,9 @@
         <v>1999.95</v>
       </c>
       <c r="CM63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CN63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -18814,6 +19005,9 @@
       <c r="CM64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CN64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -19097,6 +19291,9 @@
       <c r="CM65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CN65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -19380,6 +19577,9 @@
       <c r="CM66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CN66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -19663,6 +19863,9 @@
       <c r="CM67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CN67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -19946,6 +20149,9 @@
       <c r="CM68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CN68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -20229,6 +20435,9 @@
       <c r="CM69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CN69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -20512,6 +20721,9 @@
       <c r="CM70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CN70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -20795,6 +21007,9 @@
       <c r="CM71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CN71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -21078,6 +21293,9 @@
       <c r="CM72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CN72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -21361,6 +21579,9 @@
       <c r="CM73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CN73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -21644,6 +21865,9 @@
       <c r="CM74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CN74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -21925,6 +22149,9 @@
         <v>2519.95</v>
       </c>
       <c r="CM75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CN75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -22172,6 +22399,7 @@
       <c r="CK76" t="inlineStr"/>
       <c r="CL76" t="inlineStr"/>
       <c r="CM76" t="inlineStr"/>
+      <c r="CN76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN76"/>
+  <dimension ref="A1:CO76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,6 +882,11 @@
           <t>2026-02-20 07:44:32</t>
         </is>
       </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>2026-02-20 08:35:04</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1168,6 +1173,9 @@
       <c r="CN2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CO2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1454,6 +1462,9 @@
       <c r="CN3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CO3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1740,6 +1751,9 @@
       <c r="CN4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CO4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2030,6 +2044,9 @@
       <c r="CN5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CO5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2320,6 +2337,9 @@
       <c r="CN6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CO6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2610,6 +2630,9 @@
       <c r="CN7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CO7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2900,6 +2923,9 @@
       <c r="CN8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CO8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3190,6 +3216,9 @@
       <c r="CN9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CO9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3480,6 +3509,9 @@
       <c r="CN10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CO10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3766,6 +3798,9 @@
       <c r="CN11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CO11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4052,6 +4087,9 @@
       <c r="CN12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CO12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4338,6 +4376,9 @@
       <c r="CN13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CO13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4628,6 +4669,9 @@
       <c r="CN14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CO14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4914,6 +4958,9 @@
       <c r="CN15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CO15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5200,6 +5247,9 @@
       <c r="CN16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CO16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5486,6 +5536,9 @@
       <c r="CN17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CO17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5772,6 +5825,9 @@
       <c r="CN18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CO18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6058,6 +6114,9 @@
       <c r="CN19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CO19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6344,6 +6403,9 @@
       <c r="CN20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CO20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6630,6 +6692,9 @@
       <c r="CN21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CO21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6916,6 +6981,9 @@
       <c r="CN22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CO22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7202,6 +7270,9 @@
       <c r="CN23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CO23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7488,6 +7559,9 @@
       <c r="CN24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CO24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7774,6 +7848,9 @@
       <c r="CN25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CO25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8060,6 +8137,9 @@
       <c r="CN26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CO26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8346,6 +8426,9 @@
       <c r="CN27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CO27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8632,6 +8715,9 @@
       <c r="CN28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CO28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8918,6 +9004,9 @@
       <c r="CN29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CO29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9208,6 +9297,9 @@
       <c r="CN30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9498,6 +9590,9 @@
       <c r="CN31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9788,6 +9883,9 @@
       <c r="CN32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10078,6 +10176,9 @@
       <c r="CN33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10364,6 +10465,9 @@
       <c r="CN34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10650,6 +10754,9 @@
       <c r="CN35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CO35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -10936,6 +11043,9 @@
       <c r="CN36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CO36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11222,6 +11332,9 @@
       <c r="CN37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CO37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11508,6 +11621,9 @@
       <c r="CN38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CO38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11794,6 +11910,9 @@
       <c r="CN39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CO39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12084,6 +12203,9 @@
       <c r="CN40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CO40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12370,6 +12492,9 @@
       <c r="CN41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CO41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12656,6 +12781,9 @@
       <c r="CN42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CO42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -12946,6 +13074,9 @@
       <c r="CN43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CO43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13236,6 +13367,9 @@
       <c r="CN44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CO44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13522,6 +13656,9 @@
       <c r="CN45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CO45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13812,6 +13949,9 @@
       <c r="CN46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CO46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14102,6 +14242,9 @@
       <c r="CN47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CO47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14392,6 +14535,9 @@
       <c r="CN48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CO48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14682,6 +14828,9 @@
       <c r="CN49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CO49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -14972,6 +15121,9 @@
       <c r="CN50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CO50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15260,6 +15412,9 @@
       <c r="CN51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CO51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -15550,6 +15705,9 @@
       <c r="CN52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CO52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -15840,6 +15998,9 @@
       <c r="CN53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CO53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -16130,6 +16291,9 @@
       <c r="CN54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CO54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16420,6 +16584,9 @@
       <c r="CN55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CO55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16710,6 +16877,9 @@
       <c r="CN56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CO56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -17000,6 +17170,9 @@
       <c r="CN57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CO57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -17290,6 +17463,9 @@
       <c r="CN58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CO58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -17580,6 +17756,9 @@
       <c r="CN59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CO59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -17870,6 +18049,9 @@
       <c r="CN60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CO60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -18156,6 +18338,9 @@
       <c r="CN61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CO61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -18442,6 +18627,9 @@
       <c r="CN62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CO62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -18726,6 +18914,9 @@
         <v>1999.95</v>
       </c>
       <c r="CN63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CO63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -19008,6 +19199,9 @@
       <c r="CN64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CO64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -19294,6 +19488,9 @@
       <c r="CN65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CO65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -19580,6 +19777,9 @@
       <c r="CN66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CO66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -19866,6 +20066,9 @@
       <c r="CN67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CO67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -20152,6 +20355,9 @@
       <c r="CN68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CO68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -20438,6 +20644,9 @@
       <c r="CN69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CO69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -20724,6 +20933,9 @@
       <c r="CN70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CO70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -21010,6 +21222,9 @@
       <c r="CN71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CO71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -21296,6 +21511,9 @@
       <c r="CN72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CO72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -21582,6 +21800,9 @@
       <c r="CN73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CO73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -21868,6 +22089,9 @@
       <c r="CN74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CO74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -22152,6 +22376,9 @@
         <v>2519.95</v>
       </c>
       <c r="CN75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CO75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -22400,6 +22627,7 @@
       <c r="CL76" t="inlineStr"/>
       <c r="CM76" t="inlineStr"/>
       <c r="CN76" t="inlineStr"/>
+      <c r="CO76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO76"/>
+  <dimension ref="A1:CP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,6 +887,11 @@
           <t>2026-02-20 08:35:04</t>
         </is>
       </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>2026-02-20 09:36:08</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1176,6 +1181,9 @@
       <c r="CO2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CP2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1465,6 +1473,9 @@
       <c r="CO3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CP3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1754,6 +1765,9 @@
       <c r="CO4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CP4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2047,6 +2061,9 @@
       <c r="CO5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CP5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2340,6 +2357,9 @@
       <c r="CO6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CP6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2633,6 +2653,9 @@
       <c r="CO7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CP7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2926,6 +2949,9 @@
       <c r="CO8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CP8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3219,6 +3245,9 @@
       <c r="CO9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CP9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3512,6 +3541,9 @@
       <c r="CO10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CP10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3801,6 +3833,9 @@
       <c r="CO11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CP11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4090,6 +4125,9 @@
       <c r="CO12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CP12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4379,6 +4417,9 @@
       <c r="CO13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CP13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4672,6 +4713,9 @@
       <c r="CO14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CP14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4961,6 +5005,9 @@
       <c r="CO15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CP15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5250,6 +5297,9 @@
       <c r="CO16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CP16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5539,6 +5589,9 @@
       <c r="CO17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CP17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5828,6 +5881,9 @@
       <c r="CO18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CP18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6117,6 +6173,9 @@
       <c r="CO19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CP19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6406,6 +6465,9 @@
       <c r="CO20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CP20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6695,6 +6757,9 @@
       <c r="CO21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CP21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6984,6 +7049,9 @@
       <c r="CO22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CP22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7273,6 +7341,9 @@
       <c r="CO23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CP23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7562,6 +7633,9 @@
       <c r="CO24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CP24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7851,6 +7925,9 @@
       <c r="CO25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CP25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8140,6 +8217,9 @@
       <c r="CO26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CP26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8429,6 +8509,9 @@
       <c r="CO27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CP27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8718,6 +8801,9 @@
       <c r="CO28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CP28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9007,6 +9093,9 @@
       <c r="CO29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CP29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9300,6 +9389,9 @@
       <c r="CO30" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP30" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9593,6 +9685,9 @@
       <c r="CO31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9886,6 +9981,9 @@
       <c r="CO32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10179,6 +10277,9 @@
       <c r="CO33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10468,6 +10569,9 @@
       <c r="CO34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10757,6 +10861,9 @@
       <c r="CO35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CP35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11046,6 +11153,9 @@
       <c r="CO36" t="n">
         <v>929.95</v>
       </c>
+      <c r="CP36" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11335,6 +11445,9 @@
       <c r="CO37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CP37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11624,6 +11737,9 @@
       <c r="CO38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CP38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11913,6 +12029,9 @@
       <c r="CO39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CP39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12206,6 +12325,9 @@
       <c r="CO40" t="n">
         <v>959.95</v>
       </c>
+      <c r="CP40" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12495,6 +12617,9 @@
       <c r="CO41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CP41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12784,6 +12909,9 @@
       <c r="CO42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CP42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13077,6 +13205,9 @@
       <c r="CO43" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CP43" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13370,6 +13501,9 @@
       <c r="CO44" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CP44" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13659,6 +13793,9 @@
       <c r="CO45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CP45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13952,6 +14089,9 @@
       <c r="CO46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CP46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14245,6 +14385,9 @@
       <c r="CO47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CP47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14538,6 +14681,9 @@
       <c r="CO48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CP48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14831,6 +14977,9 @@
       <c r="CO49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CP49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15124,6 +15273,9 @@
       <c r="CO50" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CP50" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15415,6 +15567,9 @@
       <c r="CO51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CP51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -15708,6 +15863,9 @@
       <c r="CO52" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CP52" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -16001,6 +16159,9 @@
       <c r="CO53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CP53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -16294,6 +16455,9 @@
       <c r="CO54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CP54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16587,6 +16751,9 @@
       <c r="CO55" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CP55" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16880,6 +17047,9 @@
       <c r="CO56" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CP56" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -17173,6 +17343,9 @@
       <c r="CO57" t="n">
         <v>1589.95</v>
       </c>
+      <c r="CP57" t="n">
+        <v>1589.95</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -17466,6 +17639,9 @@
       <c r="CO58" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CP58" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -17759,6 +17935,9 @@
       <c r="CO59" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CP59" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -18052,6 +18231,9 @@
       <c r="CO60" t="n">
         <v>1829.95</v>
       </c>
+      <c r="CP60" t="n">
+        <v>1829.95</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -18341,6 +18523,9 @@
       <c r="CO61" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CP61" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -18630,6 +18815,9 @@
       <c r="CO62" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CP62" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -18917,6 +19105,9 @@
         <v>1999.95</v>
       </c>
       <c r="CO63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CP63" t="n">
         <v>1999.95</v>
       </c>
     </row>
@@ -19202,6 +19393,9 @@
       <c r="CO64" t="n">
         <v>1999.95</v>
       </c>
+      <c r="CP64" t="n">
+        <v>1999.95</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -19491,6 +19685,9 @@
       <c r="CO65" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CP65" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -19780,6 +19977,9 @@
       <c r="CO66" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CP66" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -20069,6 +20269,9 @@
       <c r="CO67" t="n">
         <v>2099.95</v>
       </c>
+      <c r="CP67" t="n">
+        <v>2099.95</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -20358,6 +20561,9 @@
       <c r="CO68" t="n">
         <v>2119.95</v>
       </c>
+      <c r="CP68" t="n">
+        <v>2119.95</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -20647,6 +20853,9 @@
       <c r="CO69" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CP69" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -20936,6 +21145,9 @@
       <c r="CO70" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CP70" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -21225,6 +21437,9 @@
       <c r="CO71" t="n">
         <v>2219.95</v>
       </c>
+      <c r="CP71" t="n">
+        <v>2219.95</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -21514,6 +21729,9 @@
       <c r="CO72" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CP72" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -21803,6 +22021,9 @@
       <c r="CO73" t="n">
         <v>2359.95</v>
       </c>
+      <c r="CP73" t="n">
+        <v>2359.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -22092,6 +22313,9 @@
       <c r="CO74" t="n">
         <v>2519.95</v>
       </c>
+      <c r="CP74" t="n">
+        <v>2519.95</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -22379,6 +22603,9 @@
         <v>2519.95</v>
       </c>
       <c r="CO75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CP75" t="n">
         <v>2519.95</v>
       </c>
     </row>
@@ -22628,6 +22855,7 @@
       <c r="CM76" t="inlineStr"/>
       <c r="CN76" t="inlineStr"/>
       <c r="CO76" t="inlineStr"/>
+      <c r="CP76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP76"/>
+  <dimension ref="A1:CQ77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,11 @@
           <t>2026-02-20 09:36:08</t>
         </is>
       </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>2026-02-20 10:32:38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1184,6 +1189,9 @@
       <c r="CP2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CQ2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1476,6 +1484,9 @@
       <c r="CP3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CQ3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1768,6 +1779,9 @@
       <c r="CP4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CQ4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2064,6 +2078,9 @@
       <c r="CP5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CQ5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2360,6 +2377,9 @@
       <c r="CP6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CQ6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2656,6 +2676,9 @@
       <c r="CP7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CQ7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2952,6 +2975,9 @@
       <c r="CP8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CQ8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3248,6 +3274,9 @@
       <c r="CP9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CQ9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3544,6 +3573,9 @@
       <c r="CP10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CQ10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3836,6 +3868,9 @@
       <c r="CP11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CQ11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4128,6 +4163,9 @@
       <c r="CP12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CQ12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4420,6 +4458,9 @@
       <c r="CP13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CQ13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4716,6 +4757,9 @@
       <c r="CP14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CQ14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5008,6 +5052,9 @@
       <c r="CP15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CQ15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5300,6 +5347,9 @@
       <c r="CP16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CQ16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5592,6 +5642,9 @@
       <c r="CP17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CQ17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5884,6 +5937,9 @@
       <c r="CP18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CQ18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6176,6 +6232,9 @@
       <c r="CP19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CQ19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6468,6 +6527,9 @@
       <c r="CP20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CQ20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6760,6 +6822,9 @@
       <c r="CP21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CQ21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7052,6 +7117,9 @@
       <c r="CP22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CQ22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7344,6 +7412,9 @@
       <c r="CP23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CQ23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7636,6 +7707,9 @@
       <c r="CP24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CQ24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7928,6 +8002,9 @@
       <c r="CP25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CQ25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8220,6 +8297,9 @@
       <c r="CP26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CQ26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8512,6 +8592,9 @@
       <c r="CP27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CQ27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8804,6 +8887,9 @@
       <c r="CP28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CQ28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9096,16 +9182,19 @@
       <c r="CP29" t="n">
         <v>809.95</v>
       </c>
+      <c r="CQ29" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PB00662813</t>
+          <t>PB00701935</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Clair (12 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -9115,15 +9204,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" t="n">
-        <v>14</v>
-      </c>
+          <t>Rupture</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -9131,277 +9216,108 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662813.html</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="J30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="K30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="L30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="M30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="N30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="O30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="P30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="R30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="S30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="T30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="U30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="V30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="W30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="X30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BP30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BQ30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BR30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BS30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BU30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BW30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BY30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="BZ30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CA30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CB30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CC30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CD30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CE30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CF30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CG30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CH30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CI30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CJ30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CK30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CL30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CM30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CN30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CO30" t="n">
-        <v>899.95</v>
-      </c>
-      <c r="CP30" t="n">
-        <v>899.95</v>
+          <t>https://www.ldlc.com/fiche/PB00701935.html</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr"/>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
+      <c r="CE30" t="inlineStr"/>
+      <c r="CF30" t="inlineStr"/>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="inlineStr"/>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr"/>
+      <c r="CP30" t="inlineStr"/>
+      <c r="CQ30" t="n">
+        <v>809.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PB00662814</t>
+          <t>PB00662813</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Clair (12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -9427,7 +9343,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662814.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662813.html</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -9686,18 +9602,21 @@
         <v>899.95</v>
       </c>
       <c r="CP31" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="CQ31" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PB00662811</t>
+          <t>PB00662814</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Gris(12 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -9723,7 +9642,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662811.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662814.html</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -9982,18 +9901,21 @@
         <v>899.95</v>
       </c>
       <c r="CP32" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="CQ32" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PB00662812</t>
+          <t>PB00662811</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Gris(12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -10019,7 +9941,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662812.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662811.html</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -10278,18 +10200,21 @@
         <v>899.95</v>
       </c>
       <c r="CP33" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="CQ33" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PB00692513</t>
+          <t>PB00662812</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -10302,8 +10227,12 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>14</v>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -10311,41 +10240,41 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692513.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662812.html</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="J34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="K34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="L34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="M34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="N34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="O34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="P34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="Q34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="R34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="S34" t="n">
-        <v>999.95</v>
+        <v>899.95</v>
       </c>
       <c r="T34" t="n">
         <v>899.95</v>
@@ -10570,18 +10499,21 @@
         <v>899.95</v>
       </c>
       <c r="CP34" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="CQ34" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PB00692508</t>
+          <t>PB00692513</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 128 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -10603,7 +10535,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692508.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692513.html</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -10862,18 +10794,21 @@
         <v>899.95</v>
       </c>
       <c r="CP35" t="n">
+        <v>899.95</v>
+      </c>
+      <c r="CQ35" t="n">
         <v>899.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PB00701938</t>
+          <t>PB00692508</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 128 Go)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -10883,7 +10818,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -10895,277 +10830,280 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701938.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692508.html</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="J36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="K36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="L36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="M36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="N36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="O36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="P36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="R36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="S36" t="n">
-        <v>929.95</v>
+        <v>999.95</v>
       </c>
       <c r="T36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="U36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="V36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="W36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="X36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="Y36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="Z36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AA36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AB36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AC36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AD36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AE36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AF36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AG36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AH36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AI36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AJ36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AK36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AL36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AM36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AN36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AO36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AP36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AQ36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AR36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AS36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AT36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AU36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AV36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AW36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AX36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AY36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="AZ36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BA36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BB36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BC36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BD36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BE36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BF36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BG36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BH36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BI36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BJ36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BK36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BL36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BM36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BN36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BO36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BP36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BQ36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BR36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BS36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BT36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BU36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BV36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BW36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BX36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BY36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="BZ36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CA36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CB36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CC36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CD36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CE36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CF36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CG36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CH36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CI36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CJ36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CK36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CL36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CM36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CN36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CO36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
       </c>
       <c r="CP36" t="n">
-        <v>929.95</v>
+        <v>899.95</v>
+      </c>
+      <c r="CQ36" t="n">
+        <v>899.95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PB00701941</t>
+          <t>PB00701938</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Blanc (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -11187,7 +11125,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701941.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701938.html</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -11446,18 +11384,21 @@
         <v>929.95</v>
       </c>
       <c r="CP37" t="n">
+        <v>929.95</v>
+      </c>
+      <c r="CQ37" t="n">
         <v>929.95</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PB00701943</t>
+          <t>PB00701941</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Clair (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -11479,7 +11420,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701943.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701941.html</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -11738,18 +11679,21 @@
         <v>929.95</v>
       </c>
       <c r="CP38" t="n">
+        <v>929.95</v>
+      </c>
+      <c r="CQ38" t="n">
         <v>929.95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PB00701940</t>
+          <t>PB00701943</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 512 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Bleu Nuit (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -11771,7 +11715,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00701940.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701943.html</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -12030,18 +11974,21 @@
         <v>929.95</v>
       </c>
       <c r="CP39" t="n">
+        <v>929.95</v>
+      </c>
+      <c r="CQ39" t="n">
         <v>929.95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PB00662818</t>
+          <t>PB00701940</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 FE SM-S731B Noir Absolu (8 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -12054,12 +12001,8 @@
           <t>Rupture</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>10</v>
-      </c>
-      <c r="F40" t="n">
-        <v>14</v>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -12067,277 +12010,280 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662818.html</t>
+          <t>https://www.ldlc.com/fiche/PB00701940.html</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="J40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="K40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="L40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="M40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="N40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="O40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="P40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="Q40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="R40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="S40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="T40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="U40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="V40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="W40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="X40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="Y40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="Z40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AA40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AB40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AC40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AD40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AE40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AF40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AG40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AH40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AI40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AJ40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AK40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AL40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AM40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AN40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AO40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AP40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AQ40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AR40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AS40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AT40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AU40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AV40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AW40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AX40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AY40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="AZ40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BA40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BB40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BC40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BD40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BE40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BF40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BG40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BH40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BI40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BJ40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BK40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BL40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BM40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BN40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BO40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BP40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BQ40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BR40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BS40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BT40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BU40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BV40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BW40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BX40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BY40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="BZ40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CA40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CB40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CC40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CD40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CE40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CF40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CG40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CH40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CI40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CJ40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CK40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CL40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CM40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CN40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CO40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
       </c>
       <c r="CP40" t="n">
-        <v>959.95</v>
+        <v>929.95</v>
+      </c>
+      <c r="CQ40" t="n">
+        <v>929.95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PB00692515</t>
+          <t>PB00662818</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Vert d'eau (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -12347,11 +12293,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+          <t>Rupture</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14</v>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -12359,41 +12309,41 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692515.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662818.html</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="J41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="K41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="L41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="M41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="N41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="O41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="P41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="Q41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="R41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="S41" t="n">
-        <v>1059.95</v>
+        <v>959.95</v>
       </c>
       <c r="T41" t="n">
         <v>959.95</v>
@@ -12618,18 +12568,21 @@
         <v>959.95</v>
       </c>
       <c r="CP41" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="CQ41" t="n">
         <v>959.95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PB00692514</t>
+          <t>PB00692515</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Blanc (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -12651,7 +12604,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692514.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692515.html</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -12910,18 +12863,21 @@
         <v>959.95</v>
       </c>
       <c r="CP42" t="n">
+        <v>959.95</v>
+      </c>
+      <c r="CQ42" t="n">
         <v>959.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PB00662825</t>
+          <t>PB00692514</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 FE Noir (8 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -12931,15 +12887,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rupture</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>10</v>
-      </c>
-      <c r="F43" t="n">
-        <v>14</v>
-      </c>
+          <t>En stock</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -12947,277 +12899,280 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692514.html</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="J43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="K43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="M43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="N43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="O43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="P43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="Q43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="R43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="S43" t="n">
-        <v>1079.95</v>
+        <v>1059.95</v>
       </c>
       <c r="T43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="U43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="V43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="W43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="X43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="Y43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="Z43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AA43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AB43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AC43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AD43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AE43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AF43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AG43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AH43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AI43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AK43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AL43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AM43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AN43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AO43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AP43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AR43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AS43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AT43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AU43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AV43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AW43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AX43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AY43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="AZ43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BA43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BB43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BC43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BD43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BE43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BF43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BG43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BH43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BI43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BJ43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BK43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BL43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BM43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BN43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BO43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BP43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BQ43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BR43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BS43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BT43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BU43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BV43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BW43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BX43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BY43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="BZ43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CA43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CB43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CC43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CD43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CE43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CF43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CG43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CH43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CI43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CJ43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CK43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CL43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CM43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CN43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CO43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
       </c>
       <c r="CP43" t="n">
-        <v>1079.95</v>
+        <v>959.95</v>
+      </c>
+      <c r="CQ43" t="n">
+        <v>959.95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PB00627244</t>
+          <t>PB00662825</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -13227,14 +13182,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -13243,277 +13198,280 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
+          <t>https://www.ldlc.com/fiche/PB00662825.html</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="J44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="K44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="L44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="M44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="N44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="O44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="P44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Q44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="S44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="T44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="U44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="V44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="W44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="X44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Y44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="Z44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AA44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AB44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AC44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AD44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AE44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AF44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AG44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AH44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AI44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AK44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AL44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AM44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AN44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AO44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AP44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AR44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AS44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AT44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AU44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AV44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AW44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AX44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AY44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BA44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BB44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BC44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BD44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BE44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BF44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BG44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BH44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BI44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BJ44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BK44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BL44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BM44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BN44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BO44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BP44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BQ44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BR44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BS44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BT44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BU44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BV44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BW44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BX44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BY44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="BZ44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CA44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CB44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CC44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CD44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CE44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CF44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CG44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CH44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CI44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CJ44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CK44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CL44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CM44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CN44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CO44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
       </c>
       <c r="CP44" t="n">
-        <v>1199.95</v>
+        <v>1079.95</v>
+      </c>
+      <c r="CQ44" t="n">
+        <v>1079.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PB00627429</t>
+          <t>PB00627244</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Bleu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -13526,8 +13484,12 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -13535,7 +13497,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627244.html</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -13794,18 +13756,21 @@
         <v>1199.95</v>
       </c>
       <c r="CP45" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="CQ45" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PB00627245</t>
+          <t>PB00627429</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Entreprise Edition Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -13818,12 +13783,8 @@
           <t>En stock</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>10</v>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
           <t>jsonld</t>
@@ -13831,7 +13792,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627429.html</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -14090,18 +14051,21 @@
         <v>1199.95</v>
       </c>
       <c r="CP46" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="CQ46" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PB00692498</t>
+          <t>PB00627245</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -14111,14 +14075,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -14127,7 +14091,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627245.html</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -14386,18 +14350,21 @@
         <v>1199.95</v>
       </c>
       <c r="CP47" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="CQ47" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PB00692500</t>
+          <t>PB00692498</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -14407,7 +14374,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -14423,7 +14390,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692498.html</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -14682,18 +14649,21 @@
         <v>1199.95</v>
       </c>
       <c r="CP48" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="CQ48" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PB00692499</t>
+          <t>PB00692500</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Corail (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -14719,7 +14689,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692500.html</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -14978,18 +14948,21 @@
         <v>1199.95</v>
       </c>
       <c r="CP49" t="n">
+        <v>1199.95</v>
+      </c>
+      <c r="CQ49" t="n">
         <v>1199.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PB00692501</t>
+          <t>PB00692499</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -14999,7 +14972,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -15015,277 +14988,280 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692499.html</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="J50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="K50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="L50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="M50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="N50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="O50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="P50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Q50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="R50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="S50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="T50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="U50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="V50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="W50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="X50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Y50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="Z50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AA50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AB50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AC50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AD50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AE50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AF50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AG50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AH50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AI50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AK50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AL50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AM50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AN50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AO50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AP50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AR50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AS50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AT50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AU50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AV50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AW50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AX50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AY50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="AZ50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BA50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BB50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BC50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BD50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BE50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BF50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BG50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BH50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BI50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BJ50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BK50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BL50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BM50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BN50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BO50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BP50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BQ50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BR50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BS50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BT50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BU50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BV50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BW50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BX50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BY50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="BZ50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CA50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CB50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CC50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CD50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CE50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CF50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CG50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CH50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CI50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CJ50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CK50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CL50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CM50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CN50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CO50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
       </c>
       <c r="CP50" t="n">
-        <v>1319.95</v>
+        <v>1199.95</v>
+      </c>
+      <c r="CQ50" t="n">
+        <v>1199.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PB00692502</t>
+          <t>PB00692501</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Flip 7 Bleu Nuit (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -15295,7 +15271,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>En stock fournisseur</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -15311,7 +15287,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692501.html</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -15476,7 +15452,9 @@
       <c r="BJ51" t="n">
         <v>1319.95</v>
       </c>
-      <c r="BK51" t="inlineStr"/>
+      <c r="BK51" t="n">
+        <v>1319.95</v>
+      </c>
       <c r="BL51" t="n">
         <v>1319.95</v>
       </c>
@@ -15568,18 +15546,21 @@
         <v>1319.95</v>
       </c>
       <c r="CP51" t="n">
+        <v>1319.95</v>
+      </c>
+      <c r="CQ51" t="n">
         <v>1319.95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PB00663118</t>
+          <t>PB00692502</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy Z Flip 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -15589,14 +15570,14 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock fournisseur</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -15605,277 +15586,278 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692502.html</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="J52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="K52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="L52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="M52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="N52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="O52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="P52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Q52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="R52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="S52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="T52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="U52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="V52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="W52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="X52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Y52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="Z52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AA52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AB52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AC52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AD52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AE52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AF52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AG52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AH52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AI52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AK52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AL52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AM52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AN52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AO52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AP52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AR52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AS52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AT52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AU52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AV52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AW52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AX52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AY52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="AZ52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BA52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BB52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BC52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BD52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BE52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BF52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BG52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BH52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BI52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BJ52" t="n">
-        <v>1469.95</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>1469.95</v>
-      </c>
+        <v>1319.95</v>
+      </c>
+      <c r="BK52" t="inlineStr"/>
       <c r="BL52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BM52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BN52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BO52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BP52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BQ52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BR52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BS52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BT52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BU52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BV52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BW52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BX52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BY52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="BZ52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CA52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CB52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CC52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CD52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CE52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CF52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CG52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CH52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CI52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CJ52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CK52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CL52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CM52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CN52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CO52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
       </c>
       <c r="CP52" t="n">
-        <v>1469.95</v>
+        <v>1319.95</v>
+      </c>
+      <c r="CQ52" t="n">
+        <v>1319.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PB00663117</t>
+          <t>PB00663118</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -15885,7 +15867,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -15901,7 +15883,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663118.html</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -16160,18 +16142,21 @@
         <v>1469.95</v>
       </c>
       <c r="CP53" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="CQ53" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PB00663115</t>
+          <t>PB00663117</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Bleu Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -16197,7 +16182,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663117.html</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -16456,18 +16441,21 @@
         <v>1469.95</v>
       </c>
       <c r="CP54" t="n">
+        <v>1469.95</v>
+      </c>
+      <c r="CQ54" t="n">
         <v>1469.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PB00663124</t>
+          <t>PB00663115</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -16477,7 +16465,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -16493,277 +16481,280 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663115.html</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="J55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="K55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="L55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="M55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="N55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="O55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="P55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Q55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="R55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="S55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="T55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="U55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="V55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="W55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="X55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Y55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="Z55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AA55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AB55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AC55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AD55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AE55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AF55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AG55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AH55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AI55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AK55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AL55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AM55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AN55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AO55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AP55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AR55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AS55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AT55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AU55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AV55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AW55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AX55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AY55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="AZ55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BA55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BB55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BC55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BD55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BE55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BF55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BG55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BH55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BI55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BJ55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BK55" t="n">
-        <v>1139</v>
+        <v>1469.95</v>
       </c>
       <c r="BL55" t="n">
-        <v>1139</v>
+        <v>1469.95</v>
       </c>
       <c r="BM55" t="n">
-        <v>1139</v>
+        <v>1469.95</v>
       </c>
       <c r="BN55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BO55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BP55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BQ55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BR55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BS55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BT55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BU55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BV55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BW55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BX55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BY55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="BZ55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CA55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CB55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CC55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CD55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CE55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CF55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CG55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CH55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CI55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CJ55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CK55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CL55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CM55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CN55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CO55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
       </c>
       <c r="CP55" t="n">
-        <v>1589.95</v>
+        <v>1469.95</v>
+      </c>
+      <c r="CQ55" t="n">
+        <v>1469.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PB00663120</t>
+          <t>PB00663124</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -16773,7 +16764,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -16789,7 +16780,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663124.html</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -16955,13 +16946,13 @@
         <v>1589.95</v>
       </c>
       <c r="BK56" t="n">
-        <v>982</v>
+        <v>1139</v>
       </c>
       <c r="BL56" t="n">
-        <v>982</v>
+        <v>1139</v>
       </c>
       <c r="BM56" t="n">
-        <v>983</v>
+        <v>1139</v>
       </c>
       <c r="BN56" t="n">
         <v>1589.95</v>
@@ -17048,18 +17039,21 @@
         <v>1589.95</v>
       </c>
       <c r="CP56" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="CQ56" t="n">
         <v>1589.95</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PB00663119</t>
+          <t>PB00663120</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -17069,7 +17063,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>En stock dans 7/15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -17085,7 +17079,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663120.html</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -17251,13 +17245,13 @@
         <v>1589.95</v>
       </c>
       <c r="BK57" t="n">
-        <v>1589.95</v>
+        <v>982</v>
       </c>
       <c r="BL57" t="n">
-        <v>1589.95</v>
+        <v>982</v>
       </c>
       <c r="BM57" t="n">
-        <v>1589.95</v>
+        <v>983</v>
       </c>
       <c r="BN57" t="n">
         <v>1589.95</v>
@@ -17344,18 +17338,21 @@
         <v>1589.95</v>
       </c>
       <c r="CP57" t="n">
+        <v>1589.95</v>
+      </c>
+      <c r="CQ57" t="n">
         <v>1589.95</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PB00663128</t>
+          <t>PB00663119</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 512 Go)1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -17365,7 +17362,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock dans 7/15 jours</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -17381,277 +17378,280 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663119.html</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="J58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="K58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="L58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="M58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="N58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="O58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="P58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Q58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="R58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="S58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="T58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="U58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="V58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="W58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="X58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Y58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="Z58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AA58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AB58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AC58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AD58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AE58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AF58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AG58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AH58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AI58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AK58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AL58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AM58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AN58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AO58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AP58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AR58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AS58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AT58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AU58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AV58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AW58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AX58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AY58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BA58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BB58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BC58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BD58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BE58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BF58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BG58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BH58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BI58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BJ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BK58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BL58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BM58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BN58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BO58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BP58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BQ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BR58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BS58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BT58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BU58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BV58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BW58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BX58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BY58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="BZ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CA58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CB58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CC58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CD58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CE58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CF58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CG58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CH58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CI58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CJ58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CK58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CL58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CM58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CN58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CO58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
       </c>
       <c r="CP58" t="n">
-        <v>1829.95</v>
+        <v>1589.95</v>
+      </c>
+      <c r="CQ58" t="n">
+        <v>1589.95</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PB00663126</t>
+          <t>PB00663128</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Argent Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -17677,7 +17677,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663128.html</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -17936,18 +17936,21 @@
         <v>1829.95</v>
       </c>
       <c r="CP59" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="CQ59" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PB00663125</t>
+          <t>PB00663126</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Gris Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -17957,7 +17960,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -17973,7 +17976,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663126.html</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -18232,18 +18235,21 @@
         <v>1829.95</v>
       </c>
       <c r="CP60" t="n">
+        <v>1829.95</v>
+      </c>
+      <c r="CQ60" t="n">
         <v>1829.95</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PB00627257</t>
+          <t>PB00663125</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)1</t>
+          <t>Samsung Galaxy S25 Ultra SM-S938B Noir Titane (12 Go / 1 To)1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -18253,289 +18259,296 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>En stock</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+          <t>En stock dans + de 15 jours</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" t="n">
+        <v>14</v>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>listing</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
+          <t>https://www.ldlc.com/fiche/PB00663125.html</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="J61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="K61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="L61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="M61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="N61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="O61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="P61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Q61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="R61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="S61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="T61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="U61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="V61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="W61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="X61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Y61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="Z61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AA61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AB61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AC61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AD61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AE61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AF61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AG61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AH61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AI61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AK61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AL61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AM61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AN61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AO61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AP61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AR61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AS61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AT61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AU61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AV61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AW61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AX61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AY61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BA61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BB61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BC61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BD61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BE61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BF61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BG61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BH61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BI61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BJ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BK61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BL61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BM61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BN61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BO61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BP61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BQ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BR61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BS61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BT61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BU61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BV61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BW61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BX61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BY61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="BZ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CA61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CB61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CC61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CD61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CE61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CF61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CG61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CH61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CI61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CJ61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CK61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CL61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CM61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CN61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CO61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
       </c>
       <c r="CP61" t="n">
-        <v>1999.95</v>
+        <v>1829.95</v>
+      </c>
+      <c r="CQ61" t="n">
+        <v>1829.95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PB00627428</t>
+          <t>PB00627257</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 256 Go)1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -18552,12 +18565,12 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>listing</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627257.html</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -18816,18 +18829,21 @@
         <v>1999.95</v>
       </c>
       <c r="CP62" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CQ62" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PB00627255</t>
+          <t>PB00627428</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Entreprise Edition Noir (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -18849,7 +18865,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627428.html</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -19108,18 +19124,21 @@
         <v>1999.95</v>
       </c>
       <c r="CP63" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CQ63" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PB00627256</t>
+          <t>PB00627255</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -19129,7 +19148,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -19141,7 +19160,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627255.html</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -19306,9 +19325,15 @@
       <c r="BJ64" t="n">
         <v>1999.95</v>
       </c>
-      <c r="BK64" t="inlineStr"/>
-      <c r="BL64" t="inlineStr"/>
-      <c r="BM64" t="inlineStr"/>
+      <c r="BK64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1999.95</v>
+      </c>
       <c r="BN64" t="n">
         <v>1999.95</v>
       </c>
@@ -19394,18 +19419,21 @@
         <v>1999.95</v>
       </c>
       <c r="CP64" t="n">
+        <v>1999.95</v>
+      </c>
+      <c r="CQ64" t="n">
         <v>1999.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PB00692518</t>
+          <t>PB00627256</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -19415,289 +19443,286 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627256.html</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="J65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="K65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="L65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="M65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="N65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="O65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="P65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Q65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="R65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="S65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="T65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="U65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="V65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="W65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="X65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Y65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="Z65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AA65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AB65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AC65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AD65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AE65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AF65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AG65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AH65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AI65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AJ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AK65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AL65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AM65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AN65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AO65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AP65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AR65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AS65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AT65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AU65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AV65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AW65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AX65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AY65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="AZ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BA65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BB65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BC65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BD65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BE65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BF65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BG65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BH65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BI65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BJ65" t="n">
-        <v>2099.95</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>2099.95</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>2099.95</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>2099.95</v>
-      </c>
+        <v>1999.95</v>
+      </c>
+      <c r="BK65" t="inlineStr"/>
+      <c r="BL65" t="inlineStr"/>
+      <c r="BM65" t="inlineStr"/>
       <c r="BN65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BO65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BP65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BQ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BR65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BS65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BT65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BU65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BV65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BW65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BX65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BY65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="BZ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CA65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CB65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CC65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CD65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CE65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CF65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CG65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CH65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CI65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CJ65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CK65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CL65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CM65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CN65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CO65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
       </c>
       <c r="CP65" t="n">
-        <v>2099.95</v>
+        <v>1999.95</v>
+      </c>
+      <c r="CQ65" t="n">
+        <v>1999.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PB00692520</t>
+          <t>PB00692518</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -19707,7 +19732,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -19719,7 +19744,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692518.html</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -19978,18 +20003,21 @@
         <v>2099.95</v>
       </c>
       <c r="CP66" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="CQ66" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PB00692519</t>
+          <t>PB00692520</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -19999,7 +20027,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -20011,7 +20039,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692520.html</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -20270,18 +20298,21 @@
         <v>2099.95</v>
       </c>
       <c r="CP67" t="n">
+        <v>2099.95</v>
+      </c>
+      <c r="CQ67" t="n">
         <v>2099.95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PB00627260</t>
+          <t>PB00692519</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 256 Go)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -20291,289 +20322,292 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692519.html</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="J68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="K68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="L68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="M68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="N68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="O68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="P68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Q68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="R68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="S68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="T68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="U68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="V68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="W68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="X68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Y68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="Z68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AA68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AB68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AC68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AD68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AE68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AF68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AG68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AH68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AI68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AJ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AK68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AL68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AM68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AN68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AO68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AP68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AR68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AS68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AT68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AU68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AV68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AW68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AX68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AY68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="AZ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BA68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BB68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BC68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BD68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BE68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BF68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BG68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BH68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BI68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BJ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BK68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BL68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BM68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BN68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BO68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BP68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BQ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BR68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BS68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BT68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BU68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BV68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BW68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BX68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BY68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="BZ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CA68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CB68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CC68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CD68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CE68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CF68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CG68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CH68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CI68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CJ68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CK68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CL68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CM68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CN68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CO68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
       </c>
       <c r="CP68" t="n">
-        <v>2119.95</v>
+        <v>2099.95</v>
+      </c>
+      <c r="CQ68" t="n">
+        <v>2099.95</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PB00692521</t>
+          <t>PB00627260</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -20583,289 +20617,292 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627260.html</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="J69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="K69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="L69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="M69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="N69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="O69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="P69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Q69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="R69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="S69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="T69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="U69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="V69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="W69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="X69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Y69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="Z69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AA69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AB69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AC69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AD69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AE69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AF69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AG69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AH69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AI69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AK69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AL69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AM69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AN69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AO69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AP69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AR69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AS69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AT69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AU69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AV69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AW69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AX69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AY69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="AZ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BA69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BB69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BC69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BD69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BE69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BF69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BG69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BH69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BI69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BJ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BK69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BL69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BM69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BN69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BO69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BP69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BQ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BR69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BS69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BT69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BU69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BV69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BW69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BX69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BY69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="BZ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CA69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CB69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CC69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CD69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CE69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CF69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CG69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CH69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CI69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CJ69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CK69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CL69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CM69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CN69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CO69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
       </c>
       <c r="CP69" t="n">
-        <v>2219.95</v>
+        <v>2119.95</v>
+      </c>
+      <c r="CQ69" t="n">
+        <v>2119.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PB00692523</t>
+          <t>PB00692521</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (12 Go / 512 Go)2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -20875,7 +20912,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>En stock</t>
+          <t>En stock dans + de 15 jours</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -20887,7 +20924,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692521.html</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -21146,18 +21183,21 @@
         <v>2219.95</v>
       </c>
       <c r="CP70" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="CQ70" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PB00692522</t>
+          <t>PB00692523</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
+          <t>Samsung Galaxy Z Fold 7 Gris (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -21179,7 +21219,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692523.html</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -21438,18 +21478,21 @@
         <v>2219.95</v>
       </c>
       <c r="CP71" t="n">
+        <v>2219.95</v>
+      </c>
+      <c r="CQ71" t="n">
         <v>2219.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PB00627265</t>
+          <t>PB00692522</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 512 Go)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -21466,282 +21509,285 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>dom</t>
+          <t>jsonld</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692522.html</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="J72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="K72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="L72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="M72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="N72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="O72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="P72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Q72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="R72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="S72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="T72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="U72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="V72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="W72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="X72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Y72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="Z72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AA72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AB72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AC72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AD72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AE72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AF72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AG72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AH72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AI72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AJ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AK72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AL72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AM72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AN72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AO72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AP72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AQ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AR72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AS72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AT72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AU72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AV72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AW72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AX72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AY72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="AZ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BA72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BB72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BC72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BD72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BE72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BF72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BG72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BH72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BI72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BJ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BK72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BL72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BM72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BN72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BO72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BP72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BQ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BR72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BS72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BT72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BU72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BV72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BW72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BX72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BY72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="BZ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CA72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CB72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CC72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CD72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CE72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CF72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CG72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CH72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CI72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CJ72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CK72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CL72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CM72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CN72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CO72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
       </c>
       <c r="CP72" t="n">
-        <v>2359.95</v>
+        <v>2219.95</v>
+      </c>
+      <c r="CQ72" t="n">
+        <v>2219.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PB00627263</t>
+          <t>PB00627265</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Bleu Nuit (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -21751,7 +21797,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Rupture</t>
+          <t>En stock</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -21763,7 +21809,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627265.html</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -22022,18 +22068,21 @@
         <v>2359.95</v>
       </c>
       <c r="CP73" t="n">
+        <v>2359.95</v>
+      </c>
+      <c r="CQ73" t="n">
         <v>2359.95</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PB00692525</t>
+          <t>PB00627263</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 6 Rose (12 Go / 1 To)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -22050,282 +22099,285 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>jsonld</t>
+          <t>dom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
+          <t>https://www.ldlc.com/fiche/PB00627263.html</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="J74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="K74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="L74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="M74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="N74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="O74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="P74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Q74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="R74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="S74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="T74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="U74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="V74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="W74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="X74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Y74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="Z74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AA74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AB74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AC74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AD74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AE74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AF74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AG74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AH74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AI74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AJ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AK74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AL74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AM74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AN74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AO74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AP74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AQ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AR74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AS74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AT74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AU74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AV74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AW74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AX74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AY74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BA74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BB74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BC74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BD74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BE74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BF74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BG74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BH74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BI74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BJ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BK74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BL74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BM74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BN74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BO74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BP74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BQ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BR74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BS74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BT74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BU74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BV74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BW74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BX74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BY74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="BZ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CA74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CB74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CC74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CD74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CE74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CF74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CG74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CH74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CI74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CJ74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CK74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CL74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CM74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CN74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CO74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
       </c>
       <c r="CP74" t="n">
-        <v>2519.95</v>
+        <v>2359.95</v>
+      </c>
+      <c r="CQ74" t="n">
+        <v>2359.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PB00692526</t>
+          <t>PB00692525</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
+          <t>Samsung Galaxy Z Fold 7 Bleu Nuit (16 Go / 1 To)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -22335,7 +22387,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>En stock dans + de 15 jours</t>
+          <t>Rupture</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -22347,7 +22399,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
+          <t>https://www.ldlc.com/fiche/PB00692525.html</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -22606,256 +22658,555 @@
         <v>2519.95</v>
       </c>
       <c r="CP75" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CQ75" t="n">
         <v>2519.95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>PB00692526</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Z Fold 7 Noir Absolu (12 Go / 1 To)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>En stock dans + de 15 jours</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>jsonld</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.ldlc.com/fiche/PB00692526.html</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="W76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BT76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BV76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BW76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BX76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BY76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="BZ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CA76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CB76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CC76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CD76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CE76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CF76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CG76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CH76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CI76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CJ76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CK76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CL76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CM76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CN76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CO76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CP76" t="n">
+        <v>2519.95</v>
+      </c>
+      <c r="CQ76" t="n">
+        <v>2519.95</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>PB00662820</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Samsung Galaxy S25 SM-S931B Bleu Nuit (12 Go / 256 Go)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>En stock</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="E77" t="n">
         <v>10</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F77" t="n">
         <v>14</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>jsonld</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>https://www.ldlc.com/fiche/PB00662820.html</t>
         </is>
       </c>
-      <c r="I76" t="n">
+      <c r="I77" t="n">
         <v>686</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J77" t="n">
         <v>686</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K77" t="n">
         <v>686</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L77" t="n">
         <v>686</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M77" t="n">
         <v>686</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N77" t="n">
         <v>686</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O77" t="n">
         <v>686</v>
       </c>
-      <c r="P76" t="n">
+      <c r="P77" t="n">
         <v>686</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q77" t="n">
         <v>686</v>
       </c>
-      <c r="R76" t="n">
+      <c r="R77" t="n">
         <v>686</v>
       </c>
-      <c r="S76" t="n">
+      <c r="S77" t="n">
         <v>686</v>
       </c>
-      <c r="T76" t="n">
+      <c r="T77" t="n">
         <v>686</v>
       </c>
-      <c r="U76" t="n">
+      <c r="U77" t="n">
         <v>686</v>
       </c>
-      <c r="V76" t="n">
+      <c r="V77" t="n">
         <v>686</v>
       </c>
-      <c r="W76" t="n">
+      <c r="W77" t="n">
         <v>686</v>
       </c>
-      <c r="X76" t="n">
+      <c r="X77" t="n">
         <v>686</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="Y77" t="n">
         <v>686</v>
       </c>
-      <c r="Z76" t="n">
+      <c r="Z77" t="n">
         <v>686</v>
       </c>
-      <c r="AA76" t="n">
+      <c r="AA77" t="n">
         <v>686</v>
       </c>
-      <c r="AB76" t="n">
+      <c r="AB77" t="n">
         <v>686</v>
       </c>
-      <c r="AC76" t="n">
+      <c r="AC77" t="n">
         <v>686</v>
       </c>
-      <c r="AD76" t="n">
+      <c r="AD77" t="n">
         <v>686</v>
       </c>
-      <c r="AE76" t="n">
+      <c r="AE77" t="n">
         <v>686</v>
       </c>
-      <c r="AF76" t="n">
+      <c r="AF77" t="n">
         <v>686</v>
       </c>
-      <c r="AG76" t="n">
+      <c r="AG77" t="n">
         <v>686</v>
       </c>
-      <c r="AH76" t="n">
+      <c r="AH77" t="n">
         <v>686</v>
       </c>
-      <c r="AI76" t="n">
+      <c r="AI77" t="n">
         <v>686</v>
       </c>
-      <c r="AJ76" t="n">
+      <c r="AJ77" t="n">
         <v>686</v>
       </c>
-      <c r="AK76" t="n">
+      <c r="AK77" t="n">
         <v>686</v>
       </c>
-      <c r="AL76" t="n">
+      <c r="AL77" t="n">
         <v>686</v>
       </c>
-      <c r="AM76" t="n">
+      <c r="AM77" t="n">
         <v>686</v>
       </c>
-      <c r="AN76" t="n">
+      <c r="AN77" t="n">
         <v>686</v>
       </c>
-      <c r="AO76" t="n">
+      <c r="AO77" t="n">
         <v>686</v>
       </c>
-      <c r="AP76" t="n">
+      <c r="AP77" t="n">
         <v>686</v>
       </c>
-      <c r="AQ76" t="n">
+      <c r="AQ77" t="n">
         <v>686</v>
       </c>
-      <c r="AR76" t="n">
+      <c r="AR77" t="n">
         <v>686</v>
       </c>
-      <c r="AS76" t="n">
+      <c r="AS77" t="n">
         <v>686</v>
       </c>
-      <c r="AT76" t="n">
+      <c r="AT77" t="n">
         <v>686</v>
       </c>
-      <c r="AU76" t="n">
+      <c r="AU77" t="n">
         <v>686</v>
       </c>
-      <c r="AV76" t="n">
+      <c r="AV77" t="n">
         <v>686</v>
       </c>
-      <c r="AW76" t="n">
+      <c r="AW77" t="n">
         <v>686</v>
       </c>
-      <c r="AX76" t="n">
+      <c r="AX77" t="n">
         <v>686</v>
       </c>
-      <c r="AY76" t="n">
+      <c r="AY77" t="n">
         <v>686</v>
       </c>
-      <c r="AZ76" t="n">
+      <c r="AZ77" t="n">
         <v>686</v>
       </c>
-      <c r="BA76" t="n">
+      <c r="BA77" t="n">
         <v>686</v>
       </c>
-      <c r="BB76" t="n">
+      <c r="BB77" t="n">
         <v>686</v>
       </c>
-      <c r="BC76" t="n">
+      <c r="BC77" t="n">
         <v>686</v>
       </c>
-      <c r="BD76" t="n">
+      <c r="BD77" t="n">
         <v>686</v>
       </c>
-      <c r="BE76" t="n">
+      <c r="BE77" t="n">
         <v>686</v>
       </c>
-      <c r="BF76" t="n">
+      <c r="BF77" t="n">
         <v>686</v>
       </c>
-      <c r="BG76" t="n">
+      <c r="BG77" t="n">
         <v>686</v>
       </c>
-      <c r="BH76" t="n">
+      <c r="BH77" t="n">
         <v>686</v>
       </c>
-      <c r="BI76" t="n">
+      <c r="BI77" t="n">
         <v>686</v>
       </c>
-      <c r="BJ76" t="n">
+      <c r="BJ77" t="n">
         <v>686</v>
       </c>
-      <c r="BK76" t="n">
+      <c r="BK77" t="n">
         <v>647</v>
       </c>
-      <c r="BL76" t="n">
+      <c r="BL77" t="n">
         <v>647</v>
       </c>
-      <c r="BM76" t="n">
+      <c r="BM77" t="n">
         <v>647</v>
       </c>
-      <c r="BN76" t="n">
+      <c r="BN77" t="n">
         <v>686</v>
       </c>
-      <c r="BO76" t="n">
+      <c r="BO77" t="n">
         <v>686</v>
       </c>
-      <c r="BP76" t="n">
+      <c r="BP77" t="n">
         <v>686</v>
       </c>
-      <c r="BQ76" t="n">
+      <c r="BQ77" t="n">
         <v>686</v>
       </c>
-      <c r="BR76" t="n">
+      <c r="BR77" t="n">
         <v>686</v>
       </c>
-      <c r="BS76" t="inlineStr"/>
-      <c r="BT76" t="inlineStr"/>
-      <c r="BU76" t="inlineStr"/>
-      <c r="BV76" t="inlineStr"/>
-      <c r="BW76" t="inlineStr"/>
-      <c r="BX76" t="inlineStr"/>
-      <c r="BY76" t="inlineStr"/>
-      <c r="BZ76" t="inlineStr"/>
-      <c r="CA76" t="inlineStr"/>
-      <c r="CB76" t="inlineStr"/>
-      <c r="CC76" t="inlineStr"/>
-      <c r="CD76" t="inlineStr"/>
-      <c r="CE76" t="inlineStr"/>
-      <c r="CF76" t="inlineStr"/>
-      <c r="CG76" t="inlineStr"/>
-      <c r="CH76" t="inlineStr"/>
-      <c r="CI76" t="inlineStr"/>
-      <c r="CJ76" t="inlineStr"/>
-      <c r="CK76" t="inlineStr"/>
-      <c r="CL76" t="inlineStr"/>
-      <c r="CM76" t="inlineStr"/>
-      <c r="CN76" t="inlineStr"/>
-      <c r="CO76" t="inlineStr"/>
-      <c r="CP76" t="inlineStr"/>
+      <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="inlineStr"/>
+      <c r="BU77" t="inlineStr"/>
+      <c r="BV77" t="inlineStr"/>
+      <c r="BW77" t="inlineStr"/>
+      <c r="BX77" t="inlineStr"/>
+      <c r="BY77" t="inlineStr"/>
+      <c r="BZ77" t="inlineStr"/>
+      <c r="CA77" t="inlineStr"/>
+      <c r="CB77" t="inlineStr"/>
+      <c r="CC77" t="inlineStr"/>
+      <c r="CD77" t="inlineStr"/>
+      <c r="CE77" t="inlineStr"/>
+      <c r="CF77" t="inlineStr"/>
+      <c r="CG77" t="inlineStr"/>
+      <c r="CH77" t="inlineStr"/>
+      <c r="CI77" t="inlineStr"/>
+      <c r="CJ77" t="inlineStr"/>
+      <c r="CK77" t="inlineStr"/>
+      <c r="CL77" t="inlineStr"/>
+      <c r="CM77" t="inlineStr"/>
+      <c r="CN77" t="inlineStr"/>
+      <c r="CO77" t="inlineStr"/>
+      <c r="CP77" t="inlineStr"/>
+      <c r="CQ77" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datanomics/outputs/ldlc_samsung.xlsx
+++ b/datanomics/outputs/ldlc_samsung.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ77"/>
+  <dimension ref="A1:CR77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,11 @@
           <t>2026-02-20 10:32:38</t>
         </is>
       </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>2026-02-20 11:28:32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1192,6 +1197,9 @@
       <c r="CQ2" t="n">
         <v>169.95</v>
       </c>
+      <c r="CR2" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1487,6 +1495,9 @@
       <c r="CQ3" t="n">
         <v>169.95</v>
       </c>
+      <c r="CR3" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1782,6 +1793,9 @@
       <c r="CQ4" t="n">
         <v>169.95</v>
       </c>
+      <c r="CR4" t="n">
+        <v>169.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2081,6 +2095,9 @@
       <c r="CQ5" t="n">
         <v>199.95</v>
       </c>
+      <c r="CR5" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2380,6 +2397,9 @@
       <c r="CQ6" t="n">
         <v>199.95</v>
       </c>
+      <c r="CR6" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2679,6 +2699,9 @@
       <c r="CQ7" t="n">
         <v>199.95</v>
       </c>
+      <c r="CR7" t="n">
+        <v>199.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2978,6 +3001,9 @@
       <c r="CQ8" t="n">
         <v>229.95</v>
       </c>
+      <c r="CR8" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3277,6 +3303,9 @@
       <c r="CQ9" t="n">
         <v>229.95</v>
       </c>
+      <c r="CR9" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3576,6 +3605,9 @@
       <c r="CQ10" t="n">
         <v>229.95</v>
       </c>
+      <c r="CR10" t="n">
+        <v>229.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3871,6 +3903,9 @@
       <c r="CQ11" t="n">
         <v>294.95</v>
       </c>
+      <c r="CR11" t="n">
+        <v>294.95</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4166,6 +4201,9 @@
       <c r="CQ12" t="n">
         <v>318.95</v>
       </c>
+      <c r="CR12" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4461,6 +4499,9 @@
       <c r="CQ13" t="n">
         <v>318.95</v>
       </c>
+      <c r="CR13" t="n">
+        <v>318.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4760,6 +4801,9 @@
       <c r="CQ14" t="n">
         <v>339.95</v>
       </c>
+      <c r="CR14" t="n">
+        <v>339.95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5055,6 +5099,9 @@
       <c r="CQ15" t="n">
         <v>399.95</v>
       </c>
+      <c r="CR15" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5350,6 +5397,9 @@
       <c r="CQ16" t="n">
         <v>399.95</v>
       </c>
+      <c r="CR16" t="n">
+        <v>399.95</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5645,6 +5695,9 @@
       <c r="CQ17" t="n">
         <v>429.95</v>
       </c>
+      <c r="CR17" t="n">
+        <v>429.95</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5940,6 +5993,9 @@
       <c r="CQ18" t="n">
         <v>499.95</v>
       </c>
+      <c r="CR18" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -6235,6 +6291,9 @@
       <c r="CQ19" t="n">
         <v>499.95</v>
       </c>
+      <c r="CR19" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -6530,6 +6589,9 @@
       <c r="CQ20" t="n">
         <v>499.95</v>
       </c>
+      <c r="CR20" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6825,6 +6887,9 @@
       <c r="CQ21" t="n">
         <v>499.95</v>
       </c>
+      <c r="CR21" t="n">
+        <v>499.95</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7120,6 +7185,9 @@
       <c r="CQ22" t="n">
         <v>519.95</v>
       </c>
+      <c r="CR22" t="n">
+        <v>519.95</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7415,6 +7483,9 @@
       <c r="CQ23" t="n">
         <v>749.95</v>
       </c>
+      <c r="CR23" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7710,6 +7781,9 @@
       <c r="CQ24" t="n">
         <v>749.95</v>
       </c>
+      <c r="CR24" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -8005,6 +8079,9 @@
       <c r="CQ25" t="n">
         <v>749.95</v>
       </c>
+      <c r="CR25" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -8300,6 +8377,9 @@
       <c r="CQ26" t="n">
         <v>749.95</v>
       </c>
+      <c r="CR26" t="n">
+        <v>749.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8595,6 +8675,9 @@
       <c r="CQ27" t="n">
         <v>809.95</v>
       </c>
+      <c r="CR27" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -8890,6 +8973,9 @@
       <c r="CQ28" t="n">
         <v>809.95</v>
       </c>
+      <c r="CR28" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9183,6 +9269,9 @@
         <v>809.95</v>
       </c>
       <c r="CQ29" t="n">
+        <v>809.95</v>
+      </c>
+      <c r="CR29" t="n">
         <v>809.95</v>
       </c>
     </row>
@@ -9308,6 +9397,9 @@
       <c r="CQ30" t="n">
         <v>809.95</v>
       </c>
+      <c r="CR30" t="n">
+        <v>809.95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9607,6 +9699,9 @@
       <c r="CQ31" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR31" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9906,6 +10001,9 @@
       <c r="CQ32" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR32" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -10205,6 +10303,9 @@
       <c r="CQ33" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR33" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -10504,6 +10605,9 @@
       <c r="CQ34" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR34" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -10799,6 +10903,9 @@
       <c r="CQ35" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR35" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11094,6 +11201,9 @@
       <c r="CQ36" t="n">
         <v>899.95</v>
       </c>
+      <c r="CR36" t="n">
+        <v>899.95</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11389,6 +11499,9 @@
       <c r="CQ37" t="n">
         <v>929.95</v>
       </c>
+      <c r="CR37" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11684,6 +11797,9 @@
       <c r="CQ38" t="n">
         <v>929.95</v>
       </c>
+      <c r="CR38" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11979,6 +12095,9 @@
       <c r="CQ39" t="n">
         <v>929.95</v>
       </c>
+      <c r="CR39" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -12274,6 +12393,9 @@
       <c r="CQ40" t="n">
         <v>929.95</v>
       </c>
+      <c r="CR40" t="n">
+        <v>929.95</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -12573,6 +12695,9 @@
       <c r="CQ41" t="n">
         <v>959.95</v>
       </c>
+      <c r="CR41" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -12868,6 +12993,9 @@
       <c r="CQ42" t="n">
         <v>959.95</v>
       </c>
+      <c r="CR42" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13163,6 +13291,9 @@
       <c r="CQ43" t="n">
         <v>959.95</v>
       </c>
+      <c r="CR43" t="n">
+        <v>959.95</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13462,6 +13593,9 @@
       <c r="CQ44" t="n">
         <v>1079.95</v>
       </c>
+      <c r="CR44" t="n">
+        <v>1079.95</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13761,6 +13895,9 @@
       <c r="CQ45" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CR45" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14056,6 +14193,9 @@
       <c r="CQ46" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CR46" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14355,6 +14495,9 @@
       <c r="CQ47" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CR47" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -14654,6 +14797,9 @@
       <c r="CQ48" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CR48" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -14953,6 +15099,9 @@
       <c r="CQ49" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CR49" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15252,6 +15401,9 @@
       <c r="CQ50" t="n">
         <v>1199.95</v>
       </c>
+      <c r="CR50" t="n">
+        <v>1199.95</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15551,6 +15703,9 @@
       <c r="CQ51" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CR51" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -15848,6 +16003,9 @@
       <c r="CQ52" t="n">
         <v>1319.95</v>
       </c>
+      <c r="CR52" t="n">
+        <v>1319.95</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -16147,6 +16305,9 @@
       <c r="CQ53" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CR53" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -16446,6 +16607,9 @@
       <c r="CQ54" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CR54" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16745,6 +16909,9 @@
       <c r="CQ55" t="n">
         <v>1469.95</v>
       </c>
+      <c r="CR55" t="n">
+        <v>1469.95</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -17